--- a/databank_englishB-copy.xlsx
+++ b/databank_englishB-copy.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -23,6 +23,7 @@
       <name val="Arial"/>
       <color theme="1"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -38,11 +39,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -319,7 +321,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -327,14 +329,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="14.43" customWidth="1" style="2" min="1" max="1"/>
-    <col width="83.14" customWidth="1" style="2" min="2" max="2"/>
-    <col width="75.70999999999999" customWidth="1" style="2" min="3" max="3"/>
-    <col width="92.86" customWidth="1" style="2" min="4" max="4"/>
-    <col width="14.43" customWidth="1" style="2" min="5" max="6"/>
+    <col width="14.43" customWidth="1" style="3" min="1" max="1"/>
+    <col width="83.14" customWidth="1" style="3" min="2" max="2"/>
+    <col width="75.70999999999999" customWidth="1" style="3" min="3" max="3"/>
+    <col width="92.86" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14.43" customWidth="1" style="3" min="5" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="2">
+    <row r="1" ht="15.75" customHeight="1" s="3">
       <c r="A1" s="1" t="n">
         <v>1</v>
       </c>
@@ -350,11 +352,14 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>the / on / and / nine / There / committee / be / . / woman / men / twelve</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" s="2">
+          <t>woman / on / and / the / nine / twelve / men / . / be / There / committee</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="3">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -370,11 +375,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>now / t / much / money / ’ / have / . / We / don</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" s="2">
+          <t>have / t / ’ / now / . / We / much / don / money</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -383,18 +391,21 @@
           <t>紙を2枚もらえますか。</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Can I have two sheets of paper?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>have / sheets / two / I / ? / paper / Can / of</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="2">
+          <t>have / Can / sheets / two / ? / I / paper / of</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="3">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
@@ -410,11 +421,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mountain / many / sheep / on / . / There / be / the</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" s="2">
+          <t>mountain / sheep / the / . / be / There / many / on</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="3">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -430,11 +444,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>with / knife / as / dangerous / such / You / t / enter / ’ / this / things / building / can / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="2">
+          <t>things / enter / this / t / You / knife / with / such / as / ’ / dangerous / building / can / .</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="3">
       <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
@@ -450,11 +467,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>We / grasses / several / of / . / juice / drink</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="2">
+          <t>We / several / drink / . / juice / of / grasses</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="3">
       <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
@@ -470,11 +490,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>? / slices / many / would / like / you / of / How / bread</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="2">
+          <t>slices / you / How / like / would / bread / many / of / ?</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="3">
       <c r="A8" s="1" t="n">
         <v>1</v>
       </c>
@@ -490,11 +513,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>salad / . / better / taste / your / corn / Some / will / make</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="2">
+          <t>taste / Some / corn / will / your / . / salad / better / make</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="3">
       <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
@@ -510,11 +536,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Information / I / . / website / from / get / the / some / useful</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="2">
+          <t>from / get / some / website / Information / useful / I / . / the</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="3">
       <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
@@ -530,11 +559,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>the / be / swim / . / in / tank / Some / fish</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="2">
+          <t>be / Some / fish / the / tank / in / . / swim</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="3">
       <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
@@ -550,11 +582,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>bottles / of / . / in / There / be / refrigerator / two / the / milk</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="2">
+          <t>. / be / milk / There / the / bottles / refrigerator / of / two / in</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="3">
       <c r="A12" s="1" t="n">
         <v>1</v>
       </c>
@@ -570,11 +605,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>you / How / money / ? / much / need / do</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="2">
+          <t>How / do / need / ? / money / much / you</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="3">
       <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
@@ -590,11 +628,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>He / advice / of / a / me / this / . / piece / give / good</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="2">
+          <t>give / . / a / of / He / good / advice / piece / this / me</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="3">
       <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
@@ -610,11 +651,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>the / He / . / author / be / book / this / of</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="2">
+          <t>this / He / book / author / the / . / of / be</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="3">
       <c r="A15" s="1" t="n">
         <v>1</v>
       </c>
@@ -630,11 +674,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>be / member / And / years / , / our / a / ago / now / a / family / small / the / . / dog / dog / . / buy / five / We / of</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="2">
+          <t>family / small / the / be / five / dog / dog / a / now / buy / , / We / our / . / a / years / ago / member / And / of / .</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="3">
       <c r="A16" s="1" t="n">
         <v>1</v>
       </c>
@@ -650,11 +697,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>U.S / . / in / the / be / history / study / He</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="2">
+          <t>He / in / . / study / the / be / history / U.S</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="3">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
@@ -670,11 +720,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>. / on / There / ground / the / snow / Watch / step / be / . / your</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" s="2">
+          <t>There / . / the / step / snow / ground / on / be / Watch / . / your</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="3">
       <c r="A18" s="1" t="n">
         <v>1</v>
       </c>
@@ -690,11 +743,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>want / day / I / a / Jobs / some / Steve / be / . / to</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" s="2">
+          <t>a / want / Jobs / . / I / to / Steve / day / be / some</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="3">
       <c r="A19" s="1" t="n">
         <v>1</v>
       </c>
@@ -710,11 +766,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>tennis / a / play / twice / My / . / week / father</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" s="2">
+          <t>father / . / a / twice / play / tennis / week / My</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="3">
       <c r="A20" s="1" t="n">
         <v>1</v>
       </c>
@@ -730,11 +789,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>by / . / be / sell / Ice / the / usually / cream / pint</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="2">
+          <t>usually / the / . / be / Ice / cream / sell / by / pint</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="3">
       <c r="A21" s="1" t="n">
         <v>1</v>
       </c>
@@ -750,11 +812,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>a / His / father / writer / and / teacher / . / be</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" s="2">
+          <t>a / teacher / . / be / father / and / writer / His</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="3">
       <c r="A22" s="1" t="n">
         <v>1</v>
       </c>
@@ -770,11 +835,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>buy / me / a / white / . / rise / and / Please / pink / a</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" s="2">
+          <t>a / white / pink / . / buy / rise / me / Please / and / a</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" s="3">
       <c r="A23" s="1" t="n">
         <v>1</v>
       </c>
@@ -790,11 +858,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>least / at / a / We / promise / make / year / meet / a / to / . / once</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" s="2">
+          <t>. / least / year / once / meet / to / make / a / a / at / We / promise</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" s="3">
       <c r="A24" s="1" t="n">
         <v>1</v>
       </c>
@@ -810,11 +881,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>he / make / have / of / it / cake / in / sugar / lot / . / a / The</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" s="2">
+          <t>cake / in / sugar / The / of / make / have / it / a / . / he / lot</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="3">
       <c r="A25" s="1" t="n">
         <v>1</v>
       </c>
@@ -830,11 +904,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The / boy / . / of / two / slices / ham / ate</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" s="2">
+          <t>of / The / . / ate / boy / ham / slices / two</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" s="3">
       <c r="A26" s="1" t="n">
         <v>1</v>
       </c>
@@ -850,11 +927,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>end / . / good / All / come / an / to / things</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1" s="2">
+          <t>All / an / end / to / come / good / . / things</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" s="3">
       <c r="A27" s="1" t="n">
         <v>1</v>
       </c>
@@ -870,11 +950,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The / River / flow / Kitakami / town / through / the / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" s="2">
+          <t>. / The / River / the / Kitakami / through / town / flow</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="3">
       <c r="A28" s="1" t="n">
         <v>1</v>
       </c>
@@ -890,31 +973,37 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>of / She / be / . / baggage / piece / a / carry / small</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1" s="2">
+          <t>a / She / of / piece / small / baggage / . / be / carry</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" s="3">
       <c r="A29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>その女の子は大きすぎるジャケットを着ていた。</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>The girl was wearing too big a jacket.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>jacket / be / big / too / a / girl / . / wear / The</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" s="2">
+          <t>. / jacket / The / wear / too / big / girl / a / be</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" s="3">
       <c r="A30" s="1" t="n">
         <v>1</v>
       </c>
@@ -930,11 +1019,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>. / the / be / size / grow / this / half / The / of / I / tomatoes / tomato</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" s="2">
+          <t>half / tomatoes / this / tomato / grow / The / the / I / be / of / size / .</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" s="3">
       <c r="A31" s="1" t="n">
         <v>1</v>
       </c>
@@ -950,11 +1042,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>dancer / . / and / attract / a / large / quite / audience / The / actor</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1" s="2">
+          <t>actor / quite / and / dancer / a / . / large / audience / attract / The</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" s="3">
       <c r="A32" s="1" t="n">
         <v>3</v>
       </c>
@@ -970,11 +1065,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>people / be / restaurant / the / few / a / in / There / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" s="2">
+          <t>people / be / restaurant / . / a / few / the / There / in</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" s="3">
       <c r="A33" s="1" t="n">
         <v>3</v>
       </c>
@@ -990,11 +1088,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>when / excite / The / begin / . / become / crowd / game / the</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" s="2">
+          <t>the / excite / . / crowd / when / game / become / The / begin</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" s="3">
       <c r="A34" s="1" t="n">
         <v>3</v>
       </c>
@@ -1010,11 +1111,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>t / so / this / s / can / stop / . / ’ / interesting / reading / It / I / ’ / . / book</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" s="2">
+          <t>interesting / s / t / so / . / . / ’ / reading / It / this / book / can / I / ’ / stop</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" s="3">
       <c r="A35" s="1" t="n">
         <v>3</v>
       </c>
@@ -1030,11 +1134,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>? / have / any / sisters / or / brothers / you / Do</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" s="2">
+          <t>have / ? / or / any / sisters / Do / brothers / you</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" s="3">
       <c r="A36" s="1" t="n">
         <v>3</v>
       </c>
@@ -1050,11 +1157,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>. / now / bicycle / have / , / buy / He / little / money / so / he / an / expensive</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" s="2">
+          <t>have / . / so / expensive / now / he / an / little / buy / He / , / bicycle / money</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" s="3">
       <c r="A37" s="1" t="n">
         <v>3</v>
       </c>
@@ -1063,18 +1173,21 @@
           <t>瀕死の鯨は奇跡的に回復しました。</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>The dying whale whale miraculously recovered.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The / . / miraculously / recover / die / whale / whale</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1" s="2">
+          <t>whale / . / die / The / whale / recover / miraculously</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" s="3">
       <c r="A38" s="1" t="n">
         <v>3</v>
       </c>
@@ -1090,11 +1203,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>to / yours / I / ’ / similar / . / a / m / dress / look / for</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="2">
+          <t>dress / look / ’ / . / a / I / to / similar / m / for / yours</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="3">
       <c r="A39" s="1" t="n">
         <v>3</v>
       </c>
@@ -1110,11 +1226,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>a / happy / . / be / She / girl</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="2">
+          <t>a / . / happy / be / She / girl</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="3">
       <c r="A40" s="1" t="n">
         <v>3</v>
       </c>
@@ -1130,11 +1249,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>to / speech / sleep / Some / his / a / people / fall / . / during / bored / begin</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="2">
+          <t>a / people / begin / sleep / Some / . / speech / to / bored / fall / his / during</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="3">
       <c r="A41" s="1" t="n">
         <v>3</v>
       </c>
@@ -1150,11 +1272,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>not / . / so / eat / have / better / You / cake / much</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1" s="2">
+          <t>. / better / so / have / eat / cake / much / You / not</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" s="3">
       <c r="A42" s="1" t="n">
         <v>3</v>
       </c>
@@ -1170,11 +1295,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>be / climber / . / the / found / really / alive / lucky / be / It</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1" s="2">
+          <t>found / be / be / . / the / climber / lucky / It / really / alive</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" s="3">
       <c r="A43" s="1" t="n">
         <v>3</v>
       </c>
@@ -1190,11 +1318,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>will / medicine / hours / few / effect / take / in / . / The / a</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="2">
+          <t>in / effect / take / a / few / The / will / hours / medicine / .</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="3">
       <c r="A44" s="1" t="n">
         <v>3</v>
       </c>
@@ -1210,11 +1341,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>have / children / he / Does / any / ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="2">
+          <t>? / any / Does / have / he / children</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="3">
       <c r="A45" s="1" t="n">
         <v>3</v>
       </c>
@@ -1230,11 +1364,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>late / quite / No / ” / , / get / I / “ / usually / . / up</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1" s="2">
+          <t>. / get / “ / , / I / late / up / usually / quite / ” / No</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" s="3">
       <c r="A46" s="1" t="n">
         <v>3</v>
       </c>
@@ -1250,11 +1387,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>every / winter / do / often / ” / in / go / “ / ski / you / ? / How</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1" s="2">
+          <t>often / go / ” / ski / winter / ? / every / “ / you / in / do / How</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" s="3">
       <c r="A47" s="1" t="n">
         <v>3</v>
       </c>
@@ -1270,11 +1410,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>” / have / hard / could / “ / work / . / I / tonight / to / Neither / . / We</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1" s="2">
+          <t>I / . / tonight / “ / We / have / hard / could / to / . / ” / Neither / work</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" s="3">
       <c r="A48" s="1" t="n">
         <v>3</v>
       </c>
@@ -1290,11 +1433,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>around / be / The / “ / sister / my / go / ” / So / flu / be / . / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1" s="2">
+          <t>“ / be / . / . / ” / be / So / around / The / my / sister / go / flu</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" s="3">
       <c r="A49" s="1" t="n">
         <v>3</v>
       </c>
@@ -1303,18 +1449,21 @@
           <t>いいえ、彼女は全く料理をしません。</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>“No, she never cooks.”</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>cook / , / “ / . / No / never / ” / she</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" s="2">
+          <t>“ / she / No / . / , / never / cook / ”</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" s="3">
       <c r="A50" s="1" t="n">
         <v>3</v>
       </c>
@@ -1330,11 +1479,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>me / quickly / ” / ’ / than / . / healthier / Don / “ / rush / t / slowly / . / Eating / eat / be</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1" s="2">
+          <t>. / ” / be / . / “ / eat / ’ / Don / quickly / rush / Eating / than / slowly / me / t / healthier</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" s="3">
       <c r="A51" s="1" t="n">
         <v>3</v>
       </c>
@@ -1343,18 +1495,21 @@
           <t>その女性は幸せな人生を送った。</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>The woman lived a happy life.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>live / a / happy / The / woman / life / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" s="2">
+          <t>. / a / live / life / woman / The / happy</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" s="3">
       <c r="A52" s="1" t="n">
         <v>3</v>
       </c>
@@ -1370,11 +1525,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>. / hard / in / work / man / the / office / That</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="2">
+          <t>in / work / That / the / hard / . / man / office</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="3">
       <c r="A53" s="1" t="n">
         <v>3</v>
       </c>
@@ -1390,11 +1548,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>My / the / well / . / guitar / very / play / uncle</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="2">
+          <t>uncle / well / . / very / guitar / play / the / My</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="3">
       <c r="A54" s="1" t="n">
         <v>3</v>
       </c>
@@ -1410,11 +1571,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>. / home / way / saw / bear / surprise / his / he / a / on / that / be / It</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1" s="2">
+          <t>be / saw / surprise / home / he / a / his / It / bear / that / way / on / .</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" s="3">
       <c r="A55" s="1" t="n">
         <v>3</v>
       </c>
@@ -1430,11 +1594,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>the / , / ’ / , / friend / I / have / to / famous / didn / My / t / actor / ’ / courage / either / didn / to / and / the / . / talk / t</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1" s="2">
+          <t>talk / , / t / have / t / actor / . / didn / My / ’ / , / I / the / either / courage / to / the / didn / friend / famous / and / ’ / to</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" s="3">
       <c r="A56" s="1" t="n">
         <v>3</v>
       </c>
@@ -1450,11 +1617,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>see / be / his / students / the / by / professor / The / . / often / theater / enter / movie / to</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1" s="2">
+          <t>see / movie / by / students / The / . / the / enter / to / his / often / professor / theater / be</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" s="3">
       <c r="A57" s="1" t="n">
         <v>3</v>
       </c>
@@ -1470,15 +1640,18 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>away / city / live / alone / far / The / the / big / . / man / from</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1" s="2">
+          <t>away / big / city / live / the / far / from / . / alone / The / man</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" s="3">
       <c r="A58" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B58" s="1" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>私はあまりたくさん肉は食べないが野菜は食べる。</t>
         </is>
@@ -1490,11 +1663,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>of / but / meat / a / I / vegetable / don / ’ / t / eat / . / eat / much / lot / I</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1" s="2">
+          <t>of / eat / I / a / meat / lot / vegetable / I / ’ / t / . / don / but / eat / much</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" s="3">
       <c r="A59" s="1" t="n">
         <v>3</v>
       </c>
@@ -1503,18 +1679,21 @@
           <t>幸運なことにそのコンサートのチケットはまだ入手可能だった。</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Luckily, the concert tickets were still available.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>available / , / Luckily / still / be / the / tickets / concert / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="2">
+          <t>the / Luckily / tickets / . / be / still / , / concert / available</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="3">
       <c r="A60" s="1" t="n">
         <v>3</v>
       </c>
@@ -1530,11 +1709,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>sorry / to / write / I / be / I / really / . / never / you</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="2">
+          <t>really / to / I / never / I / sorry / be / you / . / write</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="3">
       <c r="A61" s="1" t="n">
         <v>3</v>
       </c>
@@ -1550,11 +1732,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>sometimes / in / his / him / Only / . / visit / sister / hospital / the</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1" s="2">
+          <t>visit / his / the / sometimes / sister / hospital / Only / in / him / .</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1" s="3">
       <c r="A62" s="1" t="n">
         <v>3</v>
       </c>
@@ -1570,11 +1755,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>very / , / . / something / the / with / Apparently / be / car / wrong</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="2">
+          <t>the / with / very / Apparently / , / be / wrong / car / something / .</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="3">
       <c r="A63" s="1" t="n">
         <v>3</v>
       </c>
@@ -1590,11 +1778,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Unfortunately / train / miss / , / last / walk / have / he / to / and / home / the / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="2">
+          <t>train / last / . / he / have / Unfortunately / walk / and / , / miss / home / the / to</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="3">
       <c r="A64" s="1" t="n">
         <v>3</v>
       </c>
@@ -1603,18 +1794,21 @@
           <t>私はその事柄に関してはあまり知識がない。</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>I don’t have much knowledge of the subject.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>t / I / have / much / . / knowledge / ’ / don / the / subject / of</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="2">
+          <t>I / don / subject / . / much / ’ / t / of / knowledge / the / have</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="3">
       <c r="A65" s="1" t="n">
         <v>4</v>
       </c>
@@ -1630,11 +1824,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Which / , / ones / the / green / , / orange / ? / ones / or / gloves / the / your / be</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="2">
+          <t>gloves / the / ? / your / orange / ones / the / Which / be / , / , / or / green / ones</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="3">
       <c r="A66" s="1" t="n">
         <v>4</v>
       </c>
@@ -1650,11 +1847,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>. / new / bicycle / buy / , / my / t / a / me / I / but / ’ / one / win / want / father</t>
-        </is>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1" s="2">
+          <t>buy / father / new / I / t / . / but / ’ / , / bicycle / one / want / my / a / win / me</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1" s="3">
       <c r="A67" s="1" t="n">
         <v>4</v>
       </c>
@@ -1670,11 +1870,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>and / . / sit / talk / All / to / down / other / begin / the / to / each / students</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1" s="2">
+          <t>. / down / and / to / other / students / talk / begin / the / to / All / sit / each</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1" s="3">
       <c r="A68" s="1" t="n">
         <v>4</v>
       </c>
@@ -1690,11 +1893,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>or / to / to / know / ’ / t / didn / where / I / . / what / go / do</t>
-        </is>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1" s="2">
+          <t>’ / didn / I / or / t / know / do / to / what / go / where / . / to</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1" s="3">
       <c r="A69" s="1" t="n">
         <v>4</v>
       </c>
@@ -1710,11 +1916,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>, / they / old / run / friend / have / across / tea / an / together / . / some / and / She</t>
-        </is>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1" s="2">
+          <t>She / run / an / together / friend / tea / they / . / across / , / and / old / some / have</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1" s="3">
       <c r="A70" s="1" t="n">
         <v>4</v>
       </c>
@@ -1730,11 +1939,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>man / . / the / They / and / ask / to / clearly / speak / slowly</t>
-        </is>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1" s="2">
+          <t>They / man / clearly / slowly / the / and / ask / to / speak / .</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1" s="3">
       <c r="A71" s="1" t="n">
         <v>4</v>
       </c>
@@ -1750,11 +1962,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>bother / Stop / cat / the / or / scratch / it / will / , / . / you</t>
-        </is>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1" s="2">
+          <t>or / you / cat / , / it / the / bother / scratch / Stop / will / .</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1" s="3">
       <c r="A72" s="1" t="n">
         <v>4</v>
       </c>
@@ -1770,11 +1985,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>home / say / ? / be / that / come / she / she / Did / soon</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1" s="2">
+          <t>? / soon / say / she / be / that / come / home / she / Did</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1" s="3">
       <c r="A73" s="1" t="n">
         <v>4</v>
       </c>
@@ -1790,11 +2008,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>meeting / tomorrow / or / be / must / sure / not / make / the / to / . / be / go / hold / whether / We</t>
-        </is>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1" s="2">
+          <t>the / tomorrow / go / to / We / must / not / make / hold / whether / meeting / be / sure / . / or / be</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1" s="3">
       <c r="A74" s="1" t="n">
         <v>4</v>
       </c>
@@ -1810,11 +2031,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>he / you / the / whether / ? / game / Do / win / know</t>
-        </is>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1" s="2">
+          <t>he / you / ? / win / Do / the / whether / game / know</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1" s="3">
       <c r="A75" s="1" t="n">
         <v>4</v>
       </c>
@@ -1823,38 +2047,44 @@
           <t>メアリーがその知らせを聞いて喜ぶのは間違いない。</t>
         </is>
       </c>
-      <c r="C75" s="1" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>I don’t doubt that Mary will be happy to hear the news.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>I / the / ’ / . / doubt / happy / that / news / don / to / t / Mary / will / hear / be</t>
-        </is>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1" s="2">
+          <t>news / t / don / be / Mary / ’ / to / I / will / hear / happy / that / doubt / the / .</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1" s="3">
       <c r="A76" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B76" s="1" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>田中先生が賛成がどうかは大きな問題だ。</t>
         </is>
       </c>
-      <c r="C76" s="1" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>Whether Mr.Tanaka agrees or not is a big problem.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>agree / a / Whether / not / Mr.Tanaka / . / be / problem / or / big</t>
-        </is>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1" s="2">
+          <t>not / be / a / or / problem / big / . / Mr.Tanaka / agree / Whether</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1" s="3">
       <c r="A77" s="1" t="n">
         <v>4</v>
       </c>
@@ -1870,11 +2100,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>. / because / sick / look / friend / She / very / be / worried / her</t>
-        </is>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1" s="2">
+          <t>look / worried / She / because / be / very / . / sick / friend / her</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1" s="3">
       <c r="A78" s="1" t="n">
         <v>4</v>
       </c>
@@ -1890,11 +2123,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>in / while / my / I / be / lose / the / . / store / I / shop / wallet</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1" s="2">
+          <t>while / my / lose / wallet / shop / store / I / . / I / the / be / in</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1" s="3">
       <c r="A79" s="1" t="n">
         <v>4</v>
       </c>
@@ -1910,11 +2146,14 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>before / Didn / lunch / hands / ? / wash / ’ / you / t / you / your / eat</t>
-        </is>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1" s="2">
+          <t>before / Didn / you / t / eat / your / you / hands / ’ / ? / lunch / wash</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1" s="3">
       <c r="A80" s="1" t="n">
         <v>4</v>
       </c>
@@ -1923,18 +2162,21 @@
           <t>あなたはこの街に住んでいない限りこの施設を使えません。</t>
         </is>
       </c>
-      <c r="C80" s="1" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>You can’t use this facility unless you live in this city.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>. / t / unless / in / live / You / city / this / this / ’ / you / can / facility / use</t>
-        </is>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1" s="2">
+          <t>city / you / this / facility / this / can / use / . / t / unless / You / in / ’ / live</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1" s="3">
       <c r="A81" s="1" t="n">
         <v>4</v>
       </c>
@@ -1950,11 +2192,14 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>tomorrow / go / t / ’ / it / isn / . / ’ / rainy / s / Let / swim / if</t>
-        </is>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1" s="2">
+          <t>rainy / it / if / swim / t / . / tomorrow / s / isn / go / Let / ’ / ’</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1" s="3">
       <c r="A82" s="1" t="n">
         <v>4</v>
       </c>
@@ -1970,11 +2215,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>We / arrive / in / that / so / home / time / we / for / could / dinner / hurry / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1" s="2">
+          <t>hurry / for / time / we / in / . / so / home / dinner / could / arrive / We / that</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1" s="3">
       <c r="A83" s="1" t="n">
         <v>4</v>
       </c>
@@ -1990,11 +2238,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>but / plants / Not / be / many / endanger / only / also / animals / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1" s="2">
+          <t>but / plants / be / many / only / also / endanger / Not / animals / .</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1" s="3">
       <c r="A84" s="1" t="n">
         <v>4</v>
       </c>
@@ -2003,18 +2254,21 @@
           <t>その人形の家はとても家はとても精巧だったので触ることができなかった。</t>
         </is>
       </c>
-      <c r="C84" s="1" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>The doll house was so delicate that we couldn’t touch it.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>house / t / ’ / that / so / we / touch / . / couldn / The / it / be / delicate / doll</t>
-        </is>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1" s="2">
+          <t>t / it / The / be / we / delicate / doll / house / ’ / so / touch / . / that / couldn</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1" s="3">
       <c r="A85" s="1" t="n">
         <v>4</v>
       </c>
@@ -2030,11 +2284,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>my / father / mother / my / be / but / . / dinner / make / Not / tonight</t>
-        </is>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1" s="2">
+          <t>dinner / Not / mother / . / be / but / my / make / my / tonight / father</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1" s="3">
       <c r="A86" s="1" t="n">
         <v>4</v>
       </c>
@@ -2050,11 +2307,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>dog / make / sound / that / up / , / . / t / wake / will / or / you / Don / a / ’</t>
-        </is>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1" s="2">
+          <t>you / , / up / t / Don / wake / or / make / sound / . / ’ / will / dog / a / that</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1" s="3">
       <c r="A87" s="1" t="n">
         <v>4</v>
       </c>
@@ -2070,11 +2330,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>a / will / If / sound / . / make / you / , / wake / up / that / you / dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1" s="2">
+          <t>. / will / a / make / wake / dog / up / you / you / that / sound / , / If</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1" s="3">
       <c r="A88" s="1" t="n">
         <v>4</v>
       </c>
@@ -2090,11 +2353,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ken / make / on / to / want / the / Mike / Not / class / speech / but / only / a / behalf / of / also / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1" s="2">
+          <t>only / of / speech / the / to / also / Not / on / class / Ken / Mike / behalf / a / make / want / but / .</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1" s="3">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>和訳確認</t>
@@ -2108,11 +2374,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>. / Mike / want / well / of / on / to / as / class / make / speech / Ken / a / the / as / behalf</t>
-        </is>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1" s="2">
+          <t>as / speech / on / of / make / a / behalf / well / . / Mike / want / as / class / to / Ken / the</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1" s="3">
       <c r="A90" s="1" t="n">
         <v>4</v>
       </c>
@@ -2128,11 +2397,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>promise / it / t / ’ / a / you / tell / don / t / to / win / . / if / it / keep / I / secret / you / to / ’</t>
-        </is>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1" s="2">
+          <t>promise / t / tell / win / to / it / keep / to / ’ / don / I / secret / ’ / t / it / . / you / you / if / a</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1" s="3">
       <c r="A91" s="1" t="n">
         <v>4</v>
       </c>
@@ -2141,18 +2413,21 @@
           <t>天井は私が電球を変えるのに高すぎた。</t>
         </is>
       </c>
-      <c r="C91" s="1" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>The ceiling was too high for me to change the light bulbs.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>too / ceiling / change / The / to / bulbs / for / me / . / the / high / light / be</t>
-        </is>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1" s="2">
+          <t>too / the / change / ceiling / me / to / light / high / for / The / be / . / bulbs</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1" s="3">
       <c r="A92" s="1" t="n">
         <v>4</v>
       </c>
@@ -2168,11 +2443,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>the / couldn / high / I / change / bulbs / t / light / The / ’ / that / so / be / ceiling / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1" s="2">
+          <t>bulbs / ceiling / the / The / . / so / be / change / couldn / high / light / I / ’ / that / t</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1" s="3">
       <c r="A93" s="1" t="n">
         <v>4</v>
       </c>
@@ -2188,11 +2466,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>’ / or / train / t / there / get / . / win / , / Get / noon / on / by / you / this</t>
-        </is>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1" s="2">
+          <t>noon / train / this / or / there / ’ / on / , / by / t / get / you / win / Get / .</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1" s="3">
       <c r="A94" s="1" t="n">
         <v>4</v>
       </c>
@@ -2201,18 +2482,21 @@
           <t>あなたはこの電車に乗らない限り正午までにそこにつかないだろう。</t>
         </is>
       </c>
-      <c r="C94" s="1" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Get on this train, and you will get there by noon.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>will / on / noon / by / this / get / you / and / , / Get / there / train / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1" s="2">
+          <t>and / Get / , / this / by / . / on / you / will / get / there / train / noon</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1" s="3">
       <c r="A95" s="1" t="n">
         <v>4</v>
       </c>
@@ -2228,11 +2512,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>game / even / soccer / should / . / s / watch / tonight / if / you / in / t / ’ / ’ / aren / interested / You</t>
-        </is>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1" s="2">
+          <t>in / even / tonight / . / interested / ’ / t / soccer / if / should / aren / game / s / ’ / you / You / watch</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1" s="3">
       <c r="A96" s="1" t="n">
         <v>4</v>
       </c>
@@ -2248,11 +2535,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>curry / it / that / t / of / so / hot / be / can / all / . / I / ’ / This / eat</t>
-        </is>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1" s="2">
+          <t>so / . / that / all / ’ / curry / eat / I / of / t / it / This / hot / can / be</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1" s="3">
       <c r="A97" s="1" t="n">
         <v>4</v>
       </c>
@@ -2268,11 +2558,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>to / be / Everybody / accept / want / they / as / be / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1" s="2">
+          <t>Everybody / they / to / be / accept / . / want / be / as</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1" s="3">
       <c r="A98" s="1" t="n">
         <v>5</v>
       </c>
@@ -2288,11 +2581,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>. / for / Sapporo / brother / on / My / 10th / leave / August</t>
-        </is>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1" s="2">
+          <t>. / Sapporo / August / My / brother / for / 10th / leave / on</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1" s="3">
       <c r="A99" s="1" t="n">
         <v>5</v>
       </c>
@@ -2301,18 +2597,21 @@
           <t>その飛行機は雲よりも上を飛んでいるようだ。</t>
         </is>
       </c>
-      <c r="C99" s="1" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>The plane seems to be flying over the clouds.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>The / be / fly / the / to / plane / over / seem / . / clouds</t>
-        </is>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1" s="2">
+          <t>the / The / be / seem / fly / . / clouds / to / plane / over</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1" s="3">
       <c r="A100" s="1" t="n">
         <v>5</v>
       </c>
@@ -2328,11 +2627,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>a / the / secret / us / be / . / of / five / That / among</t>
-        </is>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1" s="2">
+          <t>the / . / secret / of / be / That / a / five / among / us</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1" s="3">
       <c r="A101" s="1" t="n">
         <v>5</v>
       </c>
@@ -2348,11 +2650,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>do / have / you / anything / after / ? / the / Do / to / concert</t>
-        </is>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1" s="2">
+          <t>Do / to / after / anything / the / have / do / concert / you / ?</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1" s="3">
       <c r="A102" s="1" t="n">
         <v>5</v>
       </c>
@@ -2368,11 +2673,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>the / station / meet / s / Let / . / at / ’</t>
-        </is>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1" s="2">
+          <t>the / meet / s / ’ / Let / . / station / at</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1" s="3">
       <c r="A103" s="1" t="n">
         <v>5</v>
       </c>
@@ -2388,11 +2696,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>be / . / to / against / hard / the / It / stream / swim</t>
-        </is>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1" s="2">
+          <t>It / stream / to / against / the / hard / be / swim / .</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1" s="3">
       <c r="A104" s="1" t="n">
         <v>5</v>
       </c>
@@ -2408,11 +2719,14 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>girl / be / her / little / between / sit / The / parents / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1" s="2">
+          <t>between / . / parents / The / her / sit / be / girl / little</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1" s="3">
       <c r="A105" s="1" t="n">
         <v>5</v>
       </c>
@@ -2428,11 +2742,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>get / I / except / day / school / o / every / Sunday / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1" s="2">
+          <t>get / Sunday / except / o / . / day / I / every / school</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1" s="3">
       <c r="A106" s="1" t="n">
         <v>5</v>
       </c>
@@ -2441,18 +2758,21 @@
           <t>いい日ですね。公園を通って歩きましょう。</t>
         </is>
       </c>
-      <c r="C106" s="1" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>It’s a nice day Let’s walk through the park.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>’ / s / nice / . / through / Let / a / It / walk / the / park / s / day / ’</t>
-        </is>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1" s="2">
+          <t>s / walk / nice / s / It / . / ’ / ’ / Let / park / through / the / day / a</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1" s="3">
       <c r="A107" s="1" t="n">
         <v>5</v>
       </c>
@@ -2468,11 +2788,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>there / a / tall / sit / couldn / well / see / stage / me / man / the / front / I / . / t / of / be / ’ / in / because</t>
-        </is>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1" s="2">
+          <t>in / because / the / tall / ’ / be / well / a / couldn / . / front / see / man / sit / stage / of / t / me / I / there</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1" s="3">
       <c r="A108" s="1" t="n">
         <v>5</v>
       </c>
@@ -2488,11 +2811,14 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>this / of / must / work / finish / You / the / end / month / by / . / this</t>
-        </is>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1" s="2">
+          <t>this / this / . / the / You / finish / of / work / month / end / must / by</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1" s="3">
       <c r="A109" s="1" t="n">
         <v>5</v>
       </c>
@@ -2508,11 +2834,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>you / your / India / to / about / me / Will / trip / more / tell / ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1" s="2">
+          <t>tell / ? / about / Will / India / more / your / you / me / to / trip</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1" s="3">
       <c r="A110" s="1" t="n">
         <v>5</v>
       </c>
@@ -2528,11 +2857,14 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>. / Many / come / train / by / to / students / school</t>
-        </is>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1" s="2">
+          <t>Many / to / by / come / students / train / school / .</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1" s="3">
       <c r="A111" s="1" t="n">
         <v>5</v>
       </c>
@@ -2548,11 +2880,14 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>makeup / without / . / mother / a / mirror / can / her / not / My / put / on</t>
-        </is>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1" s="2">
+          <t>mother / a / . / My / mirror / can / makeup / not / on / her / without / put</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1" s="3">
       <c r="A112" s="1" t="n">
         <v>5</v>
       </c>
@@ -2568,11 +2903,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>year / in / War / end / 1915 / World / II / the / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1" s="2">
+          <t>1915 / World / . / War / the / II / end / in / year</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1" s="3">
       <c r="A113" s="1" t="n">
         <v>5</v>
       </c>
@@ -2588,11 +2926,14 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>poor / for / to / do / want / develop / volunteer / people / I / in / work / . / countries</t>
-        </is>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1" s="2">
+          <t>for / do / people / in / to / develop / want / work / poor / volunteer / countries / I / .</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1" s="3">
       <c r="A114" s="1" t="n">
         <v>5</v>
       </c>
@@ -2608,11 +2949,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>make / watch / mother / My / ’ / in / in / s / . / Switzerland</t>
-        </is>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1" s="2">
+          <t>mother / My / ’ / . / in / in / s / watch / make / Switzerland</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1" s="3">
       <c r="A115" s="1" t="n">
         <v>5</v>
       </c>
@@ -2628,13 +2972,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>make / bag / ? / of / be / that / What</t>
-        </is>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1" s="2">
+          <t>What / ? / make / be / of / bag / that</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1" s="3">
       <c r="A116" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B116" s="1" t="inlineStr">
         <is>
@@ -2648,15 +2995,18 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>. / make / be / into / many / things / Petroleum</t>
-        </is>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1" s="2">
+          <t>many / Petroleum / into / . / things / make / be</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1" s="3">
       <c r="A117" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B117" s="1" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>紙が植物から作られるなんて信じられない。</t>
         </is>
@@ -2668,13 +3018,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>believe / paper / ’ / can / be / make / plants / from / that / . / I / t</t>
-        </is>
-      </c>
-    </row>
-    <row r="118" ht="15.75" customHeight="1" s="2">
+          <t>make / plants / that / believe / paper / from / . / can / t / I / be / ’</t>
+        </is>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1" s="3">
       <c r="A118" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B118" s="1" t="inlineStr">
         <is>
@@ -2688,13 +3041,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>the / race / of / s / ’ / the / to / mountain / top / . / Let</t>
-        </is>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1" s="2">
+          <t>mountain / the / top / to / s / of / race / . / the / Let / ’</t>
+        </is>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1" s="3">
       <c r="A119" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B119" s="1" t="inlineStr">
         <is>
@@ -2708,13 +3064,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>What / cheese / the / I / cut / be / go / to / ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1" s="2">
+          <t>to / ? / go / cut / be / I / What / cheese / the</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1" s="3">
       <c r="A120" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B120" s="1" t="inlineStr">
         <is>
@@ -2728,13 +3087,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>dress / of / black / women / be / All / in / .</t>
-        </is>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1" s="2">
+          <t>. / of / be / dress / women / All / in / black</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1" s="3">
       <c r="A121" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B121" s="1" t="inlineStr">
         <is>
@@ -2748,13 +3110,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>enter / the / ’ / until / can / clock / We / o / park / . / nine / not</t>
-        </is>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1" s="2">
+          <t>clock / enter / o / We / not / . / the / until / can / nine / park / ’</t>
+        </is>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1" s="3">
       <c r="A122" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B122" s="1" t="inlineStr">
         <is>
@@ -2768,13 +3133,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>. / the / The / birds / over / be / mountains / fly</t>
-        </is>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1" s="2">
+          <t>the / fly / over / be / . / mountains / birds / The</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1" s="3">
       <c r="A123" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B123" s="1" t="inlineStr">
         <is>
@@ -2788,13 +3156,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>t / rain / want / be / building / to / hard / go / . / . / ’ / don / I / of / It / out / the</t>
-        </is>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1" s="2">
+          <t>t / ’ / hard / the / want / don / rain / building / I / . / to / It / . / be / go / out / of</t>
+        </is>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1" s="3">
       <c r="A124" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B124" s="1" t="inlineStr">
         <is>
@@ -2808,13 +3179,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>behind / look / from / their / . / They / the / door / at / be / newcomers</t>
-        </is>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1" s="2">
+          <t>. / newcomers / from / They / look / at / be / the / behind / door / their</t>
+        </is>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1" s="3">
       <c r="A125" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B125" s="1" t="inlineStr">
         <is>
@@ -2828,13 +3202,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>children / jump / . / and / river / the / start / run / into / The</t>
-        </is>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1" s="2">
+          <t>and / into / the / The / children / river / . / jump / run / start</t>
+        </is>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1" s="3">
       <c r="A126" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B126" s="1" t="inlineStr">
         <is>
@@ -2848,13 +3225,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>’ / will / . / this / Let / s / like / nothing / happen / hope / again</t>
-        </is>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1" s="2">
-      <c r="A127" s="1" t="n">
-        <v>6</v>
+          <t>will / again / s / happen / nothing / ’ / this / . / Let / like / hope</t>
+        </is>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1" s="3">
+      <c r="A127" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B127" s="1" t="inlineStr">
         <is>
@@ -2868,13 +3248,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>do / What / do / you / ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1" s="2">
-      <c r="A128" s="1" t="n">
-        <v>6</v>
+          <t>do / you / do / ? / What</t>
+        </is>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1" s="3">
+      <c r="A128" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B128" s="1" t="inlineStr">
         <is>
@@ -2888,13 +3271,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Which / mineral / you / water / , / would / like / or / ? / tea</t>
-        </is>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1" s="2">
-      <c r="A129" s="1" t="n">
-        <v>6</v>
+          <t>or / Which / like / ? / water / , / would / mineral / tea / you</t>
+        </is>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1" s="3">
+      <c r="A129" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B129" s="1" t="inlineStr">
         <is>
@@ -2908,33 +3294,39 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>How / ? / you / to / go / work / do</t>
-        </is>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1" s="2">
-      <c r="A130" s="1" t="n">
-        <v>6</v>
+          <t>do / you / ? / to / work / How / go</t>
+        </is>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1" s="3">
+      <c r="A130" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B130" s="1" t="inlineStr">
         <is>
           <t>あなたの誕生日はいつですか。</t>
         </is>
       </c>
-      <c r="C130" s="1" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>When is your birthday?</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>your / birthday / ? / When / be</t>
-        </is>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1" s="2">
-      <c r="A131" s="1" t="n">
-        <v>6</v>
+          <t>birthday / your / be / ? / When</t>
+        </is>
+      </c>
+      <c r="E130" s="1" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1" s="3">
+      <c r="A131" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B131" s="1" t="inlineStr">
         <is>
@@ -2948,13 +3340,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>. / ’ / phone / didn / last / answer / my / you / night / Why / t</t>
-        </is>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1" s="2">
-      <c r="A132" s="1" t="n">
-        <v>6</v>
+          <t>you / answer / t / ’ / Why / my / phone / night / last / didn / .</t>
+        </is>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1" s="3">
+      <c r="A132" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B132" s="1" t="inlineStr">
         <is>
@@ -2968,13 +3363,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>do / What / ? / time / bus / the / next / come</t>
-        </is>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1" s="2">
-      <c r="A133" s="1" t="n">
-        <v>6</v>
+          <t>do / bus / ? / time / come / What / the / next</t>
+        </is>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1" s="3">
+      <c r="A133" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B133" s="1" t="inlineStr">
         <is>
@@ -2988,13 +3386,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>stay / do / New / he / ? / How / York / in / long</t>
-        </is>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1" s="2">
-      <c r="A134" s="1" t="n">
-        <v>6</v>
+          <t>in / stay / he / York / New / How / ? / long / do</t>
+        </is>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1" s="3">
+      <c r="A134" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B134" s="1" t="inlineStr">
         <is>
@@ -3008,13 +3409,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>man / ? / do / go / Which / the / way</t>
-        </is>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1" s="2">
-      <c r="A135" s="1" t="n">
-        <v>6</v>
+          <t>? / man / go / way / do / Which / the</t>
+        </is>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1" s="3">
+      <c r="A135" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B135" s="1" t="inlineStr">
         <is>
@@ -3028,13 +3432,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>be / ? / Where / we / now</t>
-        </is>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1" s="2">
-      <c r="A136" s="1" t="n">
-        <v>6</v>
+          <t>we / Where / ? / now / be</t>
+        </is>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1" s="3">
+      <c r="A136" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B136" s="1" t="inlineStr">
         <is>
@@ -3048,13 +3455,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>? / Jane / at / you / station / the / t / meet / ’ / Didn</t>
-        </is>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1" s="2">
-      <c r="A137" s="1" t="n">
-        <v>6</v>
+          <t>station / at / t / Didn / the / ’ / Jane / meet / ? / you</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1" s="3">
+      <c r="A137" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B137" s="1" t="inlineStr">
         <is>
@@ -3068,13 +3478,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>in / he / be / ’ / bear / He / Japan / , / t / wasn / ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1" s="2">
-      <c r="A138" s="1" t="n">
-        <v>6</v>
+          <t>? / He / wasn / be / he / Japan / , / t / bear / in / ’</t>
+        </is>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1" s="3">
+      <c r="A138" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B138" s="1" t="inlineStr">
         <is>
@@ -3088,13 +3501,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>much / time / you / . / ? / How / ’ / have / about / don / I / t</t>
-        </is>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1" s="2">
-      <c r="A139" s="1" t="n">
-        <v>6</v>
+          <t>have / How / ’ / you / don / much / about / t / time / . / I / ?</t>
+        </is>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1" s="3">
+      <c r="A139" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B139" s="1" t="inlineStr">
         <is>
@@ -3108,13 +3524,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>What / math / the / new / like / teacher / be / ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1" s="2">
-      <c r="A140" s="1" t="n">
-        <v>6</v>
+          <t>like / teacher / What / the / ? / be / new / math</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1" s="3">
+      <c r="A140" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B140" s="1" t="inlineStr">
         <is>
@@ -3128,1592 +3547,1731 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>about / her / it / phone / on / ask / don / t / ’ / Why / you / ? / the</t>
-        </is>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1" s="2">
-      <c r="A141" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B141" s="1" t="inlineStr">
+          <t>her / it / ’ / ask / about / you / ? / the / on / phone / Why / don / t</t>
+        </is>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1" s="3">
+      <c r="A141" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>マキとダイナは親友ですよね。</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Maki and Dina are good friend aren’t they?</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>and / they / ’ / good / t / ? / aren / friend / Maki / be / Dina</t>
+        </is>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1" s="3">
+      <c r="A142" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>彼はなんの本を探していましたか。</t>
         </is>
       </c>
-      <c r="C141" s="1" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>How did he find the book?</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>do / book / he / the / ? / How / find</t>
-        </is>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1" s="2">
-      <c r="A142" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B142" s="1" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>How / do / ? / find / he / book / the</t>
+        </is>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1" s="3">
+      <c r="A143" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>なぜ彼らはこの歌が好きなのですか。</t>
         </is>
       </c>
-      <c r="C142" s="1" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>Why do they like this song?</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>this / song / ? / like / they / Why / do</t>
-        </is>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1" s="2">
-      <c r="A143" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B143" s="1" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>they / ? / like / Why / do / this / song</t>
+        </is>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1" s="3">
+      <c r="A144" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>私はこれらのかごがどこで作られているのか知りたいです。</t>
         </is>
       </c>
-      <c r="C143" s="1" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>I want to know where these baskets were made?</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>where / make / these / baskets / want / to / I / ? / be / know</t>
-        </is>
-      </c>
-    </row>
-    <row r="144" ht="15.75" customHeight="1" s="2">
-      <c r="A144" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B144" s="1" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>where / be / ? / to / want / I / baskets / know / these / make</t>
+        </is>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1" s="3">
+      <c r="A145" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>横浜へのチケットがいくらか私に教えていただけませんか。</t>
         </is>
       </c>
-      <c r="C144" s="1" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>Please tell me how much the ticket to Yokohama is?</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>to / be / Yokohama / ticket / how / much / me / tell / the / Please / ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1" s="2">
-      <c r="A145" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B145" s="1" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>how / Yokohama / ticket / much / to / ? / tell / the / me / be / Please</t>
+        </is>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1" s="3">
+      <c r="A146" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>彼らの制服は何色ですか？深緑色です。</t>
         </is>
       </c>
-      <c r="C145" s="1" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>What color is their uniform? Dark green.</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>green / their / color / . / uniform / Dark / ? / be / What</t>
-        </is>
-      </c>
-    </row>
-    <row r="146" ht="15.75" customHeight="1" s="2">
-      <c r="A146" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B146" s="1" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>. / be / What / their / ? / green / uniform / Dark / color</t>
+        </is>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1" s="3">
+      <c r="A147" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>ここから博物館まで歩くとどれくらいかかりますか？約１０分かかります。</t>
         </is>
       </c>
-      <c r="C146" s="1" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
         <is>
           <t>How long does it take from here to the museum on foot? About 10 minutes.</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>10 / About / . / How / take / it / from / to / minutes / the / long / do / here / on / ? / foot / museum</t>
-        </is>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1" s="2">
-      <c r="A147" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B147" s="1" t="inlineStr">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>take / to / About / it / here / from / How / minutes / foot / . / 10 / ? / on / museum / the / long / do</t>
+        </is>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1" s="3">
+      <c r="A148" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>誰がその問題を解決しましたか。誰にもできなかった。</t>
         </is>
       </c>
-      <c r="C147" s="1" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
         <is>
           <t>Who solved the problem? Nobody was able to.</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>? / able / Who / problem / solve / . / to / be / the / Nobody</t>
-        </is>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1" s="2">
-      <c r="A148" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B148" s="1" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>? / be / to / the / . / Who / solve / problem / Nobody / able</t>
+        </is>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1" s="3">
+      <c r="A149" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>次の土曜日に映画を見にいくのはどうですか。そうしよう。</t>
         </is>
       </c>
-      <c r="C148" s="1" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>How about going to the movies next Saturday? Why not?</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>? / movies / ? / to / about / next / Saturday / How / the / not / go / Why</t>
-        </is>
-      </c>
-    </row>
-    <row r="149" ht="15.75" customHeight="1" s="2">
-      <c r="A149" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B149" s="1" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>movies / about / ? / go / ? / to / next / Saturday / not / How / Why / the</t>
+        </is>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1" s="3">
+      <c r="A150" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>なぜあなたはそんなに悲しんでいるの。私の1番の友人が他の街に引っ越すからです。</t>
         </is>
       </c>
-      <c r="C149" s="1" t="inlineStr">
+      <c r="C150" s="2" t="inlineStr">
         <is>
           <t>Why are you so sad? My best friend is moving to another town.</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>friend / sad / Why / town / best / to / move / . / My / you / be / so / ? / another / be</t>
-        </is>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1" s="2">
-      <c r="A150" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B150" s="1" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>? / another / My / to / sad / move / be / Why / so / be / . / town / you / friend / best</t>
+        </is>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1" s="3">
+      <c r="A151" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>彼らの新しい家はどのような家ですか。</t>
         </is>
       </c>
-      <c r="C150" s="1" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>What is their new house like?</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>? / new / What / house / like / their / be</t>
-        </is>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1" s="2">
-      <c r="A151" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B151" s="1" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>new / ? / house / be / their / like / What</t>
+        </is>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1" s="3">
+      <c r="A152" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>なぜジャックはこのチームでプレーしていないのですか。</t>
         </is>
       </c>
-      <c r="C151" s="1" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>Why isn’t Jack playing on this team?</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>? / Why / playing / on / Jack / this / t / isn / ’ / team</t>
-        </is>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1" s="2">
-      <c r="A152" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B152" s="1" t="inlineStr">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>’ / this / team / ? / on / playing / isn / Why / Jack / t</t>
+        </is>
+      </c>
+      <c r="E152" s="1" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1" s="3">
+      <c r="A153" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>会議は１０時まで始まらないのですね。</t>
         </is>
       </c>
-      <c r="C152" s="1" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>The meeting does start until 10 o’clock, doesn’t it?</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>meeting / until / ’ / t / doesn / start / ? / , / do / ’ / o / The / 10 / clock / it</t>
-        </is>
-      </c>
-    </row>
-    <row r="153" ht="15.75" customHeight="1" s="2">
-      <c r="A153" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B153" s="1" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>it / t / , / start / doesn / ’ / clock / o / do / ? / meeting / ’ / until / 10 / The</t>
+        </is>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1" s="3">
+      <c r="A154" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>ボブと直美をバーベキューに誘いませんか。</t>
         </is>
       </c>
-      <c r="C153" s="1" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>Why don’t we invite Bob and Naomi to the barbecue?</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Naomi / invite / don / ? / and / barbecue / ’ / the / Bob / Why / t / to / we</t>
-        </is>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1" s="2">
-      <c r="A154" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B154" s="1" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>to / t / Why / Bob / ’ / we / barbecue / Naomi / don / ? / invite / and / the</t>
+        </is>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1" s="3">
+      <c r="A155" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>ドアを押さえていてくれませんか。</t>
         </is>
       </c>
-      <c r="C154" s="1" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>Hold the door for me, will you?</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>door / , / me / for / the / you / ? / will / Hold</t>
-        </is>
-      </c>
-    </row>
-    <row r="155" ht="15.75" customHeight="1" s="2">
-      <c r="A155" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B155" s="1" t="inlineStr">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>door / ? / for / Hold / , / will / you / me / the</t>
+        </is>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1" s="3">
+      <c r="A156" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
         <is>
           <t>彼はどこの出身だと思いますか。</t>
         </is>
       </c>
-      <c r="C155" s="1" t="inlineStr">
+      <c r="C156" s="2" t="inlineStr">
         <is>
           <t>Where do you think he comes from?</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>think / he / from / ? / you / Where / do / come</t>
-        </is>
-      </c>
-    </row>
-    <row r="156" ht="15.75" customHeight="1" s="2">
-      <c r="A156" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B156" s="1" t="inlineStr">
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>come / from / do / he / think / Where / you / ?</t>
+        </is>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1" s="3">
+      <c r="A157" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>私は彼が試合に来るものと思っていました。</t>
         </is>
       </c>
-      <c r="C156" s="1" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>I thought he would come to the game.</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>would / I / think / to / game / he / the / . / come</t>
-        </is>
-      </c>
-    </row>
-    <row r="157" ht="15.75" customHeight="1" s="2">
-      <c r="A157" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B157" s="1" t="inlineStr">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>the / . / to / game / think / I / come / he / would</t>
+        </is>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1" s="3">
+      <c r="A158" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>あなたはその自転車が私のものだということを知ってましたか。</t>
         </is>
       </c>
-      <c r="C157" s="1" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Did you know that the bicycle was mine?</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>the / know / Did / bicycle / that / you / be / mine / ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1" s="2">
-      <c r="A158" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B158" s="1" t="inlineStr">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>you / mine / know / ? / the / that / bicycle / be / Did</t>
+        </is>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1" s="3">
+      <c r="A159" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>私たちはその本が倒れていたことを知った。</t>
         </is>
       </c>
-      <c r="C158" s="1" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>We found out that the tree had fallen down.</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>that / out / found / the / fall / . / down / tree / We / have</t>
-        </is>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1" s="2">
-      <c r="A159" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B159" s="1" t="inlineStr">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>found / tree / that / the / fall / out / down / We / . / have</t>
+        </is>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1" s="3">
+      <c r="A160" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>自分は日本の会社で働いているとジョンは言った。</t>
         </is>
       </c>
-      <c r="C159" s="1" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>John said that he worked for a Japanese company.</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>that / work / a / company / Japanese / John / he / say / . / for</t>
-        </is>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1" s="2">
-      <c r="A160" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B160" s="1" t="inlineStr">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>John / . / Japanese / company / he / say / for / a / work / that</t>
+        </is>
+      </c>
+      <c r="E160" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1" s="3">
+      <c r="A161" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>自分は中国語を話すのがとても上手だとあなたは言ってた。</t>
         </is>
       </c>
-      <c r="C160" s="1" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>You said that you spoke Chinese very well.</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>. / say / that / you / very / well / Chinese / speak / You</t>
-        </is>
-      </c>
-    </row>
-    <row r="161" ht="15.75" customHeight="1" s="2">
-      <c r="A161" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B161" s="1" t="inlineStr">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>. / say / speak / Chinese / well / you / very / You / that</t>
+        </is>
+      </c>
+      <c r="E161" s="1" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1" s="3">
+      <c r="A162" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>シンディーは彼女の兄が彼女を学校まで送ってくれるだろうと言った。</t>
         </is>
       </c>
-      <c r="C161" s="1" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>Cindy said that her brother would drive her to school.</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>her / . / drive / say / that / her / brother / school / would / to / Cindy</t>
-        </is>
-      </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1" s="2">
-      <c r="A162" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B162" s="1" t="inlineStr">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Cindy / would / brother / say / drive / to / school / that / . / her / her</t>
+        </is>
+      </c>
+      <c r="E162" s="1" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1" s="3">
+      <c r="A163" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>自分はいい生徒を持って本当に幸運だと私たちの先生はよく言います。</t>
         </is>
       </c>
-      <c r="C162" s="1" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>Our teacher always says that he is really lucky to have good students.</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>lucky / have / to / . / say / Our / really / good / be / teacher / that / students / he / always</t>
-        </is>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1" s="2">
-      <c r="A163" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B163" s="1" t="inlineStr">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>. / he / Our / have / teacher / lucky / say / to / good / be / always / really / students / that</t>
+        </is>
+      </c>
+      <c r="E163" s="1" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1" s="3">
+      <c r="A164" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
         <is>
           <t>安田先生は私たちに数学を教えてあげると言いました。</t>
         </is>
       </c>
-      <c r="C163" s="1" t="inlineStr">
+      <c r="C164" s="2" t="inlineStr">
         <is>
           <t>Mr.Yasuda told us that he would teach us mathematics.</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>. / mathematics / would / us / that / tell / he / us / teach / Mr.Yasuda</t>
-        </is>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1" s="2">
-      <c r="A164" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B164" s="1" t="inlineStr">
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Mr.Yasuda / us / that / . / teach / would / us / mathematics / tell / he</t>
+        </is>
+      </c>
+      <c r="E164" s="1" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1" s="3">
+      <c r="A165" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
         <is>
           <t>男の子はそのサッカー選手に「私はいつもあなたと話したかった。」と言った。</t>
         </is>
       </c>
-      <c r="C164" s="1" t="inlineStr">
+      <c r="C165" s="2" t="inlineStr">
         <is>
           <t>The boy said to the soccer player, “ I have always wanted to talk to him.”</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>, / “ / to / to / talk / The / have / to / . / always / player / him / the / want / soccer / ” / say / I / boy</t>
-        </is>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1" s="2">
-      <c r="A165" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B165" s="1" t="inlineStr">
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>say / to / him / want / to / have / talk / . / , / “ / The / ” / player / I / the / always / boy / to / soccer</t>
+        </is>
+      </c>
+      <c r="E165" s="1" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1" s="3">
+      <c r="A166" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
         <is>
           <t>その女の子は犬に新聞を持ってくるように言った。</t>
         </is>
       </c>
-      <c r="C165" s="1" t="inlineStr">
+      <c r="C166" s="2" t="inlineStr">
         <is>
           <t>The girl told her dog to bring her the news paper.</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>her / girl / The / her / . / the / to / news / paper / bring / tell / dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1" s="2">
-      <c r="A166" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B166" s="1" t="inlineStr">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>news / tell / her / dog / . / her / The / paper / the / girl / to / bring</t>
+        </is>
+      </c>
+      <c r="E166" s="1" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1" s="3">
+      <c r="A167" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
         <is>
           <t>旅行者は車掌に「ホテルまでの道を教えてください」と言った。</t>
         </is>
       </c>
-      <c r="C166" s="1" t="inlineStr">
+      <c r="C167" s="2" t="inlineStr">
         <is>
           <t>The tourist said to the conductor, “Please tell me the way to the hotel.”</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>” / hotel / conductor / tell / , / . / the / way / tourist / me / to / The / say / Please / the / “ / the / to</t>
-        </is>
-      </c>
-    </row>
-    <row r="167" ht="15.75" customHeight="1" s="2">
-      <c r="A167" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B167" s="1" t="inlineStr">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>“ / the / The / the / the / me / Please / to / hotel / ” / tourist / conductor / . / say / to / tell / , / way</t>
+        </is>
+      </c>
+      <c r="E167" s="1" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1" s="3">
+      <c r="A168" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>老人はいつも私たちに「調子はどうですか。」と言う。</t>
         </is>
       </c>
-      <c r="C167" s="1" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>The old man always says to us “How are you?”</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>to / old / always / be / ” / say / How / us / ? / man / The / “ / you</t>
-        </is>
-      </c>
-    </row>
-    <row r="168" ht="15.75" customHeight="1" s="2">
-      <c r="A168" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B168" s="1" t="inlineStr">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>say / How / us / always / ” / “ / man / ? / The / old / you / be / to</t>
+        </is>
+      </c>
+      <c r="E168" s="1" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1" s="3">
+      <c r="A169" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>私の母は私にどこにいたのか尋ねた。</t>
         </is>
       </c>
-      <c r="C168" s="1" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>My mother asked asked me where I had been?</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>mother / My / be / ask / I / where / ask / me / have / ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="169" ht="15.75" customHeight="1" s="2">
-      <c r="A169" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B169" s="1" t="inlineStr">
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>ask / mother / I / have / be / My / where / ? / ask / me</t>
+        </is>
+      </c>
+      <c r="E169" s="1" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1" s="3">
+      <c r="A170" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>その配達員の男性は次の日に戻ってくると言った。</t>
         </is>
       </c>
-      <c r="C169" s="1" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>The delivery man said that he would come back the next day.</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>man / delivery / come / The / say / would / day / next / he / . / the / that / back</t>
-        </is>
-      </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1" s="2">
-      <c r="A170" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B170" s="1" t="inlineStr">
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>the / The / . / would / day / delivery / man / say / next / back / come / that / he</t>
+        </is>
+      </c>
+      <c r="E170" s="1" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1" s="3">
+      <c r="A171" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>先生は彼に前日にいい仕事をしたと言った。</t>
         </is>
       </c>
-      <c r="C170" s="1" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>The teacher told him that he had done a good job the day before.</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>the / day / before / he / good / teacher / . / do / a / tell / have / The / job / that / him</t>
-        </is>
-      </c>
-    </row>
-    <row r="171" ht="15.75" customHeight="1" s="2">
-      <c r="A171" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B171" s="1" t="inlineStr">
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>good / day / job / have / he / teacher / that / a / tell / before / him / The / . / the / do</t>
+        </is>
+      </c>
+      <c r="E171" s="1" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1" s="3">
+      <c r="A172" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>その女性は私に翌朝そこで会ってくれるように頼んだ。</t>
         </is>
       </c>
-      <c r="C171" s="1" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>The woman asked me to meet her there the next morning.</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>meet / there / morning / the / . / her / next / me / to / ask / woman / The</t>
-        </is>
-      </c>
-    </row>
-    <row r="172" ht="15.75" customHeight="1" s="2">
-      <c r="A172" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B172" s="1" t="inlineStr">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>her / The / morning / . / me / there / to / meet / the / woman / ask / next</t>
+        </is>
+      </c>
+      <c r="E172" s="1" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1" s="3">
+      <c r="A173" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>村人は私に何年も前にその場所を訪れたことがあるか私に聞いた。彼女は約束は絶対に破らないだろうと言った。</t>
         </is>
       </c>
-      <c r="C172" s="1" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>The villager asked him why he hadn’t came to work the previous week?</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>The / work / ? / t / previous / hadn / to / villager / ask / why / him / ’ / come / he / the / week</t>
-        </is>
-      </c>
-    </row>
-    <row r="173" ht="15.75" customHeight="1" s="2">
-      <c r="A173" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B173" s="1" t="inlineStr">
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>the / ? / come / villager / previous / why / t / work / The / him / hadn / ’ / he / week / to / ask</t>
+        </is>
+      </c>
+      <c r="E173" s="1" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1" s="3">
+      <c r="A174" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>上司は彼になぜ前の週仕事に来なかったのか尋ねた。</t>
         </is>
       </c>
-      <c r="C173" s="1" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>The students said to the woman “We are going to stay at this hotel tonight.</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>be / tonight / go / say / to / woman / The / this / at / “ / hotel / . / the / stay / students / to / We</t>
-        </is>
-      </c>
-    </row>
-    <row r="174" ht="15.75" customHeight="1" s="2">
-      <c r="A174" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B174" s="1" t="inlineStr">
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>at / this / be / say / “ / stay / tonight / woman / . / to / We / to / hotel / go / the / The / students</t>
+        </is>
+      </c>
+      <c r="E174" s="1" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1" s="3">
+      <c r="A175" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>生徒たちは女性に「私たちは今夜このホテルに滞在するつもりです。」と言った。</t>
         </is>
       </c>
-      <c r="C174" s="1" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>I didn’t know you were a friend of the famous writer.</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>know / be / you / writer / I / the / ’ / didn / of / famous / friend / t / . / a</t>
-        </is>
-      </c>
-    </row>
-    <row r="175" ht="15.75" customHeight="1" s="2">
-      <c r="A175" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B175" s="1" t="inlineStr">
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>famous / friend / ’ / of / didn / the / a / . / know / writer / you / be / t / I</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1" s="3">
+      <c r="A176" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>あなたがその有名な作家の友人とは知らなかった。</t>
         </is>
       </c>
-      <c r="C175" s="1" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>I didn’t know you were a friend of the famous writer.</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>writer / you / of / know / the / I / . / a / didn / friend / famous / be / t / ’</t>
-        </is>
-      </c>
-    </row>
-    <row r="176" ht="15.75" customHeight="1" s="2">
-      <c r="A176" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B176" s="1" t="inlineStr">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>a / the / you / ’ / be / . / I / writer / t / know / famous / didn / friend / of</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1" s="3">
+      <c r="A177" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>生徒は先生に早退しても良いかと尋ねた。</t>
         </is>
       </c>
-      <c r="C176" s="1" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>The student asked the teacher if he could go home early.</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>home / if / teacher / The / could / student / the / go / . / ask / early / he</t>
-        </is>
-      </c>
-    </row>
-    <row r="177" ht="15.75" customHeight="1" s="2">
-      <c r="A177" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B177" s="1" t="inlineStr">
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>could / student / the / home / ask / teacher / he / . / if / go / The / early</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1" s="3">
+      <c r="A178" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>その老人は孫にいつ到着したのかと尋ねた。</t>
         </is>
       </c>
-      <c r="C177" s="1" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>The old man asked his grandson when he arrived.</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>he / his / . / The / old / man / ask / when / arrive / grandson</t>
-        </is>
-      </c>
-    </row>
-    <row r="178" ht="15.75" customHeight="1" s="2">
-      <c r="A178" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B178" s="1" t="inlineStr">
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>when / ask / arrive / . / his / he / man / The / grandson / old</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1" s="3">
+      <c r="A179" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>警察官はその若者たちにそこにそのままいるようにと言った。</t>
         </is>
       </c>
-      <c r="C178" s="1" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>The police officer told the young men to stay there.</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>police / young / The / tell / there / officer / the / . / men / stay / to</t>
-        </is>
-      </c>
-    </row>
-    <row r="179" ht="15.75" customHeight="1" s="2"/>
-    <row r="180" ht="15.75" customHeight="1" s="2"/>
-    <row r="181" ht="15.75" customHeight="1" s="2"/>
-    <row r="182" ht="15.75" customHeight="1" s="2"/>
-    <row r="183" ht="15.75" customHeight="1" s="2"/>
-    <row r="184" ht="15.75" customHeight="1" s="2"/>
-    <row r="185" ht="15.75" customHeight="1" s="2"/>
-    <row r="186" ht="15.75" customHeight="1" s="2"/>
-    <row r="187" ht="15.75" customHeight="1" s="2"/>
-    <row r="188" ht="15.75" customHeight="1" s="2"/>
-    <row r="189" ht="15.75" customHeight="1" s="2"/>
-    <row r="190" ht="15.75" customHeight="1" s="2"/>
-    <row r="191" ht="15.75" customHeight="1" s="2"/>
-    <row r="192" ht="15.75" customHeight="1" s="2"/>
-    <row r="193" ht="15.75" customHeight="1" s="2"/>
-    <row r="194" ht="15.75" customHeight="1" s="2"/>
-    <row r="195" ht="15.75" customHeight="1" s="2"/>
-    <row r="196" ht="15.75" customHeight="1" s="2"/>
-    <row r="197" ht="15.75" customHeight="1" s="2"/>
-    <row r="198" ht="15.75" customHeight="1" s="2"/>
-    <row r="199" ht="15.75" customHeight="1" s="2"/>
-    <row r="200" ht="15.75" customHeight="1" s="2"/>
-    <row r="201" ht="15.75" customHeight="1" s="2"/>
-    <row r="202" ht="15.75" customHeight="1" s="2"/>
-    <row r="203" ht="15.75" customHeight="1" s="2"/>
-    <row r="204" ht="15.75" customHeight="1" s="2"/>
-    <row r="205" ht="15.75" customHeight="1" s="2"/>
-    <row r="206" ht="15.75" customHeight="1" s="2"/>
-    <row r="207" ht="15.75" customHeight="1" s="2"/>
-    <row r="208" ht="15.75" customHeight="1" s="2"/>
-    <row r="209" ht="15.75" customHeight="1" s="2"/>
-    <row r="210" ht="15.75" customHeight="1" s="2"/>
-    <row r="211" ht="15.75" customHeight="1" s="2"/>
-    <row r="212" ht="15.75" customHeight="1" s="2"/>
-    <row r="213" ht="15.75" customHeight="1" s="2"/>
-    <row r="214" ht="15.75" customHeight="1" s="2"/>
-    <row r="215" ht="15.75" customHeight="1" s="2"/>
-    <row r="216" ht="15.75" customHeight="1" s="2"/>
-    <row r="217" ht="15.75" customHeight="1" s="2"/>
-    <row r="218" ht="15.75" customHeight="1" s="2"/>
-    <row r="219" ht="15.75" customHeight="1" s="2"/>
-    <row r="220" ht="15.75" customHeight="1" s="2"/>
-    <row r="221" ht="15.75" customHeight="1" s="2"/>
-    <row r="222" ht="15.75" customHeight="1" s="2"/>
-    <row r="223" ht="15.75" customHeight="1" s="2"/>
-    <row r="224" ht="15.75" customHeight="1" s="2"/>
-    <row r="225" ht="15.75" customHeight="1" s="2"/>
-    <row r="226" ht="15.75" customHeight="1" s="2"/>
-    <row r="227" ht="15.75" customHeight="1" s="2"/>
-    <row r="228" ht="15.75" customHeight="1" s="2"/>
-    <row r="229" ht="15.75" customHeight="1" s="2"/>
-    <row r="230" ht="15.75" customHeight="1" s="2"/>
-    <row r="231" ht="15.75" customHeight="1" s="2"/>
-    <row r="232" ht="15.75" customHeight="1" s="2"/>
-    <row r="233" ht="15.75" customHeight="1" s="2"/>
-    <row r="234" ht="15.75" customHeight="1" s="2"/>
-    <row r="235" ht="15.75" customHeight="1" s="2"/>
-    <row r="236" ht="15.75" customHeight="1" s="2"/>
-    <row r="237" ht="15.75" customHeight="1" s="2"/>
-    <row r="238" ht="15.75" customHeight="1" s="2"/>
-    <row r="239" ht="15.75" customHeight="1" s="2"/>
-    <row r="240" ht="15.75" customHeight="1" s="2"/>
-    <row r="241" ht="15.75" customHeight="1" s="2"/>
-    <row r="242" ht="15.75" customHeight="1" s="2"/>
-    <row r="243" ht="15.75" customHeight="1" s="2"/>
-    <row r="244" ht="15.75" customHeight="1" s="2"/>
-    <row r="245" ht="15.75" customHeight="1" s="2"/>
-    <row r="246" ht="15.75" customHeight="1" s="2"/>
-    <row r="247" ht="15.75" customHeight="1" s="2"/>
-    <row r="248" ht="15.75" customHeight="1" s="2"/>
-    <row r="249" ht="15.75" customHeight="1" s="2"/>
-    <row r="250" ht="15.75" customHeight="1" s="2"/>
-    <row r="251" ht="15.75" customHeight="1" s="2"/>
-    <row r="252" ht="15.75" customHeight="1" s="2"/>
-    <row r="253" ht="15.75" customHeight="1" s="2"/>
-    <row r="254" ht="15.75" customHeight="1" s="2"/>
-    <row r="255" ht="15.75" customHeight="1" s="2"/>
-    <row r="256" ht="15.75" customHeight="1" s="2"/>
-    <row r="257" ht="15.75" customHeight="1" s="2"/>
-    <row r="258" ht="15.75" customHeight="1" s="2"/>
-    <row r="259" ht="15.75" customHeight="1" s="2"/>
-    <row r="260" ht="15.75" customHeight="1" s="2"/>
-    <row r="261" ht="15.75" customHeight="1" s="2"/>
-    <row r="262" ht="15.75" customHeight="1" s="2"/>
-    <row r="263" ht="15.75" customHeight="1" s="2"/>
-    <row r="264" ht="15.75" customHeight="1" s="2"/>
-    <row r="265" ht="15.75" customHeight="1" s="2"/>
-    <row r="266" ht="15.75" customHeight="1" s="2"/>
-    <row r="267" ht="15.75" customHeight="1" s="2"/>
-    <row r="268" ht="15.75" customHeight="1" s="2"/>
-    <row r="269" ht="15.75" customHeight="1" s="2"/>
-    <row r="270" ht="15.75" customHeight="1" s="2"/>
-    <row r="271" ht="15.75" customHeight="1" s="2"/>
-    <row r="272" ht="15.75" customHeight="1" s="2"/>
-    <row r="273" ht="15.75" customHeight="1" s="2"/>
-    <row r="274" ht="15.75" customHeight="1" s="2"/>
-    <row r="275" ht="15.75" customHeight="1" s="2"/>
-    <row r="276" ht="15.75" customHeight="1" s="2"/>
-    <row r="277" ht="15.75" customHeight="1" s="2"/>
-    <row r="278" ht="15.75" customHeight="1" s="2"/>
-    <row r="279" ht="15.75" customHeight="1" s="2"/>
-    <row r="280" ht="15.75" customHeight="1" s="2"/>
-    <row r="281" ht="15.75" customHeight="1" s="2"/>
-    <row r="282" ht="15.75" customHeight="1" s="2"/>
-    <row r="283" ht="15.75" customHeight="1" s="2"/>
-    <row r="284" ht="15.75" customHeight="1" s="2"/>
-    <row r="285" ht="15.75" customHeight="1" s="2"/>
-    <row r="286" ht="15.75" customHeight="1" s="2"/>
-    <row r="287" ht="15.75" customHeight="1" s="2"/>
-    <row r="288" ht="15.75" customHeight="1" s="2"/>
-    <row r="289" ht="15.75" customHeight="1" s="2"/>
-    <row r="290" ht="15.75" customHeight="1" s="2"/>
-    <row r="291" ht="15.75" customHeight="1" s="2"/>
-    <row r="292" ht="15.75" customHeight="1" s="2"/>
-    <row r="293" ht="15.75" customHeight="1" s="2"/>
-    <row r="294" ht="15.75" customHeight="1" s="2"/>
-    <row r="295" ht="15.75" customHeight="1" s="2"/>
-    <row r="296" ht="15.75" customHeight="1" s="2"/>
-    <row r="297" ht="15.75" customHeight="1" s="2"/>
-    <row r="298" ht="15.75" customHeight="1" s="2"/>
-    <row r="299" ht="15.75" customHeight="1" s="2"/>
-    <row r="300" ht="15.75" customHeight="1" s="2"/>
-    <row r="301" ht="15.75" customHeight="1" s="2"/>
-    <row r="302" ht="15.75" customHeight="1" s="2"/>
-    <row r="303" ht="15.75" customHeight="1" s="2"/>
-    <row r="304" ht="15.75" customHeight="1" s="2"/>
-    <row r="305" ht="15.75" customHeight="1" s="2"/>
-    <row r="306" ht="15.75" customHeight="1" s="2"/>
-    <row r="307" ht="15.75" customHeight="1" s="2"/>
-    <row r="308" ht="15.75" customHeight="1" s="2"/>
-    <row r="309" ht="15.75" customHeight="1" s="2"/>
-    <row r="310" ht="15.75" customHeight="1" s="2"/>
-    <row r="311" ht="15.75" customHeight="1" s="2"/>
-    <row r="312" ht="15.75" customHeight="1" s="2"/>
-    <row r="313" ht="15.75" customHeight="1" s="2"/>
-    <row r="314" ht="15.75" customHeight="1" s="2"/>
-    <row r="315" ht="15.75" customHeight="1" s="2"/>
-    <row r="316" ht="15.75" customHeight="1" s="2"/>
-    <row r="317" ht="15.75" customHeight="1" s="2"/>
-    <row r="318" ht="15.75" customHeight="1" s="2"/>
-    <row r="319" ht="15.75" customHeight="1" s="2"/>
-    <row r="320" ht="15.75" customHeight="1" s="2"/>
-    <row r="321" ht="15.75" customHeight="1" s="2"/>
-    <row r="322" ht="15.75" customHeight="1" s="2"/>
-    <row r="323" ht="15.75" customHeight="1" s="2"/>
-    <row r="324" ht="15.75" customHeight="1" s="2"/>
-    <row r="325" ht="15.75" customHeight="1" s="2"/>
-    <row r="326" ht="15.75" customHeight="1" s="2"/>
-    <row r="327" ht="15.75" customHeight="1" s="2"/>
-    <row r="328" ht="15.75" customHeight="1" s="2"/>
-    <row r="329" ht="15.75" customHeight="1" s="2"/>
-    <row r="330" ht="15.75" customHeight="1" s="2"/>
-    <row r="331" ht="15.75" customHeight="1" s="2"/>
-    <row r="332" ht="15.75" customHeight="1" s="2"/>
-    <row r="333" ht="15.75" customHeight="1" s="2"/>
-    <row r="334" ht="15.75" customHeight="1" s="2"/>
-    <row r="335" ht="15.75" customHeight="1" s="2"/>
-    <row r="336" ht="15.75" customHeight="1" s="2"/>
-    <row r="337" ht="15.75" customHeight="1" s="2"/>
-    <row r="338" ht="15.75" customHeight="1" s="2"/>
-    <row r="339" ht="15.75" customHeight="1" s="2"/>
-    <row r="340" ht="15.75" customHeight="1" s="2"/>
-    <row r="341" ht="15.75" customHeight="1" s="2"/>
-    <row r="342" ht="15.75" customHeight="1" s="2"/>
-    <row r="343" ht="15.75" customHeight="1" s="2"/>
-    <row r="344" ht="15.75" customHeight="1" s="2"/>
-    <row r="345" ht="15.75" customHeight="1" s="2"/>
-    <row r="346" ht="15.75" customHeight="1" s="2"/>
-    <row r="347" ht="15.75" customHeight="1" s="2"/>
-    <row r="348" ht="15.75" customHeight="1" s="2"/>
-    <row r="349" ht="15.75" customHeight="1" s="2"/>
-    <row r="350" ht="15.75" customHeight="1" s="2"/>
-    <row r="351" ht="15.75" customHeight="1" s="2"/>
-    <row r="352" ht="15.75" customHeight="1" s="2"/>
-    <row r="353" ht="15.75" customHeight="1" s="2"/>
-    <row r="354" ht="15.75" customHeight="1" s="2"/>
-    <row r="355" ht="15.75" customHeight="1" s="2"/>
-    <row r="356" ht="15.75" customHeight="1" s="2"/>
-    <row r="357" ht="15.75" customHeight="1" s="2"/>
-    <row r="358" ht="15.75" customHeight="1" s="2"/>
-    <row r="359" ht="15.75" customHeight="1" s="2"/>
-    <row r="360" ht="15.75" customHeight="1" s="2"/>
-    <row r="361" ht="15.75" customHeight="1" s="2"/>
-    <row r="362" ht="15.75" customHeight="1" s="2"/>
-    <row r="363" ht="15.75" customHeight="1" s="2"/>
-    <row r="364" ht="15.75" customHeight="1" s="2"/>
-    <row r="365" ht="15.75" customHeight="1" s="2"/>
-    <row r="366" ht="15.75" customHeight="1" s="2"/>
-    <row r="367" ht="15.75" customHeight="1" s="2"/>
-    <row r="368" ht="15.75" customHeight="1" s="2"/>
-    <row r="369" ht="15.75" customHeight="1" s="2"/>
-    <row r="370" ht="15.75" customHeight="1" s="2"/>
-    <row r="371" ht="15.75" customHeight="1" s="2"/>
-    <row r="372" ht="15.75" customHeight="1" s="2"/>
-    <row r="373" ht="15.75" customHeight="1" s="2"/>
-    <row r="374" ht="15.75" customHeight="1" s="2"/>
-    <row r="375" ht="15.75" customHeight="1" s="2"/>
-    <row r="376" ht="15.75" customHeight="1" s="2"/>
-    <row r="377" ht="15.75" customHeight="1" s="2"/>
-    <row r="378" ht="15.75" customHeight="1" s="2"/>
-    <row r="379" ht="15.75" customHeight="1" s="2"/>
-    <row r="380" ht="15.75" customHeight="1" s="2"/>
-    <row r="381" ht="15.75" customHeight="1" s="2"/>
-    <row r="382" ht="15.75" customHeight="1" s="2"/>
-    <row r="383" ht="15.75" customHeight="1" s="2"/>
-    <row r="384" ht="15.75" customHeight="1" s="2"/>
-    <row r="385" ht="15.75" customHeight="1" s="2"/>
-    <row r="386" ht="15.75" customHeight="1" s="2"/>
-    <row r="387" ht="15.75" customHeight="1" s="2"/>
-    <row r="388" ht="15.75" customHeight="1" s="2"/>
-    <row r="389" ht="15.75" customHeight="1" s="2"/>
-    <row r="390" ht="15.75" customHeight="1" s="2"/>
-    <row r="391" ht="15.75" customHeight="1" s="2"/>
-    <row r="392" ht="15.75" customHeight="1" s="2"/>
-    <row r="393" ht="15.75" customHeight="1" s="2"/>
-    <row r="394" ht="15.75" customHeight="1" s="2"/>
-    <row r="395" ht="15.75" customHeight="1" s="2"/>
-    <row r="396" ht="15.75" customHeight="1" s="2"/>
-    <row r="397" ht="15.75" customHeight="1" s="2"/>
-    <row r="398" ht="15.75" customHeight="1" s="2"/>
-    <row r="399" ht="15.75" customHeight="1" s="2"/>
-    <row r="400" ht="15.75" customHeight="1" s="2"/>
-    <row r="401" ht="15.75" customHeight="1" s="2"/>
-    <row r="402" ht="15.75" customHeight="1" s="2"/>
-    <row r="403" ht="15.75" customHeight="1" s="2"/>
-    <row r="404" ht="15.75" customHeight="1" s="2"/>
-    <row r="405" ht="15.75" customHeight="1" s="2"/>
-    <row r="406" ht="15.75" customHeight="1" s="2"/>
-    <row r="407" ht="15.75" customHeight="1" s="2"/>
-    <row r="408" ht="15.75" customHeight="1" s="2"/>
-    <row r="409" ht="15.75" customHeight="1" s="2"/>
-    <row r="410" ht="15.75" customHeight="1" s="2"/>
-    <row r="411" ht="15.75" customHeight="1" s="2"/>
-    <row r="412" ht="15.75" customHeight="1" s="2"/>
-    <row r="413" ht="15.75" customHeight="1" s="2"/>
-    <row r="414" ht="15.75" customHeight="1" s="2"/>
-    <row r="415" ht="15.75" customHeight="1" s="2"/>
-    <row r="416" ht="15.75" customHeight="1" s="2"/>
-    <row r="417" ht="15.75" customHeight="1" s="2"/>
-    <row r="418" ht="15.75" customHeight="1" s="2"/>
-    <row r="419" ht="15.75" customHeight="1" s="2"/>
-    <row r="420" ht="15.75" customHeight="1" s="2"/>
-    <row r="421" ht="15.75" customHeight="1" s="2"/>
-    <row r="422" ht="15.75" customHeight="1" s="2"/>
-    <row r="423" ht="15.75" customHeight="1" s="2"/>
-    <row r="424" ht="15.75" customHeight="1" s="2"/>
-    <row r="425" ht="15.75" customHeight="1" s="2"/>
-    <row r="426" ht="15.75" customHeight="1" s="2"/>
-    <row r="427" ht="15.75" customHeight="1" s="2"/>
-    <row r="428" ht="15.75" customHeight="1" s="2"/>
-    <row r="429" ht="15.75" customHeight="1" s="2"/>
-    <row r="430" ht="15.75" customHeight="1" s="2"/>
-    <row r="431" ht="15.75" customHeight="1" s="2"/>
-    <row r="432" ht="15.75" customHeight="1" s="2"/>
-    <row r="433" ht="15.75" customHeight="1" s="2"/>
-    <row r="434" ht="15.75" customHeight="1" s="2"/>
-    <row r="435" ht="15.75" customHeight="1" s="2"/>
-    <row r="436" ht="15.75" customHeight="1" s="2"/>
-    <row r="437" ht="15.75" customHeight="1" s="2"/>
-    <row r="438" ht="15.75" customHeight="1" s="2"/>
-    <row r="439" ht="15.75" customHeight="1" s="2"/>
-    <row r="440" ht="15.75" customHeight="1" s="2"/>
-    <row r="441" ht="15.75" customHeight="1" s="2"/>
-    <row r="442" ht="15.75" customHeight="1" s="2"/>
-    <row r="443" ht="15.75" customHeight="1" s="2"/>
-    <row r="444" ht="15.75" customHeight="1" s="2"/>
-    <row r="445" ht="15.75" customHeight="1" s="2"/>
-    <row r="446" ht="15.75" customHeight="1" s="2"/>
-    <row r="447" ht="15.75" customHeight="1" s="2"/>
-    <row r="448" ht="15.75" customHeight="1" s="2"/>
-    <row r="449" ht="15.75" customHeight="1" s="2"/>
-    <row r="450" ht="15.75" customHeight="1" s="2"/>
-    <row r="451" ht="15.75" customHeight="1" s="2"/>
-    <row r="452" ht="15.75" customHeight="1" s="2"/>
-    <row r="453" ht="15.75" customHeight="1" s="2"/>
-    <row r="454" ht="15.75" customHeight="1" s="2"/>
-    <row r="455" ht="15.75" customHeight="1" s="2"/>
-    <row r="456" ht="15.75" customHeight="1" s="2"/>
-    <row r="457" ht="15.75" customHeight="1" s="2"/>
-    <row r="458" ht="15.75" customHeight="1" s="2"/>
-    <row r="459" ht="15.75" customHeight="1" s="2"/>
-    <row r="460" ht="15.75" customHeight="1" s="2"/>
-    <row r="461" ht="15.75" customHeight="1" s="2"/>
-    <row r="462" ht="15.75" customHeight="1" s="2"/>
-    <row r="463" ht="15.75" customHeight="1" s="2"/>
-    <row r="464" ht="15.75" customHeight="1" s="2"/>
-    <row r="465" ht="15.75" customHeight="1" s="2"/>
-    <row r="466" ht="15.75" customHeight="1" s="2"/>
-    <row r="467" ht="15.75" customHeight="1" s="2"/>
-    <row r="468" ht="15.75" customHeight="1" s="2"/>
-    <row r="469" ht="15.75" customHeight="1" s="2"/>
-    <row r="470" ht="15.75" customHeight="1" s="2"/>
-    <row r="471" ht="15.75" customHeight="1" s="2"/>
-    <row r="472" ht="15.75" customHeight="1" s="2"/>
-    <row r="473" ht="15.75" customHeight="1" s="2"/>
-    <row r="474" ht="15.75" customHeight="1" s="2"/>
-    <row r="475" ht="15.75" customHeight="1" s="2"/>
-    <row r="476" ht="15.75" customHeight="1" s="2"/>
-    <row r="477" ht="15.75" customHeight="1" s="2"/>
-    <row r="478" ht="15.75" customHeight="1" s="2"/>
-    <row r="479" ht="15.75" customHeight="1" s="2"/>
-    <row r="480" ht="15.75" customHeight="1" s="2"/>
-    <row r="481" ht="15.75" customHeight="1" s="2"/>
-    <row r="482" ht="15.75" customHeight="1" s="2"/>
-    <row r="483" ht="15.75" customHeight="1" s="2"/>
-    <row r="484" ht="15.75" customHeight="1" s="2"/>
-    <row r="485" ht="15.75" customHeight="1" s="2"/>
-    <row r="486" ht="15.75" customHeight="1" s="2"/>
-    <row r="487" ht="15.75" customHeight="1" s="2"/>
-    <row r="488" ht="15.75" customHeight="1" s="2"/>
-    <row r="489" ht="15.75" customHeight="1" s="2"/>
-    <row r="490" ht="15.75" customHeight="1" s="2"/>
-    <row r="491" ht="15.75" customHeight="1" s="2"/>
-    <row r="492" ht="15.75" customHeight="1" s="2"/>
-    <row r="493" ht="15.75" customHeight="1" s="2"/>
-    <row r="494" ht="15.75" customHeight="1" s="2"/>
-    <row r="495" ht="15.75" customHeight="1" s="2"/>
-    <row r="496" ht="15.75" customHeight="1" s="2"/>
-    <row r="497" ht="15.75" customHeight="1" s="2"/>
-    <row r="498" ht="15.75" customHeight="1" s="2"/>
-    <row r="499" ht="15.75" customHeight="1" s="2"/>
-    <row r="500" ht="15.75" customHeight="1" s="2"/>
-    <row r="501" ht="15.75" customHeight="1" s="2"/>
-    <row r="502" ht="15.75" customHeight="1" s="2"/>
-    <row r="503" ht="15.75" customHeight="1" s="2"/>
-    <row r="504" ht="15.75" customHeight="1" s="2"/>
-    <row r="505" ht="15.75" customHeight="1" s="2"/>
-    <row r="506" ht="15.75" customHeight="1" s="2"/>
-    <row r="507" ht="15.75" customHeight="1" s="2"/>
-    <row r="508" ht="15.75" customHeight="1" s="2"/>
-    <row r="509" ht="15.75" customHeight="1" s="2"/>
-    <row r="510" ht="15.75" customHeight="1" s="2"/>
-    <row r="511" ht="15.75" customHeight="1" s="2"/>
-    <row r="512" ht="15.75" customHeight="1" s="2"/>
-    <row r="513" ht="15.75" customHeight="1" s="2"/>
-    <row r="514" ht="15.75" customHeight="1" s="2"/>
-    <row r="515" ht="15.75" customHeight="1" s="2"/>
-    <row r="516" ht="15.75" customHeight="1" s="2"/>
-    <row r="517" ht="15.75" customHeight="1" s="2"/>
-    <row r="518" ht="15.75" customHeight="1" s="2"/>
-    <row r="519" ht="15.75" customHeight="1" s="2"/>
-    <row r="520" ht="15.75" customHeight="1" s="2"/>
-    <row r="521" ht="15.75" customHeight="1" s="2"/>
-    <row r="522" ht="15.75" customHeight="1" s="2"/>
-    <row r="523" ht="15.75" customHeight="1" s="2"/>
-    <row r="524" ht="15.75" customHeight="1" s="2"/>
-    <row r="525" ht="15.75" customHeight="1" s="2"/>
-    <row r="526" ht="15.75" customHeight="1" s="2"/>
-    <row r="527" ht="15.75" customHeight="1" s="2"/>
-    <row r="528" ht="15.75" customHeight="1" s="2"/>
-    <row r="529" ht="15.75" customHeight="1" s="2"/>
-    <row r="530" ht="15.75" customHeight="1" s="2"/>
-    <row r="531" ht="15.75" customHeight="1" s="2"/>
-    <row r="532" ht="15.75" customHeight="1" s="2"/>
-    <row r="533" ht="15.75" customHeight="1" s="2"/>
-    <row r="534" ht="15.75" customHeight="1" s="2"/>
-    <row r="535" ht="15.75" customHeight="1" s="2"/>
-    <row r="536" ht="15.75" customHeight="1" s="2"/>
-    <row r="537" ht="15.75" customHeight="1" s="2"/>
-    <row r="538" ht="15.75" customHeight="1" s="2"/>
-    <row r="539" ht="15.75" customHeight="1" s="2"/>
-    <row r="540" ht="15.75" customHeight="1" s="2"/>
-    <row r="541" ht="15.75" customHeight="1" s="2"/>
-    <row r="542" ht="15.75" customHeight="1" s="2"/>
-    <row r="543" ht="15.75" customHeight="1" s="2"/>
-    <row r="544" ht="15.75" customHeight="1" s="2"/>
-    <row r="545" ht="15.75" customHeight="1" s="2"/>
-    <row r="546" ht="15.75" customHeight="1" s="2"/>
-    <row r="547" ht="15.75" customHeight="1" s="2"/>
-    <row r="548" ht="15.75" customHeight="1" s="2"/>
-    <row r="549" ht="15.75" customHeight="1" s="2"/>
-    <row r="550" ht="15.75" customHeight="1" s="2"/>
-    <row r="551" ht="15.75" customHeight="1" s="2"/>
-    <row r="552" ht="15.75" customHeight="1" s="2"/>
-    <row r="553" ht="15.75" customHeight="1" s="2"/>
-    <row r="554" ht="15.75" customHeight="1" s="2"/>
-    <row r="555" ht="15.75" customHeight="1" s="2"/>
-    <row r="556" ht="15.75" customHeight="1" s="2"/>
-    <row r="557" ht="15.75" customHeight="1" s="2"/>
-    <row r="558" ht="15.75" customHeight="1" s="2"/>
-    <row r="559" ht="15.75" customHeight="1" s="2"/>
-    <row r="560" ht="15.75" customHeight="1" s="2"/>
-    <row r="561" ht="15.75" customHeight="1" s="2"/>
-    <row r="562" ht="15.75" customHeight="1" s="2"/>
-    <row r="563" ht="15.75" customHeight="1" s="2"/>
-    <row r="564" ht="15.75" customHeight="1" s="2"/>
-    <row r="565" ht="15.75" customHeight="1" s="2"/>
-    <row r="566" ht="15.75" customHeight="1" s="2"/>
-    <row r="567" ht="15.75" customHeight="1" s="2"/>
-    <row r="568" ht="15.75" customHeight="1" s="2"/>
-    <row r="569" ht="15.75" customHeight="1" s="2"/>
-    <row r="570" ht="15.75" customHeight="1" s="2"/>
-    <row r="571" ht="15.75" customHeight="1" s="2"/>
-    <row r="572" ht="15.75" customHeight="1" s="2"/>
-    <row r="573" ht="15.75" customHeight="1" s="2"/>
-    <row r="574" ht="15.75" customHeight="1" s="2"/>
-    <row r="575" ht="15.75" customHeight="1" s="2"/>
-    <row r="576" ht="15.75" customHeight="1" s="2"/>
-    <row r="577" ht="15.75" customHeight="1" s="2"/>
-    <row r="578" ht="15.75" customHeight="1" s="2"/>
-    <row r="579" ht="15.75" customHeight="1" s="2"/>
-    <row r="580" ht="15.75" customHeight="1" s="2"/>
-    <row r="581" ht="15.75" customHeight="1" s="2"/>
-    <row r="582" ht="15.75" customHeight="1" s="2"/>
-    <row r="583" ht="15.75" customHeight="1" s="2"/>
-    <row r="584" ht="15.75" customHeight="1" s="2"/>
-    <row r="585" ht="15.75" customHeight="1" s="2"/>
-    <row r="586" ht="15.75" customHeight="1" s="2"/>
-    <row r="587" ht="15.75" customHeight="1" s="2"/>
-    <row r="588" ht="15.75" customHeight="1" s="2"/>
-    <row r="589" ht="15.75" customHeight="1" s="2"/>
-    <row r="590" ht="15.75" customHeight="1" s="2"/>
-    <row r="591" ht="15.75" customHeight="1" s="2"/>
-    <row r="592" ht="15.75" customHeight="1" s="2"/>
-    <row r="593" ht="15.75" customHeight="1" s="2"/>
-    <row r="594" ht="15.75" customHeight="1" s="2"/>
-    <row r="595" ht="15.75" customHeight="1" s="2"/>
-    <row r="596" ht="15.75" customHeight="1" s="2"/>
-    <row r="597" ht="15.75" customHeight="1" s="2"/>
-    <row r="598" ht="15.75" customHeight="1" s="2"/>
-    <row r="599" ht="15.75" customHeight="1" s="2"/>
-    <row r="600" ht="15.75" customHeight="1" s="2"/>
-    <row r="601" ht="15.75" customHeight="1" s="2"/>
-    <row r="602" ht="15.75" customHeight="1" s="2"/>
-    <row r="603" ht="15.75" customHeight="1" s="2"/>
-    <row r="604" ht="15.75" customHeight="1" s="2"/>
-    <row r="605" ht="15.75" customHeight="1" s="2"/>
-    <row r="606" ht="15.75" customHeight="1" s="2"/>
-    <row r="607" ht="15.75" customHeight="1" s="2"/>
-    <row r="608" ht="15.75" customHeight="1" s="2"/>
-    <row r="609" ht="15.75" customHeight="1" s="2"/>
-    <row r="610" ht="15.75" customHeight="1" s="2"/>
-    <row r="611" ht="15.75" customHeight="1" s="2"/>
-    <row r="612" ht="15.75" customHeight="1" s="2"/>
-    <row r="613" ht="15.75" customHeight="1" s="2"/>
-    <row r="614" ht="15.75" customHeight="1" s="2"/>
-    <row r="615" ht="15.75" customHeight="1" s="2"/>
-    <row r="616" ht="15.75" customHeight="1" s="2"/>
-    <row r="617" ht="15.75" customHeight="1" s="2"/>
-    <row r="618" ht="15.75" customHeight="1" s="2"/>
-    <row r="619" ht="15.75" customHeight="1" s="2"/>
-    <row r="620" ht="15.75" customHeight="1" s="2"/>
-    <row r="621" ht="15.75" customHeight="1" s="2"/>
-    <row r="622" ht="15.75" customHeight="1" s="2"/>
-    <row r="623" ht="15.75" customHeight="1" s="2"/>
-    <row r="624" ht="15.75" customHeight="1" s="2"/>
-    <row r="625" ht="15.75" customHeight="1" s="2"/>
-    <row r="626" ht="15.75" customHeight="1" s="2"/>
-    <row r="627" ht="15.75" customHeight="1" s="2"/>
-    <row r="628" ht="15.75" customHeight="1" s="2"/>
-    <row r="629" ht="15.75" customHeight="1" s="2"/>
-    <row r="630" ht="15.75" customHeight="1" s="2"/>
-    <row r="631" ht="15.75" customHeight="1" s="2"/>
-    <row r="632" ht="15.75" customHeight="1" s="2"/>
-    <row r="633" ht="15.75" customHeight="1" s="2"/>
-    <row r="634" ht="15.75" customHeight="1" s="2"/>
-    <row r="635" ht="15.75" customHeight="1" s="2"/>
-    <row r="636" ht="15.75" customHeight="1" s="2"/>
-    <row r="637" ht="15.75" customHeight="1" s="2"/>
-    <row r="638" ht="15.75" customHeight="1" s="2"/>
-    <row r="639" ht="15.75" customHeight="1" s="2"/>
-    <row r="640" ht="15.75" customHeight="1" s="2"/>
-    <row r="641" ht="15.75" customHeight="1" s="2"/>
-    <row r="642" ht="15.75" customHeight="1" s="2"/>
-    <row r="643" ht="15.75" customHeight="1" s="2"/>
-    <row r="644" ht="15.75" customHeight="1" s="2"/>
-    <row r="645" ht="15.75" customHeight="1" s="2"/>
-    <row r="646" ht="15.75" customHeight="1" s="2"/>
-    <row r="647" ht="15.75" customHeight="1" s="2"/>
-    <row r="648" ht="15.75" customHeight="1" s="2"/>
-    <row r="649" ht="15.75" customHeight="1" s="2"/>
-    <row r="650" ht="15.75" customHeight="1" s="2"/>
-    <row r="651" ht="15.75" customHeight="1" s="2"/>
-    <row r="652" ht="15.75" customHeight="1" s="2"/>
-    <row r="653" ht="15.75" customHeight="1" s="2"/>
-    <row r="654" ht="15.75" customHeight="1" s="2"/>
-    <row r="655" ht="15.75" customHeight="1" s="2"/>
-    <row r="656" ht="15.75" customHeight="1" s="2"/>
-    <row r="657" ht="15.75" customHeight="1" s="2"/>
-    <row r="658" ht="15.75" customHeight="1" s="2"/>
-    <row r="659" ht="15.75" customHeight="1" s="2"/>
-    <row r="660" ht="15.75" customHeight="1" s="2"/>
-    <row r="661" ht="15.75" customHeight="1" s="2"/>
-    <row r="662" ht="15.75" customHeight="1" s="2"/>
-    <row r="663" ht="15.75" customHeight="1" s="2"/>
-    <row r="664" ht="15.75" customHeight="1" s="2"/>
-    <row r="665" ht="15.75" customHeight="1" s="2"/>
-    <row r="666" ht="15.75" customHeight="1" s="2"/>
-    <row r="667" ht="15.75" customHeight="1" s="2"/>
-    <row r="668" ht="15.75" customHeight="1" s="2"/>
-    <row r="669" ht="15.75" customHeight="1" s="2"/>
-    <row r="670" ht="15.75" customHeight="1" s="2"/>
-    <row r="671" ht="15.75" customHeight="1" s="2"/>
-    <row r="672" ht="15.75" customHeight="1" s="2"/>
-    <row r="673" ht="15.75" customHeight="1" s="2"/>
-    <row r="674" ht="15.75" customHeight="1" s="2"/>
-    <row r="675" ht="15.75" customHeight="1" s="2"/>
-    <row r="676" ht="15.75" customHeight="1" s="2"/>
-    <row r="677" ht="15.75" customHeight="1" s="2"/>
-    <row r="678" ht="15.75" customHeight="1" s="2"/>
-    <row r="679" ht="15.75" customHeight="1" s="2"/>
-    <row r="680" ht="15.75" customHeight="1" s="2"/>
-    <row r="681" ht="15.75" customHeight="1" s="2"/>
-    <row r="682" ht="15.75" customHeight="1" s="2"/>
-    <row r="683" ht="15.75" customHeight="1" s="2"/>
-    <row r="684" ht="15.75" customHeight="1" s="2"/>
-    <row r="685" ht="15.75" customHeight="1" s="2"/>
-    <row r="686" ht="15.75" customHeight="1" s="2"/>
-    <row r="687" ht="15.75" customHeight="1" s="2"/>
-    <row r="688" ht="15.75" customHeight="1" s="2"/>
-    <row r="689" ht="15.75" customHeight="1" s="2"/>
-    <row r="690" ht="15.75" customHeight="1" s="2"/>
-    <row r="691" ht="15.75" customHeight="1" s="2"/>
-    <row r="692" ht="15.75" customHeight="1" s="2"/>
-    <row r="693" ht="15.75" customHeight="1" s="2"/>
-    <row r="694" ht="15.75" customHeight="1" s="2"/>
-    <row r="695" ht="15.75" customHeight="1" s="2"/>
-    <row r="696" ht="15.75" customHeight="1" s="2"/>
-    <row r="697" ht="15.75" customHeight="1" s="2"/>
-    <row r="698" ht="15.75" customHeight="1" s="2"/>
-    <row r="699" ht="15.75" customHeight="1" s="2"/>
-    <row r="700" ht="15.75" customHeight="1" s="2"/>
-    <row r="701" ht="15.75" customHeight="1" s="2"/>
-    <row r="702" ht="15.75" customHeight="1" s="2"/>
-    <row r="703" ht="15.75" customHeight="1" s="2"/>
-    <row r="704" ht="15.75" customHeight="1" s="2"/>
-    <row r="705" ht="15.75" customHeight="1" s="2"/>
-    <row r="706" ht="15.75" customHeight="1" s="2"/>
-    <row r="707" ht="15.75" customHeight="1" s="2"/>
-    <row r="708" ht="15.75" customHeight="1" s="2"/>
-    <row r="709" ht="15.75" customHeight="1" s="2"/>
-    <row r="710" ht="15.75" customHeight="1" s="2"/>
-    <row r="711" ht="15.75" customHeight="1" s="2"/>
-    <row r="712" ht="15.75" customHeight="1" s="2"/>
-    <row r="713" ht="15.75" customHeight="1" s="2"/>
-    <row r="714" ht="15.75" customHeight="1" s="2"/>
-    <row r="715" ht="15.75" customHeight="1" s="2"/>
-    <row r="716" ht="15.75" customHeight="1" s="2"/>
-    <row r="717" ht="15.75" customHeight="1" s="2"/>
-    <row r="718" ht="15.75" customHeight="1" s="2"/>
-    <row r="719" ht="15.75" customHeight="1" s="2"/>
-    <row r="720" ht="15.75" customHeight="1" s="2"/>
-    <row r="721" ht="15.75" customHeight="1" s="2"/>
-    <row r="722" ht="15.75" customHeight="1" s="2"/>
-    <row r="723" ht="15.75" customHeight="1" s="2"/>
-    <row r="724" ht="15.75" customHeight="1" s="2"/>
-    <row r="725" ht="15.75" customHeight="1" s="2"/>
-    <row r="726" ht="15.75" customHeight="1" s="2"/>
-    <row r="727" ht="15.75" customHeight="1" s="2"/>
-    <row r="728" ht="15.75" customHeight="1" s="2"/>
-    <row r="729" ht="15.75" customHeight="1" s="2"/>
-    <row r="730" ht="15.75" customHeight="1" s="2"/>
-    <row r="731" ht="15.75" customHeight="1" s="2"/>
-    <row r="732" ht="15.75" customHeight="1" s="2"/>
-    <row r="733" ht="15.75" customHeight="1" s="2"/>
-    <row r="734" ht="15.75" customHeight="1" s="2"/>
-    <row r="735" ht="15.75" customHeight="1" s="2"/>
-    <row r="736" ht="15.75" customHeight="1" s="2"/>
-    <row r="737" ht="15.75" customHeight="1" s="2"/>
-    <row r="738" ht="15.75" customHeight="1" s="2"/>
-    <row r="739" ht="15.75" customHeight="1" s="2"/>
-    <row r="740" ht="15.75" customHeight="1" s="2"/>
-    <row r="741" ht="15.75" customHeight="1" s="2"/>
-    <row r="742" ht="15.75" customHeight="1" s="2"/>
-    <row r="743" ht="15.75" customHeight="1" s="2"/>
-    <row r="744" ht="15.75" customHeight="1" s="2"/>
-    <row r="745" ht="15.75" customHeight="1" s="2"/>
-    <row r="746" ht="15.75" customHeight="1" s="2"/>
-    <row r="747" ht="15.75" customHeight="1" s="2"/>
-    <row r="748" ht="15.75" customHeight="1" s="2"/>
-    <row r="749" ht="15.75" customHeight="1" s="2"/>
-    <row r="750" ht="15.75" customHeight="1" s="2"/>
-    <row r="751" ht="15.75" customHeight="1" s="2"/>
-    <row r="752" ht="15.75" customHeight="1" s="2"/>
-    <row r="753" ht="15.75" customHeight="1" s="2"/>
-    <row r="754" ht="15.75" customHeight="1" s="2"/>
-    <row r="755" ht="15.75" customHeight="1" s="2"/>
-    <row r="756" ht="15.75" customHeight="1" s="2"/>
-    <row r="757" ht="15.75" customHeight="1" s="2"/>
-    <row r="758" ht="15.75" customHeight="1" s="2"/>
-    <row r="759" ht="15.75" customHeight="1" s="2"/>
-    <row r="760" ht="15.75" customHeight="1" s="2"/>
-    <row r="761" ht="15.75" customHeight="1" s="2"/>
-    <row r="762" ht="15.75" customHeight="1" s="2"/>
-    <row r="763" ht="15.75" customHeight="1" s="2"/>
-    <row r="764" ht="15.75" customHeight="1" s="2"/>
-    <row r="765" ht="15.75" customHeight="1" s="2"/>
-    <row r="766" ht="15.75" customHeight="1" s="2"/>
-    <row r="767" ht="15.75" customHeight="1" s="2"/>
-    <row r="768" ht="15.75" customHeight="1" s="2"/>
-    <row r="769" ht="15.75" customHeight="1" s="2"/>
-    <row r="770" ht="15.75" customHeight="1" s="2"/>
-    <row r="771" ht="15.75" customHeight="1" s="2"/>
-    <row r="772" ht="15.75" customHeight="1" s="2"/>
-    <row r="773" ht="15.75" customHeight="1" s="2"/>
-    <row r="774" ht="15.75" customHeight="1" s="2"/>
-    <row r="775" ht="15.75" customHeight="1" s="2"/>
-    <row r="776" ht="15.75" customHeight="1" s="2"/>
-    <row r="777" ht="15.75" customHeight="1" s="2"/>
-    <row r="778" ht="15.75" customHeight="1" s="2"/>
-    <row r="779" ht="15.75" customHeight="1" s="2"/>
-    <row r="780" ht="15.75" customHeight="1" s="2"/>
-    <row r="781" ht="15.75" customHeight="1" s="2"/>
-    <row r="782" ht="15.75" customHeight="1" s="2"/>
-    <row r="783" ht="15.75" customHeight="1" s="2"/>
-    <row r="784" ht="15.75" customHeight="1" s="2"/>
-    <row r="785" ht="15.75" customHeight="1" s="2"/>
-    <row r="786" ht="15.75" customHeight="1" s="2"/>
-    <row r="787" ht="15.75" customHeight="1" s="2"/>
-    <row r="788" ht="15.75" customHeight="1" s="2"/>
-    <row r="789" ht="15.75" customHeight="1" s="2"/>
-    <row r="790" ht="15.75" customHeight="1" s="2"/>
-    <row r="791" ht="15.75" customHeight="1" s="2"/>
-    <row r="792" ht="15.75" customHeight="1" s="2"/>
-    <row r="793" ht="15.75" customHeight="1" s="2"/>
-    <row r="794" ht="15.75" customHeight="1" s="2"/>
-    <row r="795" ht="15.75" customHeight="1" s="2"/>
-    <row r="796" ht="15.75" customHeight="1" s="2"/>
-    <row r="797" ht="15.75" customHeight="1" s="2"/>
-    <row r="798" ht="15.75" customHeight="1" s="2"/>
-    <row r="799" ht="15.75" customHeight="1" s="2"/>
-    <row r="800" ht="15.75" customHeight="1" s="2"/>
-    <row r="801" ht="15.75" customHeight="1" s="2"/>
-    <row r="802" ht="15.75" customHeight="1" s="2"/>
-    <row r="803" ht="15.75" customHeight="1" s="2"/>
-    <row r="804" ht="15.75" customHeight="1" s="2"/>
-    <row r="805" ht="15.75" customHeight="1" s="2"/>
-    <row r="806" ht="15.75" customHeight="1" s="2"/>
-    <row r="807" ht="15.75" customHeight="1" s="2"/>
-    <row r="808" ht="15.75" customHeight="1" s="2"/>
-    <row r="809" ht="15.75" customHeight="1" s="2"/>
-    <row r="810" ht="15.75" customHeight="1" s="2"/>
-    <row r="811" ht="15.75" customHeight="1" s="2"/>
-    <row r="812" ht="15.75" customHeight="1" s="2"/>
-    <row r="813" ht="15.75" customHeight="1" s="2"/>
-    <row r="814" ht="15.75" customHeight="1" s="2"/>
-    <row r="815" ht="15.75" customHeight="1" s="2"/>
-    <row r="816" ht="15.75" customHeight="1" s="2"/>
-    <row r="817" ht="15.75" customHeight="1" s="2"/>
-    <row r="818" ht="15.75" customHeight="1" s="2"/>
-    <row r="819" ht="15.75" customHeight="1" s="2"/>
-    <row r="820" ht="15.75" customHeight="1" s="2"/>
-    <row r="821" ht="15.75" customHeight="1" s="2"/>
-    <row r="822" ht="15.75" customHeight="1" s="2"/>
-    <row r="823" ht="15.75" customHeight="1" s="2"/>
-    <row r="824" ht="15.75" customHeight="1" s="2"/>
-    <row r="825" ht="15.75" customHeight="1" s="2"/>
-    <row r="826" ht="15.75" customHeight="1" s="2"/>
-    <row r="827" ht="15.75" customHeight="1" s="2"/>
-    <row r="828" ht="15.75" customHeight="1" s="2"/>
-    <row r="829" ht="15.75" customHeight="1" s="2"/>
-    <row r="830" ht="15.75" customHeight="1" s="2"/>
-    <row r="831" ht="15.75" customHeight="1" s="2"/>
-    <row r="832" ht="15.75" customHeight="1" s="2"/>
-    <row r="833" ht="15.75" customHeight="1" s="2"/>
-    <row r="834" ht="15.75" customHeight="1" s="2"/>
-    <row r="835" ht="15.75" customHeight="1" s="2"/>
-    <row r="836" ht="15.75" customHeight="1" s="2"/>
-    <row r="837" ht="15.75" customHeight="1" s="2"/>
-    <row r="838" ht="15.75" customHeight="1" s="2"/>
-    <row r="839" ht="15.75" customHeight="1" s="2"/>
-    <row r="840" ht="15.75" customHeight="1" s="2"/>
-    <row r="841" ht="15.75" customHeight="1" s="2"/>
-    <row r="842" ht="15.75" customHeight="1" s="2"/>
-    <row r="843" ht="15.75" customHeight="1" s="2"/>
-    <row r="844" ht="15.75" customHeight="1" s="2"/>
-    <row r="845" ht="15.75" customHeight="1" s="2"/>
-    <row r="846" ht="15.75" customHeight="1" s="2"/>
-    <row r="847" ht="15.75" customHeight="1" s="2"/>
-    <row r="848" ht="15.75" customHeight="1" s="2"/>
-    <row r="849" ht="15.75" customHeight="1" s="2"/>
-    <row r="850" ht="15.75" customHeight="1" s="2"/>
-    <row r="851" ht="15.75" customHeight="1" s="2"/>
-    <row r="852" ht="15.75" customHeight="1" s="2"/>
-    <row r="853" ht="15.75" customHeight="1" s="2"/>
-    <row r="854" ht="15.75" customHeight="1" s="2"/>
-    <row r="855" ht="15.75" customHeight="1" s="2"/>
-    <row r="856" ht="15.75" customHeight="1" s="2"/>
-    <row r="857" ht="15.75" customHeight="1" s="2"/>
-    <row r="858" ht="15.75" customHeight="1" s="2"/>
-    <row r="859" ht="15.75" customHeight="1" s="2"/>
-    <row r="860" ht="15.75" customHeight="1" s="2"/>
-    <row r="861" ht="15.75" customHeight="1" s="2"/>
-    <row r="862" ht="15.75" customHeight="1" s="2"/>
-    <row r="863" ht="15.75" customHeight="1" s="2"/>
-    <row r="864" ht="15.75" customHeight="1" s="2"/>
-    <row r="865" ht="15.75" customHeight="1" s="2"/>
-    <row r="866" ht="15.75" customHeight="1" s="2"/>
-    <row r="867" ht="15.75" customHeight="1" s="2"/>
-    <row r="868" ht="15.75" customHeight="1" s="2"/>
-    <row r="869" ht="15.75" customHeight="1" s="2"/>
-    <row r="870" ht="15.75" customHeight="1" s="2"/>
-    <row r="871" ht="15.75" customHeight="1" s="2"/>
-    <row r="872" ht="15.75" customHeight="1" s="2"/>
-    <row r="873" ht="15.75" customHeight="1" s="2"/>
-    <row r="874" ht="15.75" customHeight="1" s="2"/>
-    <row r="875" ht="15.75" customHeight="1" s="2"/>
-    <row r="876" ht="15.75" customHeight="1" s="2"/>
-    <row r="877" ht="15.75" customHeight="1" s="2"/>
-    <row r="878" ht="15.75" customHeight="1" s="2"/>
-    <row r="879" ht="15.75" customHeight="1" s="2"/>
-    <row r="880" ht="15.75" customHeight="1" s="2"/>
-    <row r="881" ht="15.75" customHeight="1" s="2"/>
-    <row r="882" ht="15.75" customHeight="1" s="2"/>
-    <row r="883" ht="15.75" customHeight="1" s="2"/>
-    <row r="884" ht="15.75" customHeight="1" s="2"/>
-    <row r="885" ht="15.75" customHeight="1" s="2"/>
-    <row r="886" ht="15.75" customHeight="1" s="2"/>
-    <row r="887" ht="15.75" customHeight="1" s="2"/>
-    <row r="888" ht="15.75" customHeight="1" s="2"/>
-    <row r="889" ht="15.75" customHeight="1" s="2"/>
-    <row r="890" ht="15.75" customHeight="1" s="2"/>
-    <row r="891" ht="15.75" customHeight="1" s="2"/>
-    <row r="892" ht="15.75" customHeight="1" s="2"/>
-    <row r="893" ht="15.75" customHeight="1" s="2"/>
-    <row r="894" ht="15.75" customHeight="1" s="2"/>
-    <row r="895" ht="15.75" customHeight="1" s="2"/>
-    <row r="896" ht="15.75" customHeight="1" s="2"/>
-    <row r="897" ht="15.75" customHeight="1" s="2"/>
-    <row r="898" ht="15.75" customHeight="1" s="2"/>
-    <row r="899" ht="15.75" customHeight="1" s="2"/>
-    <row r="900" ht="15.75" customHeight="1" s="2"/>
-    <row r="901" ht="15.75" customHeight="1" s="2"/>
-    <row r="902" ht="15.75" customHeight="1" s="2"/>
-    <row r="903" ht="15.75" customHeight="1" s="2"/>
-    <row r="904" ht="15.75" customHeight="1" s="2"/>
-    <row r="905" ht="15.75" customHeight="1" s="2"/>
-    <row r="906" ht="15.75" customHeight="1" s="2"/>
-    <row r="907" ht="15.75" customHeight="1" s="2"/>
-    <row r="908" ht="15.75" customHeight="1" s="2"/>
-    <row r="909" ht="15.75" customHeight="1" s="2"/>
-    <row r="910" ht="15.75" customHeight="1" s="2"/>
-    <row r="911" ht="15.75" customHeight="1" s="2"/>
-    <row r="912" ht="15.75" customHeight="1" s="2"/>
-    <row r="913" ht="15.75" customHeight="1" s="2"/>
-    <row r="914" ht="15.75" customHeight="1" s="2"/>
-    <row r="915" ht="15.75" customHeight="1" s="2"/>
-    <row r="916" ht="15.75" customHeight="1" s="2"/>
-    <row r="917" ht="15.75" customHeight="1" s="2"/>
-    <row r="918" ht="15.75" customHeight="1" s="2"/>
-    <row r="919" ht="15.75" customHeight="1" s="2"/>
-    <row r="920" ht="15.75" customHeight="1" s="2"/>
-    <row r="921" ht="15.75" customHeight="1" s="2"/>
-    <row r="922" ht="15.75" customHeight="1" s="2"/>
-    <row r="923" ht="15.75" customHeight="1" s="2"/>
-    <row r="924" ht="15.75" customHeight="1" s="2"/>
-    <row r="925" ht="15.75" customHeight="1" s="2"/>
-    <row r="926" ht="15.75" customHeight="1" s="2"/>
-    <row r="927" ht="15.75" customHeight="1" s="2"/>
-    <row r="928" ht="15.75" customHeight="1" s="2"/>
-    <row r="929" ht="15.75" customHeight="1" s="2"/>
-    <row r="930" ht="15.75" customHeight="1" s="2"/>
-    <row r="931" ht="15.75" customHeight="1" s="2"/>
-    <row r="932" ht="15.75" customHeight="1" s="2"/>
-    <row r="933" ht="15.75" customHeight="1" s="2"/>
-    <row r="934" ht="15.75" customHeight="1" s="2"/>
-    <row r="935" ht="15.75" customHeight="1" s="2"/>
-    <row r="936" ht="15.75" customHeight="1" s="2"/>
-    <row r="937" ht="15.75" customHeight="1" s="2"/>
-    <row r="938" ht="15.75" customHeight="1" s="2"/>
-    <row r="939" ht="15.75" customHeight="1" s="2"/>
-    <row r="940" ht="15.75" customHeight="1" s="2"/>
-    <row r="941" ht="15.75" customHeight="1" s="2"/>
-    <row r="942" ht="15.75" customHeight="1" s="2"/>
-    <row r="943" ht="15.75" customHeight="1" s="2"/>
-    <row r="944" ht="15.75" customHeight="1" s="2"/>
-    <row r="945" ht="15.75" customHeight="1" s="2"/>
-    <row r="946" ht="15.75" customHeight="1" s="2"/>
-    <row r="947" ht="15.75" customHeight="1" s="2"/>
-    <row r="948" ht="15.75" customHeight="1" s="2"/>
-    <row r="949" ht="15.75" customHeight="1" s="2"/>
-    <row r="950" ht="15.75" customHeight="1" s="2"/>
-    <row r="951" ht="15.75" customHeight="1" s="2"/>
-    <row r="952" ht="15.75" customHeight="1" s="2"/>
-    <row r="953" ht="15.75" customHeight="1" s="2"/>
-    <row r="954" ht="15.75" customHeight="1" s="2"/>
-    <row r="955" ht="15.75" customHeight="1" s="2"/>
-    <row r="956" ht="15.75" customHeight="1" s="2"/>
-    <row r="957" ht="15.75" customHeight="1" s="2"/>
-    <row r="958" ht="15.75" customHeight="1" s="2"/>
-    <row r="959" ht="15.75" customHeight="1" s="2"/>
-    <row r="960" ht="15.75" customHeight="1" s="2"/>
-    <row r="961" ht="15.75" customHeight="1" s="2"/>
-    <row r="962" ht="15.75" customHeight="1" s="2"/>
-    <row r="963" ht="15.75" customHeight="1" s="2"/>
-    <row r="964" ht="15.75" customHeight="1" s="2"/>
-    <row r="965" ht="15.75" customHeight="1" s="2"/>
-    <row r="966" ht="15.75" customHeight="1" s="2"/>
-    <row r="967" ht="15.75" customHeight="1" s="2"/>
-    <row r="968" ht="15.75" customHeight="1" s="2"/>
-    <row r="969" ht="15.75" customHeight="1" s="2"/>
-    <row r="970" ht="15.75" customHeight="1" s="2"/>
-    <row r="971" ht="15.75" customHeight="1" s="2"/>
-    <row r="972" ht="15.75" customHeight="1" s="2"/>
-    <row r="973" ht="15.75" customHeight="1" s="2"/>
-    <row r="974" ht="15.75" customHeight="1" s="2"/>
-    <row r="975" ht="15.75" customHeight="1" s="2"/>
-    <row r="976" ht="15.75" customHeight="1" s="2"/>
-    <row r="977" ht="15.75" customHeight="1" s="2"/>
-    <row r="978" ht="15.75" customHeight="1" s="2"/>
-    <row r="979" ht="15.75" customHeight="1" s="2"/>
-    <row r="980" ht="15.75" customHeight="1" s="2"/>
-    <row r="981" ht="15.75" customHeight="1" s="2"/>
-    <row r="982" ht="15.75" customHeight="1" s="2"/>
-    <row r="983" ht="15.75" customHeight="1" s="2"/>
-    <row r="984" ht="15.75" customHeight="1" s="2"/>
-    <row r="985" ht="15.75" customHeight="1" s="2"/>
-    <row r="986" ht="15.75" customHeight="1" s="2"/>
-    <row r="987" ht="15.75" customHeight="1" s="2"/>
-    <row r="988" ht="15.75" customHeight="1" s="2"/>
-    <row r="989" ht="15.75" customHeight="1" s="2"/>
-    <row r="990" ht="15.75" customHeight="1" s="2"/>
-    <row r="991" ht="15.75" customHeight="1" s="2"/>
-    <row r="992" ht="15.75" customHeight="1" s="2"/>
-    <row r="993" ht="15.75" customHeight="1" s="2"/>
-    <row r="994" ht="15.75" customHeight="1" s="2"/>
-    <row r="995" ht="15.75" customHeight="1" s="2"/>
-    <row r="996" ht="15.75" customHeight="1" s="2"/>
-    <row r="997" ht="15.75" customHeight="1" s="2"/>
-    <row r="998" ht="15.75" customHeight="1" s="2"/>
-    <row r="999" ht="15.75" customHeight="1" s="2"/>
-    <row r="1000" ht="15.75" customHeight="1" s="2"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>to / the / The / stay / men / young / police / tell / there / officer / .</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1" s="3"/>
+    <row r="181" ht="15.75" customHeight="1" s="3"/>
+    <row r="182" ht="15.75" customHeight="1" s="3"/>
+    <row r="183" ht="15.75" customHeight="1" s="3"/>
+    <row r="184" ht="15.75" customHeight="1" s="3"/>
+    <row r="185" ht="15.75" customHeight="1" s="3"/>
+    <row r="186" ht="15.75" customHeight="1" s="3"/>
+    <row r="187" ht="15.75" customHeight="1" s="3"/>
+    <row r="188" ht="15.75" customHeight="1" s="3"/>
+    <row r="189" ht="15.75" customHeight="1" s="3"/>
+    <row r="190" ht="15.75" customHeight="1" s="3"/>
+    <row r="191" ht="15.75" customHeight="1" s="3"/>
+    <row r="192" ht="15.75" customHeight="1" s="3"/>
+    <row r="193" ht="15.75" customHeight="1" s="3"/>
+    <row r="194" ht="15.75" customHeight="1" s="3"/>
+    <row r="195" ht="15.75" customHeight="1" s="3"/>
+    <row r="196" ht="15.75" customHeight="1" s="3"/>
+    <row r="197" ht="15.75" customHeight="1" s="3"/>
+    <row r="198" ht="15.75" customHeight="1" s="3"/>
+    <row r="199" ht="15.75" customHeight="1" s="3"/>
+    <row r="200" ht="15.75" customHeight="1" s="3"/>
+    <row r="201" ht="15.75" customHeight="1" s="3"/>
+    <row r="202" ht="15.75" customHeight="1" s="3"/>
+    <row r="203" ht="15.75" customHeight="1" s="3"/>
+    <row r="204" ht="15.75" customHeight="1" s="3"/>
+    <row r="205" ht="15.75" customHeight="1" s="3"/>
+    <row r="206" ht="15.75" customHeight="1" s="3"/>
+    <row r="207" ht="15.75" customHeight="1" s="3"/>
+    <row r="208" ht="15.75" customHeight="1" s="3"/>
+    <row r="209" ht="15.75" customHeight="1" s="3"/>
+    <row r="210" ht="15.75" customHeight="1" s="3"/>
+    <row r="211" ht="15.75" customHeight="1" s="3"/>
+    <row r="212" ht="15.75" customHeight="1" s="3"/>
+    <row r="213" ht="15.75" customHeight="1" s="3"/>
+    <row r="214" ht="15.75" customHeight="1" s="3"/>
+    <row r="215" ht="15.75" customHeight="1" s="3"/>
+    <row r="216" ht="15.75" customHeight="1" s="3"/>
+    <row r="217" ht="15.75" customHeight="1" s="3"/>
+    <row r="218" ht="15.75" customHeight="1" s="3"/>
+    <row r="219" ht="15.75" customHeight="1" s="3"/>
+    <row r="220" ht="15.75" customHeight="1" s="3"/>
+    <row r="221" ht="15.75" customHeight="1" s="3"/>
+    <row r="222" ht="15.75" customHeight="1" s="3"/>
+    <row r="223" ht="15.75" customHeight="1" s="3"/>
+    <row r="224" ht="15.75" customHeight="1" s="3"/>
+    <row r="225" ht="15.75" customHeight="1" s="3"/>
+    <row r="226" ht="15.75" customHeight="1" s="3"/>
+    <row r="227" ht="15.75" customHeight="1" s="3"/>
+    <row r="228" ht="15.75" customHeight="1" s="3"/>
+    <row r="229" ht="15.75" customHeight="1" s="3"/>
+    <row r="230" ht="15.75" customHeight="1" s="3"/>
+    <row r="231" ht="15.75" customHeight="1" s="3"/>
+    <row r="232" ht="15.75" customHeight="1" s="3"/>
+    <row r="233" ht="15.75" customHeight="1" s="3"/>
+    <row r="234" ht="15.75" customHeight="1" s="3"/>
+    <row r="235" ht="15.75" customHeight="1" s="3"/>
+    <row r="236" ht="15.75" customHeight="1" s="3"/>
+    <row r="237" ht="15.75" customHeight="1" s="3"/>
+    <row r="238" ht="15.75" customHeight="1" s="3"/>
+    <row r="239" ht="15.75" customHeight="1" s="3"/>
+    <row r="240" ht="15.75" customHeight="1" s="3"/>
+    <row r="241" ht="15.75" customHeight="1" s="3"/>
+    <row r="242" ht="15.75" customHeight="1" s="3"/>
+    <row r="243" ht="15.75" customHeight="1" s="3"/>
+    <row r="244" ht="15.75" customHeight="1" s="3"/>
+    <row r="245" ht="15.75" customHeight="1" s="3"/>
+    <row r="246" ht="15.75" customHeight="1" s="3"/>
+    <row r="247" ht="15.75" customHeight="1" s="3"/>
+    <row r="248" ht="15.75" customHeight="1" s="3"/>
+    <row r="249" ht="15.75" customHeight="1" s="3"/>
+    <row r="250" ht="15.75" customHeight="1" s="3"/>
+    <row r="251" ht="15.75" customHeight="1" s="3"/>
+    <row r="252" ht="15.75" customHeight="1" s="3"/>
+    <row r="253" ht="15.75" customHeight="1" s="3"/>
+    <row r="254" ht="15.75" customHeight="1" s="3"/>
+    <row r="255" ht="15.75" customHeight="1" s="3"/>
+    <row r="256" ht="15.75" customHeight="1" s="3"/>
+    <row r="257" ht="15.75" customHeight="1" s="3"/>
+    <row r="258" ht="15.75" customHeight="1" s="3"/>
+    <row r="259" ht="15.75" customHeight="1" s="3"/>
+    <row r="260" ht="15.75" customHeight="1" s="3"/>
+    <row r="261" ht="15.75" customHeight="1" s="3"/>
+    <row r="262" ht="15.75" customHeight="1" s="3"/>
+    <row r="263" ht="15.75" customHeight="1" s="3"/>
+    <row r="264" ht="15.75" customHeight="1" s="3"/>
+    <row r="265" ht="15.75" customHeight="1" s="3"/>
+    <row r="266" ht="15.75" customHeight="1" s="3"/>
+    <row r="267" ht="15.75" customHeight="1" s="3"/>
+    <row r="268" ht="15.75" customHeight="1" s="3"/>
+    <row r="269" ht="15.75" customHeight="1" s="3"/>
+    <row r="270" ht="15.75" customHeight="1" s="3"/>
+    <row r="271" ht="15.75" customHeight="1" s="3"/>
+    <row r="272" ht="15.75" customHeight="1" s="3"/>
+    <row r="273" ht="15.75" customHeight="1" s="3"/>
+    <row r="274" ht="15.75" customHeight="1" s="3"/>
+    <row r="275" ht="15.75" customHeight="1" s="3"/>
+    <row r="276" ht="15.75" customHeight="1" s="3"/>
+    <row r="277" ht="15.75" customHeight="1" s="3"/>
+    <row r="278" ht="15.75" customHeight="1" s="3"/>
+    <row r="279" ht="15.75" customHeight="1" s="3"/>
+    <row r="280" ht="15.75" customHeight="1" s="3"/>
+    <row r="281" ht="15.75" customHeight="1" s="3"/>
+    <row r="282" ht="15.75" customHeight="1" s="3"/>
+    <row r="283" ht="15.75" customHeight="1" s="3"/>
+    <row r="284" ht="15.75" customHeight="1" s="3"/>
+    <row r="285" ht="15.75" customHeight="1" s="3"/>
+    <row r="286" ht="15.75" customHeight="1" s="3"/>
+    <row r="287" ht="15.75" customHeight="1" s="3"/>
+    <row r="288" ht="15.75" customHeight="1" s="3"/>
+    <row r="289" ht="15.75" customHeight="1" s="3"/>
+    <row r="290" ht="15.75" customHeight="1" s="3"/>
+    <row r="291" ht="15.75" customHeight="1" s="3"/>
+    <row r="292" ht="15.75" customHeight="1" s="3"/>
+    <row r="293" ht="15.75" customHeight="1" s="3"/>
+    <row r="294" ht="15.75" customHeight="1" s="3"/>
+    <row r="295" ht="15.75" customHeight="1" s="3"/>
+    <row r="296" ht="15.75" customHeight="1" s="3"/>
+    <row r="297" ht="15.75" customHeight="1" s="3"/>
+    <row r="298" ht="15.75" customHeight="1" s="3"/>
+    <row r="299" ht="15.75" customHeight="1" s="3"/>
+    <row r="300" ht="15.75" customHeight="1" s="3"/>
+    <row r="301" ht="15.75" customHeight="1" s="3"/>
+    <row r="302" ht="15.75" customHeight="1" s="3"/>
+    <row r="303" ht="15.75" customHeight="1" s="3"/>
+    <row r="304" ht="15.75" customHeight="1" s="3"/>
+    <row r="305" ht="15.75" customHeight="1" s="3"/>
+    <row r="306" ht="15.75" customHeight="1" s="3"/>
+    <row r="307" ht="15.75" customHeight="1" s="3"/>
+    <row r="308" ht="15.75" customHeight="1" s="3"/>
+    <row r="309" ht="15.75" customHeight="1" s="3"/>
+    <row r="310" ht="15.75" customHeight="1" s="3"/>
+    <row r="311" ht="15.75" customHeight="1" s="3"/>
+    <row r="312" ht="15.75" customHeight="1" s="3"/>
+    <row r="313" ht="15.75" customHeight="1" s="3"/>
+    <row r="314" ht="15.75" customHeight="1" s="3"/>
+    <row r="315" ht="15.75" customHeight="1" s="3"/>
+    <row r="316" ht="15.75" customHeight="1" s="3"/>
+    <row r="317" ht="15.75" customHeight="1" s="3"/>
+    <row r="318" ht="15.75" customHeight="1" s="3"/>
+    <row r="319" ht="15.75" customHeight="1" s="3"/>
+    <row r="320" ht="15.75" customHeight="1" s="3"/>
+    <row r="321" ht="15.75" customHeight="1" s="3"/>
+    <row r="322" ht="15.75" customHeight="1" s="3"/>
+    <row r="323" ht="15.75" customHeight="1" s="3"/>
+    <row r="324" ht="15.75" customHeight="1" s="3"/>
+    <row r="325" ht="15.75" customHeight="1" s="3"/>
+    <row r="326" ht="15.75" customHeight="1" s="3"/>
+    <row r="327" ht="15.75" customHeight="1" s="3"/>
+    <row r="328" ht="15.75" customHeight="1" s="3"/>
+    <row r="329" ht="15.75" customHeight="1" s="3"/>
+    <row r="330" ht="15.75" customHeight="1" s="3"/>
+    <row r="331" ht="15.75" customHeight="1" s="3"/>
+    <row r="332" ht="15.75" customHeight="1" s="3"/>
+    <row r="333" ht="15.75" customHeight="1" s="3"/>
+    <row r="334" ht="15.75" customHeight="1" s="3"/>
+    <row r="335" ht="15.75" customHeight="1" s="3"/>
+    <row r="336" ht="15.75" customHeight="1" s="3"/>
+    <row r="337" ht="15.75" customHeight="1" s="3"/>
+    <row r="338" ht="15.75" customHeight="1" s="3"/>
+    <row r="339" ht="15.75" customHeight="1" s="3"/>
+    <row r="340" ht="15.75" customHeight="1" s="3"/>
+    <row r="341" ht="15.75" customHeight="1" s="3"/>
+    <row r="342" ht="15.75" customHeight="1" s="3"/>
+    <row r="343" ht="15.75" customHeight="1" s="3"/>
+    <row r="344" ht="15.75" customHeight="1" s="3"/>
+    <row r="345" ht="15.75" customHeight="1" s="3"/>
+    <row r="346" ht="15.75" customHeight="1" s="3"/>
+    <row r="347" ht="15.75" customHeight="1" s="3"/>
+    <row r="348" ht="15.75" customHeight="1" s="3"/>
+    <row r="349" ht="15.75" customHeight="1" s="3"/>
+    <row r="350" ht="15.75" customHeight="1" s="3"/>
+    <row r="351" ht="15.75" customHeight="1" s="3"/>
+    <row r="352" ht="15.75" customHeight="1" s="3"/>
+    <row r="353" ht="15.75" customHeight="1" s="3"/>
+    <row r="354" ht="15.75" customHeight="1" s="3"/>
+    <row r="355" ht="15.75" customHeight="1" s="3"/>
+    <row r="356" ht="15.75" customHeight="1" s="3"/>
+    <row r="357" ht="15.75" customHeight="1" s="3"/>
+    <row r="358" ht="15.75" customHeight="1" s="3"/>
+    <row r="359" ht="15.75" customHeight="1" s="3"/>
+    <row r="360" ht="15.75" customHeight="1" s="3"/>
+    <row r="361" ht="15.75" customHeight="1" s="3"/>
+    <row r="362" ht="15.75" customHeight="1" s="3"/>
+    <row r="363" ht="15.75" customHeight="1" s="3"/>
+    <row r="364" ht="15.75" customHeight="1" s="3"/>
+    <row r="365" ht="15.75" customHeight="1" s="3"/>
+    <row r="366" ht="15.75" customHeight="1" s="3"/>
+    <row r="367" ht="15.75" customHeight="1" s="3"/>
+    <row r="368" ht="15.75" customHeight="1" s="3"/>
+    <row r="369" ht="15.75" customHeight="1" s="3"/>
+    <row r="370" ht="15.75" customHeight="1" s="3"/>
+    <row r="371" ht="15.75" customHeight="1" s="3"/>
+    <row r="372" ht="15.75" customHeight="1" s="3"/>
+    <row r="373" ht="15.75" customHeight="1" s="3"/>
+    <row r="374" ht="15.75" customHeight="1" s="3"/>
+    <row r="375" ht="15.75" customHeight="1" s="3"/>
+    <row r="376" ht="15.75" customHeight="1" s="3"/>
+    <row r="377" ht="15.75" customHeight="1" s="3"/>
+    <row r="378" ht="15.75" customHeight="1" s="3"/>
+    <row r="379" ht="15.75" customHeight="1" s="3"/>
+    <row r="380" ht="15.75" customHeight="1" s="3"/>
+    <row r="381" ht="15.75" customHeight="1" s="3"/>
+    <row r="382" ht="15.75" customHeight="1" s="3"/>
+    <row r="383" ht="15.75" customHeight="1" s="3"/>
+    <row r="384" ht="15.75" customHeight="1" s="3"/>
+    <row r="385" ht="15.75" customHeight="1" s="3"/>
+    <row r="386" ht="15.75" customHeight="1" s="3"/>
+    <row r="387" ht="15.75" customHeight="1" s="3"/>
+    <row r="388" ht="15.75" customHeight="1" s="3"/>
+    <row r="389" ht="15.75" customHeight="1" s="3"/>
+    <row r="390" ht="15.75" customHeight="1" s="3"/>
+    <row r="391" ht="15.75" customHeight="1" s="3"/>
+    <row r="392" ht="15.75" customHeight="1" s="3"/>
+    <row r="393" ht="15.75" customHeight="1" s="3"/>
+    <row r="394" ht="15.75" customHeight="1" s="3"/>
+    <row r="395" ht="15.75" customHeight="1" s="3"/>
+    <row r="396" ht="15.75" customHeight="1" s="3"/>
+    <row r="397" ht="15.75" customHeight="1" s="3"/>
+    <row r="398" ht="15.75" customHeight="1" s="3"/>
+    <row r="399" ht="15.75" customHeight="1" s="3"/>
+    <row r="400" ht="15.75" customHeight="1" s="3"/>
+    <row r="401" ht="15.75" customHeight="1" s="3"/>
+    <row r="402" ht="15.75" customHeight="1" s="3"/>
+    <row r="403" ht="15.75" customHeight="1" s="3"/>
+    <row r="404" ht="15.75" customHeight="1" s="3"/>
+    <row r="405" ht="15.75" customHeight="1" s="3"/>
+    <row r="406" ht="15.75" customHeight="1" s="3"/>
+    <row r="407" ht="15.75" customHeight="1" s="3"/>
+    <row r="408" ht="15.75" customHeight="1" s="3"/>
+    <row r="409" ht="15.75" customHeight="1" s="3"/>
+    <row r="410" ht="15.75" customHeight="1" s="3"/>
+    <row r="411" ht="15.75" customHeight="1" s="3"/>
+    <row r="412" ht="15.75" customHeight="1" s="3"/>
+    <row r="413" ht="15.75" customHeight="1" s="3"/>
+    <row r="414" ht="15.75" customHeight="1" s="3"/>
+    <row r="415" ht="15.75" customHeight="1" s="3"/>
+    <row r="416" ht="15.75" customHeight="1" s="3"/>
+    <row r="417" ht="15.75" customHeight="1" s="3"/>
+    <row r="418" ht="15.75" customHeight="1" s="3"/>
+    <row r="419" ht="15.75" customHeight="1" s="3"/>
+    <row r="420" ht="15.75" customHeight="1" s="3"/>
+    <row r="421" ht="15.75" customHeight="1" s="3"/>
+    <row r="422" ht="15.75" customHeight="1" s="3"/>
+    <row r="423" ht="15.75" customHeight="1" s="3"/>
+    <row r="424" ht="15.75" customHeight="1" s="3"/>
+    <row r="425" ht="15.75" customHeight="1" s="3"/>
+    <row r="426" ht="15.75" customHeight="1" s="3"/>
+    <row r="427" ht="15.75" customHeight="1" s="3"/>
+    <row r="428" ht="15.75" customHeight="1" s="3"/>
+    <row r="429" ht="15.75" customHeight="1" s="3"/>
+    <row r="430" ht="15.75" customHeight="1" s="3"/>
+    <row r="431" ht="15.75" customHeight="1" s="3"/>
+    <row r="432" ht="15.75" customHeight="1" s="3"/>
+    <row r="433" ht="15.75" customHeight="1" s="3"/>
+    <row r="434" ht="15.75" customHeight="1" s="3"/>
+    <row r="435" ht="15.75" customHeight="1" s="3"/>
+    <row r="436" ht="15.75" customHeight="1" s="3"/>
+    <row r="437" ht="15.75" customHeight="1" s="3"/>
+    <row r="438" ht="15.75" customHeight="1" s="3"/>
+    <row r="439" ht="15.75" customHeight="1" s="3"/>
+    <row r="440" ht="15.75" customHeight="1" s="3"/>
+    <row r="441" ht="15.75" customHeight="1" s="3"/>
+    <row r="442" ht="15.75" customHeight="1" s="3"/>
+    <row r="443" ht="15.75" customHeight="1" s="3"/>
+    <row r="444" ht="15.75" customHeight="1" s="3"/>
+    <row r="445" ht="15.75" customHeight="1" s="3"/>
+    <row r="446" ht="15.75" customHeight="1" s="3"/>
+    <row r="447" ht="15.75" customHeight="1" s="3"/>
+    <row r="448" ht="15.75" customHeight="1" s="3"/>
+    <row r="449" ht="15.75" customHeight="1" s="3"/>
+    <row r="450" ht="15.75" customHeight="1" s="3"/>
+    <row r="451" ht="15.75" customHeight="1" s="3"/>
+    <row r="452" ht="15.75" customHeight="1" s="3"/>
+    <row r="453" ht="15.75" customHeight="1" s="3"/>
+    <row r="454" ht="15.75" customHeight="1" s="3"/>
+    <row r="455" ht="15.75" customHeight="1" s="3"/>
+    <row r="456" ht="15.75" customHeight="1" s="3"/>
+    <row r="457" ht="15.75" customHeight="1" s="3"/>
+    <row r="458" ht="15.75" customHeight="1" s="3"/>
+    <row r="459" ht="15.75" customHeight="1" s="3"/>
+    <row r="460" ht="15.75" customHeight="1" s="3"/>
+    <row r="461" ht="15.75" customHeight="1" s="3"/>
+    <row r="462" ht="15.75" customHeight="1" s="3"/>
+    <row r="463" ht="15.75" customHeight="1" s="3"/>
+    <row r="464" ht="15.75" customHeight="1" s="3"/>
+    <row r="465" ht="15.75" customHeight="1" s="3"/>
+    <row r="466" ht="15.75" customHeight="1" s="3"/>
+    <row r="467" ht="15.75" customHeight="1" s="3"/>
+    <row r="468" ht="15.75" customHeight="1" s="3"/>
+    <row r="469" ht="15.75" customHeight="1" s="3"/>
+    <row r="470" ht="15.75" customHeight="1" s="3"/>
+    <row r="471" ht="15.75" customHeight="1" s="3"/>
+    <row r="472" ht="15.75" customHeight="1" s="3"/>
+    <row r="473" ht="15.75" customHeight="1" s="3"/>
+    <row r="474" ht="15.75" customHeight="1" s="3"/>
+    <row r="475" ht="15.75" customHeight="1" s="3"/>
+    <row r="476" ht="15.75" customHeight="1" s="3"/>
+    <row r="477" ht="15.75" customHeight="1" s="3"/>
+    <row r="478" ht="15.75" customHeight="1" s="3"/>
+    <row r="479" ht="15.75" customHeight="1" s="3"/>
+    <row r="480" ht="15.75" customHeight="1" s="3"/>
+    <row r="481" ht="15.75" customHeight="1" s="3"/>
+    <row r="482" ht="15.75" customHeight="1" s="3"/>
+    <row r="483" ht="15.75" customHeight="1" s="3"/>
+    <row r="484" ht="15.75" customHeight="1" s="3"/>
+    <row r="485" ht="15.75" customHeight="1" s="3"/>
+    <row r="486" ht="15.75" customHeight="1" s="3"/>
+    <row r="487" ht="15.75" customHeight="1" s="3"/>
+    <row r="488" ht="15.75" customHeight="1" s="3"/>
+    <row r="489" ht="15.75" customHeight="1" s="3"/>
+    <row r="490" ht="15.75" customHeight="1" s="3"/>
+    <row r="491" ht="15.75" customHeight="1" s="3"/>
+    <row r="492" ht="15.75" customHeight="1" s="3"/>
+    <row r="493" ht="15.75" customHeight="1" s="3"/>
+    <row r="494" ht="15.75" customHeight="1" s="3"/>
+    <row r="495" ht="15.75" customHeight="1" s="3"/>
+    <row r="496" ht="15.75" customHeight="1" s="3"/>
+    <row r="497" ht="15.75" customHeight="1" s="3"/>
+    <row r="498" ht="15.75" customHeight="1" s="3"/>
+    <row r="499" ht="15.75" customHeight="1" s="3"/>
+    <row r="500" ht="15.75" customHeight="1" s="3"/>
+    <row r="501" ht="15.75" customHeight="1" s="3"/>
+    <row r="502" ht="15.75" customHeight="1" s="3"/>
+    <row r="503" ht="15.75" customHeight="1" s="3"/>
+    <row r="504" ht="15.75" customHeight="1" s="3"/>
+    <row r="505" ht="15.75" customHeight="1" s="3"/>
+    <row r="506" ht="15.75" customHeight="1" s="3"/>
+    <row r="507" ht="15.75" customHeight="1" s="3"/>
+    <row r="508" ht="15.75" customHeight="1" s="3"/>
+    <row r="509" ht="15.75" customHeight="1" s="3"/>
+    <row r="510" ht="15.75" customHeight="1" s="3"/>
+    <row r="511" ht="15.75" customHeight="1" s="3"/>
+    <row r="512" ht="15.75" customHeight="1" s="3"/>
+    <row r="513" ht="15.75" customHeight="1" s="3"/>
+    <row r="514" ht="15.75" customHeight="1" s="3"/>
+    <row r="515" ht="15.75" customHeight="1" s="3"/>
+    <row r="516" ht="15.75" customHeight="1" s="3"/>
+    <row r="517" ht="15.75" customHeight="1" s="3"/>
+    <row r="518" ht="15.75" customHeight="1" s="3"/>
+    <row r="519" ht="15.75" customHeight="1" s="3"/>
+    <row r="520" ht="15.75" customHeight="1" s="3"/>
+    <row r="521" ht="15.75" customHeight="1" s="3"/>
+    <row r="522" ht="15.75" customHeight="1" s="3"/>
+    <row r="523" ht="15.75" customHeight="1" s="3"/>
+    <row r="524" ht="15.75" customHeight="1" s="3"/>
+    <row r="525" ht="15.75" customHeight="1" s="3"/>
+    <row r="526" ht="15.75" customHeight="1" s="3"/>
+    <row r="527" ht="15.75" customHeight="1" s="3"/>
+    <row r="528" ht="15.75" customHeight="1" s="3"/>
+    <row r="529" ht="15.75" customHeight="1" s="3"/>
+    <row r="530" ht="15.75" customHeight="1" s="3"/>
+    <row r="531" ht="15.75" customHeight="1" s="3"/>
+    <row r="532" ht="15.75" customHeight="1" s="3"/>
+    <row r="533" ht="15.75" customHeight="1" s="3"/>
+    <row r="534" ht="15.75" customHeight="1" s="3"/>
+    <row r="535" ht="15.75" customHeight="1" s="3"/>
+    <row r="536" ht="15.75" customHeight="1" s="3"/>
+    <row r="537" ht="15.75" customHeight="1" s="3"/>
+    <row r="538" ht="15.75" customHeight="1" s="3"/>
+    <row r="539" ht="15.75" customHeight="1" s="3"/>
+    <row r="540" ht="15.75" customHeight="1" s="3"/>
+    <row r="541" ht="15.75" customHeight="1" s="3"/>
+    <row r="542" ht="15.75" customHeight="1" s="3"/>
+    <row r="543" ht="15.75" customHeight="1" s="3"/>
+    <row r="544" ht="15.75" customHeight="1" s="3"/>
+    <row r="545" ht="15.75" customHeight="1" s="3"/>
+    <row r="546" ht="15.75" customHeight="1" s="3"/>
+    <row r="547" ht="15.75" customHeight="1" s="3"/>
+    <row r="548" ht="15.75" customHeight="1" s="3"/>
+    <row r="549" ht="15.75" customHeight="1" s="3"/>
+    <row r="550" ht="15.75" customHeight="1" s="3"/>
+    <row r="551" ht="15.75" customHeight="1" s="3"/>
+    <row r="552" ht="15.75" customHeight="1" s="3"/>
+    <row r="553" ht="15.75" customHeight="1" s="3"/>
+    <row r="554" ht="15.75" customHeight="1" s="3"/>
+    <row r="555" ht="15.75" customHeight="1" s="3"/>
+    <row r="556" ht="15.75" customHeight="1" s="3"/>
+    <row r="557" ht="15.75" customHeight="1" s="3"/>
+    <row r="558" ht="15.75" customHeight="1" s="3"/>
+    <row r="559" ht="15.75" customHeight="1" s="3"/>
+    <row r="560" ht="15.75" customHeight="1" s="3"/>
+    <row r="561" ht="15.75" customHeight="1" s="3"/>
+    <row r="562" ht="15.75" customHeight="1" s="3"/>
+    <row r="563" ht="15.75" customHeight="1" s="3"/>
+    <row r="564" ht="15.75" customHeight="1" s="3"/>
+    <row r="565" ht="15.75" customHeight="1" s="3"/>
+    <row r="566" ht="15.75" customHeight="1" s="3"/>
+    <row r="567" ht="15.75" customHeight="1" s="3"/>
+    <row r="568" ht="15.75" customHeight="1" s="3"/>
+    <row r="569" ht="15.75" customHeight="1" s="3"/>
+    <row r="570" ht="15.75" customHeight="1" s="3"/>
+    <row r="571" ht="15.75" customHeight="1" s="3"/>
+    <row r="572" ht="15.75" customHeight="1" s="3"/>
+    <row r="573" ht="15.75" customHeight="1" s="3"/>
+    <row r="574" ht="15.75" customHeight="1" s="3"/>
+    <row r="575" ht="15.75" customHeight="1" s="3"/>
+    <row r="576" ht="15.75" customHeight="1" s="3"/>
+    <row r="577" ht="15.75" customHeight="1" s="3"/>
+    <row r="578" ht="15.75" customHeight="1" s="3"/>
+    <row r="579" ht="15.75" customHeight="1" s="3"/>
+    <row r="580" ht="15.75" customHeight="1" s="3"/>
+    <row r="581" ht="15.75" customHeight="1" s="3"/>
+    <row r="582" ht="15.75" customHeight="1" s="3"/>
+    <row r="583" ht="15.75" customHeight="1" s="3"/>
+    <row r="584" ht="15.75" customHeight="1" s="3"/>
+    <row r="585" ht="15.75" customHeight="1" s="3"/>
+    <row r="586" ht="15.75" customHeight="1" s="3"/>
+    <row r="587" ht="15.75" customHeight="1" s="3"/>
+    <row r="588" ht="15.75" customHeight="1" s="3"/>
+    <row r="589" ht="15.75" customHeight="1" s="3"/>
+    <row r="590" ht="15.75" customHeight="1" s="3"/>
+    <row r="591" ht="15.75" customHeight="1" s="3"/>
+    <row r="592" ht="15.75" customHeight="1" s="3"/>
+    <row r="593" ht="15.75" customHeight="1" s="3"/>
+    <row r="594" ht="15.75" customHeight="1" s="3"/>
+    <row r="595" ht="15.75" customHeight="1" s="3"/>
+    <row r="596" ht="15.75" customHeight="1" s="3"/>
+    <row r="597" ht="15.75" customHeight="1" s="3"/>
+    <row r="598" ht="15.75" customHeight="1" s="3"/>
+    <row r="599" ht="15.75" customHeight="1" s="3"/>
+    <row r="600" ht="15.75" customHeight="1" s="3"/>
+    <row r="601" ht="15.75" customHeight="1" s="3"/>
+    <row r="602" ht="15.75" customHeight="1" s="3"/>
+    <row r="603" ht="15.75" customHeight="1" s="3"/>
+    <row r="604" ht="15.75" customHeight="1" s="3"/>
+    <row r="605" ht="15.75" customHeight="1" s="3"/>
+    <row r="606" ht="15.75" customHeight="1" s="3"/>
+    <row r="607" ht="15.75" customHeight="1" s="3"/>
+    <row r="608" ht="15.75" customHeight="1" s="3"/>
+    <row r="609" ht="15.75" customHeight="1" s="3"/>
+    <row r="610" ht="15.75" customHeight="1" s="3"/>
+    <row r="611" ht="15.75" customHeight="1" s="3"/>
+    <row r="612" ht="15.75" customHeight="1" s="3"/>
+    <row r="613" ht="15.75" customHeight="1" s="3"/>
+    <row r="614" ht="15.75" customHeight="1" s="3"/>
+    <row r="615" ht="15.75" customHeight="1" s="3"/>
+    <row r="616" ht="15.75" customHeight="1" s="3"/>
+    <row r="617" ht="15.75" customHeight="1" s="3"/>
+    <row r="618" ht="15.75" customHeight="1" s="3"/>
+    <row r="619" ht="15.75" customHeight="1" s="3"/>
+    <row r="620" ht="15.75" customHeight="1" s="3"/>
+    <row r="621" ht="15.75" customHeight="1" s="3"/>
+    <row r="622" ht="15.75" customHeight="1" s="3"/>
+    <row r="623" ht="15.75" customHeight="1" s="3"/>
+    <row r="624" ht="15.75" customHeight="1" s="3"/>
+    <row r="625" ht="15.75" customHeight="1" s="3"/>
+    <row r="626" ht="15.75" customHeight="1" s="3"/>
+    <row r="627" ht="15.75" customHeight="1" s="3"/>
+    <row r="628" ht="15.75" customHeight="1" s="3"/>
+    <row r="629" ht="15.75" customHeight="1" s="3"/>
+    <row r="630" ht="15.75" customHeight="1" s="3"/>
+    <row r="631" ht="15.75" customHeight="1" s="3"/>
+    <row r="632" ht="15.75" customHeight="1" s="3"/>
+    <row r="633" ht="15.75" customHeight="1" s="3"/>
+    <row r="634" ht="15.75" customHeight="1" s="3"/>
+    <row r="635" ht="15.75" customHeight="1" s="3"/>
+    <row r="636" ht="15.75" customHeight="1" s="3"/>
+    <row r="637" ht="15.75" customHeight="1" s="3"/>
+    <row r="638" ht="15.75" customHeight="1" s="3"/>
+    <row r="639" ht="15.75" customHeight="1" s="3"/>
+    <row r="640" ht="15.75" customHeight="1" s="3"/>
+    <row r="641" ht="15.75" customHeight="1" s="3"/>
+    <row r="642" ht="15.75" customHeight="1" s="3"/>
+    <row r="643" ht="15.75" customHeight="1" s="3"/>
+    <row r="644" ht="15.75" customHeight="1" s="3"/>
+    <row r="645" ht="15.75" customHeight="1" s="3"/>
+    <row r="646" ht="15.75" customHeight="1" s="3"/>
+    <row r="647" ht="15.75" customHeight="1" s="3"/>
+    <row r="648" ht="15.75" customHeight="1" s="3"/>
+    <row r="649" ht="15.75" customHeight="1" s="3"/>
+    <row r="650" ht="15.75" customHeight="1" s="3"/>
+    <row r="651" ht="15.75" customHeight="1" s="3"/>
+    <row r="652" ht="15.75" customHeight="1" s="3"/>
+    <row r="653" ht="15.75" customHeight="1" s="3"/>
+    <row r="654" ht="15.75" customHeight="1" s="3"/>
+    <row r="655" ht="15.75" customHeight="1" s="3"/>
+    <row r="656" ht="15.75" customHeight="1" s="3"/>
+    <row r="657" ht="15.75" customHeight="1" s="3"/>
+    <row r="658" ht="15.75" customHeight="1" s="3"/>
+    <row r="659" ht="15.75" customHeight="1" s="3"/>
+    <row r="660" ht="15.75" customHeight="1" s="3"/>
+    <row r="661" ht="15.75" customHeight="1" s="3"/>
+    <row r="662" ht="15.75" customHeight="1" s="3"/>
+    <row r="663" ht="15.75" customHeight="1" s="3"/>
+    <row r="664" ht="15.75" customHeight="1" s="3"/>
+    <row r="665" ht="15.75" customHeight="1" s="3"/>
+    <row r="666" ht="15.75" customHeight="1" s="3"/>
+    <row r="667" ht="15.75" customHeight="1" s="3"/>
+    <row r="668" ht="15.75" customHeight="1" s="3"/>
+    <row r="669" ht="15.75" customHeight="1" s="3"/>
+    <row r="670" ht="15.75" customHeight="1" s="3"/>
+    <row r="671" ht="15.75" customHeight="1" s="3"/>
+    <row r="672" ht="15.75" customHeight="1" s="3"/>
+    <row r="673" ht="15.75" customHeight="1" s="3"/>
+    <row r="674" ht="15.75" customHeight="1" s="3"/>
+    <row r="675" ht="15.75" customHeight="1" s="3"/>
+    <row r="676" ht="15.75" customHeight="1" s="3"/>
+    <row r="677" ht="15.75" customHeight="1" s="3"/>
+    <row r="678" ht="15.75" customHeight="1" s="3"/>
+    <row r="679" ht="15.75" customHeight="1" s="3"/>
+    <row r="680" ht="15.75" customHeight="1" s="3"/>
+    <row r="681" ht="15.75" customHeight="1" s="3"/>
+    <row r="682" ht="15.75" customHeight="1" s="3"/>
+    <row r="683" ht="15.75" customHeight="1" s="3"/>
+    <row r="684" ht="15.75" customHeight="1" s="3"/>
+    <row r="685" ht="15.75" customHeight="1" s="3"/>
+    <row r="686" ht="15.75" customHeight="1" s="3"/>
+    <row r="687" ht="15.75" customHeight="1" s="3"/>
+    <row r="688" ht="15.75" customHeight="1" s="3"/>
+    <row r="689" ht="15.75" customHeight="1" s="3"/>
+    <row r="690" ht="15.75" customHeight="1" s="3"/>
+    <row r="691" ht="15.75" customHeight="1" s="3"/>
+    <row r="692" ht="15.75" customHeight="1" s="3"/>
+    <row r="693" ht="15.75" customHeight="1" s="3"/>
+    <row r="694" ht="15.75" customHeight="1" s="3"/>
+    <row r="695" ht="15.75" customHeight="1" s="3"/>
+    <row r="696" ht="15.75" customHeight="1" s="3"/>
+    <row r="697" ht="15.75" customHeight="1" s="3"/>
+    <row r="698" ht="15.75" customHeight="1" s="3"/>
+    <row r="699" ht="15.75" customHeight="1" s="3"/>
+    <row r="700" ht="15.75" customHeight="1" s="3"/>
+    <row r="701" ht="15.75" customHeight="1" s="3"/>
+    <row r="702" ht="15.75" customHeight="1" s="3"/>
+    <row r="703" ht="15.75" customHeight="1" s="3"/>
+    <row r="704" ht="15.75" customHeight="1" s="3"/>
+    <row r="705" ht="15.75" customHeight="1" s="3"/>
+    <row r="706" ht="15.75" customHeight="1" s="3"/>
+    <row r="707" ht="15.75" customHeight="1" s="3"/>
+    <row r="708" ht="15.75" customHeight="1" s="3"/>
+    <row r="709" ht="15.75" customHeight="1" s="3"/>
+    <row r="710" ht="15.75" customHeight="1" s="3"/>
+    <row r="711" ht="15.75" customHeight="1" s="3"/>
+    <row r="712" ht="15.75" customHeight="1" s="3"/>
+    <row r="713" ht="15.75" customHeight="1" s="3"/>
+    <row r="714" ht="15.75" customHeight="1" s="3"/>
+    <row r="715" ht="15.75" customHeight="1" s="3"/>
+    <row r="716" ht="15.75" customHeight="1" s="3"/>
+    <row r="717" ht="15.75" customHeight="1" s="3"/>
+    <row r="718" ht="15.75" customHeight="1" s="3"/>
+    <row r="719" ht="15.75" customHeight="1" s="3"/>
+    <row r="720" ht="15.75" customHeight="1" s="3"/>
+    <row r="721" ht="15.75" customHeight="1" s="3"/>
+    <row r="722" ht="15.75" customHeight="1" s="3"/>
+    <row r="723" ht="15.75" customHeight="1" s="3"/>
+    <row r="724" ht="15.75" customHeight="1" s="3"/>
+    <row r="725" ht="15.75" customHeight="1" s="3"/>
+    <row r="726" ht="15.75" customHeight="1" s="3"/>
+    <row r="727" ht="15.75" customHeight="1" s="3"/>
+    <row r="728" ht="15.75" customHeight="1" s="3"/>
+    <row r="729" ht="15.75" customHeight="1" s="3"/>
+    <row r="730" ht="15.75" customHeight="1" s="3"/>
+    <row r="731" ht="15.75" customHeight="1" s="3"/>
+    <row r="732" ht="15.75" customHeight="1" s="3"/>
+    <row r="733" ht="15.75" customHeight="1" s="3"/>
+    <row r="734" ht="15.75" customHeight="1" s="3"/>
+    <row r="735" ht="15.75" customHeight="1" s="3"/>
+    <row r="736" ht="15.75" customHeight="1" s="3"/>
+    <row r="737" ht="15.75" customHeight="1" s="3"/>
+    <row r="738" ht="15.75" customHeight="1" s="3"/>
+    <row r="739" ht="15.75" customHeight="1" s="3"/>
+    <row r="740" ht="15.75" customHeight="1" s="3"/>
+    <row r="741" ht="15.75" customHeight="1" s="3"/>
+    <row r="742" ht="15.75" customHeight="1" s="3"/>
+    <row r="743" ht="15.75" customHeight="1" s="3"/>
+    <row r="744" ht="15.75" customHeight="1" s="3"/>
+    <row r="745" ht="15.75" customHeight="1" s="3"/>
+    <row r="746" ht="15.75" customHeight="1" s="3"/>
+    <row r="747" ht="15.75" customHeight="1" s="3"/>
+    <row r="748" ht="15.75" customHeight="1" s="3"/>
+    <row r="749" ht="15.75" customHeight="1" s="3"/>
+    <row r="750" ht="15.75" customHeight="1" s="3"/>
+    <row r="751" ht="15.75" customHeight="1" s="3"/>
+    <row r="752" ht="15.75" customHeight="1" s="3"/>
+    <row r="753" ht="15.75" customHeight="1" s="3"/>
+    <row r="754" ht="15.75" customHeight="1" s="3"/>
+    <row r="755" ht="15.75" customHeight="1" s="3"/>
+    <row r="756" ht="15.75" customHeight="1" s="3"/>
+    <row r="757" ht="15.75" customHeight="1" s="3"/>
+    <row r="758" ht="15.75" customHeight="1" s="3"/>
+    <row r="759" ht="15.75" customHeight="1" s="3"/>
+    <row r="760" ht="15.75" customHeight="1" s="3"/>
+    <row r="761" ht="15.75" customHeight="1" s="3"/>
+    <row r="762" ht="15.75" customHeight="1" s="3"/>
+    <row r="763" ht="15.75" customHeight="1" s="3"/>
+    <row r="764" ht="15.75" customHeight="1" s="3"/>
+    <row r="765" ht="15.75" customHeight="1" s="3"/>
+    <row r="766" ht="15.75" customHeight="1" s="3"/>
+    <row r="767" ht="15.75" customHeight="1" s="3"/>
+    <row r="768" ht="15.75" customHeight="1" s="3"/>
+    <row r="769" ht="15.75" customHeight="1" s="3"/>
+    <row r="770" ht="15.75" customHeight="1" s="3"/>
+    <row r="771" ht="15.75" customHeight="1" s="3"/>
+    <row r="772" ht="15.75" customHeight="1" s="3"/>
+    <row r="773" ht="15.75" customHeight="1" s="3"/>
+    <row r="774" ht="15.75" customHeight="1" s="3"/>
+    <row r="775" ht="15.75" customHeight="1" s="3"/>
+    <row r="776" ht="15.75" customHeight="1" s="3"/>
+    <row r="777" ht="15.75" customHeight="1" s="3"/>
+    <row r="778" ht="15.75" customHeight="1" s="3"/>
+    <row r="779" ht="15.75" customHeight="1" s="3"/>
+    <row r="780" ht="15.75" customHeight="1" s="3"/>
+    <row r="781" ht="15.75" customHeight="1" s="3"/>
+    <row r="782" ht="15.75" customHeight="1" s="3"/>
+    <row r="783" ht="15.75" customHeight="1" s="3"/>
+    <row r="784" ht="15.75" customHeight="1" s="3"/>
+    <row r="785" ht="15.75" customHeight="1" s="3"/>
+    <row r="786" ht="15.75" customHeight="1" s="3"/>
+    <row r="787" ht="15.75" customHeight="1" s="3"/>
+    <row r="788" ht="15.75" customHeight="1" s="3"/>
+    <row r="789" ht="15.75" customHeight="1" s="3"/>
+    <row r="790" ht="15.75" customHeight="1" s="3"/>
+    <row r="791" ht="15.75" customHeight="1" s="3"/>
+    <row r="792" ht="15.75" customHeight="1" s="3"/>
+    <row r="793" ht="15.75" customHeight="1" s="3"/>
+    <row r="794" ht="15.75" customHeight="1" s="3"/>
+    <row r="795" ht="15.75" customHeight="1" s="3"/>
+    <row r="796" ht="15.75" customHeight="1" s="3"/>
+    <row r="797" ht="15.75" customHeight="1" s="3"/>
+    <row r="798" ht="15.75" customHeight="1" s="3"/>
+    <row r="799" ht="15.75" customHeight="1" s="3"/>
+    <row r="800" ht="15.75" customHeight="1" s="3"/>
+    <row r="801" ht="15.75" customHeight="1" s="3"/>
+    <row r="802" ht="15.75" customHeight="1" s="3"/>
+    <row r="803" ht="15.75" customHeight="1" s="3"/>
+    <row r="804" ht="15.75" customHeight="1" s="3"/>
+    <row r="805" ht="15.75" customHeight="1" s="3"/>
+    <row r="806" ht="15.75" customHeight="1" s="3"/>
+    <row r="807" ht="15.75" customHeight="1" s="3"/>
+    <row r="808" ht="15.75" customHeight="1" s="3"/>
+    <row r="809" ht="15.75" customHeight="1" s="3"/>
+    <row r="810" ht="15.75" customHeight="1" s="3"/>
+    <row r="811" ht="15.75" customHeight="1" s="3"/>
+    <row r="812" ht="15.75" customHeight="1" s="3"/>
+    <row r="813" ht="15.75" customHeight="1" s="3"/>
+    <row r="814" ht="15.75" customHeight="1" s="3"/>
+    <row r="815" ht="15.75" customHeight="1" s="3"/>
+    <row r="816" ht="15.75" customHeight="1" s="3"/>
+    <row r="817" ht="15.75" customHeight="1" s="3"/>
+    <row r="818" ht="15.75" customHeight="1" s="3"/>
+    <row r="819" ht="15.75" customHeight="1" s="3"/>
+    <row r="820" ht="15.75" customHeight="1" s="3"/>
+    <row r="821" ht="15.75" customHeight="1" s="3"/>
+    <row r="822" ht="15.75" customHeight="1" s="3"/>
+    <row r="823" ht="15.75" customHeight="1" s="3"/>
+    <row r="824" ht="15.75" customHeight="1" s="3"/>
+    <row r="825" ht="15.75" customHeight="1" s="3"/>
+    <row r="826" ht="15.75" customHeight="1" s="3"/>
+    <row r="827" ht="15.75" customHeight="1" s="3"/>
+    <row r="828" ht="15.75" customHeight="1" s="3"/>
+    <row r="829" ht="15.75" customHeight="1" s="3"/>
+    <row r="830" ht="15.75" customHeight="1" s="3"/>
+    <row r="831" ht="15.75" customHeight="1" s="3"/>
+    <row r="832" ht="15.75" customHeight="1" s="3"/>
+    <row r="833" ht="15.75" customHeight="1" s="3"/>
+    <row r="834" ht="15.75" customHeight="1" s="3"/>
+    <row r="835" ht="15.75" customHeight="1" s="3"/>
+    <row r="836" ht="15.75" customHeight="1" s="3"/>
+    <row r="837" ht="15.75" customHeight="1" s="3"/>
+    <row r="838" ht="15.75" customHeight="1" s="3"/>
+    <row r="839" ht="15.75" customHeight="1" s="3"/>
+    <row r="840" ht="15.75" customHeight="1" s="3"/>
+    <row r="841" ht="15.75" customHeight="1" s="3"/>
+    <row r="842" ht="15.75" customHeight="1" s="3"/>
+    <row r="843" ht="15.75" customHeight="1" s="3"/>
+    <row r="844" ht="15.75" customHeight="1" s="3"/>
+    <row r="845" ht="15.75" customHeight="1" s="3"/>
+    <row r="846" ht="15.75" customHeight="1" s="3"/>
+    <row r="847" ht="15.75" customHeight="1" s="3"/>
+    <row r="848" ht="15.75" customHeight="1" s="3"/>
+    <row r="849" ht="15.75" customHeight="1" s="3"/>
+    <row r="850" ht="15.75" customHeight="1" s="3"/>
+    <row r="851" ht="15.75" customHeight="1" s="3"/>
+    <row r="852" ht="15.75" customHeight="1" s="3"/>
+    <row r="853" ht="15.75" customHeight="1" s="3"/>
+    <row r="854" ht="15.75" customHeight="1" s="3"/>
+    <row r="855" ht="15.75" customHeight="1" s="3"/>
+    <row r="856" ht="15.75" customHeight="1" s="3"/>
+    <row r="857" ht="15.75" customHeight="1" s="3"/>
+    <row r="858" ht="15.75" customHeight="1" s="3"/>
+    <row r="859" ht="15.75" customHeight="1" s="3"/>
+    <row r="860" ht="15.75" customHeight="1" s="3"/>
+    <row r="861" ht="15.75" customHeight="1" s="3"/>
+    <row r="862" ht="15.75" customHeight="1" s="3"/>
+    <row r="863" ht="15.75" customHeight="1" s="3"/>
+    <row r="864" ht="15.75" customHeight="1" s="3"/>
+    <row r="865" ht="15.75" customHeight="1" s="3"/>
+    <row r="866" ht="15.75" customHeight="1" s="3"/>
+    <row r="867" ht="15.75" customHeight="1" s="3"/>
+    <row r="868" ht="15.75" customHeight="1" s="3"/>
+    <row r="869" ht="15.75" customHeight="1" s="3"/>
+    <row r="870" ht="15.75" customHeight="1" s="3"/>
+    <row r="871" ht="15.75" customHeight="1" s="3"/>
+    <row r="872" ht="15.75" customHeight="1" s="3"/>
+    <row r="873" ht="15.75" customHeight="1" s="3"/>
+    <row r="874" ht="15.75" customHeight="1" s="3"/>
+    <row r="875" ht="15.75" customHeight="1" s="3"/>
+    <row r="876" ht="15.75" customHeight="1" s="3"/>
+    <row r="877" ht="15.75" customHeight="1" s="3"/>
+    <row r="878" ht="15.75" customHeight="1" s="3"/>
+    <row r="879" ht="15.75" customHeight="1" s="3"/>
+    <row r="880" ht="15.75" customHeight="1" s="3"/>
+    <row r="881" ht="15.75" customHeight="1" s="3"/>
+    <row r="882" ht="15.75" customHeight="1" s="3"/>
+    <row r="883" ht="15.75" customHeight="1" s="3"/>
+    <row r="884" ht="15.75" customHeight="1" s="3"/>
+    <row r="885" ht="15.75" customHeight="1" s="3"/>
+    <row r="886" ht="15.75" customHeight="1" s="3"/>
+    <row r="887" ht="15.75" customHeight="1" s="3"/>
+    <row r="888" ht="15.75" customHeight="1" s="3"/>
+    <row r="889" ht="15.75" customHeight="1" s="3"/>
+    <row r="890" ht="15.75" customHeight="1" s="3"/>
+    <row r="891" ht="15.75" customHeight="1" s="3"/>
+    <row r="892" ht="15.75" customHeight="1" s="3"/>
+    <row r="893" ht="15.75" customHeight="1" s="3"/>
+    <row r="894" ht="15.75" customHeight="1" s="3"/>
+    <row r="895" ht="15.75" customHeight="1" s="3"/>
+    <row r="896" ht="15.75" customHeight="1" s="3"/>
+    <row r="897" ht="15.75" customHeight="1" s="3"/>
+    <row r="898" ht="15.75" customHeight="1" s="3"/>
+    <row r="899" ht="15.75" customHeight="1" s="3"/>
+    <row r="900" ht="15.75" customHeight="1" s="3"/>
+    <row r="901" ht="15.75" customHeight="1" s="3"/>
+    <row r="902" ht="15.75" customHeight="1" s="3"/>
+    <row r="903" ht="15.75" customHeight="1" s="3"/>
+    <row r="904" ht="15.75" customHeight="1" s="3"/>
+    <row r="905" ht="15.75" customHeight="1" s="3"/>
+    <row r="906" ht="15.75" customHeight="1" s="3"/>
+    <row r="907" ht="15.75" customHeight="1" s="3"/>
+    <row r="908" ht="15.75" customHeight="1" s="3"/>
+    <row r="909" ht="15.75" customHeight="1" s="3"/>
+    <row r="910" ht="15.75" customHeight="1" s="3"/>
+    <row r="911" ht="15.75" customHeight="1" s="3"/>
+    <row r="912" ht="15.75" customHeight="1" s="3"/>
+    <row r="913" ht="15.75" customHeight="1" s="3"/>
+    <row r="914" ht="15.75" customHeight="1" s="3"/>
+    <row r="915" ht="15.75" customHeight="1" s="3"/>
+    <row r="916" ht="15.75" customHeight="1" s="3"/>
+    <row r="917" ht="15.75" customHeight="1" s="3"/>
+    <row r="918" ht="15.75" customHeight="1" s="3"/>
+    <row r="919" ht="15.75" customHeight="1" s="3"/>
+    <row r="920" ht="15.75" customHeight="1" s="3"/>
+    <row r="921" ht="15.75" customHeight="1" s="3"/>
+    <row r="922" ht="15.75" customHeight="1" s="3"/>
+    <row r="923" ht="15.75" customHeight="1" s="3"/>
+    <row r="924" ht="15.75" customHeight="1" s="3"/>
+    <row r="925" ht="15.75" customHeight="1" s="3"/>
+    <row r="926" ht="15.75" customHeight="1" s="3"/>
+    <row r="927" ht="15.75" customHeight="1" s="3"/>
+    <row r="928" ht="15.75" customHeight="1" s="3"/>
+    <row r="929" ht="15.75" customHeight="1" s="3"/>
+    <row r="930" ht="15.75" customHeight="1" s="3"/>
+    <row r="931" ht="15.75" customHeight="1" s="3"/>
+    <row r="932" ht="15.75" customHeight="1" s="3"/>
+    <row r="933" ht="15.75" customHeight="1" s="3"/>
+    <row r="934" ht="15.75" customHeight="1" s="3"/>
+    <row r="935" ht="15.75" customHeight="1" s="3"/>
+    <row r="936" ht="15.75" customHeight="1" s="3"/>
+    <row r="937" ht="15.75" customHeight="1" s="3"/>
+    <row r="938" ht="15.75" customHeight="1" s="3"/>
+    <row r="939" ht="15.75" customHeight="1" s="3"/>
+    <row r="940" ht="15.75" customHeight="1" s="3"/>
+    <row r="941" ht="15.75" customHeight="1" s="3"/>
+    <row r="942" ht="15.75" customHeight="1" s="3"/>
+    <row r="943" ht="15.75" customHeight="1" s="3"/>
+    <row r="944" ht="15.75" customHeight="1" s="3"/>
+    <row r="945" ht="15.75" customHeight="1" s="3"/>
+    <row r="946" ht="15.75" customHeight="1" s="3"/>
+    <row r="947" ht="15.75" customHeight="1" s="3"/>
+    <row r="948" ht="15.75" customHeight="1" s="3"/>
+    <row r="949" ht="15.75" customHeight="1" s="3"/>
+    <row r="950" ht="15.75" customHeight="1" s="3"/>
+    <row r="951" ht="15.75" customHeight="1" s="3"/>
+    <row r="952" ht="15.75" customHeight="1" s="3"/>
+    <row r="953" ht="15.75" customHeight="1" s="3"/>
+    <row r="954" ht="15.75" customHeight="1" s="3"/>
+    <row r="955" ht="15.75" customHeight="1" s="3"/>
+    <row r="956" ht="15.75" customHeight="1" s="3"/>
+    <row r="957" ht="15.75" customHeight="1" s="3"/>
+    <row r="958" ht="15.75" customHeight="1" s="3"/>
+    <row r="959" ht="15.75" customHeight="1" s="3"/>
+    <row r="960" ht="15.75" customHeight="1" s="3"/>
+    <row r="961" ht="15.75" customHeight="1" s="3"/>
+    <row r="962" ht="15.75" customHeight="1" s="3"/>
+    <row r="963" ht="15.75" customHeight="1" s="3"/>
+    <row r="964" ht="15.75" customHeight="1" s="3"/>
+    <row r="965" ht="15.75" customHeight="1" s="3"/>
+    <row r="966" ht="15.75" customHeight="1" s="3"/>
+    <row r="967" ht="15.75" customHeight="1" s="3"/>
+    <row r="968" ht="15.75" customHeight="1" s="3"/>
+    <row r="969" ht="15.75" customHeight="1" s="3"/>
+    <row r="970" ht="15.75" customHeight="1" s="3"/>
+    <row r="971" ht="15.75" customHeight="1" s="3"/>
+    <row r="972" ht="15.75" customHeight="1" s="3"/>
+    <row r="973" ht="15.75" customHeight="1" s="3"/>
+    <row r="974" ht="15.75" customHeight="1" s="3"/>
+    <row r="975" ht="15.75" customHeight="1" s="3"/>
+    <row r="976" ht="15.75" customHeight="1" s="3"/>
+    <row r="977" ht="15.75" customHeight="1" s="3"/>
+    <row r="978" ht="15.75" customHeight="1" s="3"/>
+    <row r="979" ht="15.75" customHeight="1" s="3"/>
+    <row r="980" ht="15.75" customHeight="1" s="3"/>
+    <row r="981" ht="15.75" customHeight="1" s="3"/>
+    <row r="982" ht="15.75" customHeight="1" s="3"/>
+    <row r="983" ht="15.75" customHeight="1" s="3"/>
+    <row r="984" ht="15.75" customHeight="1" s="3"/>
+    <row r="985" ht="15.75" customHeight="1" s="3"/>
+    <row r="986" ht="15.75" customHeight="1" s="3"/>
+    <row r="987" ht="15.75" customHeight="1" s="3"/>
+    <row r="988" ht="15.75" customHeight="1" s="3"/>
+    <row r="989" ht="15.75" customHeight="1" s="3"/>
+    <row r="990" ht="15.75" customHeight="1" s="3"/>
+    <row r="991" ht="15.75" customHeight="1" s="3"/>
+    <row r="992" ht="15.75" customHeight="1" s="3"/>
+    <row r="993" ht="15.75" customHeight="1" s="3"/>
+    <row r="994" ht="15.75" customHeight="1" s="3"/>
+    <row r="995" ht="15.75" customHeight="1" s="3"/>
+    <row r="996" ht="15.75" customHeight="1" s="3"/>
+    <row r="997" ht="15.75" customHeight="1" s="3"/>
+    <row r="998" ht="15.75" customHeight="1" s="3"/>
+    <row r="999" ht="15.75" customHeight="1" s="3"/>
+    <row r="1000" ht="15.75" customHeight="1" s="3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databank_englishB-copy.xlsx
+++ b/databank_englishB-copy.xlsx
@@ -321,7 +321,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -352,7 +352,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>woman / on / and / the / nine / twelve / men / . / be / There / committee</t>
+          <t>. / twelve / on / and / be / men / nine / committee / There / the / woman</t>
         </is>
       </c>
       <c r="E1" s="1" t="n">
@@ -375,7 +375,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>have / t / ’ / now / . / We / much / don / money</t>
+          <t>have / much / now / We / don / . / t / money / ’</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
@@ -391,14 +391,14 @@
           <t>紙を2枚もらえますか。</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Can I have two sheets of paper?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>have / Can / sheets / two / ? / I / paper / of</t>
+          <t>? / have / I / paper / sheets / Can / of / two</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
@@ -421,7 +421,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mountain / sheep / the / . / be / There / many / on</t>
+          <t>mountain / many / There / sheep / the / on / . / be</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
@@ -444,7 +444,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>things / enter / this / t / You / knife / with / such / as / ’ / dangerous / building / can / .</t>
+          <t>t / things / ’ / building / as / this / such / with / dangerous / can / . / You / enter / knife</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
@@ -467,7 +467,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>We / several / drink / . / juice / of / grasses</t>
+          <t>of / juice / grasses / drink / . / several / We</t>
         </is>
       </c>
       <c r="E6" s="1" t="n">
@@ -490,7 +490,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>slices / you / How / like / would / bread / many / of / ?</t>
+          <t>slices / would / ? / you / How / like / bread / many / of</t>
         </is>
       </c>
       <c r="E7" s="1" t="n">
@@ -513,7 +513,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>taste / Some / corn / will / your / . / salad / better / make</t>
+          <t>will / corn / Some / salad / make / taste / better / . / your</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
@@ -536,7 +536,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from / get / some / website / Information / useful / I / . / the</t>
+          <t>useful / Information / . / website / from / some / the / I / get</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
@@ -559,7 +559,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>be / Some / fish / the / tank / in / . / swim</t>
+          <t>the / fish / . / Some / in / be / tank / swim</t>
         </is>
       </c>
       <c r="E10" s="1" t="n">
@@ -582,7 +582,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>. / be / milk / There / the / bottles / refrigerator / of / two / in</t>
+          <t>be / refrigerator / two / in / There / . / bottles / of / the / milk</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>How / do / need / ? / money / much / you</t>
+          <t>How / you / money / do / ? / need / much</t>
         </is>
       </c>
       <c r="E12" s="1" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>give / . / a / of / He / good / advice / piece / this / me</t>
+          <t>a / give / of / me / this / advice / He / piece / . / good</t>
         </is>
       </c>
       <c r="E13" s="1" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>this / He / book / author / the / . / of / be</t>
+          <t>. / this / of / author / He / the / book / be</t>
         </is>
       </c>
       <c r="E14" s="1" t="n">
@@ -674,7 +674,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>family / small / the / be / five / dog / dog / a / now / buy / , / We / our / . / a / years / ago / member / And / of / .</t>
+          <t>years / small / of / We / a / the / now / member / family / . / , / our / dog / dog / ago / be / And / buy / five / a / .</t>
         </is>
       </c>
       <c r="E15" s="1" t="n">
@@ -697,7 +697,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>He / in / . / study / the / be / history / U.S</t>
+          <t>He / the / in / history / study / U.S / . / be</t>
         </is>
       </c>
       <c r="E16" s="1" t="n">
@@ -720,7 +720,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>There / . / the / step / snow / ground / on / be / Watch / . / your</t>
+          <t>. / on / snow / step / the / There / ground / be / your / Watch / .</t>
         </is>
       </c>
       <c r="E17" s="1" t="n">
@@ -743,7 +743,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>a / want / Jobs / . / I / to / Steve / day / be / some</t>
+          <t>I / a / Jobs / day / some / . / to / Steve / want / be</t>
         </is>
       </c>
       <c r="E18" s="1" t="n">
@@ -766,7 +766,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>father / . / a / twice / play / tennis / week / My</t>
+          <t>father / . / twice / play / week / My / a / tennis</t>
         </is>
       </c>
       <c r="E19" s="1" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>usually / the / . / be / Ice / cream / sell / by / pint</t>
+          <t>sell / . / Ice / the / pint / cream / be / usually / by</t>
         </is>
       </c>
       <c r="E20" s="1" t="n">
@@ -812,7 +812,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>a / teacher / . / be / father / and / writer / His</t>
+          <t>teacher / and / a / writer / father / . / be / His</t>
         </is>
       </c>
       <c r="E21" s="1" t="n">
@@ -835,7 +835,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>a / white / pink / . / buy / rise / me / Please / and / a</t>
+          <t>pink / . / Please / white / buy / a / rise / me / and / a</t>
         </is>
       </c>
       <c r="E22" s="1" t="n">
@@ -858,7 +858,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>. / least / year / once / meet / to / make / a / a / at / We / promise</t>
+          <t>. / a / least / at / year / once / make / meet / to / promise / We / a</t>
         </is>
       </c>
       <c r="E23" s="1" t="n">
@@ -881,7 +881,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>cake / in / sugar / The / of / make / have / it / a / . / he / lot</t>
+          <t>lot / cake / of / sugar / make / in / a / it / The / have / . / he</t>
         </is>
       </c>
       <c r="E24" s="1" t="n">
@@ -904,7 +904,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>of / The / . / ate / boy / ham / slices / two</t>
+          <t>ham / boy / The / slices / . / ate / two / of</t>
         </is>
       </c>
       <c r="E25" s="1" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>All / an / end / to / come / good / . / things</t>
+          <t>. / to / All / end / things / good / come / an</t>
         </is>
       </c>
       <c r="E26" s="1" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>. / The / River / the / Kitakami / through / town / flow</t>
+          <t>. / Kitakami / flow / town / The / River / the / through</t>
         </is>
       </c>
       <c r="E27" s="1" t="n">
@@ -973,7 +973,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>a / She / of / piece / small / baggage / . / be / carry</t>
+          <t>carry / piece / small / a / . / be / She / baggage / of</t>
         </is>
       </c>
       <c r="E28" s="1" t="n">
@@ -984,19 +984,19 @@
       <c r="A29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>その女の子は大きすぎるジャケットを着ていた。</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>The girl was wearing too big a jacket.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>. / jacket / The / wear / too / big / girl / a / be</t>
+          <t>girl / a / be / big / wear / jacket / too / The / .</t>
         </is>
       </c>
       <c r="E29" s="1" t="n">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>half / tomatoes / this / tomato / grow / The / the / I / be / of / size / .</t>
+          <t>half / I / size / The / be / . / tomato / this / tomatoes / of / the / grow</t>
         </is>
       </c>
       <c r="E30" s="1" t="n">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>actor / quite / and / dancer / a / . / large / audience / attract / The</t>
+          <t>a / . / quite / The / large / audience / attract / and / dancer / actor</t>
         </is>
       </c>
       <c r="E31" s="1" t="n">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>people / be / restaurant / . / a / few / the / There / in</t>
+          <t>be / people / few / There / . / a / the / in / restaurant</t>
         </is>
       </c>
       <c r="E32" s="1" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>the / excite / . / crowd / when / game / become / The / begin</t>
+          <t>become / crowd / when / . / The / the / excite / begin / game</t>
         </is>
       </c>
       <c r="E33" s="1" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>interesting / s / t / so / . / . / ’ / reading / It / this / book / can / I / ’ / stop</t>
+          <t>It / interesting / book / so / can / t / s / this / ’ / . / ’ / I / . / reading / stop</t>
         </is>
       </c>
       <c r="E34" s="1" t="n">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>have / ? / or / any / sisters / Do / brothers / you</t>
+          <t>you / any / have / sisters / ? / Do / brothers / or</t>
         </is>
       </c>
       <c r="E35" s="1" t="n">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>have / . / so / expensive / now / he / an / little / buy / He / , / bicycle / money</t>
+          <t>he / little / bicycle / now / . / so / , / money / an / expensive / have / buy / He</t>
         </is>
       </c>
       <c r="E36" s="1" t="n">
@@ -1173,14 +1173,14 @@
           <t>瀕死の鯨は奇跡的に回復しました。</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>The dying whale whale miraculously recovered.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>whale / . / die / The / whale / recover / miraculously</t>
+          <t>die / whale / whale / recover / The / miraculously / .</t>
         </is>
       </c>
       <c r="E37" s="1" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>dress / look / ’ / . / a / I / to / similar / m / for / yours</t>
+          <t>a / to / . / look / dress / m / ’ / yours / for / I / similar</t>
         </is>
       </c>
       <c r="E38" s="1" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>a / . / happy / be / She / girl</t>
+          <t>happy / a / . / girl / She / be</t>
         </is>
       </c>
       <c r="E39" s="1" t="n">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>a / people / begin / sleep / Some / . / speech / to / bored / fall / his / during</t>
+          <t>to / speech / people / begin / sleep / a / bored / during / his / . / fall / Some</t>
         </is>
       </c>
       <c r="E40" s="1" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>. / better / so / have / eat / cake / much / You / not</t>
+          <t>. / not / so / have / eat / much / better / You / cake</t>
         </is>
       </c>
       <c r="E41" s="1" t="n">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>found / be / be / . / the / climber / lucky / It / really / alive</t>
+          <t>be / It / climber / found / really / be / the / alive / lucky / .</t>
         </is>
       </c>
       <c r="E42" s="1" t="n">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>in / effect / take / a / few / The / will / hours / medicine / .</t>
+          <t>hours / effect / a / take / in / will / few / The / . / medicine</t>
         </is>
       </c>
       <c r="E43" s="1" t="n">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>? / any / Does / have / he / children</t>
+          <t>any / have / ? / he / children / Does</t>
         </is>
       </c>
       <c r="E44" s="1" t="n">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>. / get / “ / , / I / late / up / usually / quite / ” / No</t>
+          <t>quite / ” / . / , / I / usually / get / No / late / up / “</t>
         </is>
       </c>
       <c r="E45" s="1" t="n">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>often / go / ” / ski / winter / ? / every / “ / you / in / do / How</t>
+          <t>every / in / go / How / you / often / “ / winter / do / ski / ? / ”</t>
         </is>
       </c>
       <c r="E46" s="1" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>I / . / tonight / “ / We / have / hard / could / to / . / ” / Neither / work</t>
+          <t>could / tonight / to / I / . / work / have / hard / Neither / ” / . / We / “</t>
         </is>
       </c>
       <c r="E47" s="1" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>“ / be / . / . / ” / be / So / around / The / my / sister / go / flu</t>
+          <t>around / be / The / flu / go / . / So / sister / my / “ / ” / . / be</t>
         </is>
       </c>
       <c r="E48" s="1" t="n">
@@ -1449,14 +1449,14 @@
           <t>いいえ、彼女は全く料理をしません。</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>“No, she never cooks.”</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>“ / she / No / . / , / never / cook / ”</t>
+          <t>, / ” / cook / never / . / she / “ / No</t>
         </is>
       </c>
       <c r="E49" s="1" t="n">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>. / ” / be / . / “ / eat / ’ / Don / quickly / rush / Eating / than / slowly / me / t / healthier</t>
+          <t>“ / healthier / eat / quickly / . / ’ / me / Eating / rush / Don / be / ” / slowly / than / . / t</t>
         </is>
       </c>
       <c r="E50" s="1" t="n">
@@ -1495,14 +1495,14 @@
           <t>その女性は幸せな人生を送った。</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>The woman lived a happy life.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>. / a / live / life / woman / The / happy</t>
+          <t>. / woman / The / happy / a / live / life</t>
         </is>
       </c>
       <c r="E51" s="1" t="n">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>in / work / That / the / hard / . / man / office</t>
+          <t>the / office / in / work / That / hard / man / .</t>
         </is>
       </c>
       <c r="E52" s="1" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>uncle / well / . / very / guitar / play / the / My</t>
+          <t>. / the / guitar / play / very / My / well / uncle</t>
         </is>
       </c>
       <c r="E53" s="1" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>be / saw / surprise / home / he / a / his / It / bear / that / way / on / .</t>
+          <t>. / on / be / home / way / It / that / surprise / his / a / he / bear / saw</t>
         </is>
       </c>
       <c r="E54" s="1" t="n">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>talk / , / t / have / t / actor / . / didn / My / ’ / , / I / the / either / courage / to / the / didn / friend / famous / and / ’ / to</t>
+          <t>actor / ’ / , / . / famous / the / and / I / didn / ’ / t / to / courage / t / friend / , / My / have / either / talk / to / the / didn</t>
         </is>
       </c>
       <c r="E55" s="1" t="n">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>see / movie / by / students / The / . / the / enter / to / his / often / professor / theater / be</t>
+          <t>the / his / by / movie / enter / professor / to / see / . / The / be / often / students / theater</t>
         </is>
       </c>
       <c r="E56" s="1" t="n">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>away / big / city / live / the / far / from / . / alone / The / man</t>
+          <t>. / big / far / away / alone / the / man / city / from / live / The</t>
         </is>
       </c>
       <c r="E57" s="1" t="n">
@@ -1651,7 +1651,7 @@
       <c r="A58" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <t>私はあまりたくさん肉は食べないが野菜は食べる。</t>
         </is>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>of / eat / I / a / meat / lot / vegetable / I / ’ / t / . / don / but / eat / much</t>
+          <t>much / but / meat / vegetable / t / I / . / lot / eat / ’ / I / a / don / of / eat</t>
         </is>
       </c>
       <c r="E58" s="1" t="n">
@@ -1679,14 +1679,14 @@
           <t>幸運なことにそのコンサートのチケットはまだ入手可能だった。</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>Luckily, the concert tickets were still available.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>the / Luckily / tickets / . / be / still / , / concert / available</t>
+          <t>still / the / be / tickets / , / Luckily / . / concert / available</t>
         </is>
       </c>
       <c r="E59" s="1" t="n">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>really / to / I / never / I / sorry / be / you / . / write</t>
+          <t>I / never / be / I / really / . / write / sorry / to / you</t>
         </is>
       </c>
       <c r="E60" s="1" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>visit / his / the / sometimes / sister / hospital / Only / in / him / .</t>
+          <t>him / hospital / sister / in / his / sometimes / visit / . / the / Only</t>
         </is>
       </c>
       <c r="E61" s="1" t="n">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>the / with / very / Apparently / , / be / wrong / car / something / .</t>
+          <t>be / car / the / very / with / wrong / something / , / . / Apparently</t>
         </is>
       </c>
       <c r="E62" s="1" t="n">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>train / last / . / he / have / Unfortunately / walk / and / , / miss / home / the / to</t>
+          <t>and / he / walk / to / . / train / have / miss / last / Unfortunately / the / , / home</t>
         </is>
       </c>
       <c r="E63" s="1" t="n">
@@ -1794,14 +1794,14 @@
           <t>私はその事柄に関してはあまり知識がない。</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>I don’t have much knowledge of the subject.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>I / don / subject / . / much / ’ / t / of / knowledge / the / have</t>
+          <t>much / . / the / don / of / t / have / I / knowledge / subject / ’</t>
         </is>
       </c>
       <c r="E64" s="1" t="n">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>gloves / the / ? / your / orange / ones / the / Which / be / , / , / or / green / ones</t>
+          <t>be / , / Which / ones / the / the / or / , / ones / ? / orange / gloves / green / your</t>
         </is>
       </c>
       <c r="E65" s="1" t="n">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>buy / father / new / I / t / . / but / ’ / , / bicycle / one / want / my / a / win / me</t>
+          <t>buy / my / , / me / father / bicycle / but / one / new / . / t / want / win / a / ’ / I</t>
         </is>
       </c>
       <c r="E66" s="1" t="n">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>. / down / and / to / other / students / talk / begin / the / to / All / sit / each</t>
+          <t>each / to / and / other / talk / the / sit / to / . / All / students / begin / down</t>
         </is>
       </c>
       <c r="E67" s="1" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>’ / didn / I / or / t / know / do / to / what / go / where / . / to</t>
+          <t>know / what / I / . / go / or / to / ’ / where / didn / do / t / to</t>
         </is>
       </c>
       <c r="E68" s="1" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>She / run / an / together / friend / tea / they / . / across / , / and / old / some / have</t>
+          <t>. / an / have / run / friend / , / She / across / they / old / and / together / tea / some</t>
         </is>
       </c>
       <c r="E69" s="1" t="n">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>They / man / clearly / slowly / the / and / ask / to / speak / .</t>
+          <t>They / . / ask / to / slowly / and / the / clearly / man / speak</t>
         </is>
       </c>
       <c r="E70" s="1" t="n">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>or / you / cat / , / it / the / bother / scratch / Stop / will / .</t>
+          <t>it / , / you / cat / or / scratch / . / the / will / Stop / bother</t>
         </is>
       </c>
       <c r="E71" s="1" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>? / soon / say / she / be / that / come / home / she / Did</t>
+          <t>be / home / come / she / she / ? / soon / say / Did / that</t>
         </is>
       </c>
       <c r="E72" s="1" t="n">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>the / tomorrow / go / to / We / must / not / make / hold / whether / meeting / be / sure / . / or / be</t>
+          <t>not / go / whether / sure / or / make / be / hold / . / the / tomorrow / meeting / be / to / must / We</t>
         </is>
       </c>
       <c r="E73" s="1" t="n">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>he / you / ? / win / Do / the / whether / game / know</t>
+          <t>the / ? / Do / game / he / whether / know / win / you</t>
         </is>
       </c>
       <c r="E74" s="1" t="n">
@@ -2047,14 +2047,14 @@
           <t>メアリーがその知らせを聞いて喜ぶのは間違いない。</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" s="1" t="inlineStr">
         <is>
           <t>I don’t doubt that Mary will be happy to hear the news.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>news / t / don / be / Mary / ’ / to / I / will / hear / happy / that / doubt / the / .</t>
+          <t>to / don / news / happy / Mary / hear / I / ’ / be / the / . / t / that / will / doubt</t>
         </is>
       </c>
       <c r="E75" s="1" t="n">
@@ -2065,19 +2065,19 @@
       <c r="A76" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" s="1" t="inlineStr">
         <is>
           <t>田中先生が賛成がどうかは大きな問題だ。</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" s="1" t="inlineStr">
         <is>
           <t>Whether Mr.Tanaka agrees or not is a big problem.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>not / be / a / or / problem / big / . / Mr.Tanaka / agree / Whether</t>
+          <t>big / problem / . / Mr.Tanaka / be / not / or / Whether / agree / a</t>
         </is>
       </c>
       <c r="E76" s="1" t="n">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>look / worried / She / because / be / very / . / sick / friend / her</t>
+          <t>. / her / look / very / because / friend / sick / be / worried / She</t>
         </is>
       </c>
       <c r="E77" s="1" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>while / my / lose / wallet / shop / store / I / . / I / the / be / in</t>
+          <t>I / . / store / while / be / shop / my / wallet / I / lose / the / in</t>
         </is>
       </c>
       <c r="E78" s="1" t="n">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>before / Didn / you / t / eat / your / you / hands / ’ / ? / lunch / wash</t>
+          <t>’ / you / t / before / your / lunch / Didn / you / hands / wash / ? / eat</t>
         </is>
       </c>
       <c r="E79" s="1" t="n">
@@ -2162,14 +2162,14 @@
           <t>あなたはこの街に住んでいない限りこの施設を使えません。</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" s="1" t="inlineStr">
         <is>
           <t>You can’t use this facility unless you live in this city.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>city / you / this / facility / this / can / use / . / t / unless / You / in / ’ / live</t>
+          <t>this / can / in / . / this / use / live / city / ’ / t / you / unless / facility / You</t>
         </is>
       </c>
       <c r="E80" s="1" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rainy / it / if / swim / t / . / tomorrow / s / isn / go / Let / ’ / ’</t>
+          <t>Let / t / if / ’ / . / go / swim / rainy / it / isn / tomorrow / ’ / s</t>
         </is>
       </c>
       <c r="E81" s="1" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>hurry / for / time / we / in / . / so / home / dinner / could / arrive / We / that</t>
+          <t>we / that / We / could / . / so / for / time / in / home / dinner / hurry / arrive</t>
         </is>
       </c>
       <c r="E82" s="1" t="n">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>but / plants / be / many / only / also / endanger / Not / animals / .</t>
+          <t>be / animals / also / endanger / but / only / Not / many / . / plants</t>
         </is>
       </c>
       <c r="E83" s="1" t="n">
@@ -2254,14 +2254,14 @@
           <t>その人形の家はとても家はとても精巧だったので触ることができなかった。</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" s="1" t="inlineStr">
         <is>
           <t>The doll house was so delicate that we couldn’t touch it.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>t / it / The / be / we / delicate / doll / house / ’ / so / touch / . / that / couldn</t>
+          <t>we / house / touch / doll / t / it / that / couldn / ’ / so / be / . / The / delicate</t>
         </is>
       </c>
       <c r="E84" s="1" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>dinner / Not / mother / . / be / but / my / make / my / tonight / father</t>
+          <t>my / dinner / . / mother / tonight / but / be / Not / make / father / my</t>
         </is>
       </c>
       <c r="E85" s="1" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>you / , / up / t / Don / wake / or / make / sound / . / ’ / will / dog / a / that</t>
+          <t>’ / wake / that / you / t / sound / . / up / dog / a / or / Don / make / , / will</t>
         </is>
       </c>
       <c r="E86" s="1" t="n">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>. / will / a / make / wake / dog / up / you / you / that / sound / , / If</t>
+          <t>that / will / you / make / , / you / up / sound / If / wake / dog / a / .</t>
         </is>
       </c>
       <c r="E87" s="1" t="n">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>only / of / speech / the / to / also / Not / on / class / Ken / Mike / behalf / a / make / want / but / .</t>
+          <t>also / a / to / Not / . / Mike / make / only / but / want / Ken / of / speech / on / class / the / behalf</t>
         </is>
       </c>
       <c r="E88" s="1" t="n">
@@ -2374,10 +2374,10 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>as / speech / on / of / make / a / behalf / well / . / Mike / want / as / class / to / Ken / the</t>
-        </is>
-      </c>
-      <c r="E89" s="1" t="n">
+          <t>a / speech / to / Mike / on / want / as / Ken / as / the / class / . / behalf / of / well / make</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
         <v>89</v>
       </c>
     </row>
@@ -2397,10 +2397,10 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>promise / t / tell / win / to / it / keep / to / ’ / don / I / secret / ’ / t / it / . / you / you / if / a</t>
-        </is>
-      </c>
-      <c r="E90" s="1" t="n">
+          <t>keep / ’ / secret / win / to / it / if / I / . / promise / to / a / tell / it / you / ’ / t / you / don / t</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
         <v>90</v>
       </c>
     </row>
@@ -2420,10 +2420,10 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>too / the / change / ceiling / me / to / light / high / for / The / be / . / bulbs</t>
-        </is>
-      </c>
-      <c r="E91" s="1" t="n">
+          <t>high / change / bulbs / too / to / ceiling / light / for / be / me / The / . / the</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
         <v>91</v>
       </c>
     </row>
@@ -2443,10 +2443,10 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>bulbs / ceiling / the / The / . / so / be / change / couldn / high / light / I / ’ / that / t</t>
-        </is>
-      </c>
-      <c r="E92" s="1" t="n">
+          <t>be / I / t / ’ / change / light / couldn / so / that / ceiling / . / The / bulbs / high / the</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
         <v>92</v>
       </c>
     </row>
@@ -2466,10 +2466,10 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>noon / train / this / or / there / ’ / on / , / by / t / get / you / win / Get / .</t>
-        </is>
-      </c>
-      <c r="E93" s="1" t="n">
+          <t>train / Get / noon / on / ’ / t / this / by / you / or / . / get / win / , / there</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
         <v>93</v>
       </c>
     </row>
@@ -2489,10 +2489,10 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>and / Get / , / this / by / . / on / you / will / get / there / train / noon</t>
-        </is>
-      </c>
-      <c r="E94" s="1" t="n">
+          <t>and / . / by / on / train / this / will / Get / you / get / , / there / noon</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
         <v>94</v>
       </c>
     </row>
@@ -2512,10 +2512,10 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>in / even / tonight / . / interested / ’ / t / soccer / if / should / aren / game / s / ’ / you / You / watch</t>
-        </is>
-      </c>
-      <c r="E95" s="1" t="n">
+          <t>if / interested / you / even / . / You / aren / in / should / ’ / tonight / t / soccer / game / s / watch / ’</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
         <v>95</v>
       </c>
     </row>
@@ -2535,10 +2535,10 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>so / . / that / all / ’ / curry / eat / I / of / t / it / This / hot / can / be</t>
-        </is>
-      </c>
-      <c r="E96" s="1" t="n">
+          <t>can / I / hot / This / all / so / curry / . / be / that / of / ’ / t / it / eat</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
         <v>96</v>
       </c>
     </row>
@@ -2558,10 +2558,10 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Everybody / they / to / be / accept / . / want / be / as</t>
-        </is>
-      </c>
-      <c r="E97" s="1" t="n">
+          <t>as / . / be / accept / Everybody / they / want / to / be</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
         <v>97</v>
       </c>
     </row>
@@ -2581,10 +2581,10 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>. / Sapporo / August / My / brother / for / 10th / leave / on</t>
-        </is>
-      </c>
-      <c r="E98" s="1" t="n">
+          <t>for / . / 10th / August / My / on / leave / Sapporo / brother</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
         <v>98</v>
       </c>
     </row>
@@ -2604,10 +2604,10 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>the / The / be / seem / fly / . / clouds / to / plane / over</t>
-        </is>
-      </c>
-      <c r="E99" s="1" t="n">
+          <t>plane / seem / . / over / clouds / fly / to / the / be / The</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
         <v>99</v>
       </c>
     </row>
@@ -2627,10 +2627,10 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>the / . / secret / of / be / That / a / five / among / us</t>
-        </is>
-      </c>
-      <c r="E100" s="1" t="n">
+          <t>a / five / us / That / of / among / . / the / secret / be</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2650,10 +2650,10 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Do / to / after / anything / the / have / do / concert / you / ?</t>
-        </is>
-      </c>
-      <c r="E101" s="1" t="n">
+          <t>concert / do / the / Do / you / anything / to / ? / have / after</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
         <v>101</v>
       </c>
     </row>
@@ -2673,10 +2673,10 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>the / meet / s / ’ / Let / . / station / at</t>
-        </is>
-      </c>
-      <c r="E102" s="1" t="n">
+          <t>. / s / Let / meet / station / the / at / ’</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
         <v>102</v>
       </c>
     </row>
@@ -2696,10 +2696,10 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>It / stream / to / against / the / hard / be / swim / .</t>
-        </is>
-      </c>
-      <c r="E103" s="1" t="n">
+          <t>hard / the / against / be / . / It / to / swim / stream</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
         <v>103</v>
       </c>
     </row>
@@ -2719,10 +2719,10 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>between / . / parents / The / her / sit / be / girl / little</t>
-        </is>
-      </c>
-      <c r="E104" s="1" t="n">
+          <t>. / parents / her / between / be / The / girl / little / sit</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
         <v>104</v>
       </c>
     </row>
@@ -2742,10 +2742,10 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>get / Sunday / except / o / . / day / I / every / school</t>
-        </is>
-      </c>
-      <c r="E105" s="1" t="n">
+          <t>day / get / I / o / Sunday / . / every / school / except</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
         <v>105</v>
       </c>
     </row>
@@ -2765,10 +2765,10 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>s / walk / nice / s / It / . / ’ / ’ / Let / park / through / the / day / a</t>
-        </is>
-      </c>
-      <c r="E106" s="1" t="n">
+          <t>walk / nice / s / a / Let / ’ / s / . / It / day / park / ’ / the / through</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
         <v>106</v>
       </c>
     </row>
@@ -2788,10 +2788,10 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>in / because / the / tall / ’ / be / well / a / couldn / . / front / see / man / sit / stage / of / t / me / I / there</t>
-        </is>
-      </c>
-      <c r="E107" s="1" t="n">
+          <t>there / me / tall / . / man / t / front / couldn / see / sit / ’ / well / because / in / be / of / the / I / stage / a</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
         <v>107</v>
       </c>
     </row>
@@ -2811,10 +2811,10 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>this / this / . / the / You / finish / of / work / month / end / must / by</t>
-        </is>
-      </c>
-      <c r="E108" s="1" t="n">
+          <t>the / must / this / end / work / of / by / finish / month / . / You / this</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
         <v>108</v>
       </c>
     </row>
@@ -2834,10 +2834,10 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>tell / ? / about / Will / India / more / your / you / me / to / trip</t>
-        </is>
-      </c>
-      <c r="E109" s="1" t="n">
+          <t>trip / your / Will / ? / more / me / you / tell / about / India / to</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
         <v>109</v>
       </c>
     </row>
@@ -2857,10 +2857,10 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Many / to / by / come / students / train / school / .</t>
-        </is>
-      </c>
-      <c r="E110" s="1" t="n">
+          <t>train / students / to / . / Many / school / come / by</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
         <v>110</v>
       </c>
     </row>
@@ -2880,10 +2880,10 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>mother / a / . / My / mirror / can / makeup / not / on / her / without / put</t>
-        </is>
-      </c>
-      <c r="E111" s="1" t="n">
+          <t>a / put / her / My / mother / without / mirror / not / makeup / . / can / on</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
         <v>111</v>
       </c>
     </row>
@@ -2903,10 +2903,10 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1915 / World / . / War / the / II / end / in / year</t>
-        </is>
-      </c>
-      <c r="E112" s="1" t="n">
+          <t>end / in / 1915 / the / World / . / War / II / year</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2926,10 +2926,10 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>for / do / people / in / to / develop / want / work / poor / volunteer / countries / I / .</t>
-        </is>
-      </c>
-      <c r="E113" s="1" t="n">
+          <t>. / poor / do / work / for / want / volunteer / countries / I / to / develop / in / people</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
         <v>113</v>
       </c>
     </row>
@@ -2949,10 +2949,10 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>mother / My / ’ / . / in / in / s / watch / make / Switzerland</t>
-        </is>
-      </c>
-      <c r="E114" s="1" t="n">
+          <t>make / . / Switzerland / ’ / s / in / watch / in / My / mother</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
         <v>114</v>
       </c>
     </row>
@@ -2972,16 +2972,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>What / ? / make / be / of / bag / that</t>
-        </is>
-      </c>
-      <c r="E115" s="1" t="n">
+          <t>of / that / bag / be / What / make / ?</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
         <v>115</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1" s="3">
       <c r="A116" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B116" s="1" t="inlineStr">
         <is>
@@ -2995,16 +2995,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>many / Petroleum / into / . / things / make / be</t>
-        </is>
-      </c>
-      <c r="E116" s="1" t="n">
+          <t>many / make / Petroleum / into / things / be / .</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1" s="3">
       <c r="A117" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
@@ -3018,16 +3018,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>make / plants / that / believe / paper / from / . / can / t / I / be / ’</t>
-        </is>
-      </c>
-      <c r="E117" s="1" t="n">
+          <t>I / ’ / that / plants / make / paper / be / believe / can / t / from / .</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
         <v>117</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1" s="3">
       <c r="A118" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118" s="1" t="inlineStr">
         <is>
@@ -3041,16 +3041,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>mountain / the / top / to / s / of / race / . / the / Let / ’</t>
-        </is>
-      </c>
-      <c r="E118" s="1" t="n">
+          <t>top / to / mountain / race / Let / the / the / ’ / s / . / of</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
         <v>118</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1" s="3">
       <c r="A119" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B119" s="1" t="inlineStr">
         <is>
@@ -3064,16 +3064,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>to / ? / go / cut / be / I / What / cheese / the</t>
-        </is>
-      </c>
-      <c r="E119" s="1" t="n">
+          <t>What / go / be / cut / the / cheese / ? / I / to</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1" s="3">
       <c r="A120" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B120" s="1" t="inlineStr">
         <is>
@@ -3087,16 +3087,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>. / of / be / dress / women / All / in / black</t>
-        </is>
-      </c>
-      <c r="E120" s="1" t="n">
+          <t>be / black / All / . / in / of / women / dress</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1" s="3">
       <c r="A121" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B121" s="1" t="inlineStr">
         <is>
@@ -3110,16 +3110,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>clock / enter / o / We / not / . / the / until / can / nine / park / ’</t>
-        </is>
-      </c>
-      <c r="E121" s="1" t="n">
+          <t>can / until / the / ’ / not / o / . / nine / enter / park / clock / We</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1" s="3">
       <c r="A122" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B122" s="1" t="inlineStr">
         <is>
@@ -3133,16 +3133,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>the / fly / over / be / . / mountains / birds / The</t>
-        </is>
-      </c>
-      <c r="E122" s="1" t="n">
+          <t>fly / mountains / be / birds / . / over / the / The</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
         <v>122</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1" s="3">
       <c r="A123" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B123" s="1" t="inlineStr">
         <is>
@@ -3156,16 +3156,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>t / ’ / hard / the / want / don / rain / building / I / . / to / It / . / be / go / out / of</t>
-        </is>
-      </c>
-      <c r="E123" s="1" t="n">
+          <t>rain / I / go / hard / of / the / don / t / ’ / out / building / . / It / . / want / be / to</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
         <v>123</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1" s="3">
       <c r="A124" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B124" s="1" t="inlineStr">
         <is>
@@ -3179,16 +3179,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>. / newcomers / from / They / look / at / be / the / behind / door / their</t>
-        </is>
-      </c>
-      <c r="E124" s="1" t="n">
+          <t>from / door / newcomers / They / the / at / their / be / look / . / behind</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" s="3">
       <c r="A125" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B125" s="1" t="inlineStr">
         <is>
@@ -3202,16 +3202,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>and / into / the / The / children / river / . / jump / run / start</t>
-        </is>
-      </c>
-      <c r="E125" s="1" t="n">
+          <t>jump / start / into / river / run / the / The / children / and / .</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
         <v>125</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1" s="3">
       <c r="A126" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B126" s="1" t="inlineStr">
         <is>
@@ -3225,39 +3225,39 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>will / again / s / happen / nothing / ’ / this / . / Let / like / hope</t>
-        </is>
-      </c>
-      <c r="E126" s="1" t="n">
+          <t>hope / this / s / Let / . / ’ / will / like / again / nothing / happen</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1" s="3">
       <c r="A127" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B127" s="1" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>あなたは何の仕事をしていますか。</t>
         </is>
       </c>
-      <c r="C127" s="1" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>What do you do?</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>do / you / do / ? / What</t>
-        </is>
-      </c>
-      <c r="E127" s="1" t="n">
+          <t>do / you / do / What / ?</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
         <v>127</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1" s="3">
       <c r="A128" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B128" s="1" t="inlineStr">
         <is>
@@ -3271,16 +3271,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>or / Which / like / ? / water / , / would / mineral / tea / you</t>
-        </is>
-      </c>
-      <c r="E128" s="1" t="n">
+          <t>Which / or / would / you / ? / mineral / tea / , / like / water</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1" s="3">
       <c r="A129" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B129" s="1" t="inlineStr">
         <is>
@@ -3294,16 +3294,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>do / you / ? / to / work / How / go</t>
-        </is>
-      </c>
-      <c r="E129" s="1" t="n">
+          <t>How / you / ? / go / work / do / to</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
         <v>129</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1" s="3">
       <c r="A130" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B130" s="1" t="inlineStr">
         <is>
@@ -3317,1032 +3317,1032 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>birthday / your / be / ? / When</t>
-        </is>
-      </c>
-      <c r="E130" s="1" t="n">
+          <t>be / When / birthday / ? / your</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1" s="3">
       <c r="A131" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B131" s="1" t="inlineStr">
         <is>
-          <t>なぜあなたは昨晩私の電話に出なかったのですか。</t>
+          <t>次のバスは何時に来ますか。</t>
         </is>
       </c>
       <c r="C131" s="1" t="inlineStr">
         <is>
-          <t>Why didn’t you answer my phone last night.</t>
+          <t>What time does the next bus come?</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>you / answer / t / ’ / Why / my / phone / night / last / didn / .</t>
-        </is>
-      </c>
-      <c r="E131" s="1" t="n">
+          <t>time / do / What / next / bus / come / the / ?</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
         <v>131</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1" s="3">
       <c r="A132" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B132" s="1" t="inlineStr">
         <is>
-          <t>次のバスは何時に来ますか。</t>
+          <t>彼はニューヨークにどれくらい滞在しましたか。</t>
         </is>
       </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
-          <t>What time does the next bus come?</t>
+          <t>How long did he stay in New York?</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>do / bus / ? / time / come / What / the / next</t>
-        </is>
-      </c>
-      <c r="E132" s="1" t="n">
+          <t>in / ? / he / do / stay / York / How / New / long</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
         <v>132</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1" s="3">
       <c r="A133" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B133" s="1" t="inlineStr">
-        <is>
-          <t>彼はニューヨークにどれくらい滞在しましたか。</t>
-        </is>
-      </c>
-      <c r="C133" s="1" t="inlineStr">
-        <is>
-          <t>How long did he stay in New York?</t>
+        <v>6</v>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>男はどの方角に行きましたか。</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>Which way did the man go?</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>in / stay / he / York / New / How / ? / long / do</t>
-        </is>
-      </c>
-      <c r="E133" s="1" t="n">
+          <t>man / Which / way / the / ? / go / do</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
         <v>133</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1" s="3">
       <c r="A134" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B134" s="1" t="inlineStr">
-        <is>
-          <t>男はどの方角に行きましたか。</t>
-        </is>
-      </c>
-      <c r="C134" s="1" t="inlineStr">
-        <is>
-          <t>Which way did the man go?</t>
+        <v>6</v>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>私たちは今どこにいますか。</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>Where are we now?</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>? / man / go / way / do / Which / the</t>
-        </is>
-      </c>
-      <c r="E134" s="1" t="n">
+          <t>Where / we / now / be / ?</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
         <v>134</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1" s="3">
       <c r="A135" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B135" s="1" t="inlineStr">
-        <is>
-          <t>私たちは今どこにいますか。</t>
-        </is>
-      </c>
-      <c r="C135" s="1" t="inlineStr">
-        <is>
-          <t>Where are we now?</t>
+        <v>6</v>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>あなたは駅でジェーンに会いませんでしたか。</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>Didn’t you meet Jane at the station?</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>we / Where / ? / now / be</t>
-        </is>
-      </c>
-      <c r="E135" s="1" t="n">
+          <t>Didn / ’ / you / meet / the / station / at / Jane / t / ?</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1" s="3">
       <c r="A136" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B136" s="1" t="inlineStr">
-        <is>
-          <t>あなたは駅でジェーンに会いませんでしたか。</t>
-        </is>
-      </c>
-      <c r="C136" s="1" t="inlineStr">
-        <is>
-          <t>Didn’t you meet Jane at the station?</t>
+        <v>6</v>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>彼は日本で生まれたのではありませんよね。</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>He wasn’t born in Japan, was he?</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>station / at / t / Didn / the / ’ / Jane / meet / ? / you</t>
-        </is>
-      </c>
-      <c r="E136" s="1" t="n">
+          <t>he / ’ / t / in / He / be / Japan / wasn / ? / , / bear</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
         <v>136</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1" s="3">
       <c r="A137" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B137" s="1" t="inlineStr">
-        <is>
-          <t>彼は日本で生まれたのではありませんよね。</t>
-        </is>
-      </c>
-      <c r="C137" s="1" t="inlineStr">
-        <is>
-          <t>He wasn’t born in Japan, was he?</t>
+        <v>6</v>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>私にはあまり時間がない 。あなたはどうですか。</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>I don’t have much time. How about you?</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>? / He / wasn / be / he / Japan / , / t / bear / in / ’</t>
-        </is>
-      </c>
-      <c r="E137" s="1" t="n">
+          <t>? / time / you / about / I / have / much / . / ’ / don / t / How</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
         <v>137</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1" s="3">
       <c r="A138" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B138" s="1" t="inlineStr">
-        <is>
-          <t>私にはあまり時間がない 。あなたはどうですか。</t>
-        </is>
-      </c>
-      <c r="C138" s="1" t="inlineStr">
-        <is>
-          <t>I don’t have much time. How about you?</t>
+        <v>6</v>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>新しい数学の先生はどんな人ですか。</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>What is the new math teacher like?</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>have / How / ’ / you / don / much / about / t / time / . / I / ?</t>
-        </is>
-      </c>
-      <c r="E138" s="1" t="n">
+          <t>? / What / new / be / like / math / the / teacher</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
         <v>138</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1" s="3">
       <c r="A139" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B139" s="1" t="inlineStr">
-        <is>
-          <t>新しい数学の先生はどんな人ですか。</t>
-        </is>
-      </c>
-      <c r="C139" s="1" t="inlineStr">
-        <is>
-          <t>What is the new math teacher like?</t>
+        <v>6</v>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>そのことは電話で彼女に尋ねたらどうですか。</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>Why don’t you ask her about it on the phone?</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>like / teacher / What / the / ? / be / new / math</t>
-        </is>
-      </c>
-      <c r="E139" s="1" t="n">
+          <t>you / don / t / ? / on / her / ask / Why / it / about / ’ / phone / the</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
         <v>139</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1" s="3">
       <c r="A140" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B140" s="1" t="inlineStr">
-        <is>
-          <t>そのことは電話で彼女に尋ねたらどうですか。</t>
-        </is>
-      </c>
-      <c r="C140" s="1" t="inlineStr">
-        <is>
-          <t>Why don’t you ask her about it on the phone?</t>
+        <v>6</v>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>マキとダイナは親友ですよね。</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>Maki and Dina are good friend aren’t they?</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>her / it / ’ / ask / about / you / ? / the / on / phone / Why / don / t</t>
-        </is>
-      </c>
-      <c r="E140" s="1" t="n">
+          <t>and / aren / be / ’ / Maki / friend / ? / good / t / Dina / they</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
         <v>140</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1" s="3">
       <c r="A141" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>マキとダイナは親友ですよね。</t>
+          <t>彼はなんの本を探していましたか。</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Maki and Dina are good friend aren’t they?</t>
+          <t>How did he find the book?</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>and / they / ’ / good / t / ? / aren / friend / Maki / be / Dina</t>
-        </is>
-      </c>
-      <c r="E141" s="1" t="n">
+          <t>do / he / ? / the / book / find / How</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
         <v>141</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1" s="3">
       <c r="A142" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>彼はなんの本を探していましたか。</t>
+          <t>なぜ彼らはこの歌が好きなのですか。</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>How did he find the book?</t>
+          <t>Why do they like this song?</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>How / do / ? / find / he / book / the</t>
-        </is>
-      </c>
-      <c r="E142" s="1" t="n">
+          <t>this / song / Why / ? / they / do / like</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
         <v>142</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1" s="3">
       <c r="A143" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>なぜ彼らはこの歌が好きなのですか。</t>
+          <t>私はこれらのかごがどこで作られているのか知りたいです。</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Why do they like this song?</t>
+          <t>I want to know where these baskets were made?</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>they / ? / like / Why / do / this / song</t>
-        </is>
-      </c>
-      <c r="E143" s="1" t="n">
+          <t>I / be / where / to / baskets / want / know / ? / make / these</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1" s="3">
       <c r="A144" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>私はこれらのかごがどこで作られているのか知りたいです。</t>
+          <t>横浜へのチケットがいくらか私に教えていただけませんか。</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>I want to know where these baskets were made?</t>
+          <t>Please tell me how much the ticket to Yokohama is?</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>where / be / ? / to / want / I / baskets / know / these / make</t>
-        </is>
-      </c>
-      <c r="E144" s="1" t="n">
+          <t>me / be / how / tell / the / much / ? / to / Please / ticket / Yokohama</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
         <v>144</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1" s="3">
       <c r="A145" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>横浜へのチケットがいくらか私に教えていただけませんか。</t>
+          <t>彼らの制服は何色ですか？深緑色です。</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Please tell me how much the ticket to Yokohama is?</t>
+          <t>What color is their uniform? Dark green.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>how / Yokohama / ticket / much / to / ? / tell / the / me / be / Please</t>
-        </is>
-      </c>
-      <c r="E145" s="1" t="n">
+          <t>be / their / Dark / color / uniform / green / . / ? / What</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
         <v>145</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1" s="3">
       <c r="A146" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>彼らの制服は何色ですか？深緑色です。</t>
+          <t>ここから博物館まで歩くとどれくらいかかりますか？約１０分かかります。</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>What color is their uniform? Dark green.</t>
+          <t>How long does it take from here to the museum on foot? About 10 minutes.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>. / be / What / their / ? / green / uniform / Dark / color</t>
-        </is>
-      </c>
-      <c r="E146" s="1" t="n">
+          <t>About / the / it / 10 / do / long / from / How / here / on / ? / minutes / museum / . / take / foot / to</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1" s="3">
       <c r="A147" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>ここから博物館まで歩くとどれくらいかかりますか？約１０分かかります。</t>
+          <t>誰がその問題を解決しましたか。誰にもできなかった。</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>How long does it take from here to the museum on foot? About 10 minutes.</t>
+          <t>Who solved the problem? Nobody was able to.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>take / to / About / it / here / from / How / minutes / foot / . / 10 / ? / on / museum / the / long / do</t>
-        </is>
-      </c>
-      <c r="E147" s="1" t="n">
+          <t>Who / to / ? / problem / be / . / Nobody / the / able / solve</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
         <v>147</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1" s="3">
       <c r="A148" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>誰がその問題を解決しましたか。誰にもできなかった。</t>
+          <t>次の土曜日に映画を見にいくのはどうですか。そうしよう。</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Who solved the problem? Nobody was able to.</t>
+          <t>How about going to the movies next Saturday? Why not?</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>? / be / to / the / . / Who / solve / problem / Nobody / able</t>
-        </is>
-      </c>
-      <c r="E148" s="1" t="n">
+          <t>? / not / Why / the / Saturday / movies / How / next / go / about / to / ?</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
         <v>148</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1" s="3">
       <c r="A149" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>次の土曜日に映画を見にいくのはどうですか。そうしよう。</t>
+          <t>なぜあなたはそんなに悲しんでいるの。私の1番の友人が他の街に引っ越すからです。</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>How about going to the movies next Saturday? Why not?</t>
+          <t>Why are you so sad? My best friend is moving to another town.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>movies / about / ? / go / ? / to / next / Saturday / not / How / Why / the</t>
-        </is>
-      </c>
-      <c r="E149" s="1" t="n">
+          <t>? / town / be / My / . / another / you / so / to / move / friend / best / sad / be / Why</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
         <v>149</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1" s="3">
       <c r="A150" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>なぜあなたはそんなに悲しんでいるの。私の1番の友人が他の街に引っ越すからです。</t>
+          <t>彼らの新しい家はどのような家ですか。</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Why are you so sad? My best friend is moving to another town.</t>
+          <t>What is their new house like?</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>? / another / My / to / sad / move / be / Why / so / be / . / town / you / friend / best</t>
-        </is>
-      </c>
-      <c r="E150" s="1" t="n">
+          <t>? / new / be / their / like / house / What</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1" s="3">
       <c r="A151" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>彼らの新しい家はどのような家ですか。</t>
+          <t>なぜジャックはこのチームでプレーしていないのですか。</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>What is their new house like?</t>
+          <t>Why isn’t Jack playing on this team?</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>new / ? / house / be / their / like / What</t>
-        </is>
-      </c>
-      <c r="E151" s="1" t="n">
+          <t>this / t / on / isn / team / playing / Why / Jack / ’ / ?</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
         <v>151</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1" s="3">
       <c r="A152" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>なぜジャックはこのチームでプレーしていないのですか。</t>
+          <t>会議は１０時まで始まらないのですね。</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Why isn’t Jack playing on this team?</t>
+          <t>The meeting does start until 10 o’clock, doesn’t it?</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>’ / this / team / ? / on / playing / isn / Why / Jack / t</t>
-        </is>
-      </c>
-      <c r="E152" s="1" t="n">
+          <t>The / start / , / meeting / 10 / t / ’ / do / it / ’ / ? / clock / doesn / until / o</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1" s="3">
       <c r="A153" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>会議は１０時まで始まらないのですね。</t>
+          <t>ボブと直美をバーベキューに誘いませんか。</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>The meeting does start until 10 o’clock, doesn’t it?</t>
+          <t>Why don’t we invite Bob and Naomi to the barbecue?</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>it / t / , / start / doesn / ’ / clock / o / do / ? / meeting / ’ / until / 10 / The</t>
-        </is>
-      </c>
-      <c r="E153" s="1" t="n">
+          <t>the / t / and / don / invite / Why / to / ? / Bob / Naomi / we / barbecue / ’</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
         <v>153</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1" s="3">
       <c r="A154" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>ボブと直美をバーベキューに誘いませんか。</t>
+          <t>ドアを押さえていてくれませんか。</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Why don’t we invite Bob and Naomi to the barbecue?</t>
+          <t>Hold the door for me, will you?</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>to / t / Why / Bob / ’ / we / barbecue / Naomi / don / ? / invite / and / the</t>
-        </is>
-      </c>
-      <c r="E154" s="1" t="n">
+          <t>, / for / me / Hold / you / ? / will / the / door</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
         <v>154</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1" s="3">
       <c r="A155" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>ドアを押さえていてくれませんか。</t>
+          <t>彼はどこの出身だと思いますか。</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Hold the door for me, will you?</t>
+          <t>Where do you think he comes from?</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>door / ? / for / Hold / , / will / you / me / the</t>
-        </is>
-      </c>
-      <c r="E155" s="1" t="n">
+          <t>you / come / do / from / Where / ? / think / he</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1" s="3">
       <c r="A156" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>彼はどこの出身だと思いますか。</t>
+          <t>私は彼が試合に来るものと思っていました。</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Where do you think he comes from?</t>
+          <t>I thought he would come to the game.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>come / from / do / he / think / Where / you / ?</t>
-        </is>
-      </c>
-      <c r="E156" s="1" t="n">
+          <t>think / he / . / game / come / the / to / I / would</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
         <v>156</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1" s="3">
       <c r="A157" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>私は彼が試合に来るものと思っていました。</t>
+          <t>あなたはその自転車が私のものだということを知ってましたか。</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>I thought he would come to the game.</t>
+          <t>Did you know that the bicycle was mine?</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>the / . / to / game / think / I / come / he / would</t>
-        </is>
-      </c>
-      <c r="E157" s="1" t="n">
+          <t>know / that / bicycle / be / the / ? / mine / you / Did</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
         <v>157</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1" s="3">
       <c r="A158" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>あなたはその自転車が私のものだということを知ってましたか。</t>
+          <t>私たちはその本が倒れていたことを知った。</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Did you know that the bicycle was mine?</t>
+          <t>We found out that the tree had fallen down.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>you / mine / know / ? / the / that / bicycle / be / Did</t>
-        </is>
-      </c>
-      <c r="E158" s="1" t="n">
+          <t>found / We / down / fall / that / out / tree / the / . / have</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
         <v>158</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1" s="3">
       <c r="A159" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>私たちはその本が倒れていたことを知った。</t>
+          <t>自分は日本の会社で働いているとジョンは言った。</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>We found out that the tree had fallen down.</t>
+          <t>John said that he worked for a Japanese company.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>found / tree / that / the / fall / out / down / We / . / have</t>
-        </is>
-      </c>
-      <c r="E159" s="1" t="n">
+          <t>a / say / work / that / . / company / John / for / he / Japanese</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
         <v>159</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1" s="3">
       <c r="A160" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>自分は日本の会社で働いているとジョンは言った。</t>
+          <t>自分は中国語を話すのがとても上手だとあなたは言ってた。</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>John said that he worked for a Japanese company.</t>
+          <t>You said that you spoke Chinese very well.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>John / . / Japanese / company / he / say / for / a / work / that</t>
-        </is>
-      </c>
-      <c r="E160" s="1" t="n">
+          <t>you / well / . / Chinese / that / speak / say / very / You</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
         <v>160</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1" s="3">
       <c r="A161" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>自分は中国語を話すのがとても上手だとあなたは言ってた。</t>
+          <t>シンディーは彼女の兄が彼女を学校まで送ってくれるだろうと言った。</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>You said that you spoke Chinese very well.</t>
+          <t>Cindy said that her brother would drive her to school.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>. / say / speak / Chinese / well / you / very / You / that</t>
-        </is>
-      </c>
-      <c r="E161" s="1" t="n">
+          <t>school / her / her / to / that / drive / . / say / brother / would / Cindy</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
         <v>161</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1" s="3">
       <c r="A162" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>シンディーは彼女の兄が彼女を学校まで送ってくれるだろうと言った。</t>
+          <t>自分はいい生徒を持って本当に幸運だと私たちの先生はよく言います。</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Cindy said that her brother would drive her to school.</t>
+          <t>Our teacher always says that he is really lucky to have good students.</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Cindy / would / brother / say / drive / to / school / that / . / her / her</t>
-        </is>
-      </c>
-      <c r="E162" s="1" t="n">
+          <t>. / lucky / students / good / teacher / he / have / always / say / be / to / that / really / Our</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
         <v>162</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1" s="3">
       <c r="A163" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>自分はいい生徒を持って本当に幸運だと私たちの先生はよく言います。</t>
+          <t>安田先生は私たちに数学を教えてあげると言いました。</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Our teacher always says that he is really lucky to have good students.</t>
+          <t>Mr.Yasuda told us that he would teach us mathematics.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>. / he / Our / have / teacher / lucky / say / to / good / be / always / really / students / that</t>
-        </is>
-      </c>
-      <c r="E163" s="1" t="n">
+          <t>would / that / tell / . / teach / us / us / he / mathematics / Mr.Yasuda</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
         <v>163</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1" s="3">
       <c r="A164" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>安田先生は私たちに数学を教えてあげると言いました。</t>
+          <t>男の子はそのサッカー選手に「私はいつもあなたと話したかった。」と言った。</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Mr.Yasuda told us that he would teach us mathematics.</t>
+          <t>The boy said to the soccer player, “ I have always wanted to talk to him.”</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Mr.Yasuda / us / that / . / teach / would / us / mathematics / tell / he</t>
-        </is>
-      </c>
-      <c r="E164" s="1" t="n">
+          <t>to / I / . / say / to / talk / have / always / him / want / to / boy / “ / soccer / player / The / the / ” / ,</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1" s="3">
       <c r="A165" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>男の子はそのサッカー選手に「私はいつもあなたと話したかった。」と言った。</t>
+          <t>その女の子は犬に新聞を持ってくるように言った。</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>The boy said to the soccer player, “ I have always wanted to talk to him.”</t>
+          <t>The girl told her dog to bring her the news paper.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>say / to / him / want / to / have / talk / . / , / “ / The / ” / player / I / the / always / boy / to / soccer</t>
-        </is>
-      </c>
-      <c r="E165" s="1" t="n">
+          <t>to / girl / the / . / tell / bring / news / paper / The / her / her / dog</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
         <v>165</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" s="3">
       <c r="A166" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>その女の子は犬に新聞を持ってくるように言った。</t>
+          <t>旅行者は車掌に「ホテルまでの道を教えてください」と言った。</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>The girl told her dog to bring her the news paper.</t>
+          <t>The tourist said to the conductor, “Please tell me the way to the hotel.”</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>news / tell / her / dog / . / her / The / paper / the / girl / to / bring</t>
-        </is>
-      </c>
-      <c r="E166" s="1" t="n">
+          <t>conductor / hotel / the / me / to / to / say / the / Please / tourist / . / , / the / tell / ” / way / “ / The</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
         <v>166</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1" s="3">
       <c r="A167" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>旅行者は車掌に「ホテルまでの道を教えてください」と言った。</t>
+          <t>老人はいつも私たちに「調子はどうですか。」と言う。</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>The tourist said to the conductor, “Please tell me the way to the hotel.”</t>
+          <t>The old man always says to us “How are you?”</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>“ / the / The / the / the / me / Please / to / hotel / ” / tourist / conductor / . / say / to / tell / , / way</t>
-        </is>
-      </c>
-      <c r="E167" s="1" t="n">
+          <t>man / always / to / be / The / How / say / ? / ” / “ / you / us / old</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
         <v>167</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1" s="3">
       <c r="A168" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>老人はいつも私たちに「調子はどうですか。」と言う。</t>
+          <t>私の母は私にどこにいたのか尋ねた。</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>The old man always says to us “How are you?”</t>
+          <t>My mother asked asked me where I had been?</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>say / How / us / always / ” / “ / man / ? / The / old / you / be / to</t>
-        </is>
-      </c>
-      <c r="E168" s="1" t="n">
+          <t>My / ask / ? / me / be / where / mother / ask / I / have</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
         <v>168</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1" s="3">
       <c r="A169" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>私の母は私にどこにいたのか尋ねた。</t>
+          <t>その配達員の男性は次の日に戻ってくると言った。</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>My mother asked asked me where I had been?</t>
+          <t>The delivery man said that he would come back the next day.</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ask / mother / I / have / be / My / where / ? / ask / me</t>
-        </is>
-      </c>
-      <c r="E169" s="1" t="n">
+          <t>The / day / the / back / he / man / . / would / delivery / say / next / that / come</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
         <v>169</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1" s="3">
       <c r="A170" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>その配達員の男性は次の日に戻ってくると言った。</t>
+          <t>先生は彼に前日にいい仕事をしたと言った。</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>The delivery man said that he would come back the next day.</t>
+          <t>The teacher told him that he had done a good job the day before.</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>the / The / . / would / day / delivery / man / say / next / back / come / that / he</t>
-        </is>
-      </c>
-      <c r="E170" s="1" t="n">
+          <t>job / day / him / that / . / before / The / he / good / do / a / teacher / tell / the / have</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1" s="3">
       <c r="A171" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>先生は彼に前日にいい仕事をしたと言った。</t>
+          <t>その女性は私に翌朝そこで会ってくれるように頼んだ。</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>The teacher told him that he had done a good job the day before.</t>
+          <t>The woman asked me to meet her there the next morning.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>good / day / job / have / he / teacher / that / a / tell / before / him / The / . / the / do</t>
-        </is>
-      </c>
-      <c r="E171" s="1" t="n">
+          <t>her / morning / meet / woman / next / to / The / . / me / ask / the / there</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
         <v>171</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1" s="3">
       <c r="A172" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>その女性は私に翌朝そこで会ってくれるように頼んだ。</t>
+          <t>村人は私に何年も前にその場所を訪れたことがあるか私に聞いた。彼女は約束は絶対に破らないだろうと言った。</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>The woman asked me to meet her there the next morning.</t>
+          <t>The villager asked him why he hadn’t came to work the previous week?</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>her / The / morning / . / me / there / to / meet / the / woman / ask / next</t>
-        </is>
-      </c>
-      <c r="E172" s="1" t="n">
+          <t>him / t / ask / come / ? / hadn / he / week / previous / work / villager / to / why / the / ’ / The</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
         <v>172</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1" s="3">
       <c r="A173" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>村人は私に何年も前にその場所を訪れたことがあるか私に聞いた。彼女は約束は絶対に破らないだろうと言った。</t>
+          <t>上司は彼になぜ前の週仕事に来なかったのか尋ねた。</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>The villager asked him why he hadn’t came to work the previous week?</t>
+          <t>The students said to the woman “We are going to stay at this hotel tonight.</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>the / ? / come / villager / previous / why / t / work / The / him / hadn / ’ / he / week / to / ask</t>
-        </is>
-      </c>
-      <c r="E173" s="1" t="n">
+          <t>this / We / to / go / say / the / tonight / woman / hotel / to / be / The / . / at / stay / students / “</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
         <v>173</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1" s="3">
       <c r="A174" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>上司は彼になぜ前の週仕事に来なかったのか尋ねた。</t>
+          <t>生徒たちは女性に「私たちは今夜このホテルに滞在するつもりです。」と言った。</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>The students said to the woman “We are going to stay at this hotel tonight.</t>
+          <t>I didn’t know you were a friend of the famous writer.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>at / this / be / say / “ / stay / tonight / woman / . / to / We / to / hotel / go / the / The / students</t>
-        </is>
-      </c>
-      <c r="E174" s="1" t="n">
+          <t>of / . / be / you / ’ / writer / famous / a / the / t / friend / didn / know / I</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
         <v>174</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1" s="3">
       <c r="A175" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>生徒たちは女性に「私たちは今夜このホテルに滞在するつもりです。」と言った。</t>
+          <t>あなたがその有名な作家の友人とは知らなかった。</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>famous / friend / ’ / of / didn / the / a / . / know / writer / you / be / t / I</t>
+          <t>I / be / . / t / didn / of / ’ / the / famous / you / friend / know / writer / a</t>
         </is>
       </c>
       <c r="E175" s="2" t="n">
@@ -4361,21 +4361,21 @@
     </row>
     <row r="176" ht="15.75" customHeight="1" s="3">
       <c r="A176" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>あなたがその有名な作家の友人とは知らなかった。</t>
+          <t>生徒は先生に早退しても良いかと尋ねた。</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>I didn’t know you were a friend of the famous writer.</t>
+          <t>The student asked the teacher if he could go home early.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>a / the / you / ’ / be / . / I / writer / t / know / famous / didn / friend / of</t>
+          <t>if / The / ask / could / student / early / go / he / teacher / the / . / home</t>
         </is>
       </c>
       <c r="E176" s="2" t="n">
@@ -4384,21 +4384,21 @@
     </row>
     <row r="177" ht="15.75" customHeight="1" s="3">
       <c r="A177" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>生徒は先生に早退しても良いかと尋ねた。</t>
+          <t>その老人は孫にいつ到着したのかと尋ねた。</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>The student asked the teacher if he could go home early.</t>
+          <t>The old man asked his grandson when he arrived.</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>could / student / the / home / ask / teacher / he / . / if / go / The / early</t>
+          <t>he / old / grandson / The / . / ask / when / arrive / his / man</t>
         </is>
       </c>
       <c r="E177" s="2" t="n">
@@ -4407,50 +4407,28 @@
     </row>
     <row r="178" ht="15.75" customHeight="1" s="3">
       <c r="A178" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>その老人は孫にいつ到着したのかと尋ねた。</t>
+          <t>警察官はその若者たちにそこにそのままいるようにと言った。</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>The old man asked his grandson when he arrived.</t>
+          <t>The police officer told the young men to stay there.</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>when / ask / arrive / . / his / he / man / The / grandson / old</t>
+          <t>men / police / . / tell / stay / to / the / there / young / The / officer</t>
         </is>
       </c>
       <c r="E178" s="2" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1" s="3">
-      <c r="A179" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>警察官はその若者たちにそこにそのままいるようにと言った。</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>The police officer told the young men to stay there.</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>to / the / The / stay / men / young / police / tell / there / officer / .</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="n">
-        <v>179</v>
-      </c>
-    </row>
+    <row r="179" ht="15.75" customHeight="1" s="3"/>
     <row r="180" ht="15.75" customHeight="1" s="3"/>
     <row r="181" ht="15.75" customHeight="1" s="3"/>
     <row r="182" ht="15.75" customHeight="1" s="3"/>

--- a/databank_englishB-copy.xlsx
+++ b/databank_englishB-copy.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -23,7 +23,6 @@
       <name val="Arial"/>
       <color theme="1"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -39,12 +38,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -327,16 +325,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="14.43" customWidth="1" style="3" min="1" max="1"/>
-    <col width="83.14" customWidth="1" style="3" min="2" max="2"/>
-    <col width="75.70999999999999" customWidth="1" style="3" min="3" max="3"/>
-    <col width="92.86" customWidth="1" style="3" min="4" max="4"/>
-    <col width="14.43" customWidth="1" style="3" min="5" max="6"/>
+    <col width="14.43" customWidth="1" style="2" min="1" max="1"/>
+    <col width="83.14" customWidth="1" style="2" min="2" max="2"/>
+    <col width="75.70999999999999" customWidth="1" style="2" min="3" max="3"/>
+    <col width="92.86" customWidth="1" style="2" min="4" max="4"/>
+    <col width="14.43" customWidth="1" style="2" min="5" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
+    <row r="1" ht="15.75" customHeight="1" s="2">
       <c r="A1" s="1" t="n">
         <v>1</v>
       </c>
@@ -352,14 +350,14 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>. / twelve / on / and / be / men / nine / committee / There / the / woman</t>
+          <t>men / twelve / committee / and / be / the / . / woman / on / there / nine</t>
         </is>
       </c>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="3">
+    <row r="2" ht="15.75" customHeight="1" s="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -375,14 +373,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>have / much / now / We / don / . / t / money / ’</t>
+          <t>. / don / now / ’ / much / t / we / have / money</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="3">
+    <row r="3" ht="15.75" customHeight="1" s="2">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -398,14 +396,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>? / have / I / paper / sheets / Can / of / two</t>
+          <t>have / of / two / paper / can / I / sheets / ?</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="3">
+    <row r="4" ht="15.75" customHeight="1" s="2">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
@@ -421,14 +419,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mountain / many / There / sheep / the / on / . / be</t>
+          <t>mountain / . / be / the / on / there / many / sheep</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="3">
+    <row r="5" ht="15.75" customHeight="1" s="2">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -444,14 +442,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>t / things / ’ / building / as / this / such / with / dangerous / can / . / You / enter / knife</t>
+          <t>such / building / . / ’ / things / knife / with / can / as / t / enter / you / this / dangerous</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="3">
+    <row r="6" ht="15.75" customHeight="1" s="2">
       <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
@@ -467,14 +465,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>of / juice / grasses / drink / . / several / We</t>
+          <t>several / grasses / . / juice / of / drink / we</t>
         </is>
       </c>
       <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="3">
+    <row r="7" ht="15.75" customHeight="1" s="2">
       <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
@@ -490,14 +488,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>slices / would / ? / you / How / like / bread / many / of</t>
+          <t>? / slices / like / of / you / how / bread / would / many</t>
         </is>
       </c>
       <c r="E7" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="3">
+    <row r="8" ht="15.75" customHeight="1" s="2">
       <c r="A8" s="1" t="n">
         <v>1</v>
       </c>
@@ -513,14 +511,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>will / corn / Some / salad / make / taste / better / . / your</t>
+          <t>make / taste / your / corn / will / some / better / . / salad</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="3">
+    <row r="9" ht="15.75" customHeight="1" s="2">
       <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
@@ -536,14 +534,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>useful / Information / . / website / from / some / the / I / get</t>
+          <t>some / I / from / get / Information / the / website / useful / .</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="3">
+    <row r="10" ht="15.75" customHeight="1" s="2">
       <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
@@ -559,14 +557,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>the / fish / . / Some / in / be / tank / swim</t>
+          <t>the / some / fish / in / swim / be / . / tank</t>
         </is>
       </c>
       <c r="E10" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="3">
+    <row r="11" ht="15.75" customHeight="1" s="2">
       <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
@@ -582,14 +580,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>be / refrigerator / two / in / There / . / bottles / of / the / milk</t>
+          <t>. / in / the / refrigerator / be / bottles / milk / two / of / there</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="3">
+    <row r="12" ht="15.75" customHeight="1" s="2">
       <c r="A12" s="1" t="n">
         <v>1</v>
       </c>
@@ -605,14 +603,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>How / you / money / do / ? / need / much</t>
+          <t>much / money / ? / how / do / you / need</t>
         </is>
       </c>
       <c r="E12" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="3">
+    <row r="13" ht="15.75" customHeight="1" s="2">
       <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
@@ -628,14 +626,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>a / give / of / me / this / advice / He / piece / . / good</t>
+          <t>give / advice / of / a / me / he / this / good / . / piece</t>
         </is>
       </c>
       <c r="E13" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="3">
+    <row r="14" ht="15.75" customHeight="1" s="2">
       <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
@@ -651,14 +649,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>. / this / of / author / He / the / book / be</t>
+          <t>author / the / of / he / . / book / this / be</t>
         </is>
       </c>
       <c r="E14" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="3">
+    <row r="15" ht="15.75" customHeight="1" s="2">
       <c r="A15" s="1" t="n">
         <v>1</v>
       </c>
@@ -674,14 +672,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>years / small / of / We / a / the / now / member / family / . / , / our / dog / dog / ago / be / And / buy / five / a / .</t>
+          <t>five / the / we / dog / member / . / be / small / a / years / now / . / buy / And / our / ago / dog / a / of / , / family</t>
         </is>
       </c>
       <c r="E15" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="3">
+    <row r="16" ht="15.75" customHeight="1" s="2">
       <c r="A16" s="1" t="n">
         <v>1</v>
       </c>
@@ -697,14 +695,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>He / the / in / history / study / U.S / . / be</t>
+          <t>in / U.S / the / history / . / study / he / be</t>
         </is>
       </c>
       <c r="E16" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="3">
+    <row r="17" ht="15.75" customHeight="1" s="2">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
@@ -720,14 +718,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>. / on / snow / step / the / There / ground / be / your / Watch / .</t>
+          <t>on / . / the / . / There / snow / ground / watch / step / your / be</t>
         </is>
       </c>
       <c r="E17" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="3">
+    <row r="18" ht="15.75" customHeight="1" s="2">
       <c r="A18" s="1" t="n">
         <v>1</v>
       </c>
@@ -743,14 +741,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>I / a / Jobs / day / some / . / to / Steve / want / be</t>
+          <t>a / to / some / I / Steve / want / . / be / Jobs / day</t>
         </is>
       </c>
       <c r="E18" s="1" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="3">
+    <row r="19" ht="15.75" customHeight="1" s="2">
       <c r="A19" s="1" t="n">
         <v>1</v>
       </c>
@@ -766,14 +764,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>father / . / twice / play / week / My / a / tennis</t>
+          <t>a / play / tennis / week / my / twice / father / .</t>
         </is>
       </c>
       <c r="E19" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="3">
+    <row r="20" ht="15.75" customHeight="1" s="2">
       <c r="A20" s="1" t="n">
         <v>1</v>
       </c>
@@ -789,14 +787,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sell / . / Ice / the / pint / cream / be / usually / by</t>
+          <t>sell / by / the / be / usually / cream / . / pint / ice</t>
         </is>
       </c>
       <c r="E20" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="3">
+    <row r="21" ht="15.75" customHeight="1" s="2">
       <c r="A21" s="1" t="n">
         <v>1</v>
       </c>
@@ -812,14 +810,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>teacher / and / a / writer / father / . / be / His</t>
+          <t>be / father / . / teacher / writer / a / and / his</t>
         </is>
       </c>
       <c r="E21" s="1" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="3">
+    <row r="22" ht="15.75" customHeight="1" s="2">
       <c r="A22" s="1" t="n">
         <v>1</v>
       </c>
@@ -835,14 +833,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>pink / . / Please / white / buy / a / rise / me / and / a</t>
+          <t>buy / a / a / pink / me / white / please / rise / . / and</t>
         </is>
       </c>
       <c r="E22" s="1" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="3">
+    <row r="23" ht="15.75" customHeight="1" s="2">
       <c r="A23" s="1" t="n">
         <v>1</v>
       </c>
@@ -858,14 +856,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>. / a / least / at / year / once / make / meet / to / promise / We / a</t>
+          <t>year / at / least / we / meet / to / promise / a / once / a / . / make</t>
         </is>
       </c>
       <c r="E23" s="1" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="3">
+    <row r="24" ht="15.75" customHeight="1" s="2">
       <c r="A24" s="1" t="n">
         <v>1</v>
       </c>
@@ -881,14 +879,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>lot / cake / of / sugar / make / in / a / it / The / have / . / he</t>
+          <t>it / in / make / he / the / sugar / lot / a / cake / of / have / .</t>
         </is>
       </c>
       <c r="E24" s="1" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="3">
+    <row r="25" ht="15.75" customHeight="1" s="2">
       <c r="A25" s="1" t="n">
         <v>1</v>
       </c>
@@ -904,14 +902,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ham / boy / The / slices / . / ate / two / of</t>
+          <t>ate / of / the / . / slices / ham / boy / two</t>
         </is>
       </c>
       <c r="E25" s="1" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="3">
+    <row r="26" ht="15.75" customHeight="1" s="2">
       <c r="A26" s="1" t="n">
         <v>1</v>
       </c>
@@ -927,14 +925,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>. / to / All / end / things / good / come / an</t>
+          <t>end / all / to / . / good / come / an / things</t>
         </is>
       </c>
       <c r="E26" s="1" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="3">
+    <row r="27" ht="15.75" customHeight="1" s="2">
       <c r="A27" s="1" t="n">
         <v>1</v>
       </c>
@@ -950,14 +948,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>. / Kitakami / flow / town / The / River / the / through</t>
+          <t>. / Kitakami / River / the / town / through / flow / the</t>
         </is>
       </c>
       <c r="E27" s="1" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="3">
+    <row r="28" ht="15.75" customHeight="1" s="2">
       <c r="A28" s="1" t="n">
         <v>1</v>
       </c>
@@ -973,14 +971,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>carry / piece / small / a / . / be / She / baggage / of</t>
+          <t>she / small / a / be / . / baggage / of / piece / carry</t>
         </is>
       </c>
       <c r="E28" s="1" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="3">
+    <row r="29" ht="15.75" customHeight="1" s="2">
       <c r="A29" s="1" t="n">
         <v>1</v>
       </c>
@@ -996,14 +994,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>girl / a / be / big / wear / jacket / too / The / .</t>
+          <t>girl / too / be / . / the / jacket / big / wear / a</t>
         </is>
       </c>
       <c r="E29" s="1" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="3">
+    <row r="30" ht="15.75" customHeight="1" s="2">
       <c r="A30" s="1" t="n">
         <v>1</v>
       </c>
@@ -1019,14 +1017,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>half / I / size / The / be / . / tomato / this / tomatoes / of / the / grow</t>
+          <t>be / the / the / half / tomato / . / this / size / I / tomatoes / grow / of</t>
         </is>
       </c>
       <c r="E30" s="1" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="3">
+    <row r="31" ht="15.75" customHeight="1" s="2">
       <c r="A31" s="1" t="n">
         <v>1</v>
       </c>
@@ -1042,14 +1040,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>a / . / quite / The / large / audience / attract / and / dancer / actor</t>
+          <t>attract / a / actor / dancer / quite / . / and / large / audience / the</t>
         </is>
       </c>
       <c r="E31" s="1" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="3">
+    <row r="32" ht="15.75" customHeight="1" s="2">
       <c r="A32" s="1" t="n">
         <v>3</v>
       </c>
@@ -1065,14 +1063,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>be / people / few / There / . / a / the / in / restaurant</t>
+          <t>a / be / in / . / people / few / restaurant / the / there</t>
         </is>
       </c>
       <c r="E32" s="1" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="3">
+    <row r="33" ht="15.75" customHeight="1" s="2">
       <c r="A33" s="1" t="n">
         <v>3</v>
       </c>
@@ -1088,14 +1086,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>become / crowd / when / . / The / the / excite / begin / game</t>
+          <t>game / become / . / crowd / the / excite / when / the / begin</t>
         </is>
       </c>
       <c r="E33" s="1" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="3">
+    <row r="34" ht="15.75" customHeight="1" s="2">
       <c r="A34" s="1" t="n">
         <v>3</v>
       </c>
@@ -1111,14 +1109,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>It / interesting / book / so / can / t / s / this / ’ / . / ’ / I / . / reading / stop</t>
+          <t>It / . / interesting / this / . / can / ’ / s / so / t / book / stop / ’ / I / reading</t>
         </is>
       </c>
       <c r="E34" s="1" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="3">
+    <row r="35" ht="15.75" customHeight="1" s="2">
       <c r="A35" s="1" t="n">
         <v>3</v>
       </c>
@@ -1134,14 +1132,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>you / any / have / sisters / ? / Do / brothers / or</t>
+          <t>sisters / ? / have / do / or / you / any / brothers</t>
         </is>
       </c>
       <c r="E35" s="1" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="3">
+    <row r="36" ht="15.75" customHeight="1" s="2">
       <c r="A36" s="1" t="n">
         <v>3</v>
       </c>
@@ -1157,14 +1155,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>he / little / bicycle / now / . / so / , / money / an / expensive / have / buy / He</t>
+          <t>expensive / an / , / he / so / little / buy / . / have / he / money / bicycle / now</t>
         </is>
       </c>
       <c r="E36" s="1" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="3">
+    <row r="37" ht="15.75" customHeight="1" s="2">
       <c r="A37" s="1" t="n">
         <v>3</v>
       </c>
@@ -1175,19 +1173,19 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>The dying whale whale miraculously recovered.</t>
+          <t>The dying whale miraculously recovered.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>die / whale / whale / recover / The / miraculously / .</t>
+          <t>miraculously / . / recover / the / die / whale</t>
         </is>
       </c>
       <c r="E37" s="1" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="3">
+    <row r="38" ht="15.75" customHeight="1" s="2">
       <c r="A38" s="1" t="n">
         <v>3</v>
       </c>
@@ -1203,14 +1201,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>a / to / . / look / dress / m / ’ / yours / for / I / similar</t>
+          <t>yours / a / ’ / to / dress / similar / m / . / for / I / look</t>
         </is>
       </c>
       <c r="E38" s="1" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1" s="3">
+    <row r="39" ht="15.75" customHeight="1" s="2">
       <c r="A39" s="1" t="n">
         <v>3</v>
       </c>
@@ -1226,14 +1224,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>happy / a / . / girl / She / be</t>
+          <t>a / girl / . / be / happy / she</t>
         </is>
       </c>
       <c r="E39" s="1" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1" s="3">
+    <row r="40" ht="15.75" customHeight="1" s="2">
       <c r="A40" s="1" t="n">
         <v>3</v>
       </c>
@@ -1249,14 +1247,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>to / speech / people / begin / sleep / a / bored / during / his / . / fall / Some</t>
+          <t>people / to / some / speech / bored / his / . / fall / during / a / sleep / begin</t>
         </is>
       </c>
       <c r="E40" s="1" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1" s="3">
+    <row r="41" ht="15.75" customHeight="1" s="2">
       <c r="A41" s="1" t="n">
         <v>3</v>
       </c>
@@ -1272,14 +1270,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>. / not / so / have / eat / much / better / You / cake</t>
+          <t>not / better / so / . / cake / you / eat / much / have</t>
         </is>
       </c>
       <c r="E41" s="1" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="3">
+    <row r="42" ht="15.75" customHeight="1" s="2">
       <c r="A42" s="1" t="n">
         <v>3</v>
       </c>
@@ -1295,14 +1293,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>be / It / climber / found / really / be / the / alive / lucky / .</t>
+          <t>climber / be / . / alive / be / really / lucky / found / the / it</t>
         </is>
       </c>
       <c r="E42" s="1" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="3">
+    <row r="43" ht="15.75" customHeight="1" s="2">
       <c r="A43" s="1" t="n">
         <v>3</v>
       </c>
@@ -1318,14 +1316,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>hours / effect / a / take / in / will / few / The / . / medicine</t>
+          <t>hours / medicine / the / take / effect / in / . / few / a / will</t>
         </is>
       </c>
       <c r="E43" s="1" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="3">
+    <row r="44" ht="15.75" customHeight="1" s="2">
       <c r="A44" s="1" t="n">
         <v>3</v>
       </c>
@@ -1341,14 +1339,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>any / have / ? / he / children / Does</t>
+          <t>he / does / have / children / any / ?</t>
         </is>
       </c>
       <c r="E44" s="1" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="3">
+    <row r="45" ht="15.75" customHeight="1" s="2">
       <c r="A45" s="1" t="n">
         <v>3</v>
       </c>
@@ -1364,14 +1362,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>quite / ” / . / , / I / usually / get / No / late / up / “</t>
+          <t>usually / No / late / I / ” / , / get / “ / . / up / quite</t>
         </is>
       </c>
       <c r="E45" s="1" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="3">
+    <row r="46" ht="15.75" customHeight="1" s="2">
       <c r="A46" s="1" t="n">
         <v>3</v>
       </c>
@@ -1387,14 +1385,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>every / in / go / How / you / often / “ / winter / do / ski / ? / ”</t>
+          <t>you / often / winter / ? / in / How / “ / ” / ski / go / every / do</t>
         </is>
       </c>
       <c r="E46" s="1" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="3">
+    <row r="47" ht="15.75" customHeight="1" s="2">
       <c r="A47" s="1" t="n">
         <v>3</v>
       </c>
@@ -1410,14 +1408,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>could / tonight / to / I / . / work / have / hard / Neither / ” / . / We / “</t>
+          <t>have / . / We / hard / I / could / to / . / ” / work / Neither / tonight / “</t>
         </is>
       </c>
       <c r="E47" s="1" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="3">
+    <row r="48" ht="15.75" customHeight="1" s="2">
       <c r="A48" s="1" t="n">
         <v>3</v>
       </c>
@@ -1433,14 +1431,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>around / be / The / flu / go / . / So / sister / my / “ / ” / . / be</t>
+          <t>So / . / sister / flu / be / The / go / my / ” / be / around / . / “</t>
         </is>
       </c>
       <c r="E48" s="1" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="3">
+    <row r="49" ht="15.75" customHeight="1" s="2">
       <c r="A49" s="1" t="n">
         <v>3</v>
       </c>
@@ -1456,14 +1454,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>, / ” / cook / never / . / she / “ / No</t>
+          <t>, / cook / “ / No / ” / she / never / .</t>
         </is>
       </c>
       <c r="E49" s="1" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="3">
+    <row r="50" ht="15.75" customHeight="1" s="2">
       <c r="A50" s="1" t="n">
         <v>3</v>
       </c>
@@ -1479,14 +1477,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>“ / healthier / eat / quickly / . / ’ / me / Eating / rush / Don / be / ” / slowly / than / . / t</t>
+          <t>” / healthier / me / slowly / than / quickly / . / be / eat / t / “ / Don / rush / ’ / Eating / .</t>
         </is>
       </c>
       <c r="E50" s="1" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="3">
+    <row r="51" ht="15.75" customHeight="1" s="2">
       <c r="A51" s="1" t="n">
         <v>3</v>
       </c>
@@ -1502,14 +1500,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>. / woman / The / happy / a / live / life</t>
+          <t>woman / . / live / life / happy / the / a</t>
         </is>
       </c>
       <c r="E51" s="1" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="3">
+    <row r="52" ht="15.75" customHeight="1" s="2">
       <c r="A52" s="1" t="n">
         <v>3</v>
       </c>
@@ -1525,14 +1523,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>the / office / in / work / That / hard / man / .</t>
+          <t>in / man / that / the / office / . / work / hard</t>
         </is>
       </c>
       <c r="E52" s="1" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1" s="3">
+    <row r="53" ht="15.75" customHeight="1" s="2">
       <c r="A53" s="1" t="n">
         <v>3</v>
       </c>
@@ -1548,14 +1546,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>. / the / guitar / play / very / My / well / uncle</t>
+          <t>very / the / uncle / well / my / guitar / . / play</t>
         </is>
       </c>
       <c r="E53" s="1" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1" s="3">
+    <row r="54" ht="15.75" customHeight="1" s="2">
       <c r="A54" s="1" t="n">
         <v>3</v>
       </c>
@@ -1571,14 +1569,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>. / on / be / home / way / It / that / surprise / his / a / he / bear / saw</t>
+          <t>saw / he / his / . / way / be / on / it / that / a / bear / surprise / home</t>
         </is>
       </c>
       <c r="E54" s="1" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="3">
+    <row r="55" ht="15.75" customHeight="1" s="2">
       <c r="A55" s="1" t="n">
         <v>3</v>
       </c>
@@ -1594,14 +1592,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>actor / ’ / , / . / famous / the / and / I / didn / ’ / t / to / courage / t / friend / , / My / have / either / talk / to / the / didn</t>
+          <t>and / to / have / didn / talk / t / ’ / friend / either / t / didn / famous / to / , / I / courage / actor / , / the / . / the / ’ / my</t>
         </is>
       </c>
       <c r="E55" s="1" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="3">
+    <row r="56" ht="15.75" customHeight="1" s="2">
       <c r="A56" s="1" t="n">
         <v>3</v>
       </c>
@@ -1617,14 +1615,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>the / his / by / movie / enter / professor / to / see / . / The / be / often / students / theater</t>
+          <t>see / enter / to / his / theater / the / movie / professor / the / be / . / often / by / students</t>
         </is>
       </c>
       <c r="E56" s="1" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="3">
+    <row r="57" ht="15.75" customHeight="1" s="2">
       <c r="A57" s="1" t="n">
         <v>3</v>
       </c>
@@ -1640,14 +1638,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>. / big / far / away / alone / the / man / city / from / live / The</t>
+          <t>far / city / the / the / live / away / big / man / . / alone / from</t>
         </is>
       </c>
       <c r="E57" s="1" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="3">
+    <row r="58" ht="15.75" customHeight="1" s="2">
       <c r="A58" s="1" t="n">
         <v>3</v>
       </c>
@@ -1663,14 +1661,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>much / but / meat / vegetable / t / I / . / lot / eat / ’ / I / a / don / of / eat</t>
+          <t>t / don / I / I / of / . / meat / a / eat / but / eat / ’ / vegetable / much / lot</t>
         </is>
       </c>
       <c r="E58" s="1" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="3">
+    <row r="59" ht="15.75" customHeight="1" s="2">
       <c r="A59" s="1" t="n">
         <v>3</v>
       </c>
@@ -1686,14 +1684,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>still / the / be / tickets / , / Luckily / . / concert / available</t>
+          <t>luckily / available / tickets / concert / still / the / . / be / ,</t>
         </is>
       </c>
       <c r="E59" s="1" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1" s="3">
+    <row r="60" ht="15.75" customHeight="1" s="2">
       <c r="A60" s="1" t="n">
         <v>3</v>
       </c>
@@ -1709,14 +1707,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>I / never / be / I / really / . / write / sorry / to / you</t>
+          <t>. / sorry / never / to / be / write / I / I / you / really</t>
         </is>
       </c>
       <c r="E60" s="1" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1" s="3">
+    <row r="61" ht="15.75" customHeight="1" s="2">
       <c r="A61" s="1" t="n">
         <v>3</v>
       </c>
@@ -1732,14 +1730,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>him / hospital / sister / in / his / sometimes / visit / . / the / Only</t>
+          <t>hospital / visit / in / sister / . / sometimes / his / only / the / him</t>
         </is>
       </c>
       <c r="E61" s="1" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="3">
+    <row r="62" ht="15.75" customHeight="1" s="2">
       <c r="A62" s="1" t="n">
         <v>3</v>
       </c>
@@ -1755,14 +1753,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>be / car / the / very / with / wrong / something / , / . / Apparently</t>
+          <t>apparently / with / . / be / the / something / car / very / , / wrong</t>
         </is>
       </c>
       <c r="E62" s="1" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1" s="3">
+    <row r="63" ht="15.75" customHeight="1" s="2">
       <c r="A63" s="1" t="n">
         <v>3</v>
       </c>
@@ -1778,14 +1776,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>and / he / walk / to / . / train / have / miss / last / Unfortunately / the / , / home</t>
+          <t>miss / the / walk / . / home / and / have / , / he / last / train / unfortunately / to</t>
         </is>
       </c>
       <c r="E63" s="1" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1" s="3">
+    <row r="64" ht="15.75" customHeight="1" s="2">
       <c r="A64" s="1" t="n">
         <v>3</v>
       </c>
@@ -1801,14 +1799,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>much / . / the / don / of / t / have / I / knowledge / subject / ’</t>
+          <t>much / I / of / the / ’ / subject / don / t / have / . / knowledge</t>
         </is>
       </c>
       <c r="E64" s="1" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1" s="3">
+    <row r="65" ht="15.75" customHeight="1" s="2">
       <c r="A65" s="1" t="n">
         <v>4</v>
       </c>
@@ -1824,14 +1822,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>be / , / Which / ones / the / the / or / , / ones / ? / orange / gloves / green / your</t>
+          <t>or / green / , / orange / gloves / be / your / the / , / ones / ones / which / the / ?</t>
         </is>
       </c>
       <c r="E65" s="1" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1" s="3">
+    <row r="66" ht="15.75" customHeight="1" s="2">
       <c r="A66" s="1" t="n">
         <v>4</v>
       </c>
@@ -1847,14 +1845,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>buy / my / , / me / father / bicycle / but / one / new / . / t / want / win / a / ’ / I</t>
+          <t>’ / . / a / bicycle / but / new / me / one / my / want / t / buy / win / I / father / ,</t>
         </is>
       </c>
       <c r="E66" s="1" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1" s="3">
+    <row r="67" ht="15.75" customHeight="1" s="2">
       <c r="A67" s="1" t="n">
         <v>4</v>
       </c>
@@ -1870,20 +1868,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>each / to / and / other / talk / the / sit / to / . / All / students / begin / down</t>
+          <t>all / and / to / down / the / other / sit / . / talk / to / each / begin / students</t>
         </is>
       </c>
       <c r="E67" s="1" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1" s="3">
+    <row r="68" ht="15.75" customHeight="1" s="2">
       <c r="A68" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>私はどこにいくかものにをするかも分からなかった。</t>
+          <t>私は何処にいくかも何をするかも分からなかった。</t>
         </is>
       </c>
       <c r="C68" s="1" t="inlineStr">
@@ -1893,14 +1891,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>know / what / I / . / go / or / to / ’ / where / didn / do / t / to</t>
+          <t>’ / or / . / didn / go / where / what / t / to / know / to / I / do</t>
         </is>
       </c>
       <c r="E68" s="1" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1" s="3">
+    <row r="69" ht="15.75" customHeight="1" s="2">
       <c r="A69" s="1" t="n">
         <v>4</v>
       </c>
@@ -1916,14 +1914,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>. / an / have / run / friend / , / She / across / they / old / and / together / tea / some</t>
+          <t>across / friend / and / have / , / together / an / they / run / tea / . / some / she / old</t>
         </is>
       </c>
       <c r="E69" s="1" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1" s="3">
+    <row r="70" ht="15.75" customHeight="1" s="2">
       <c r="A70" s="1" t="n">
         <v>4</v>
       </c>
@@ -1939,14 +1937,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>They / . / ask / to / slowly / and / the / clearly / man / speak</t>
+          <t>and / . / speak / slowly / the / they / to / clearly / ask / man</t>
         </is>
       </c>
       <c r="E70" s="1" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1" s="3">
+    <row r="71" ht="15.75" customHeight="1" s="2">
       <c r="A71" s="1" t="n">
         <v>4</v>
       </c>
@@ -1962,14 +1960,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>it / , / you / cat / or / scratch / . / the / will / Stop / bother</t>
+          <t>cat / scratch / it / , / stop / the / will / or / you / . / bother</t>
         </is>
       </c>
       <c r="E71" s="1" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1" s="3">
+    <row r="72" ht="15.75" customHeight="1" s="2">
       <c r="A72" s="1" t="n">
         <v>4</v>
       </c>
@@ -1985,14 +1983,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>be / home / come / she / she / ? / soon / say / Did / that</t>
+          <t>soon / she / did / be / say / that / home / ? / come / she</t>
         </is>
       </c>
       <c r="E72" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1" s="3">
+    <row r="73" ht="15.75" customHeight="1" s="2">
       <c r="A73" s="1" t="n">
         <v>4</v>
       </c>
@@ -2008,14 +2006,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>not / go / whether / sure / or / make / be / hold / . / the / tomorrow / meeting / be / to / must / We</t>
+          <t>make / the / to / whether / go / we / be / hold / . / tomorrow / or / be / sure / must / not / meeting</t>
         </is>
       </c>
       <c r="E73" s="1" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1" s="3">
+    <row r="74" ht="15.75" customHeight="1" s="2">
       <c r="A74" s="1" t="n">
         <v>4</v>
       </c>
@@ -2031,14 +2029,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>the / ? / Do / game / he / whether / know / win / you</t>
+          <t>whether / ? / know / game / do / win / you / he / the</t>
         </is>
       </c>
       <c r="E74" s="1" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1" s="3">
+    <row r="75" ht="15.75" customHeight="1" s="2">
       <c r="A75" s="1" t="n">
         <v>4</v>
       </c>
@@ -2054,14 +2052,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>to / don / news / happy / Mary / hear / I / ’ / be / the / . / t / that / will / doubt</t>
+          <t>I / doubt / to / t / that / happy / will / ’ / don / the / hear / news / Mary / be / .</t>
         </is>
       </c>
       <c r="E75" s="1" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1" s="3">
+    <row r="76" ht="15.75" customHeight="1" s="2">
       <c r="A76" s="1" t="n">
         <v>4</v>
       </c>
@@ -2077,14 +2075,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>big / problem / . / Mr.Tanaka / be / not / or / Whether / agree / a</t>
+          <t>agree / big / be / not / a / Mr.Tanaka / problem / or / whether / .</t>
         </is>
       </c>
       <c r="E76" s="1" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1" s="3">
+    <row r="77" ht="15.75" customHeight="1" s="2">
       <c r="A77" s="1" t="n">
         <v>4</v>
       </c>
@@ -2100,14 +2098,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>. / her / look / very / because / friend / sick / be / worried / She</t>
+          <t>sick / . / worried / look / her / be / she / friend / because / very</t>
         </is>
       </c>
       <c r="E77" s="1" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1" s="3">
+    <row r="78" ht="15.75" customHeight="1" s="2">
       <c r="A78" s="1" t="n">
         <v>4</v>
       </c>
@@ -2123,14 +2121,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>I / . / store / while / be / shop / my / wallet / I / lose / the / in</t>
+          <t>I / in / shop / I / . / store / wallet / the / my / while / be / lose</t>
         </is>
       </c>
       <c r="E78" s="1" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1" s="3">
+    <row r="79" ht="15.75" customHeight="1" s="2">
       <c r="A79" s="1" t="n">
         <v>4</v>
       </c>
@@ -2146,14 +2144,14 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>’ / you / t / before / your / lunch / Didn / you / hands / wash / ? / eat</t>
+          <t>you / ’ / before / lunch / you / eat / hands / wash / ? / didn / t / your</t>
         </is>
       </c>
       <c r="E79" s="1" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1" s="3">
+    <row r="80" ht="15.75" customHeight="1" s="2">
       <c r="A80" s="1" t="n">
         <v>4</v>
       </c>
@@ -2169,14 +2167,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>this / can / in / . / this / use / live / city / ’ / t / you / unless / facility / You</t>
+          <t>facility / use / . / unless / t / live / can / this / ’ / you / you / city / in / this</t>
         </is>
       </c>
       <c r="E80" s="1" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1" s="3">
+    <row r="81" ht="15.75" customHeight="1" s="2">
       <c r="A81" s="1" t="n">
         <v>4</v>
       </c>
@@ -2192,14 +2190,14 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Let / t / if / ’ / . / go / swim / rainy / it / isn / tomorrow / ’ / s</t>
+          <t>s / rainy / ’ / tomorrow / it / go / isn / let / if / . / t / ’ / swim</t>
         </is>
       </c>
       <c r="E81" s="1" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1" s="3">
+    <row r="82" ht="15.75" customHeight="1" s="2">
       <c r="A82" s="1" t="n">
         <v>4</v>
       </c>
@@ -2215,14 +2213,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>we / that / We / could / . / so / for / time / in / home / dinner / hurry / arrive</t>
+          <t>for / time / arrive / dinner / so / that / . / hurry / in / we / could / home / we</t>
         </is>
       </c>
       <c r="E82" s="1" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1" s="3">
+    <row r="83" ht="15.75" customHeight="1" s="2">
       <c r="A83" s="1" t="n">
         <v>4</v>
       </c>
@@ -2238,14 +2236,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>be / animals / also / endanger / but / only / Not / many / . / plants</t>
+          <t>many / but / animals / also / endanger / be / not / only / plants / .</t>
         </is>
       </c>
       <c r="E83" s="1" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1" s="3">
+    <row r="84" ht="15.75" customHeight="1" s="2">
       <c r="A84" s="1" t="n">
         <v>4</v>
       </c>
@@ -2261,14 +2259,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>we / house / touch / doll / t / it / that / couldn / ’ / so / be / . / The / delicate</t>
+          <t>doll / be / the / it / ’ / we / couldn / so / that / t / house / touch / delicate / .</t>
         </is>
       </c>
       <c r="E84" s="1" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1" s="3">
+    <row r="85" ht="15.75" customHeight="1" s="2">
       <c r="A85" s="1" t="n">
         <v>4</v>
       </c>
@@ -2284,14 +2282,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>my / dinner / . / mother / tonight / but / be / Not / make / father / my</t>
+          <t>tonight / not / father / be / but / dinner / mother / make / my / . / my</t>
         </is>
       </c>
       <c r="E85" s="1" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1" s="3">
+    <row r="86" ht="15.75" customHeight="1" s="2">
       <c r="A86" s="1" t="n">
         <v>4</v>
       </c>
@@ -2307,14 +2305,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>’ / wake / that / you / t / sound / . / up / dog / a / or / Don / make / , / will</t>
+          <t>dog / . / you / , / that / or / a / up / ’ / don / make / wake / will / sound / t</t>
         </is>
       </c>
       <c r="E86" s="1" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1" s="3">
+    <row r="87" ht="15.75" customHeight="1" s="2">
       <c r="A87" s="1" t="n">
         <v>4</v>
       </c>
@@ -2330,14 +2328,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>that / will / you / make / , / you / up / sound / If / wake / dog / a / .</t>
+          <t>, / sound / a / will / up / you / if / you / dog / that / make / wake / .</t>
         </is>
       </c>
       <c r="E87" s="1" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1" s="3">
+    <row r="88" ht="15.75" customHeight="1" s="2">
       <c r="A88" s="1" t="n">
         <v>4</v>
       </c>
@@ -2353,14 +2351,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>also / a / to / Not / . / Mike / make / only / but / want / Ken / of / speech / on / class / the / behalf</t>
+          <t>. / behalf / the / to / but / Ken / want / on / a / also / only / Mike / make / not / speech / of / class</t>
         </is>
       </c>
       <c r="E88" s="1" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1" s="3">
+    <row r="89" ht="15.75" customHeight="1" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>和訳確認</t>
@@ -2374,14 +2372,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>a / speech / to / Mike / on / want / as / Ken / as / the / class / . / behalf / of / well / make</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="n">
+          <t>of / make / as / a / . / Mike / on / as / Ken / behalf / class / want / to / speech / well / the</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1" s="3">
+    <row r="90" ht="15.75" customHeight="1" s="2">
       <c r="A90" s="1" t="n">
         <v>4</v>
       </c>
@@ -2397,14 +2395,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>keep / ’ / secret / win / to / it / if / I / . / promise / to / a / tell / it / you / ’ / t / you / don / t</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="n">
+          <t>to / t / tell / win / secret / you / t / if / promise / it / don / ’ / I / it / ’ / you / . / a / to / keep</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1" s="3">
+    <row r="91" ht="15.75" customHeight="1" s="2">
       <c r="A91" s="1" t="n">
         <v>4</v>
       </c>
@@ -2413,21 +2411,21 @@
           <t>天井は私が電球を変えるのに高すぎた。</t>
         </is>
       </c>
-      <c r="C91" s="2" t="inlineStr">
+      <c r="C91" s="1" t="inlineStr">
         <is>
           <t>The ceiling was too high for me to change the light bulbs.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>high / change / bulbs / too / to / ceiling / light / for / be / me / The / . / the</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="n">
+          <t>high / to / me / . / bulbs / ceiling / the / light / the / too / change / for / be</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1" s="3">
+    <row r="92" ht="15.75" customHeight="1" s="2">
       <c r="A92" s="1" t="n">
         <v>4</v>
       </c>
@@ -2443,14 +2441,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>be / I / t / ’ / change / light / couldn / so / that / ceiling / . / The / bulbs / high / the</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="n">
+          <t>the / the / couldn / high / ceiling / that / . / change / ’ / t / be / so / light / bulbs / I</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1" s="3">
+    <row r="93" ht="15.75" customHeight="1" s="2">
       <c r="A93" s="1" t="n">
         <v>4</v>
       </c>
@@ -2466,14 +2464,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>train / Get / noon / on / ’ / t / this / by / you / or / . / get / win / , / there</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="n">
+          <t>’ / there / win / , / train / you / on / or / get / by / t / this / noon / get / .</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1" s="3">
+    <row r="94" ht="15.75" customHeight="1" s="2">
       <c r="A94" s="1" t="n">
         <v>4</v>
       </c>
@@ -2482,21 +2480,21 @@
           <t>あなたはこの電車に乗らない限り正午までにそこにつかないだろう。</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" s="1" t="inlineStr">
         <is>
           <t>Get on this train, and you will get there by noon.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>and / . / by / on / train / this / will / Get / you / get / , / there / noon</t>
-        </is>
-      </c>
-      <c r="E94" s="2" t="n">
+          <t>by / on / , / get / . / train / and / will / you / there / this / noon / get</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1" s="3">
+    <row r="95" ht="15.75" customHeight="1" s="2">
       <c r="A95" s="1" t="n">
         <v>4</v>
       </c>
@@ -2512,14 +2510,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>if / interested / you / even / . / You / aren / in / should / ’ / tonight / t / soccer / game / s / watch / ’</t>
-        </is>
-      </c>
-      <c r="E95" s="2" t="n">
+          <t>in / tonight / if / aren / you / ’ / game / t / watch / should / even / interested / . / s / you / ’ / soccer</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1" s="3">
+    <row r="96" ht="15.75" customHeight="1" s="2">
       <c r="A96" s="1" t="n">
         <v>4</v>
       </c>
@@ -2535,14 +2533,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>can / I / hot / This / all / so / curry / . / be / that / of / ’ / t / it / eat</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="n">
+          <t>t / it / I / all / so / this / ’ / eat / . / that / of / can / hot / curry / be</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1" s="3">
+    <row r="97" ht="15.75" customHeight="1" s="2">
       <c r="A97" s="1" t="n">
         <v>4</v>
       </c>
@@ -2558,14 +2556,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>as / . / be / accept / Everybody / they / want / to / be</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="n">
+          <t>. / they / to / as / be / be / everybody / accept / want</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1" s="3">
+    <row r="98" ht="15.75" customHeight="1" s="2">
       <c r="A98" s="1" t="n">
         <v>5</v>
       </c>
@@ -2581,14 +2579,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>for / . / 10th / August / My / on / leave / Sapporo / brother</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="n">
+          <t>. / Sapporo / for / leave / on / August / 10th / my / brother</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1" s="3">
+    <row r="99" ht="15.75" customHeight="1" s="2">
       <c r="A99" s="1" t="n">
         <v>5</v>
       </c>
@@ -2597,21 +2595,21 @@
           <t>その飛行機は雲よりも上を飛んでいるようだ。</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" s="1" t="inlineStr">
         <is>
           <t>The plane seems to be flying over the clouds.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>plane / seem / . / over / clouds / fly / to / the / be / The</t>
-        </is>
-      </c>
-      <c r="E99" s="2" t="n">
+          <t>clouds / . / over / plane / seem / fly / the / be / the / to</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1" s="3">
+    <row r="100" ht="15.75" customHeight="1" s="2">
       <c r="A100" s="1" t="n">
         <v>5</v>
       </c>
@@ -2627,14 +2625,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>a / five / us / That / of / among / . / the / secret / be</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="n">
+          <t>the / a / among / secret / . / five / of / that / us / be</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1" s="3">
+    <row r="101" ht="15.75" customHeight="1" s="2">
       <c r="A101" s="1" t="n">
         <v>5</v>
       </c>
@@ -2650,14 +2648,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>concert / do / the / Do / you / anything / to / ? / have / after</t>
-        </is>
-      </c>
-      <c r="E101" s="2" t="n">
+          <t>after / ? / to / you / do / have / do / the / concert / anything</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1" s="3">
+    <row r="102" ht="15.75" customHeight="1" s="2">
       <c r="A102" s="1" t="n">
         <v>5</v>
       </c>
@@ -2673,14 +2671,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>. / s / Let / meet / station / the / at / ’</t>
-        </is>
-      </c>
-      <c r="E102" s="2" t="n">
+          <t>let / ’ / the / . / at / station / s / meet</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1" s="3">
+    <row r="103" ht="15.75" customHeight="1" s="2">
       <c r="A103" s="1" t="n">
         <v>5</v>
       </c>
@@ -2696,14 +2694,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>hard / the / against / be / . / It / to / swim / stream</t>
-        </is>
-      </c>
-      <c r="E103" s="2" t="n">
+          <t>swim / hard / be / to / . / against / stream / it / the</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1" s="3">
+    <row r="104" ht="15.75" customHeight="1" s="2">
       <c r="A104" s="1" t="n">
         <v>5</v>
       </c>
@@ -2719,14 +2717,14 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>. / parents / her / between / be / The / girl / little / sit</t>
-        </is>
-      </c>
-      <c r="E104" s="2" t="n">
+          <t>between / girl / . / her / be / the / parents / sit / little</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1" s="3">
+    <row r="105" ht="15.75" customHeight="1" s="2">
       <c r="A105" s="1" t="n">
         <v>5</v>
       </c>
@@ -2742,14 +2740,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>day / get / I / o / Sunday / . / every / school / except</t>
-        </is>
-      </c>
-      <c r="E105" s="2" t="n">
+          <t>school / . / o / get / day / except / I / Sunday / every</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1" s="3">
+    <row r="106" ht="15.75" customHeight="1" s="2">
       <c r="A106" s="1" t="n">
         <v>5</v>
       </c>
@@ -2758,21 +2756,21 @@
           <t>いい日ですね。公園を通って歩きましょう。</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" s="1" t="inlineStr">
         <is>
           <t>It’s a nice day Let’s walk through the park.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>walk / nice / s / a / Let / ’ / s / . / It / day / park / ’ / the / through</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="n">
+          <t>’ / a / walk / nice / . / Let / through / s / park / ’ / it / day / the / s</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1" s="3">
+    <row r="107" ht="15.75" customHeight="1" s="2">
       <c r="A107" s="1" t="n">
         <v>5</v>
       </c>
@@ -2788,14 +2786,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>there / me / tall / . / man / t / front / couldn / see / sit / ’ / well / because / in / be / of / the / I / stage / a</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="n">
+          <t>be / t / . / in / front / tall / there / because / see / stage / I / the / well / a / sit / couldn / ’ / man / me / of</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1" s="3">
+    <row r="108" ht="15.75" customHeight="1" s="2">
       <c r="A108" s="1" t="n">
         <v>5</v>
       </c>
@@ -2811,14 +2809,14 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>the / must / this / end / work / of / by / finish / month / . / You / this</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="n">
+          <t>. / you / this / must / finish / the / month / by / this / work / of / end</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1" s="3">
+    <row r="109" ht="15.75" customHeight="1" s="2">
       <c r="A109" s="1" t="n">
         <v>5</v>
       </c>
@@ -2834,14 +2832,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>trip / your / Will / ? / more / me / you / tell / about / India / to</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="n">
+          <t>will / more / India / about / to / you / trip / tell / me / ? / your</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1" s="3">
+    <row r="110" ht="15.75" customHeight="1" s="2">
       <c r="A110" s="1" t="n">
         <v>5</v>
       </c>
@@ -2857,14 +2855,14 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>train / students / to / . / Many / school / come / by</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="n">
+          <t>by / students / school / . / come / to / many / train</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1" s="3">
+    <row r="111" ht="15.75" customHeight="1" s="2">
       <c r="A111" s="1" t="n">
         <v>5</v>
       </c>
@@ -2880,14 +2878,14 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>a / put / her / My / mother / without / mirror / not / makeup / . / can / on</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="n">
+          <t>mother / . / makeup / not / her / without / a / mirror / on / put / can / my</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1" s="3">
+    <row r="112" ht="15.75" customHeight="1" s="2">
       <c r="A112" s="1" t="n">
         <v>5</v>
       </c>
@@ -2903,14 +2901,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>end / in / 1915 / the / World / . / War / II / year</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="n">
+          <t>the / . / in / 1915 / world / year / end / War / II</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1" s="3">
+    <row r="113" ht="15.75" customHeight="1" s="2">
       <c r="A113" s="1" t="n">
         <v>5</v>
       </c>
@@ -2926,14 +2924,14 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>. / poor / do / work / for / want / volunteer / countries / I / to / develop / in / people</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="n">
+          <t>people / to / volunteer / . / in / countries / poor / do / want / I / for / work / develop</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1" s="3">
+    <row r="114" ht="15.75" customHeight="1" s="2">
       <c r="A114" s="1" t="n">
         <v>5</v>
       </c>
@@ -2944,19 +2942,19 @@
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t>My mother’s watch in made in Switzerland.</t>
+          <t>My mother’s watch is made in Switzerland.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>make / . / Switzerland / ’ / s / in / watch / in / My / mother</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="n">
+          <t>watch / in / s / be / Switzerland / mother / ’ / . / my / make</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1" s="3">
+    <row r="115" ht="15.75" customHeight="1" s="2">
       <c r="A115" s="1" t="n">
         <v>5</v>
       </c>
@@ -2972,14 +2970,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>of / that / bag / be / What / make / ?</t>
-        </is>
-      </c>
-      <c r="E115" s="2" t="n">
+          <t>that / be / what / ? / make / bag / of</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1" s="3">
+    <row r="116" ht="15.75" customHeight="1" s="2">
       <c r="A116" s="1" t="n">
         <v>5</v>
       </c>
@@ -2995,18 +2993,18 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>many / make / Petroleum / into / things / be / .</t>
-        </is>
-      </c>
-      <c r="E116" s="2" t="n">
+          <t>. / make / things / many / be / petroleum / into</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1" s="3">
+    <row r="117" ht="15.75" customHeight="1" s="2">
       <c r="A117" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" s="1" t="inlineStr">
         <is>
           <t>紙が植物から作られるなんて信じられない。</t>
         </is>
@@ -3018,14 +3016,14 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>I / ’ / that / plants / make / paper / be / believe / can / t / from / .</t>
-        </is>
-      </c>
-      <c r="E117" s="2" t="n">
+          <t>from / make / I / . / can / be / t / believe / ’ / plants / that / paper</t>
+        </is>
+      </c>
+      <c r="E117" s="1" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1" s="3">
+    <row r="118" ht="15.75" customHeight="1" s="2">
       <c r="A118" s="1" t="n">
         <v>5</v>
       </c>
@@ -3041,14 +3039,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>top / to / mountain / race / Let / the / the / ’ / s / . / of</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="n">
+          <t>to / race / the / mountain / s / . / of / top / ’ / let / the</t>
+        </is>
+      </c>
+      <c r="E118" s="1" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1" s="3">
+    <row r="119" ht="15.75" customHeight="1" s="2">
       <c r="A119" s="1" t="n">
         <v>5</v>
       </c>
@@ -3064,14 +3062,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>What / go / be / cut / the / cheese / ? / I / to</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="n">
+          <t>? / be / cut / to / I / what / go / the / cheese</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1" s="3">
+    <row r="120" ht="15.75" customHeight="1" s="2">
       <c r="A120" s="1" t="n">
         <v>5</v>
       </c>
@@ -3087,14 +3085,14 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>be / black / All / . / in / of / women / dress</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="n">
+          <t>. / be / black / women / all / dress / in / of</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1" s="3">
+    <row r="121" ht="15.75" customHeight="1" s="2">
       <c r="A121" s="1" t="n">
         <v>5</v>
       </c>
@@ -3110,14 +3108,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>can / until / the / ’ / not / o / . / nine / enter / park / clock / We</t>
-        </is>
-      </c>
-      <c r="E121" s="2" t="n">
+          <t>until / park / clock / we / can / . / enter / the / nine / not / ’ / o</t>
+        </is>
+      </c>
+      <c r="E121" s="1" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1" s="3">
+    <row r="122" ht="15.75" customHeight="1" s="2">
       <c r="A122" s="1" t="n">
         <v>5</v>
       </c>
@@ -3133,14 +3131,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>fly / mountains / be / birds / . / over / the / The</t>
-        </is>
-      </c>
-      <c r="E122" s="2" t="n">
+          <t>mountains / the / birds / the / fly / over / be / .</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1" s="3">
+    <row r="123" ht="15.75" customHeight="1" s="2">
       <c r="A123" s="1" t="n">
         <v>5</v>
       </c>
@@ -3156,14 +3154,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>rain / I / go / hard / of / the / don / t / ’ / out / building / . / It / . / want / be / to</t>
-        </is>
-      </c>
-      <c r="E123" s="2" t="n">
+          <t>hard / t / . / ’ / it / be / rain / building / want / I / of / go / . / don / out / to / the</t>
+        </is>
+      </c>
+      <c r="E123" s="1" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1" s="3">
+    <row r="124" ht="15.75" customHeight="1" s="2">
       <c r="A124" s="1" t="n">
         <v>5</v>
       </c>
@@ -3179,14 +3177,14 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>from / door / newcomers / They / the / at / their / be / look / . / behind</t>
-        </is>
-      </c>
-      <c r="E124" s="2" t="n">
+          <t>be / their / from / the / look / they / newcomers / at / . / behind / door</t>
+        </is>
+      </c>
+      <c r="E124" s="1" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1" s="3">
+    <row r="125" ht="15.75" customHeight="1" s="2">
       <c r="A125" s="1" t="n">
         <v>5</v>
       </c>
@@ -3202,14 +3200,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>jump / start / into / river / run / the / The / children / and / .</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="n">
+          <t>river / children / and / run / jump / into / the / start / . / the</t>
+        </is>
+      </c>
+      <c r="E125" s="1" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1" s="3">
+    <row r="126" ht="15.75" customHeight="1" s="2">
       <c r="A126" s="1" t="n">
         <v>5</v>
       </c>
@@ -3225,38 +3223,38 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>hope / this / s / Let / . / ’ / will / like / again / nothing / happen</t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="n">
+          <t>s / will / . / ’ / hope / let / this / again / nothing / like / happen</t>
+        </is>
+      </c>
+      <c r="E126" s="1" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1" s="3">
-      <c r="A127" s="2" t="n">
+    <row r="127" ht="15.75" customHeight="1" s="2">
+      <c r="A127" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" s="1" t="inlineStr">
         <is>
           <t>あなたは何の仕事をしていますか。</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" s="1" t="inlineStr">
         <is>
           <t>What do you do?</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>do / you / do / What / ?</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="n">
+          <t>? / you / do / do / what</t>
+        </is>
+      </c>
+      <c r="E127" s="1" t="n">
         <v>127</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1" s="3">
-      <c r="A128" s="2" t="n">
+    <row r="128" ht="15.75" customHeight="1" s="2">
+      <c r="A128" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B128" s="1" t="inlineStr">
@@ -3271,15 +3269,15 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Which / or / would / you / ? / mineral / tea / , / like / water</t>
-        </is>
-      </c>
-      <c r="E128" s="2" t="n">
+          <t>you / or / mineral / water / , / would / like / ? / which / tea</t>
+        </is>
+      </c>
+      <c r="E128" s="1" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1" s="3">
-      <c r="A129" s="2" t="n">
+    <row r="129" ht="15.75" customHeight="1" s="2">
+      <c r="A129" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B129" s="1" t="inlineStr">
@@ -3294,15 +3292,15 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>How / you / ? / go / work / do / to</t>
-        </is>
-      </c>
-      <c r="E129" s="2" t="n">
+          <t>you / work / ? / go / do / how / to</t>
+        </is>
+      </c>
+      <c r="E129" s="1" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1" s="3">
-      <c r="A130" s="2" t="n">
+    <row r="130" ht="15.75" customHeight="1" s="2">
+      <c r="A130" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B130" s="1" t="inlineStr">
@@ -3310,22 +3308,22 @@
           <t>あなたの誕生日はいつですか。</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" s="1" t="inlineStr">
         <is>
           <t>When is your birthday?</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>be / When / birthday / ? / your</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="n">
+          <t>your / when / birthday / ? / be</t>
+        </is>
+      </c>
+      <c r="E130" s="1" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1" s="3">
-      <c r="A131" s="2" t="n">
+    <row r="131" ht="15.75" customHeight="1" s="2">
+      <c r="A131" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B131" s="1" t="inlineStr">
@@ -3340,15 +3338,15 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>time / do / What / next / bus / come / the / ?</t>
-        </is>
-      </c>
-      <c r="E131" s="2" t="n">
+          <t>next / time / the / what / ? / do / come / bus</t>
+        </is>
+      </c>
+      <c r="E131" s="1" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1" s="3">
-      <c r="A132" s="2" t="n">
+    <row r="132" ht="15.75" customHeight="1" s="2">
+      <c r="A132" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B132" s="1" t="inlineStr">
@@ -3363,1893 +3361,1893 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>in / ? / he / do / stay / York / How / New / long</t>
-        </is>
-      </c>
-      <c r="E132" s="2" t="n">
+          <t>York / he / stay / long / in / ? / how / do / New</t>
+        </is>
+      </c>
+      <c r="E132" s="1" t="n">
         <v>132</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1" s="3">
-      <c r="A133" s="2" t="n">
+    <row r="133" ht="15.75" customHeight="1" s="2">
+      <c r="A133" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" s="1" t="inlineStr">
         <is>
           <t>男はどの方角に行きましたか。</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" s="1" t="inlineStr">
         <is>
           <t>Which way did the man go?</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>man / Which / way / the / ? / go / do</t>
-        </is>
-      </c>
-      <c r="E133" s="2" t="n">
+          <t>the / way / do / man / which / ? / go</t>
+        </is>
+      </c>
+      <c r="E133" s="1" t="n">
         <v>133</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1" s="3">
-      <c r="A134" s="2" t="n">
+    <row r="134" ht="15.75" customHeight="1" s="2">
+      <c r="A134" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" s="1" t="inlineStr">
         <is>
           <t>私たちは今どこにいますか。</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" s="1" t="inlineStr">
         <is>
           <t>Where are we now?</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Where / we / now / be / ?</t>
-        </is>
-      </c>
-      <c r="E134" s="2" t="n">
+          <t>we / ? / where / now / be</t>
+        </is>
+      </c>
+      <c r="E134" s="1" t="n">
         <v>134</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1" s="3">
-      <c r="A135" s="2" t="n">
+    <row r="135" ht="15.75" customHeight="1" s="2">
+      <c r="A135" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" s="1" t="inlineStr">
         <is>
           <t>あなたは駅でジェーンに会いませんでしたか。</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" s="1" t="inlineStr">
         <is>
           <t>Didn’t you meet Jane at the station?</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Didn / ’ / you / meet / the / station / at / Jane / t / ?</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="n">
+          <t>the / didn / t / ? / at / Jane / station / meet / ’ / you</t>
+        </is>
+      </c>
+      <c r="E135" s="1" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1" s="3">
-      <c r="A136" s="2" t="n">
+    <row r="136" ht="15.75" customHeight="1" s="2">
+      <c r="A136" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" s="1" t="inlineStr">
         <is>
           <t>彼は日本で生まれたのではありませんよね。</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" s="1" t="inlineStr">
         <is>
           <t>He wasn’t born in Japan, was he?</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>he / ’ / t / in / He / be / Japan / wasn / ? / , / bear</t>
-        </is>
-      </c>
-      <c r="E136" s="2" t="n">
+          <t>wasn / in / ? / bear / t / Japan / , / ’ / he / be / he</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1" s="3">
-      <c r="A137" s="2" t="n">
+    <row r="137" ht="15.75" customHeight="1" s="2">
+      <c r="A137" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B137" s="1" t="inlineStr">
         <is>
           <t>私にはあまり時間がない 。あなたはどうですか。</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
+      <c r="C137" s="1" t="inlineStr">
         <is>
           <t>I don’t have much time. How about you?</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>? / time / you / about / I / have / much / . / ’ / don / t / How</t>
-        </is>
-      </c>
-      <c r="E137" s="2" t="n">
+          <t>I / about / . / you / How / t / have / time / ’ / much / don / ?</t>
+        </is>
+      </c>
+      <c r="E137" s="1" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1" s="3">
-      <c r="A138" s="2" t="n">
+    <row r="138" ht="15.75" customHeight="1" s="2">
+      <c r="A138" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B138" s="1" t="inlineStr">
         <is>
           <t>新しい数学の先生はどんな人ですか。</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
+      <c r="C138" s="1" t="inlineStr">
         <is>
           <t>What is the new math teacher like?</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>? / What / new / be / like / math / the / teacher</t>
-        </is>
-      </c>
-      <c r="E138" s="2" t="n">
+          <t>? / what / like / teacher / new / the / math / be</t>
+        </is>
+      </c>
+      <c r="E138" s="1" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1" s="3">
-      <c r="A139" s="2" t="n">
+    <row r="139" ht="15.75" customHeight="1" s="2">
+      <c r="A139" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" s="1" t="inlineStr">
         <is>
           <t>そのことは電話で彼女に尋ねたらどうですか。</t>
         </is>
       </c>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" s="1" t="inlineStr">
         <is>
           <t>Why don’t you ask her about it on the phone?</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>you / don / t / ? / on / her / ask / Why / it / about / ’ / phone / the</t>
-        </is>
-      </c>
-      <c r="E139" s="2" t="n">
+          <t>why / t / don / you / the / about / on / ask / it / her / ? / phone / ’</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1" s="3">
-      <c r="A140" s="2" t="n">
+    <row r="140" ht="15.75" customHeight="1" s="2">
+      <c r="A140" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" s="1" t="inlineStr">
         <is>
           <t>マキとダイナは親友ですよね。</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" s="1" t="inlineStr">
         <is>
           <t>Maki and Dina are good friend aren’t they?</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>and / aren / be / ’ / Maki / friend / ? / good / t / Dina / they</t>
-        </is>
-      </c>
-      <c r="E140" s="2" t="n">
+          <t>aren / and / t / ’ / Dina / good / maki / they / be / friend / ?</t>
+        </is>
+      </c>
+      <c r="E140" s="1" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1" s="3">
-      <c r="A141" s="2" t="n">
+    <row r="141" ht="15.75" customHeight="1" s="2">
+      <c r="A141" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" s="1" t="inlineStr">
         <is>
           <t>彼はなんの本を探していましたか。</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" s="1" t="inlineStr">
         <is>
           <t>How did he find the book?</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>do / he / ? / the / book / find / How</t>
-        </is>
-      </c>
-      <c r="E141" s="2" t="n">
+          <t>book / ? / how / the / find / he / do</t>
+        </is>
+      </c>
+      <c r="E141" s="1" t="n">
         <v>141</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1" s="3">
-      <c r="A142" s="2" t="n">
+    <row r="142" ht="15.75" customHeight="1" s="2">
+      <c r="A142" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" s="1" t="inlineStr">
         <is>
           <t>なぜ彼らはこの歌が好きなのですか。</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" s="1" t="inlineStr">
         <is>
           <t>Why do they like this song?</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>this / song / Why / ? / they / do / like</t>
-        </is>
-      </c>
-      <c r="E142" s="2" t="n">
+          <t>why / like / this / they / song / ? / do</t>
+        </is>
+      </c>
+      <c r="E142" s="1" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1" s="3">
-      <c r="A143" s="2" t="n">
+    <row r="143" ht="15.75" customHeight="1" s="2">
+      <c r="A143" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" s="1" t="inlineStr">
         <is>
           <t>私はこれらのかごがどこで作られているのか知りたいです。</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" s="1" t="inlineStr">
         <is>
           <t>I want to know where these baskets were made?</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>I / be / where / to / baskets / want / know / ? / make / these</t>
-        </is>
-      </c>
-      <c r="E143" s="2" t="n">
+          <t>know / I / to / ? / where / make / these / be / baskets / want</t>
+        </is>
+      </c>
+      <c r="E143" s="1" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1" s="3">
-      <c r="A144" s="2" t="n">
+    <row r="144" ht="15.75" customHeight="1" s="2">
+      <c r="A144" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" s="1" t="inlineStr">
         <is>
           <t>横浜へのチケットがいくらか私に教えていただけませんか。</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C144" s="1" t="inlineStr">
         <is>
           <t>Please tell me how much the ticket to Yokohama is?</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>me / be / how / tell / the / much / ? / to / Please / ticket / Yokohama</t>
-        </is>
-      </c>
-      <c r="E144" s="2" t="n">
+          <t>much / ? / me / tell / how / Yokohama / to / please / the / be / ticket</t>
+        </is>
+      </c>
+      <c r="E144" s="1" t="n">
         <v>144</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1" s="3">
-      <c r="A145" s="2" t="n">
+    <row r="145" ht="15.75" customHeight="1" s="2">
+      <c r="A145" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" s="1" t="inlineStr">
         <is>
           <t>彼らの制服は何色ですか？深緑色です。</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C145" s="1" t="inlineStr">
         <is>
           <t>What color is their uniform? Dark green.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>be / their / Dark / color / uniform / green / . / ? / What</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="n">
+          <t>? / what / Dark / color / uniform / . / be / their / green</t>
+        </is>
+      </c>
+      <c r="E145" s="1" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1" s="3">
-      <c r="A146" s="2" t="n">
+    <row r="146" ht="15.75" customHeight="1" s="2">
+      <c r="A146" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" s="1" t="inlineStr">
         <is>
           <t>ここから博物館まで歩くとどれくらいかかりますか？約１０分かかります。</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" s="1" t="inlineStr">
         <is>
           <t>How long does it take from here to the museum on foot? About 10 minutes.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>About / the / it / 10 / do / long / from / How / here / on / ? / minutes / museum / . / take / foot / to</t>
-        </is>
-      </c>
-      <c r="E146" s="2" t="n">
+          <t>museum / the / on / . / ? / to / take / from / foot / About / do / how / minutes / here / it / long / 10</t>
+        </is>
+      </c>
+      <c r="E146" s="1" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1" s="3">
-      <c r="A147" s="2" t="n">
+    <row r="147" ht="15.75" customHeight="1" s="2">
+      <c r="A147" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" s="1" t="inlineStr">
         <is>
           <t>誰がその問題を解決しましたか。誰にもできなかった。</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" s="1" t="inlineStr">
         <is>
           <t>Who solved the problem? Nobody was able to.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Who / to / ? / problem / be / . / Nobody / the / able / solve</t>
-        </is>
-      </c>
-      <c r="E147" s="2" t="n">
+          <t>problem / be / Nobody / able / to / solve / the / who / ? / .</t>
+        </is>
+      </c>
+      <c r="E147" s="1" t="n">
         <v>147</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1" s="3">
-      <c r="A148" s="2" t="n">
+    <row r="148" ht="15.75" customHeight="1" s="2">
+      <c r="A148" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" s="1" t="inlineStr">
         <is>
           <t>次の土曜日に映画を見にいくのはどうですか。そうしよう。</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="C148" s="1" t="inlineStr">
         <is>
           <t>How about going to the movies next Saturday? Why not?</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>? / not / Why / the / Saturday / movies / How / next / go / about / to / ?</t>
-        </is>
-      </c>
-      <c r="E148" s="2" t="n">
+          <t>about / go / Why / Saturday / ? / next / not / the / to / ? / how / movies</t>
+        </is>
+      </c>
+      <c r="E148" s="1" t="n">
         <v>148</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1" s="3">
-      <c r="A149" s="2" t="n">
+    <row r="149" ht="15.75" customHeight="1" s="2">
+      <c r="A149" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" s="1" t="inlineStr">
         <is>
           <t>なぜあなたはそんなに悲しんでいるの。私の1番の友人が他の街に引っ越すからです。</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" s="1" t="inlineStr">
         <is>
           <t>Why are you so sad? My best friend is moving to another town.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>? / town / be / My / . / another / you / so / to / move / friend / best / sad / be / Why</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="n">
+          <t>town / move / friend / best / be / another / be / you / My / so / ? / sad / . / why / to</t>
+        </is>
+      </c>
+      <c r="E149" s="1" t="n">
         <v>149</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1" s="3">
-      <c r="A150" s="2" t="n">
+    <row r="150" ht="15.75" customHeight="1" s="2">
+      <c r="A150" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" s="1" t="inlineStr">
         <is>
           <t>彼らの新しい家はどのような家ですか。</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" s="1" t="inlineStr">
         <is>
           <t>What is their new house like?</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>? / new / be / their / like / house / What</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="n">
+          <t>new / what / ? / their / house / like / be</t>
+        </is>
+      </c>
+      <c r="E150" s="1" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1" s="3">
-      <c r="A151" s="2" t="n">
+    <row r="151" ht="15.75" customHeight="1" s="2">
+      <c r="A151" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" s="1" t="inlineStr">
         <is>
           <t>なぜジャックはこのチームでプレーしていないのですか。</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" s="1" t="inlineStr">
         <is>
           <t>Why isn’t Jack playing on this team?</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>this / t / on / isn / team / playing / Why / Jack / ’ / ?</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="n">
+          <t>this / ’ / playing / Jack / on / why / t / isn / ? / team</t>
+        </is>
+      </c>
+      <c r="E151" s="1" t="n">
         <v>151</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1" s="3">
-      <c r="A152" s="2" t="n">
+    <row r="152" ht="15.75" customHeight="1" s="2">
+      <c r="A152" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" s="1" t="inlineStr">
         <is>
           <t>会議は１０時まで始まらないのですね。</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C152" s="1" t="inlineStr">
         <is>
           <t>The meeting does start until 10 o’clock, doesn’t it?</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>The / start / , / meeting / 10 / t / ’ / do / it / ’ / ? / clock / doesn / until / o</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="n">
+          <t>10 / start / until / doesn / ’ / , / t / clock / it / meeting / ? / the / ’ / do / o</t>
+        </is>
+      </c>
+      <c r="E152" s="1" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1" s="3">
-      <c r="A153" s="2" t="n">
+    <row r="153" ht="15.75" customHeight="1" s="2">
+      <c r="A153" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" s="1" t="inlineStr">
         <is>
           <t>ボブと直美をバーベキューに誘いませんか。</t>
         </is>
       </c>
-      <c r="C153" s="2" t="inlineStr">
+      <c r="C153" s="1" t="inlineStr">
         <is>
           <t>Why don’t we invite Bob and Naomi to the barbecue?</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>the / t / and / don / invite / Why / to / ? / Bob / Naomi / we / barbecue / ’</t>
-        </is>
-      </c>
-      <c r="E153" s="2" t="n">
+          <t>don / Bob / the / and / to / t / ? / we / why / Naomi / invite / ’ / barbecue</t>
+        </is>
+      </c>
+      <c r="E153" s="1" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1" s="3">
-      <c r="A154" s="2" t="n">
+    <row r="154" ht="15.75" customHeight="1" s="2">
+      <c r="A154" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B154" s="1" t="inlineStr">
         <is>
           <t>ドアを押さえていてくれませんか。</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="C154" s="1" t="inlineStr">
         <is>
           <t>Hold the door for me, will you?</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>, / for / me / Hold / you / ? / will / the / door</t>
-        </is>
-      </c>
-      <c r="E154" s="2" t="n">
+          <t>for / the / me / hold / will / door / ? / , / you</t>
+        </is>
+      </c>
+      <c r="E154" s="1" t="n">
         <v>154</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1" s="3">
-      <c r="A155" s="2" t="n">
+    <row r="155" ht="15.75" customHeight="1" s="2">
+      <c r="A155" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B155" s="2" t="inlineStr">
+      <c r="B155" s="1" t="inlineStr">
         <is>
           <t>彼はどこの出身だと思いますか。</t>
         </is>
       </c>
-      <c r="C155" s="2" t="inlineStr">
+      <c r="C155" s="1" t="inlineStr">
         <is>
           <t>Where do you think he comes from?</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>you / come / do / from / Where / ? / think / he</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="n">
+          <t>think / come / from / where / do / you / he / ?</t>
+        </is>
+      </c>
+      <c r="E155" s="1" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1" s="3">
-      <c r="A156" s="2" t="n">
+    <row r="156" ht="15.75" customHeight="1" s="2">
+      <c r="A156" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B156" s="2" t="inlineStr">
+      <c r="B156" s="1" t="inlineStr">
         <is>
           <t>私は彼が試合に来るものと思っていました。</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
+      <c r="C156" s="1" t="inlineStr">
         <is>
           <t>I thought he would come to the game.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>think / he / . / game / come / the / to / I / would</t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="n">
+          <t>the / think / game / would / I / to / he / come / .</t>
+        </is>
+      </c>
+      <c r="E156" s="1" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1" s="3">
-      <c r="A157" s="2" t="n">
+    <row r="157" ht="15.75" customHeight="1" s="2">
+      <c r="A157" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B157" s="2" t="inlineStr">
+      <c r="B157" s="1" t="inlineStr">
         <is>
           <t>あなたはその自転車が私のものだということを知ってましたか。</t>
         </is>
       </c>
-      <c r="C157" s="2" t="inlineStr">
+      <c r="C157" s="1" t="inlineStr">
         <is>
           <t>Did you know that the bicycle was mine?</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>know / that / bicycle / be / the / ? / mine / you / Did</t>
-        </is>
-      </c>
-      <c r="E157" s="2" t="n">
+          <t>know / ? / the / mine / bicycle / you / be / did / that</t>
+        </is>
+      </c>
+      <c r="E157" s="1" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1" s="3">
-      <c r="A158" s="2" t="n">
+    <row r="158" ht="15.75" customHeight="1" s="2">
+      <c r="A158" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" s="1" t="inlineStr">
         <is>
           <t>私たちはその本が倒れていたことを知った。</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" s="1" t="inlineStr">
         <is>
           <t>We found out that the tree had fallen down.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>found / We / down / fall / that / out / tree / the / . / have</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="n">
+          <t>we / down / found / that / . / the / out / tree / have / fall</t>
+        </is>
+      </c>
+      <c r="E158" s="1" t="n">
         <v>158</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1" s="3">
-      <c r="A159" s="2" t="n">
+    <row r="159" ht="15.75" customHeight="1" s="2">
+      <c r="A159" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" s="1" t="inlineStr">
         <is>
           <t>自分は日本の会社で働いているとジョンは言った。</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" s="1" t="inlineStr">
         <is>
           <t>John said that he worked for a Japanese company.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>a / say / work / that / . / company / John / for / he / Japanese</t>
-        </is>
-      </c>
-      <c r="E159" s="2" t="n">
+          <t>that / company / he / john / Japanese / for / work / a / say / .</t>
+        </is>
+      </c>
+      <c r="E159" s="1" t="n">
         <v>159</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1" s="3">
-      <c r="A160" s="2" t="n">
+    <row r="160" ht="15.75" customHeight="1" s="2">
+      <c r="A160" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" s="1" t="inlineStr">
         <is>
           <t>自分は中国語を話すのがとても上手だとあなたは言ってた。</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" s="1" t="inlineStr">
         <is>
           <t>You said that you spoke Chinese very well.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>you / well / . / Chinese / that / speak / say / very / You</t>
-        </is>
-      </c>
-      <c r="E160" s="2" t="n">
+          <t>speak / . / say / very / Chinese / well / you / that / you</t>
+        </is>
+      </c>
+      <c r="E160" s="1" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1" s="3">
-      <c r="A161" s="2" t="n">
+    <row r="161" ht="15.75" customHeight="1" s="2">
+      <c r="A161" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" s="1" t="inlineStr">
         <is>
           <t>シンディーは彼女の兄が彼女を学校まで送ってくれるだろうと言った。</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" s="1" t="inlineStr">
         <is>
           <t>Cindy said that her brother would drive her to school.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>school / her / her / to / that / drive / . / say / brother / would / Cindy</t>
-        </is>
-      </c>
-      <c r="E161" s="2" t="n">
+          <t>. / say / would / school / her / her / drive / cindy / brother / that / to</t>
+        </is>
+      </c>
+      <c r="E161" s="1" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1" s="3">
-      <c r="A162" s="2" t="n">
+    <row r="162" ht="15.75" customHeight="1" s="2">
+      <c r="A162" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" s="1" t="inlineStr">
         <is>
           <t>自分はいい生徒を持って本当に幸運だと私たちの先生はよく言います。</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" s="1" t="inlineStr">
         <is>
           <t>Our teacher always says that he is really lucky to have good students.</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>. / lucky / students / good / teacher / he / have / always / say / be / to / that / really / Our</t>
-        </is>
-      </c>
-      <c r="E162" s="2" t="n">
+          <t>that / really / he / to / always / . / students / be / lucky / teacher / say / good / have / our</t>
+        </is>
+      </c>
+      <c r="E162" s="1" t="n">
         <v>162</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1" s="3">
-      <c r="A163" s="2" t="n">
+    <row r="163" ht="15.75" customHeight="1" s="2">
+      <c r="A163" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" s="1" t="inlineStr">
         <is>
           <t>安田先生は私たちに数学を教えてあげると言いました。</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" s="1" t="inlineStr">
         <is>
           <t>Mr.Yasuda told us that he would teach us mathematics.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>would / that / tell / . / teach / us / us / he / mathematics / Mr.Yasuda</t>
-        </is>
-      </c>
-      <c r="E163" s="2" t="n">
+          <t>he / tell / that / mathematics / us / . / teach / us / mr.yasuda / would</t>
+        </is>
+      </c>
+      <c r="E163" s="1" t="n">
         <v>163</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1" s="3">
-      <c r="A164" s="2" t="n">
+    <row r="164" ht="15.75" customHeight="1" s="2">
+      <c r="A164" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B164" s="2" t="inlineStr">
+      <c r="B164" s="1" t="inlineStr">
         <is>
           <t>男の子はそのサッカー選手に「私はいつもあなたと話したかった。」と言った。</t>
         </is>
       </c>
-      <c r="C164" s="2" t="inlineStr">
+      <c r="C164" s="1" t="inlineStr">
         <is>
           <t>The boy said to the soccer player, “ I have always wanted to talk to him.”</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>to / I / . / say / to / talk / have / always / him / want / to / boy / “ / soccer / player / The / the / ” / ,</t>
-        </is>
-      </c>
-      <c r="E164" s="2" t="n">
+          <t>to / to / always / ” / player / “ / the / have / say / boy / to / I / , / . / soccer / him / talk / want / the</t>
+        </is>
+      </c>
+      <c r="E164" s="1" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1" s="3">
-      <c r="A165" s="2" t="n">
+    <row r="165" ht="15.75" customHeight="1" s="2">
+      <c r="A165" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B165" s="2" t="inlineStr">
+      <c r="B165" s="1" t="inlineStr">
         <is>
           <t>その女の子は犬に新聞を持ってくるように言った。</t>
         </is>
       </c>
-      <c r="C165" s="2" t="inlineStr">
+      <c r="C165" s="1" t="inlineStr">
         <is>
           <t>The girl told her dog to bring her the news paper.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>to / girl / the / . / tell / bring / news / paper / The / her / her / dog</t>
-        </is>
-      </c>
-      <c r="E165" s="2" t="n">
+          <t>the / paper / dog / . / the / girl / her / her / bring / news / tell / to</t>
+        </is>
+      </c>
+      <c r="E165" s="1" t="n">
         <v>165</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1" s="3">
-      <c r="A166" s="2" t="n">
+    <row r="166" ht="15.75" customHeight="1" s="2">
+      <c r="A166" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B166" s="2" t="inlineStr">
+      <c r="B166" s="1" t="inlineStr">
         <is>
           <t>旅行者は車掌に「ホテルまでの道を教えてください」と言った。</t>
         </is>
       </c>
-      <c r="C166" s="2" t="inlineStr">
+      <c r="C166" s="1" t="inlineStr">
         <is>
           <t>The tourist said to the conductor, “Please tell me the way to the hotel.”</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>conductor / hotel / the / me / to / to / say / the / Please / tourist / . / , / the / tell / ” / way / “ / The</t>
-        </is>
-      </c>
-      <c r="E166" s="2" t="n">
+          <t>tourist / conductor / “ / to / to / , / me / Please / hotel / tell / the / say / the / ” / the / way / . / the</t>
+        </is>
+      </c>
+      <c r="E166" s="1" t="n">
         <v>166</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1" s="3">
-      <c r="A167" s="2" t="n">
+    <row r="167" ht="15.75" customHeight="1" s="2">
+      <c r="A167" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B167" s="2" t="inlineStr">
+      <c r="B167" s="1" t="inlineStr">
         <is>
           <t>老人はいつも私たちに「調子はどうですか。」と言う。</t>
         </is>
       </c>
-      <c r="C167" s="2" t="inlineStr">
+      <c r="C167" s="1" t="inlineStr">
         <is>
           <t>The old man always says to us “How are you?”</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>man / always / to / be / The / How / say / ? / ” / “ / you / us / old</t>
-        </is>
-      </c>
-      <c r="E167" s="2" t="n">
+          <t>How / you / ” / say / us / ? / man / old / always / to / the / “ / be</t>
+        </is>
+      </c>
+      <c r="E167" s="1" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1" s="3">
-      <c r="A168" s="2" t="n">
+    <row r="168" ht="15.75" customHeight="1" s="2">
+      <c r="A168" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B168" s="2" t="inlineStr">
+      <c r="B168" s="1" t="inlineStr">
         <is>
           <t>私の母は私にどこにいたのか尋ねた。</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>My mother asked asked me where I had been?</t>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>My mother asked me where I had been?</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>My / ask / ? / me / be / where / mother / ask / I / have</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="n">
+          <t>my / be / have / me / I / where / ask / mother / ?</t>
+        </is>
+      </c>
+      <c r="E168" s="1" t="n">
         <v>168</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1" s="3">
-      <c r="A169" s="2" t="n">
+    <row r="169" ht="15.75" customHeight="1" s="2">
+      <c r="A169" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" s="1" t="inlineStr">
         <is>
           <t>その配達員の男性は次の日に戻ってくると言った。</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" s="1" t="inlineStr">
         <is>
           <t>The delivery man said that he would come back the next day.</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>The / day / the / back / he / man / . / would / delivery / say / next / that / come</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="n">
+          <t>that / the / man / next / say / day / would / delivery / back / the / he / come / .</t>
+        </is>
+      </c>
+      <c r="E169" s="1" t="n">
         <v>169</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1" s="3">
-      <c r="A170" s="2" t="n">
+    <row r="170" ht="15.75" customHeight="1" s="2">
+      <c r="A170" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" s="1" t="inlineStr">
         <is>
           <t>先生は彼に前日にいい仕事をしたと言った。</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" s="1" t="inlineStr">
         <is>
           <t>The teacher told him that he had done a good job the day before.</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>job / day / him / that / . / before / The / he / good / do / a / teacher / tell / the / have</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="n">
+          <t>teacher / the / that / before / . / a / day / tell / he / the / him / good / have / do / job</t>
+        </is>
+      </c>
+      <c r="E170" s="1" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1" s="3">
-      <c r="A171" s="2" t="n">
+    <row r="171" ht="15.75" customHeight="1" s="2">
+      <c r="A171" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" s="1" t="inlineStr">
         <is>
           <t>その女性は私に翌朝そこで会ってくれるように頼んだ。</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" s="1" t="inlineStr">
         <is>
           <t>The woman asked me to meet her there the next morning.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>her / morning / meet / woman / next / to / The / . / me / ask / the / there</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="n">
+          <t>me / meet / next / ask / her / the / . / the / to / there / woman / morning</t>
+        </is>
+      </c>
+      <c r="E171" s="1" t="n">
         <v>171</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1" s="3">
-      <c r="A172" s="2" t="n">
+    <row r="172" ht="15.75" customHeight="1" s="2">
+      <c r="A172" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" s="1" t="inlineStr">
         <is>
           <t>村人は私に何年も前にその場所を訪れたことがあるか私に聞いた。彼女は約束は絶対に破らないだろうと言った。</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" s="1" t="inlineStr">
         <is>
           <t>The villager asked him why he hadn’t came to work the previous week?</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>him / t / ask / come / ? / hadn / he / week / previous / work / villager / to / why / the / ’ / The</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="n">
+          <t>him / villager / he / the / come / previous / why / ? / ask / ’ / t / work / hadn / week / to / the</t>
+        </is>
+      </c>
+      <c r="E172" s="1" t="n">
         <v>172</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1" s="3">
-      <c r="A173" s="2" t="n">
+    <row r="173" ht="15.75" customHeight="1" s="2">
+      <c r="A173" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" s="1" t="inlineStr">
         <is>
           <t>上司は彼になぜ前の週仕事に来なかったのか尋ねた。</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" s="1" t="inlineStr">
         <is>
           <t>The students said to the woman “We are going to stay at this hotel tonight.</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>this / We / to / go / say / the / tonight / woman / hotel / to / be / The / . / at / stay / students / “</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="n">
+          <t>the / this / to / We / at / students / to / tonight / . / be / stay / go / the / “ / say / woman / hotel</t>
+        </is>
+      </c>
+      <c r="E173" s="1" t="n">
         <v>173</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1" s="3">
-      <c r="A174" s="2" t="n">
+    <row r="174" ht="15.75" customHeight="1" s="2">
+      <c r="A174" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" s="1" t="inlineStr">
         <is>
           <t>生徒たちは女性に「私たちは今夜このホテルに滞在するつもりです。」と言った。</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" s="1" t="inlineStr">
         <is>
           <t>I didn’t know you were a friend of the famous writer.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>of / . / be / you / ’ / writer / famous / a / the / t / friend / didn / know / I</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="n">
+          <t>writer / famous / t / friend / be / . / I / the / ’ / you / a / of / didn / know</t>
+        </is>
+      </c>
+      <c r="E174" s="1" t="n">
         <v>174</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1" s="3">
-      <c r="A175" s="2" t="n">
+    <row r="175" ht="15.75" customHeight="1" s="2">
+      <c r="A175" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" s="1" t="inlineStr">
         <is>
           <t>あなたがその有名な作家の友人とは知らなかった。</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" s="1" t="inlineStr">
         <is>
           <t>I didn’t know you were a friend of the famous writer.</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>I / be / . / t / didn / of / ’ / the / famous / you / friend / know / writer / a</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="n">
+          <t>t / ’ / a / writer / be / didn / the / famous / you / know / I / friend / . / of</t>
+        </is>
+      </c>
+      <c r="E175" s="1" t="n">
         <v>175</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1" s="3">
-      <c r="A176" s="2" t="n">
+    <row r="176" ht="15.75" customHeight="1" s="2">
+      <c r="A176" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" s="1" t="inlineStr">
         <is>
           <t>生徒は先生に早退しても良いかと尋ねた。</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" s="1" t="inlineStr">
         <is>
           <t>The student asked the teacher if he could go home early.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>if / The / ask / could / student / early / go / he / teacher / the / . / home</t>
-        </is>
-      </c>
-      <c r="E176" s="2" t="n">
+          <t>ask / the / if / early / teacher / . / home / could / student / go / the / he</t>
+        </is>
+      </c>
+      <c r="E176" s="1" t="n">
         <v>176</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1" s="3">
-      <c r="A177" s="2" t="n">
+    <row r="177" ht="15.75" customHeight="1" s="2">
+      <c r="A177" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" s="1" t="inlineStr">
         <is>
           <t>その老人は孫にいつ到着したのかと尋ねた。</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" s="1" t="inlineStr">
         <is>
           <t>The old man asked his grandson when he arrived.</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>he / old / grandson / The / . / ask / when / arrive / his / man</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="n">
+          <t>he / the / man / arrive / ask / old / when / his / . / grandson</t>
+        </is>
+      </c>
+      <c r="E177" s="1" t="n">
         <v>177</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1" s="3">
-      <c r="A178" s="2" t="n">
+    <row r="178" ht="15.75" customHeight="1" s="2">
+      <c r="A178" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" s="1" t="inlineStr">
         <is>
           <t>警察官はその若者たちにそこにそのままいるようにと言った。</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" s="1" t="inlineStr">
         <is>
           <t>The police officer told the young men to stay there.</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>men / police / . / tell / stay / to / the / there / young / The / officer</t>
-        </is>
-      </c>
-      <c r="E178" s="2" t="n">
+          <t>tell / stay / there / police / men / the / officer / . / to / the / young</t>
+        </is>
+      </c>
+      <c r="E178" s="1" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1" s="3"/>
-    <row r="180" ht="15.75" customHeight="1" s="3"/>
-    <row r="181" ht="15.75" customHeight="1" s="3"/>
-    <row r="182" ht="15.75" customHeight="1" s="3"/>
-    <row r="183" ht="15.75" customHeight="1" s="3"/>
-    <row r="184" ht="15.75" customHeight="1" s="3"/>
-    <row r="185" ht="15.75" customHeight="1" s="3"/>
-    <row r="186" ht="15.75" customHeight="1" s="3"/>
-    <row r="187" ht="15.75" customHeight="1" s="3"/>
-    <row r="188" ht="15.75" customHeight="1" s="3"/>
-    <row r="189" ht="15.75" customHeight="1" s="3"/>
-    <row r="190" ht="15.75" customHeight="1" s="3"/>
-    <row r="191" ht="15.75" customHeight="1" s="3"/>
-    <row r="192" ht="15.75" customHeight="1" s="3"/>
-    <row r="193" ht="15.75" customHeight="1" s="3"/>
-    <row r="194" ht="15.75" customHeight="1" s="3"/>
-    <row r="195" ht="15.75" customHeight="1" s="3"/>
-    <row r="196" ht="15.75" customHeight="1" s="3"/>
-    <row r="197" ht="15.75" customHeight="1" s="3"/>
-    <row r="198" ht="15.75" customHeight="1" s="3"/>
-    <row r="199" ht="15.75" customHeight="1" s="3"/>
-    <row r="200" ht="15.75" customHeight="1" s="3"/>
-    <row r="201" ht="15.75" customHeight="1" s="3"/>
-    <row r="202" ht="15.75" customHeight="1" s="3"/>
-    <row r="203" ht="15.75" customHeight="1" s="3"/>
-    <row r="204" ht="15.75" customHeight="1" s="3"/>
-    <row r="205" ht="15.75" customHeight="1" s="3"/>
-    <row r="206" ht="15.75" customHeight="1" s="3"/>
-    <row r="207" ht="15.75" customHeight="1" s="3"/>
-    <row r="208" ht="15.75" customHeight="1" s="3"/>
-    <row r="209" ht="15.75" customHeight="1" s="3"/>
-    <row r="210" ht="15.75" customHeight="1" s="3"/>
-    <row r="211" ht="15.75" customHeight="1" s="3"/>
-    <row r="212" ht="15.75" customHeight="1" s="3"/>
-    <row r="213" ht="15.75" customHeight="1" s="3"/>
-    <row r="214" ht="15.75" customHeight="1" s="3"/>
-    <row r="215" ht="15.75" customHeight="1" s="3"/>
-    <row r="216" ht="15.75" customHeight="1" s="3"/>
-    <row r="217" ht="15.75" customHeight="1" s="3"/>
-    <row r="218" ht="15.75" customHeight="1" s="3"/>
-    <row r="219" ht="15.75" customHeight="1" s="3"/>
-    <row r="220" ht="15.75" customHeight="1" s="3"/>
-    <row r="221" ht="15.75" customHeight="1" s="3"/>
-    <row r="222" ht="15.75" customHeight="1" s="3"/>
-    <row r="223" ht="15.75" customHeight="1" s="3"/>
-    <row r="224" ht="15.75" customHeight="1" s="3"/>
-    <row r="225" ht="15.75" customHeight="1" s="3"/>
-    <row r="226" ht="15.75" customHeight="1" s="3"/>
-    <row r="227" ht="15.75" customHeight="1" s="3"/>
-    <row r="228" ht="15.75" customHeight="1" s="3"/>
-    <row r="229" ht="15.75" customHeight="1" s="3"/>
-    <row r="230" ht="15.75" customHeight="1" s="3"/>
-    <row r="231" ht="15.75" customHeight="1" s="3"/>
-    <row r="232" ht="15.75" customHeight="1" s="3"/>
-    <row r="233" ht="15.75" customHeight="1" s="3"/>
-    <row r="234" ht="15.75" customHeight="1" s="3"/>
-    <row r="235" ht="15.75" customHeight="1" s="3"/>
-    <row r="236" ht="15.75" customHeight="1" s="3"/>
-    <row r="237" ht="15.75" customHeight="1" s="3"/>
-    <row r="238" ht="15.75" customHeight="1" s="3"/>
-    <row r="239" ht="15.75" customHeight="1" s="3"/>
-    <row r="240" ht="15.75" customHeight="1" s="3"/>
-    <row r="241" ht="15.75" customHeight="1" s="3"/>
-    <row r="242" ht="15.75" customHeight="1" s="3"/>
-    <row r="243" ht="15.75" customHeight="1" s="3"/>
-    <row r="244" ht="15.75" customHeight="1" s="3"/>
-    <row r="245" ht="15.75" customHeight="1" s="3"/>
-    <row r="246" ht="15.75" customHeight="1" s="3"/>
-    <row r="247" ht="15.75" customHeight="1" s="3"/>
-    <row r="248" ht="15.75" customHeight="1" s="3"/>
-    <row r="249" ht="15.75" customHeight="1" s="3"/>
-    <row r="250" ht="15.75" customHeight="1" s="3"/>
-    <row r="251" ht="15.75" customHeight="1" s="3"/>
-    <row r="252" ht="15.75" customHeight="1" s="3"/>
-    <row r="253" ht="15.75" customHeight="1" s="3"/>
-    <row r="254" ht="15.75" customHeight="1" s="3"/>
-    <row r="255" ht="15.75" customHeight="1" s="3"/>
-    <row r="256" ht="15.75" customHeight="1" s="3"/>
-    <row r="257" ht="15.75" customHeight="1" s="3"/>
-    <row r="258" ht="15.75" customHeight="1" s="3"/>
-    <row r="259" ht="15.75" customHeight="1" s="3"/>
-    <row r="260" ht="15.75" customHeight="1" s="3"/>
-    <row r="261" ht="15.75" customHeight="1" s="3"/>
-    <row r="262" ht="15.75" customHeight="1" s="3"/>
-    <row r="263" ht="15.75" customHeight="1" s="3"/>
-    <row r="264" ht="15.75" customHeight="1" s="3"/>
-    <row r="265" ht="15.75" customHeight="1" s="3"/>
-    <row r="266" ht="15.75" customHeight="1" s="3"/>
-    <row r="267" ht="15.75" customHeight="1" s="3"/>
-    <row r="268" ht="15.75" customHeight="1" s="3"/>
-    <row r="269" ht="15.75" customHeight="1" s="3"/>
-    <row r="270" ht="15.75" customHeight="1" s="3"/>
-    <row r="271" ht="15.75" customHeight="1" s="3"/>
-    <row r="272" ht="15.75" customHeight="1" s="3"/>
-    <row r="273" ht="15.75" customHeight="1" s="3"/>
-    <row r="274" ht="15.75" customHeight="1" s="3"/>
-    <row r="275" ht="15.75" customHeight="1" s="3"/>
-    <row r="276" ht="15.75" customHeight="1" s="3"/>
-    <row r="277" ht="15.75" customHeight="1" s="3"/>
-    <row r="278" ht="15.75" customHeight="1" s="3"/>
-    <row r="279" ht="15.75" customHeight="1" s="3"/>
-    <row r="280" ht="15.75" customHeight="1" s="3"/>
-    <row r="281" ht="15.75" customHeight="1" s="3"/>
-    <row r="282" ht="15.75" customHeight="1" s="3"/>
-    <row r="283" ht="15.75" customHeight="1" s="3"/>
-    <row r="284" ht="15.75" customHeight="1" s="3"/>
-    <row r="285" ht="15.75" customHeight="1" s="3"/>
-    <row r="286" ht="15.75" customHeight="1" s="3"/>
-    <row r="287" ht="15.75" customHeight="1" s="3"/>
-    <row r="288" ht="15.75" customHeight="1" s="3"/>
-    <row r="289" ht="15.75" customHeight="1" s="3"/>
-    <row r="290" ht="15.75" customHeight="1" s="3"/>
-    <row r="291" ht="15.75" customHeight="1" s="3"/>
-    <row r="292" ht="15.75" customHeight="1" s="3"/>
-    <row r="293" ht="15.75" customHeight="1" s="3"/>
-    <row r="294" ht="15.75" customHeight="1" s="3"/>
-    <row r="295" ht="15.75" customHeight="1" s="3"/>
-    <row r="296" ht="15.75" customHeight="1" s="3"/>
-    <row r="297" ht="15.75" customHeight="1" s="3"/>
-    <row r="298" ht="15.75" customHeight="1" s="3"/>
-    <row r="299" ht="15.75" customHeight="1" s="3"/>
-    <row r="300" ht="15.75" customHeight="1" s="3"/>
-    <row r="301" ht="15.75" customHeight="1" s="3"/>
-    <row r="302" ht="15.75" customHeight="1" s="3"/>
-    <row r="303" ht="15.75" customHeight="1" s="3"/>
-    <row r="304" ht="15.75" customHeight="1" s="3"/>
-    <row r="305" ht="15.75" customHeight="1" s="3"/>
-    <row r="306" ht="15.75" customHeight="1" s="3"/>
-    <row r="307" ht="15.75" customHeight="1" s="3"/>
-    <row r="308" ht="15.75" customHeight="1" s="3"/>
-    <row r="309" ht="15.75" customHeight="1" s="3"/>
-    <row r="310" ht="15.75" customHeight="1" s="3"/>
-    <row r="311" ht="15.75" customHeight="1" s="3"/>
-    <row r="312" ht="15.75" customHeight="1" s="3"/>
-    <row r="313" ht="15.75" customHeight="1" s="3"/>
-    <row r="314" ht="15.75" customHeight="1" s="3"/>
-    <row r="315" ht="15.75" customHeight="1" s="3"/>
-    <row r="316" ht="15.75" customHeight="1" s="3"/>
-    <row r="317" ht="15.75" customHeight="1" s="3"/>
-    <row r="318" ht="15.75" customHeight="1" s="3"/>
-    <row r="319" ht="15.75" customHeight="1" s="3"/>
-    <row r="320" ht="15.75" customHeight="1" s="3"/>
-    <row r="321" ht="15.75" customHeight="1" s="3"/>
-    <row r="322" ht="15.75" customHeight="1" s="3"/>
-    <row r="323" ht="15.75" customHeight="1" s="3"/>
-    <row r="324" ht="15.75" customHeight="1" s="3"/>
-    <row r="325" ht="15.75" customHeight="1" s="3"/>
-    <row r="326" ht="15.75" customHeight="1" s="3"/>
-    <row r="327" ht="15.75" customHeight="1" s="3"/>
-    <row r="328" ht="15.75" customHeight="1" s="3"/>
-    <row r="329" ht="15.75" customHeight="1" s="3"/>
-    <row r="330" ht="15.75" customHeight="1" s="3"/>
-    <row r="331" ht="15.75" customHeight="1" s="3"/>
-    <row r="332" ht="15.75" customHeight="1" s="3"/>
-    <row r="333" ht="15.75" customHeight="1" s="3"/>
-    <row r="334" ht="15.75" customHeight="1" s="3"/>
-    <row r="335" ht="15.75" customHeight="1" s="3"/>
-    <row r="336" ht="15.75" customHeight="1" s="3"/>
-    <row r="337" ht="15.75" customHeight="1" s="3"/>
-    <row r="338" ht="15.75" customHeight="1" s="3"/>
-    <row r="339" ht="15.75" customHeight="1" s="3"/>
-    <row r="340" ht="15.75" customHeight="1" s="3"/>
-    <row r="341" ht="15.75" customHeight="1" s="3"/>
-    <row r="342" ht="15.75" customHeight="1" s="3"/>
-    <row r="343" ht="15.75" customHeight="1" s="3"/>
-    <row r="344" ht="15.75" customHeight="1" s="3"/>
-    <row r="345" ht="15.75" customHeight="1" s="3"/>
-    <row r="346" ht="15.75" customHeight="1" s="3"/>
-    <row r="347" ht="15.75" customHeight="1" s="3"/>
-    <row r="348" ht="15.75" customHeight="1" s="3"/>
-    <row r="349" ht="15.75" customHeight="1" s="3"/>
-    <row r="350" ht="15.75" customHeight="1" s="3"/>
-    <row r="351" ht="15.75" customHeight="1" s="3"/>
-    <row r="352" ht="15.75" customHeight="1" s="3"/>
-    <row r="353" ht="15.75" customHeight="1" s="3"/>
-    <row r="354" ht="15.75" customHeight="1" s="3"/>
-    <row r="355" ht="15.75" customHeight="1" s="3"/>
-    <row r="356" ht="15.75" customHeight="1" s="3"/>
-    <row r="357" ht="15.75" customHeight="1" s="3"/>
-    <row r="358" ht="15.75" customHeight="1" s="3"/>
-    <row r="359" ht="15.75" customHeight="1" s="3"/>
-    <row r="360" ht="15.75" customHeight="1" s="3"/>
-    <row r="361" ht="15.75" customHeight="1" s="3"/>
-    <row r="362" ht="15.75" customHeight="1" s="3"/>
-    <row r="363" ht="15.75" customHeight="1" s="3"/>
-    <row r="364" ht="15.75" customHeight="1" s="3"/>
-    <row r="365" ht="15.75" customHeight="1" s="3"/>
-    <row r="366" ht="15.75" customHeight="1" s="3"/>
-    <row r="367" ht="15.75" customHeight="1" s="3"/>
-    <row r="368" ht="15.75" customHeight="1" s="3"/>
-    <row r="369" ht="15.75" customHeight="1" s="3"/>
-    <row r="370" ht="15.75" customHeight="1" s="3"/>
-    <row r="371" ht="15.75" customHeight="1" s="3"/>
-    <row r="372" ht="15.75" customHeight="1" s="3"/>
-    <row r="373" ht="15.75" customHeight="1" s="3"/>
-    <row r="374" ht="15.75" customHeight="1" s="3"/>
-    <row r="375" ht="15.75" customHeight="1" s="3"/>
-    <row r="376" ht="15.75" customHeight="1" s="3"/>
-    <row r="377" ht="15.75" customHeight="1" s="3"/>
-    <row r="378" ht="15.75" customHeight="1" s="3"/>
-    <row r="379" ht="15.75" customHeight="1" s="3"/>
-    <row r="380" ht="15.75" customHeight="1" s="3"/>
-    <row r="381" ht="15.75" customHeight="1" s="3"/>
-    <row r="382" ht="15.75" customHeight="1" s="3"/>
-    <row r="383" ht="15.75" customHeight="1" s="3"/>
-    <row r="384" ht="15.75" customHeight="1" s="3"/>
-    <row r="385" ht="15.75" customHeight="1" s="3"/>
-    <row r="386" ht="15.75" customHeight="1" s="3"/>
-    <row r="387" ht="15.75" customHeight="1" s="3"/>
-    <row r="388" ht="15.75" customHeight="1" s="3"/>
-    <row r="389" ht="15.75" customHeight="1" s="3"/>
-    <row r="390" ht="15.75" customHeight="1" s="3"/>
-    <row r="391" ht="15.75" customHeight="1" s="3"/>
-    <row r="392" ht="15.75" customHeight="1" s="3"/>
-    <row r="393" ht="15.75" customHeight="1" s="3"/>
-    <row r="394" ht="15.75" customHeight="1" s="3"/>
-    <row r="395" ht="15.75" customHeight="1" s="3"/>
-    <row r="396" ht="15.75" customHeight="1" s="3"/>
-    <row r="397" ht="15.75" customHeight="1" s="3"/>
-    <row r="398" ht="15.75" customHeight="1" s="3"/>
-    <row r="399" ht="15.75" customHeight="1" s="3"/>
-    <row r="400" ht="15.75" customHeight="1" s="3"/>
-    <row r="401" ht="15.75" customHeight="1" s="3"/>
-    <row r="402" ht="15.75" customHeight="1" s="3"/>
-    <row r="403" ht="15.75" customHeight="1" s="3"/>
-    <row r="404" ht="15.75" customHeight="1" s="3"/>
-    <row r="405" ht="15.75" customHeight="1" s="3"/>
-    <row r="406" ht="15.75" customHeight="1" s="3"/>
-    <row r="407" ht="15.75" customHeight="1" s="3"/>
-    <row r="408" ht="15.75" customHeight="1" s="3"/>
-    <row r="409" ht="15.75" customHeight="1" s="3"/>
-    <row r="410" ht="15.75" customHeight="1" s="3"/>
-    <row r="411" ht="15.75" customHeight="1" s="3"/>
-    <row r="412" ht="15.75" customHeight="1" s="3"/>
-    <row r="413" ht="15.75" customHeight="1" s="3"/>
-    <row r="414" ht="15.75" customHeight="1" s="3"/>
-    <row r="415" ht="15.75" customHeight="1" s="3"/>
-    <row r="416" ht="15.75" customHeight="1" s="3"/>
-    <row r="417" ht="15.75" customHeight="1" s="3"/>
-    <row r="418" ht="15.75" customHeight="1" s="3"/>
-    <row r="419" ht="15.75" customHeight="1" s="3"/>
-    <row r="420" ht="15.75" customHeight="1" s="3"/>
-    <row r="421" ht="15.75" customHeight="1" s="3"/>
-    <row r="422" ht="15.75" customHeight="1" s="3"/>
-    <row r="423" ht="15.75" customHeight="1" s="3"/>
-    <row r="424" ht="15.75" customHeight="1" s="3"/>
-    <row r="425" ht="15.75" customHeight="1" s="3"/>
-    <row r="426" ht="15.75" customHeight="1" s="3"/>
-    <row r="427" ht="15.75" customHeight="1" s="3"/>
-    <row r="428" ht="15.75" customHeight="1" s="3"/>
-    <row r="429" ht="15.75" customHeight="1" s="3"/>
-    <row r="430" ht="15.75" customHeight="1" s="3"/>
-    <row r="431" ht="15.75" customHeight="1" s="3"/>
-    <row r="432" ht="15.75" customHeight="1" s="3"/>
-    <row r="433" ht="15.75" customHeight="1" s="3"/>
-    <row r="434" ht="15.75" customHeight="1" s="3"/>
-    <row r="435" ht="15.75" customHeight="1" s="3"/>
-    <row r="436" ht="15.75" customHeight="1" s="3"/>
-    <row r="437" ht="15.75" customHeight="1" s="3"/>
-    <row r="438" ht="15.75" customHeight="1" s="3"/>
-    <row r="439" ht="15.75" customHeight="1" s="3"/>
-    <row r="440" ht="15.75" customHeight="1" s="3"/>
-    <row r="441" ht="15.75" customHeight="1" s="3"/>
-    <row r="442" ht="15.75" customHeight="1" s="3"/>
-    <row r="443" ht="15.75" customHeight="1" s="3"/>
-    <row r="444" ht="15.75" customHeight="1" s="3"/>
-    <row r="445" ht="15.75" customHeight="1" s="3"/>
-    <row r="446" ht="15.75" customHeight="1" s="3"/>
-    <row r="447" ht="15.75" customHeight="1" s="3"/>
-    <row r="448" ht="15.75" customHeight="1" s="3"/>
-    <row r="449" ht="15.75" customHeight="1" s="3"/>
-    <row r="450" ht="15.75" customHeight="1" s="3"/>
-    <row r="451" ht="15.75" customHeight="1" s="3"/>
-    <row r="452" ht="15.75" customHeight="1" s="3"/>
-    <row r="453" ht="15.75" customHeight="1" s="3"/>
-    <row r="454" ht="15.75" customHeight="1" s="3"/>
-    <row r="455" ht="15.75" customHeight="1" s="3"/>
-    <row r="456" ht="15.75" customHeight="1" s="3"/>
-    <row r="457" ht="15.75" customHeight="1" s="3"/>
-    <row r="458" ht="15.75" customHeight="1" s="3"/>
-    <row r="459" ht="15.75" customHeight="1" s="3"/>
-    <row r="460" ht="15.75" customHeight="1" s="3"/>
-    <row r="461" ht="15.75" customHeight="1" s="3"/>
-    <row r="462" ht="15.75" customHeight="1" s="3"/>
-    <row r="463" ht="15.75" customHeight="1" s="3"/>
-    <row r="464" ht="15.75" customHeight="1" s="3"/>
-    <row r="465" ht="15.75" customHeight="1" s="3"/>
-    <row r="466" ht="15.75" customHeight="1" s="3"/>
-    <row r="467" ht="15.75" customHeight="1" s="3"/>
-    <row r="468" ht="15.75" customHeight="1" s="3"/>
-    <row r="469" ht="15.75" customHeight="1" s="3"/>
-    <row r="470" ht="15.75" customHeight="1" s="3"/>
-    <row r="471" ht="15.75" customHeight="1" s="3"/>
-    <row r="472" ht="15.75" customHeight="1" s="3"/>
-    <row r="473" ht="15.75" customHeight="1" s="3"/>
-    <row r="474" ht="15.75" customHeight="1" s="3"/>
-    <row r="475" ht="15.75" customHeight="1" s="3"/>
-    <row r="476" ht="15.75" customHeight="1" s="3"/>
-    <row r="477" ht="15.75" customHeight="1" s="3"/>
-    <row r="478" ht="15.75" customHeight="1" s="3"/>
-    <row r="479" ht="15.75" customHeight="1" s="3"/>
-    <row r="480" ht="15.75" customHeight="1" s="3"/>
-    <row r="481" ht="15.75" customHeight="1" s="3"/>
-    <row r="482" ht="15.75" customHeight="1" s="3"/>
-    <row r="483" ht="15.75" customHeight="1" s="3"/>
-    <row r="484" ht="15.75" customHeight="1" s="3"/>
-    <row r="485" ht="15.75" customHeight="1" s="3"/>
-    <row r="486" ht="15.75" customHeight="1" s="3"/>
-    <row r="487" ht="15.75" customHeight="1" s="3"/>
-    <row r="488" ht="15.75" customHeight="1" s="3"/>
-    <row r="489" ht="15.75" customHeight="1" s="3"/>
-    <row r="490" ht="15.75" customHeight="1" s="3"/>
-    <row r="491" ht="15.75" customHeight="1" s="3"/>
-    <row r="492" ht="15.75" customHeight="1" s="3"/>
-    <row r="493" ht="15.75" customHeight="1" s="3"/>
-    <row r="494" ht="15.75" customHeight="1" s="3"/>
-    <row r="495" ht="15.75" customHeight="1" s="3"/>
-    <row r="496" ht="15.75" customHeight="1" s="3"/>
-    <row r="497" ht="15.75" customHeight="1" s="3"/>
-    <row r="498" ht="15.75" customHeight="1" s="3"/>
-    <row r="499" ht="15.75" customHeight="1" s="3"/>
-    <row r="500" ht="15.75" customHeight="1" s="3"/>
-    <row r="501" ht="15.75" customHeight="1" s="3"/>
-    <row r="502" ht="15.75" customHeight="1" s="3"/>
-    <row r="503" ht="15.75" customHeight="1" s="3"/>
-    <row r="504" ht="15.75" customHeight="1" s="3"/>
-    <row r="505" ht="15.75" customHeight="1" s="3"/>
-    <row r="506" ht="15.75" customHeight="1" s="3"/>
-    <row r="507" ht="15.75" customHeight="1" s="3"/>
-    <row r="508" ht="15.75" customHeight="1" s="3"/>
-    <row r="509" ht="15.75" customHeight="1" s="3"/>
-    <row r="510" ht="15.75" customHeight="1" s="3"/>
-    <row r="511" ht="15.75" customHeight="1" s="3"/>
-    <row r="512" ht="15.75" customHeight="1" s="3"/>
-    <row r="513" ht="15.75" customHeight="1" s="3"/>
-    <row r="514" ht="15.75" customHeight="1" s="3"/>
-    <row r="515" ht="15.75" customHeight="1" s="3"/>
-    <row r="516" ht="15.75" customHeight="1" s="3"/>
-    <row r="517" ht="15.75" customHeight="1" s="3"/>
-    <row r="518" ht="15.75" customHeight="1" s="3"/>
-    <row r="519" ht="15.75" customHeight="1" s="3"/>
-    <row r="520" ht="15.75" customHeight="1" s="3"/>
-    <row r="521" ht="15.75" customHeight="1" s="3"/>
-    <row r="522" ht="15.75" customHeight="1" s="3"/>
-    <row r="523" ht="15.75" customHeight="1" s="3"/>
-    <row r="524" ht="15.75" customHeight="1" s="3"/>
-    <row r="525" ht="15.75" customHeight="1" s="3"/>
-    <row r="526" ht="15.75" customHeight="1" s="3"/>
-    <row r="527" ht="15.75" customHeight="1" s="3"/>
-    <row r="528" ht="15.75" customHeight="1" s="3"/>
-    <row r="529" ht="15.75" customHeight="1" s="3"/>
-    <row r="530" ht="15.75" customHeight="1" s="3"/>
-    <row r="531" ht="15.75" customHeight="1" s="3"/>
-    <row r="532" ht="15.75" customHeight="1" s="3"/>
-    <row r="533" ht="15.75" customHeight="1" s="3"/>
-    <row r="534" ht="15.75" customHeight="1" s="3"/>
-    <row r="535" ht="15.75" customHeight="1" s="3"/>
-    <row r="536" ht="15.75" customHeight="1" s="3"/>
-    <row r="537" ht="15.75" customHeight="1" s="3"/>
-    <row r="538" ht="15.75" customHeight="1" s="3"/>
-    <row r="539" ht="15.75" customHeight="1" s="3"/>
-    <row r="540" ht="15.75" customHeight="1" s="3"/>
-    <row r="541" ht="15.75" customHeight="1" s="3"/>
-    <row r="542" ht="15.75" customHeight="1" s="3"/>
-    <row r="543" ht="15.75" customHeight="1" s="3"/>
-    <row r="544" ht="15.75" customHeight="1" s="3"/>
-    <row r="545" ht="15.75" customHeight="1" s="3"/>
-    <row r="546" ht="15.75" customHeight="1" s="3"/>
-    <row r="547" ht="15.75" customHeight="1" s="3"/>
-    <row r="548" ht="15.75" customHeight="1" s="3"/>
-    <row r="549" ht="15.75" customHeight="1" s="3"/>
-    <row r="550" ht="15.75" customHeight="1" s="3"/>
-    <row r="551" ht="15.75" customHeight="1" s="3"/>
-    <row r="552" ht="15.75" customHeight="1" s="3"/>
-    <row r="553" ht="15.75" customHeight="1" s="3"/>
-    <row r="554" ht="15.75" customHeight="1" s="3"/>
-    <row r="555" ht="15.75" customHeight="1" s="3"/>
-    <row r="556" ht="15.75" customHeight="1" s="3"/>
-    <row r="557" ht="15.75" customHeight="1" s="3"/>
-    <row r="558" ht="15.75" customHeight="1" s="3"/>
-    <row r="559" ht="15.75" customHeight="1" s="3"/>
-    <row r="560" ht="15.75" customHeight="1" s="3"/>
-    <row r="561" ht="15.75" customHeight="1" s="3"/>
-    <row r="562" ht="15.75" customHeight="1" s="3"/>
-    <row r="563" ht="15.75" customHeight="1" s="3"/>
-    <row r="564" ht="15.75" customHeight="1" s="3"/>
-    <row r="565" ht="15.75" customHeight="1" s="3"/>
-    <row r="566" ht="15.75" customHeight="1" s="3"/>
-    <row r="567" ht="15.75" customHeight="1" s="3"/>
-    <row r="568" ht="15.75" customHeight="1" s="3"/>
-    <row r="569" ht="15.75" customHeight="1" s="3"/>
-    <row r="570" ht="15.75" customHeight="1" s="3"/>
-    <row r="571" ht="15.75" customHeight="1" s="3"/>
-    <row r="572" ht="15.75" customHeight="1" s="3"/>
-    <row r="573" ht="15.75" customHeight="1" s="3"/>
-    <row r="574" ht="15.75" customHeight="1" s="3"/>
-    <row r="575" ht="15.75" customHeight="1" s="3"/>
-    <row r="576" ht="15.75" customHeight="1" s="3"/>
-    <row r="577" ht="15.75" customHeight="1" s="3"/>
-    <row r="578" ht="15.75" customHeight="1" s="3"/>
-    <row r="579" ht="15.75" customHeight="1" s="3"/>
-    <row r="580" ht="15.75" customHeight="1" s="3"/>
-    <row r="581" ht="15.75" customHeight="1" s="3"/>
-    <row r="582" ht="15.75" customHeight="1" s="3"/>
-    <row r="583" ht="15.75" customHeight="1" s="3"/>
-    <row r="584" ht="15.75" customHeight="1" s="3"/>
-    <row r="585" ht="15.75" customHeight="1" s="3"/>
-    <row r="586" ht="15.75" customHeight="1" s="3"/>
-    <row r="587" ht="15.75" customHeight="1" s="3"/>
-    <row r="588" ht="15.75" customHeight="1" s="3"/>
-    <row r="589" ht="15.75" customHeight="1" s="3"/>
-    <row r="590" ht="15.75" customHeight="1" s="3"/>
-    <row r="591" ht="15.75" customHeight="1" s="3"/>
-    <row r="592" ht="15.75" customHeight="1" s="3"/>
-    <row r="593" ht="15.75" customHeight="1" s="3"/>
-    <row r="594" ht="15.75" customHeight="1" s="3"/>
-    <row r="595" ht="15.75" customHeight="1" s="3"/>
-    <row r="596" ht="15.75" customHeight="1" s="3"/>
-    <row r="597" ht="15.75" customHeight="1" s="3"/>
-    <row r="598" ht="15.75" customHeight="1" s="3"/>
-    <row r="599" ht="15.75" customHeight="1" s="3"/>
-    <row r="600" ht="15.75" customHeight="1" s="3"/>
-    <row r="601" ht="15.75" customHeight="1" s="3"/>
-    <row r="602" ht="15.75" customHeight="1" s="3"/>
-    <row r="603" ht="15.75" customHeight="1" s="3"/>
-    <row r="604" ht="15.75" customHeight="1" s="3"/>
-    <row r="605" ht="15.75" customHeight="1" s="3"/>
-    <row r="606" ht="15.75" customHeight="1" s="3"/>
-    <row r="607" ht="15.75" customHeight="1" s="3"/>
-    <row r="608" ht="15.75" customHeight="1" s="3"/>
-    <row r="609" ht="15.75" customHeight="1" s="3"/>
-    <row r="610" ht="15.75" customHeight="1" s="3"/>
-    <row r="611" ht="15.75" customHeight="1" s="3"/>
-    <row r="612" ht="15.75" customHeight="1" s="3"/>
-    <row r="613" ht="15.75" customHeight="1" s="3"/>
-    <row r="614" ht="15.75" customHeight="1" s="3"/>
-    <row r="615" ht="15.75" customHeight="1" s="3"/>
-    <row r="616" ht="15.75" customHeight="1" s="3"/>
-    <row r="617" ht="15.75" customHeight="1" s="3"/>
-    <row r="618" ht="15.75" customHeight="1" s="3"/>
-    <row r="619" ht="15.75" customHeight="1" s="3"/>
-    <row r="620" ht="15.75" customHeight="1" s="3"/>
-    <row r="621" ht="15.75" customHeight="1" s="3"/>
-    <row r="622" ht="15.75" customHeight="1" s="3"/>
-    <row r="623" ht="15.75" customHeight="1" s="3"/>
-    <row r="624" ht="15.75" customHeight="1" s="3"/>
-    <row r="625" ht="15.75" customHeight="1" s="3"/>
-    <row r="626" ht="15.75" customHeight="1" s="3"/>
-    <row r="627" ht="15.75" customHeight="1" s="3"/>
-    <row r="628" ht="15.75" customHeight="1" s="3"/>
-    <row r="629" ht="15.75" customHeight="1" s="3"/>
-    <row r="630" ht="15.75" customHeight="1" s="3"/>
-    <row r="631" ht="15.75" customHeight="1" s="3"/>
-    <row r="632" ht="15.75" customHeight="1" s="3"/>
-    <row r="633" ht="15.75" customHeight="1" s="3"/>
-    <row r="634" ht="15.75" customHeight="1" s="3"/>
-    <row r="635" ht="15.75" customHeight="1" s="3"/>
-    <row r="636" ht="15.75" customHeight="1" s="3"/>
-    <row r="637" ht="15.75" customHeight="1" s="3"/>
-    <row r="638" ht="15.75" customHeight="1" s="3"/>
-    <row r="639" ht="15.75" customHeight="1" s="3"/>
-    <row r="640" ht="15.75" customHeight="1" s="3"/>
-    <row r="641" ht="15.75" customHeight="1" s="3"/>
-    <row r="642" ht="15.75" customHeight="1" s="3"/>
-    <row r="643" ht="15.75" customHeight="1" s="3"/>
-    <row r="644" ht="15.75" customHeight="1" s="3"/>
-    <row r="645" ht="15.75" customHeight="1" s="3"/>
-    <row r="646" ht="15.75" customHeight="1" s="3"/>
-    <row r="647" ht="15.75" customHeight="1" s="3"/>
-    <row r="648" ht="15.75" customHeight="1" s="3"/>
-    <row r="649" ht="15.75" customHeight="1" s="3"/>
-    <row r="650" ht="15.75" customHeight="1" s="3"/>
-    <row r="651" ht="15.75" customHeight="1" s="3"/>
-    <row r="652" ht="15.75" customHeight="1" s="3"/>
-    <row r="653" ht="15.75" customHeight="1" s="3"/>
-    <row r="654" ht="15.75" customHeight="1" s="3"/>
-    <row r="655" ht="15.75" customHeight="1" s="3"/>
-    <row r="656" ht="15.75" customHeight="1" s="3"/>
-    <row r="657" ht="15.75" customHeight="1" s="3"/>
-    <row r="658" ht="15.75" customHeight="1" s="3"/>
-    <row r="659" ht="15.75" customHeight="1" s="3"/>
-    <row r="660" ht="15.75" customHeight="1" s="3"/>
-    <row r="661" ht="15.75" customHeight="1" s="3"/>
-    <row r="662" ht="15.75" customHeight="1" s="3"/>
-    <row r="663" ht="15.75" customHeight="1" s="3"/>
-    <row r="664" ht="15.75" customHeight="1" s="3"/>
-    <row r="665" ht="15.75" customHeight="1" s="3"/>
-    <row r="666" ht="15.75" customHeight="1" s="3"/>
-    <row r="667" ht="15.75" customHeight="1" s="3"/>
-    <row r="668" ht="15.75" customHeight="1" s="3"/>
-    <row r="669" ht="15.75" customHeight="1" s="3"/>
-    <row r="670" ht="15.75" customHeight="1" s="3"/>
-    <row r="671" ht="15.75" customHeight="1" s="3"/>
-    <row r="672" ht="15.75" customHeight="1" s="3"/>
-    <row r="673" ht="15.75" customHeight="1" s="3"/>
-    <row r="674" ht="15.75" customHeight="1" s="3"/>
-    <row r="675" ht="15.75" customHeight="1" s="3"/>
-    <row r="676" ht="15.75" customHeight="1" s="3"/>
-    <row r="677" ht="15.75" customHeight="1" s="3"/>
-    <row r="678" ht="15.75" customHeight="1" s="3"/>
-    <row r="679" ht="15.75" customHeight="1" s="3"/>
-    <row r="680" ht="15.75" customHeight="1" s="3"/>
-    <row r="681" ht="15.75" customHeight="1" s="3"/>
-    <row r="682" ht="15.75" customHeight="1" s="3"/>
-    <row r="683" ht="15.75" customHeight="1" s="3"/>
-    <row r="684" ht="15.75" customHeight="1" s="3"/>
-    <row r="685" ht="15.75" customHeight="1" s="3"/>
-    <row r="686" ht="15.75" customHeight="1" s="3"/>
-    <row r="687" ht="15.75" customHeight="1" s="3"/>
-    <row r="688" ht="15.75" customHeight="1" s="3"/>
-    <row r="689" ht="15.75" customHeight="1" s="3"/>
-    <row r="690" ht="15.75" customHeight="1" s="3"/>
-    <row r="691" ht="15.75" customHeight="1" s="3"/>
-    <row r="692" ht="15.75" customHeight="1" s="3"/>
-    <row r="693" ht="15.75" customHeight="1" s="3"/>
-    <row r="694" ht="15.75" customHeight="1" s="3"/>
-    <row r="695" ht="15.75" customHeight="1" s="3"/>
-    <row r="696" ht="15.75" customHeight="1" s="3"/>
-    <row r="697" ht="15.75" customHeight="1" s="3"/>
-    <row r="698" ht="15.75" customHeight="1" s="3"/>
-    <row r="699" ht="15.75" customHeight="1" s="3"/>
-    <row r="700" ht="15.75" customHeight="1" s="3"/>
-    <row r="701" ht="15.75" customHeight="1" s="3"/>
-    <row r="702" ht="15.75" customHeight="1" s="3"/>
-    <row r="703" ht="15.75" customHeight="1" s="3"/>
-    <row r="704" ht="15.75" customHeight="1" s="3"/>
-    <row r="705" ht="15.75" customHeight="1" s="3"/>
-    <row r="706" ht="15.75" customHeight="1" s="3"/>
-    <row r="707" ht="15.75" customHeight="1" s="3"/>
-    <row r="708" ht="15.75" customHeight="1" s="3"/>
-    <row r="709" ht="15.75" customHeight="1" s="3"/>
-    <row r="710" ht="15.75" customHeight="1" s="3"/>
-    <row r="711" ht="15.75" customHeight="1" s="3"/>
-    <row r="712" ht="15.75" customHeight="1" s="3"/>
-    <row r="713" ht="15.75" customHeight="1" s="3"/>
-    <row r="714" ht="15.75" customHeight="1" s="3"/>
-    <row r="715" ht="15.75" customHeight="1" s="3"/>
-    <row r="716" ht="15.75" customHeight="1" s="3"/>
-    <row r="717" ht="15.75" customHeight="1" s="3"/>
-    <row r="718" ht="15.75" customHeight="1" s="3"/>
-    <row r="719" ht="15.75" customHeight="1" s="3"/>
-    <row r="720" ht="15.75" customHeight="1" s="3"/>
-    <row r="721" ht="15.75" customHeight="1" s="3"/>
-    <row r="722" ht="15.75" customHeight="1" s="3"/>
-    <row r="723" ht="15.75" customHeight="1" s="3"/>
-    <row r="724" ht="15.75" customHeight="1" s="3"/>
-    <row r="725" ht="15.75" customHeight="1" s="3"/>
-    <row r="726" ht="15.75" customHeight="1" s="3"/>
-    <row r="727" ht="15.75" customHeight="1" s="3"/>
-    <row r="728" ht="15.75" customHeight="1" s="3"/>
-    <row r="729" ht="15.75" customHeight="1" s="3"/>
-    <row r="730" ht="15.75" customHeight="1" s="3"/>
-    <row r="731" ht="15.75" customHeight="1" s="3"/>
-    <row r="732" ht="15.75" customHeight="1" s="3"/>
-    <row r="733" ht="15.75" customHeight="1" s="3"/>
-    <row r="734" ht="15.75" customHeight="1" s="3"/>
-    <row r="735" ht="15.75" customHeight="1" s="3"/>
-    <row r="736" ht="15.75" customHeight="1" s="3"/>
-    <row r="737" ht="15.75" customHeight="1" s="3"/>
-    <row r="738" ht="15.75" customHeight="1" s="3"/>
-    <row r="739" ht="15.75" customHeight="1" s="3"/>
-    <row r="740" ht="15.75" customHeight="1" s="3"/>
-    <row r="741" ht="15.75" customHeight="1" s="3"/>
-    <row r="742" ht="15.75" customHeight="1" s="3"/>
-    <row r="743" ht="15.75" customHeight="1" s="3"/>
-    <row r="744" ht="15.75" customHeight="1" s="3"/>
-    <row r="745" ht="15.75" customHeight="1" s="3"/>
-    <row r="746" ht="15.75" customHeight="1" s="3"/>
-    <row r="747" ht="15.75" customHeight="1" s="3"/>
-    <row r="748" ht="15.75" customHeight="1" s="3"/>
-    <row r="749" ht="15.75" customHeight="1" s="3"/>
-    <row r="750" ht="15.75" customHeight="1" s="3"/>
-    <row r="751" ht="15.75" customHeight="1" s="3"/>
-    <row r="752" ht="15.75" customHeight="1" s="3"/>
-    <row r="753" ht="15.75" customHeight="1" s="3"/>
-    <row r="754" ht="15.75" customHeight="1" s="3"/>
-    <row r="755" ht="15.75" customHeight="1" s="3"/>
-    <row r="756" ht="15.75" customHeight="1" s="3"/>
-    <row r="757" ht="15.75" customHeight="1" s="3"/>
-    <row r="758" ht="15.75" customHeight="1" s="3"/>
-    <row r="759" ht="15.75" customHeight="1" s="3"/>
-    <row r="760" ht="15.75" customHeight="1" s="3"/>
-    <row r="761" ht="15.75" customHeight="1" s="3"/>
-    <row r="762" ht="15.75" customHeight="1" s="3"/>
-    <row r="763" ht="15.75" customHeight="1" s="3"/>
-    <row r="764" ht="15.75" customHeight="1" s="3"/>
-    <row r="765" ht="15.75" customHeight="1" s="3"/>
-    <row r="766" ht="15.75" customHeight="1" s="3"/>
-    <row r="767" ht="15.75" customHeight="1" s="3"/>
-    <row r="768" ht="15.75" customHeight="1" s="3"/>
-    <row r="769" ht="15.75" customHeight="1" s="3"/>
-    <row r="770" ht="15.75" customHeight="1" s="3"/>
-    <row r="771" ht="15.75" customHeight="1" s="3"/>
-    <row r="772" ht="15.75" customHeight="1" s="3"/>
-    <row r="773" ht="15.75" customHeight="1" s="3"/>
-    <row r="774" ht="15.75" customHeight="1" s="3"/>
-    <row r="775" ht="15.75" customHeight="1" s="3"/>
-    <row r="776" ht="15.75" customHeight="1" s="3"/>
-    <row r="777" ht="15.75" customHeight="1" s="3"/>
-    <row r="778" ht="15.75" customHeight="1" s="3"/>
-    <row r="779" ht="15.75" customHeight="1" s="3"/>
-    <row r="780" ht="15.75" customHeight="1" s="3"/>
-    <row r="781" ht="15.75" customHeight="1" s="3"/>
-    <row r="782" ht="15.75" customHeight="1" s="3"/>
-    <row r="783" ht="15.75" customHeight="1" s="3"/>
-    <row r="784" ht="15.75" customHeight="1" s="3"/>
-    <row r="785" ht="15.75" customHeight="1" s="3"/>
-    <row r="786" ht="15.75" customHeight="1" s="3"/>
-    <row r="787" ht="15.75" customHeight="1" s="3"/>
-    <row r="788" ht="15.75" customHeight="1" s="3"/>
-    <row r="789" ht="15.75" customHeight="1" s="3"/>
-    <row r="790" ht="15.75" customHeight="1" s="3"/>
-    <row r="791" ht="15.75" customHeight="1" s="3"/>
-    <row r="792" ht="15.75" customHeight="1" s="3"/>
-    <row r="793" ht="15.75" customHeight="1" s="3"/>
-    <row r="794" ht="15.75" customHeight="1" s="3"/>
-    <row r="795" ht="15.75" customHeight="1" s="3"/>
-    <row r="796" ht="15.75" customHeight="1" s="3"/>
-    <row r="797" ht="15.75" customHeight="1" s="3"/>
-    <row r="798" ht="15.75" customHeight="1" s="3"/>
-    <row r="799" ht="15.75" customHeight="1" s="3"/>
-    <row r="800" ht="15.75" customHeight="1" s="3"/>
-    <row r="801" ht="15.75" customHeight="1" s="3"/>
-    <row r="802" ht="15.75" customHeight="1" s="3"/>
-    <row r="803" ht="15.75" customHeight="1" s="3"/>
-    <row r="804" ht="15.75" customHeight="1" s="3"/>
-    <row r="805" ht="15.75" customHeight="1" s="3"/>
-    <row r="806" ht="15.75" customHeight="1" s="3"/>
-    <row r="807" ht="15.75" customHeight="1" s="3"/>
-    <row r="808" ht="15.75" customHeight="1" s="3"/>
-    <row r="809" ht="15.75" customHeight="1" s="3"/>
-    <row r="810" ht="15.75" customHeight="1" s="3"/>
-    <row r="811" ht="15.75" customHeight="1" s="3"/>
-    <row r="812" ht="15.75" customHeight="1" s="3"/>
-    <row r="813" ht="15.75" customHeight="1" s="3"/>
-    <row r="814" ht="15.75" customHeight="1" s="3"/>
-    <row r="815" ht="15.75" customHeight="1" s="3"/>
-    <row r="816" ht="15.75" customHeight="1" s="3"/>
-    <row r="817" ht="15.75" customHeight="1" s="3"/>
-    <row r="818" ht="15.75" customHeight="1" s="3"/>
-    <row r="819" ht="15.75" customHeight="1" s="3"/>
-    <row r="820" ht="15.75" customHeight="1" s="3"/>
-    <row r="821" ht="15.75" customHeight="1" s="3"/>
-    <row r="822" ht="15.75" customHeight="1" s="3"/>
-    <row r="823" ht="15.75" customHeight="1" s="3"/>
-    <row r="824" ht="15.75" customHeight="1" s="3"/>
-    <row r="825" ht="15.75" customHeight="1" s="3"/>
-    <row r="826" ht="15.75" customHeight="1" s="3"/>
-    <row r="827" ht="15.75" customHeight="1" s="3"/>
-    <row r="828" ht="15.75" customHeight="1" s="3"/>
-    <row r="829" ht="15.75" customHeight="1" s="3"/>
-    <row r="830" ht="15.75" customHeight="1" s="3"/>
-    <row r="831" ht="15.75" customHeight="1" s="3"/>
-    <row r="832" ht="15.75" customHeight="1" s="3"/>
-    <row r="833" ht="15.75" customHeight="1" s="3"/>
-    <row r="834" ht="15.75" customHeight="1" s="3"/>
-    <row r="835" ht="15.75" customHeight="1" s="3"/>
-    <row r="836" ht="15.75" customHeight="1" s="3"/>
-    <row r="837" ht="15.75" customHeight="1" s="3"/>
-    <row r="838" ht="15.75" customHeight="1" s="3"/>
-    <row r="839" ht="15.75" customHeight="1" s="3"/>
-    <row r="840" ht="15.75" customHeight="1" s="3"/>
-    <row r="841" ht="15.75" customHeight="1" s="3"/>
-    <row r="842" ht="15.75" customHeight="1" s="3"/>
-    <row r="843" ht="15.75" customHeight="1" s="3"/>
-    <row r="844" ht="15.75" customHeight="1" s="3"/>
-    <row r="845" ht="15.75" customHeight="1" s="3"/>
-    <row r="846" ht="15.75" customHeight="1" s="3"/>
-    <row r="847" ht="15.75" customHeight="1" s="3"/>
-    <row r="848" ht="15.75" customHeight="1" s="3"/>
-    <row r="849" ht="15.75" customHeight="1" s="3"/>
-    <row r="850" ht="15.75" customHeight="1" s="3"/>
-    <row r="851" ht="15.75" customHeight="1" s="3"/>
-    <row r="852" ht="15.75" customHeight="1" s="3"/>
-    <row r="853" ht="15.75" customHeight="1" s="3"/>
-    <row r="854" ht="15.75" customHeight="1" s="3"/>
-    <row r="855" ht="15.75" customHeight="1" s="3"/>
-    <row r="856" ht="15.75" customHeight="1" s="3"/>
-    <row r="857" ht="15.75" customHeight="1" s="3"/>
-    <row r="858" ht="15.75" customHeight="1" s="3"/>
-    <row r="859" ht="15.75" customHeight="1" s="3"/>
-    <row r="860" ht="15.75" customHeight="1" s="3"/>
-    <row r="861" ht="15.75" customHeight="1" s="3"/>
-    <row r="862" ht="15.75" customHeight="1" s="3"/>
-    <row r="863" ht="15.75" customHeight="1" s="3"/>
-    <row r="864" ht="15.75" customHeight="1" s="3"/>
-    <row r="865" ht="15.75" customHeight="1" s="3"/>
-    <row r="866" ht="15.75" customHeight="1" s="3"/>
-    <row r="867" ht="15.75" customHeight="1" s="3"/>
-    <row r="868" ht="15.75" customHeight="1" s="3"/>
-    <row r="869" ht="15.75" customHeight="1" s="3"/>
-    <row r="870" ht="15.75" customHeight="1" s="3"/>
-    <row r="871" ht="15.75" customHeight="1" s="3"/>
-    <row r="872" ht="15.75" customHeight="1" s="3"/>
-    <row r="873" ht="15.75" customHeight="1" s="3"/>
-    <row r="874" ht="15.75" customHeight="1" s="3"/>
-    <row r="875" ht="15.75" customHeight="1" s="3"/>
-    <row r="876" ht="15.75" customHeight="1" s="3"/>
-    <row r="877" ht="15.75" customHeight="1" s="3"/>
-    <row r="878" ht="15.75" customHeight="1" s="3"/>
-    <row r="879" ht="15.75" customHeight="1" s="3"/>
-    <row r="880" ht="15.75" customHeight="1" s="3"/>
-    <row r="881" ht="15.75" customHeight="1" s="3"/>
-    <row r="882" ht="15.75" customHeight="1" s="3"/>
-    <row r="883" ht="15.75" customHeight="1" s="3"/>
-    <row r="884" ht="15.75" customHeight="1" s="3"/>
-    <row r="885" ht="15.75" customHeight="1" s="3"/>
-    <row r="886" ht="15.75" customHeight="1" s="3"/>
-    <row r="887" ht="15.75" customHeight="1" s="3"/>
-    <row r="888" ht="15.75" customHeight="1" s="3"/>
-    <row r="889" ht="15.75" customHeight="1" s="3"/>
-    <row r="890" ht="15.75" customHeight="1" s="3"/>
-    <row r="891" ht="15.75" customHeight="1" s="3"/>
-    <row r="892" ht="15.75" customHeight="1" s="3"/>
-    <row r="893" ht="15.75" customHeight="1" s="3"/>
-    <row r="894" ht="15.75" customHeight="1" s="3"/>
-    <row r="895" ht="15.75" customHeight="1" s="3"/>
-    <row r="896" ht="15.75" customHeight="1" s="3"/>
-    <row r="897" ht="15.75" customHeight="1" s="3"/>
-    <row r="898" ht="15.75" customHeight="1" s="3"/>
-    <row r="899" ht="15.75" customHeight="1" s="3"/>
-    <row r="900" ht="15.75" customHeight="1" s="3"/>
-    <row r="901" ht="15.75" customHeight="1" s="3"/>
-    <row r="902" ht="15.75" customHeight="1" s="3"/>
-    <row r="903" ht="15.75" customHeight="1" s="3"/>
-    <row r="904" ht="15.75" customHeight="1" s="3"/>
-    <row r="905" ht="15.75" customHeight="1" s="3"/>
-    <row r="906" ht="15.75" customHeight="1" s="3"/>
-    <row r="907" ht="15.75" customHeight="1" s="3"/>
-    <row r="908" ht="15.75" customHeight="1" s="3"/>
-    <row r="909" ht="15.75" customHeight="1" s="3"/>
-    <row r="910" ht="15.75" customHeight="1" s="3"/>
-    <row r="911" ht="15.75" customHeight="1" s="3"/>
-    <row r="912" ht="15.75" customHeight="1" s="3"/>
-    <row r="913" ht="15.75" customHeight="1" s="3"/>
-    <row r="914" ht="15.75" customHeight="1" s="3"/>
-    <row r="915" ht="15.75" customHeight="1" s="3"/>
-    <row r="916" ht="15.75" customHeight="1" s="3"/>
-    <row r="917" ht="15.75" customHeight="1" s="3"/>
-    <row r="918" ht="15.75" customHeight="1" s="3"/>
-    <row r="919" ht="15.75" customHeight="1" s="3"/>
-    <row r="920" ht="15.75" customHeight="1" s="3"/>
-    <row r="921" ht="15.75" customHeight="1" s="3"/>
-    <row r="922" ht="15.75" customHeight="1" s="3"/>
-    <row r="923" ht="15.75" customHeight="1" s="3"/>
-    <row r="924" ht="15.75" customHeight="1" s="3"/>
-    <row r="925" ht="15.75" customHeight="1" s="3"/>
-    <row r="926" ht="15.75" customHeight="1" s="3"/>
-    <row r="927" ht="15.75" customHeight="1" s="3"/>
-    <row r="928" ht="15.75" customHeight="1" s="3"/>
-    <row r="929" ht="15.75" customHeight="1" s="3"/>
-    <row r="930" ht="15.75" customHeight="1" s="3"/>
-    <row r="931" ht="15.75" customHeight="1" s="3"/>
-    <row r="932" ht="15.75" customHeight="1" s="3"/>
-    <row r="933" ht="15.75" customHeight="1" s="3"/>
-    <row r="934" ht="15.75" customHeight="1" s="3"/>
-    <row r="935" ht="15.75" customHeight="1" s="3"/>
-    <row r="936" ht="15.75" customHeight="1" s="3"/>
-    <row r="937" ht="15.75" customHeight="1" s="3"/>
-    <row r="938" ht="15.75" customHeight="1" s="3"/>
-    <row r="939" ht="15.75" customHeight="1" s="3"/>
-    <row r="940" ht="15.75" customHeight="1" s="3"/>
-    <row r="941" ht="15.75" customHeight="1" s="3"/>
-    <row r="942" ht="15.75" customHeight="1" s="3"/>
-    <row r="943" ht="15.75" customHeight="1" s="3"/>
-    <row r="944" ht="15.75" customHeight="1" s="3"/>
-    <row r="945" ht="15.75" customHeight="1" s="3"/>
-    <row r="946" ht="15.75" customHeight="1" s="3"/>
-    <row r="947" ht="15.75" customHeight="1" s="3"/>
-    <row r="948" ht="15.75" customHeight="1" s="3"/>
-    <row r="949" ht="15.75" customHeight="1" s="3"/>
-    <row r="950" ht="15.75" customHeight="1" s="3"/>
-    <row r="951" ht="15.75" customHeight="1" s="3"/>
-    <row r="952" ht="15.75" customHeight="1" s="3"/>
-    <row r="953" ht="15.75" customHeight="1" s="3"/>
-    <row r="954" ht="15.75" customHeight="1" s="3"/>
-    <row r="955" ht="15.75" customHeight="1" s="3"/>
-    <row r="956" ht="15.75" customHeight="1" s="3"/>
-    <row r="957" ht="15.75" customHeight="1" s="3"/>
-    <row r="958" ht="15.75" customHeight="1" s="3"/>
-    <row r="959" ht="15.75" customHeight="1" s="3"/>
-    <row r="960" ht="15.75" customHeight="1" s="3"/>
-    <row r="961" ht="15.75" customHeight="1" s="3"/>
-    <row r="962" ht="15.75" customHeight="1" s="3"/>
-    <row r="963" ht="15.75" customHeight="1" s="3"/>
-    <row r="964" ht="15.75" customHeight="1" s="3"/>
-    <row r="965" ht="15.75" customHeight="1" s="3"/>
-    <row r="966" ht="15.75" customHeight="1" s="3"/>
-    <row r="967" ht="15.75" customHeight="1" s="3"/>
-    <row r="968" ht="15.75" customHeight="1" s="3"/>
-    <row r="969" ht="15.75" customHeight="1" s="3"/>
-    <row r="970" ht="15.75" customHeight="1" s="3"/>
-    <row r="971" ht="15.75" customHeight="1" s="3"/>
-    <row r="972" ht="15.75" customHeight="1" s="3"/>
-    <row r="973" ht="15.75" customHeight="1" s="3"/>
-    <row r="974" ht="15.75" customHeight="1" s="3"/>
-    <row r="975" ht="15.75" customHeight="1" s="3"/>
-    <row r="976" ht="15.75" customHeight="1" s="3"/>
-    <row r="977" ht="15.75" customHeight="1" s="3"/>
-    <row r="978" ht="15.75" customHeight="1" s="3"/>
-    <row r="979" ht="15.75" customHeight="1" s="3"/>
-    <row r="980" ht="15.75" customHeight="1" s="3"/>
-    <row r="981" ht="15.75" customHeight="1" s="3"/>
-    <row r="982" ht="15.75" customHeight="1" s="3"/>
-    <row r="983" ht="15.75" customHeight="1" s="3"/>
-    <row r="984" ht="15.75" customHeight="1" s="3"/>
-    <row r="985" ht="15.75" customHeight="1" s="3"/>
-    <row r="986" ht="15.75" customHeight="1" s="3"/>
-    <row r="987" ht="15.75" customHeight="1" s="3"/>
-    <row r="988" ht="15.75" customHeight="1" s="3"/>
-    <row r="989" ht="15.75" customHeight="1" s="3"/>
-    <row r="990" ht="15.75" customHeight="1" s="3"/>
-    <row r="991" ht="15.75" customHeight="1" s="3"/>
-    <row r="992" ht="15.75" customHeight="1" s="3"/>
-    <row r="993" ht="15.75" customHeight="1" s="3"/>
-    <row r="994" ht="15.75" customHeight="1" s="3"/>
-    <row r="995" ht="15.75" customHeight="1" s="3"/>
-    <row r="996" ht="15.75" customHeight="1" s="3"/>
-    <row r="997" ht="15.75" customHeight="1" s="3"/>
-    <row r="998" ht="15.75" customHeight="1" s="3"/>
-    <row r="999" ht="15.75" customHeight="1" s="3"/>
-    <row r="1000" ht="15.75" customHeight="1" s="3"/>
+    <row r="179" ht="15.75" customHeight="1" s="2"/>
+    <row r="180" ht="15.75" customHeight="1" s="2"/>
+    <row r="181" ht="15.75" customHeight="1" s="2"/>
+    <row r="182" ht="15.75" customHeight="1" s="2"/>
+    <row r="183" ht="15.75" customHeight="1" s="2"/>
+    <row r="184" ht="15.75" customHeight="1" s="2"/>
+    <row r="185" ht="15.75" customHeight="1" s="2"/>
+    <row r="186" ht="15.75" customHeight="1" s="2"/>
+    <row r="187" ht="15.75" customHeight="1" s="2"/>
+    <row r="188" ht="15.75" customHeight="1" s="2"/>
+    <row r="189" ht="15.75" customHeight="1" s="2"/>
+    <row r="190" ht="15.75" customHeight="1" s="2"/>
+    <row r="191" ht="15.75" customHeight="1" s="2"/>
+    <row r="192" ht="15.75" customHeight="1" s="2"/>
+    <row r="193" ht="15.75" customHeight="1" s="2"/>
+    <row r="194" ht="15.75" customHeight="1" s="2"/>
+    <row r="195" ht="15.75" customHeight="1" s="2"/>
+    <row r="196" ht="15.75" customHeight="1" s="2"/>
+    <row r="197" ht="15.75" customHeight="1" s="2"/>
+    <row r="198" ht="15.75" customHeight="1" s="2"/>
+    <row r="199" ht="15.75" customHeight="1" s="2"/>
+    <row r="200" ht="15.75" customHeight="1" s="2"/>
+    <row r="201" ht="15.75" customHeight="1" s="2"/>
+    <row r="202" ht="15.75" customHeight="1" s="2"/>
+    <row r="203" ht="15.75" customHeight="1" s="2"/>
+    <row r="204" ht="15.75" customHeight="1" s="2"/>
+    <row r="205" ht="15.75" customHeight="1" s="2"/>
+    <row r="206" ht="15.75" customHeight="1" s="2"/>
+    <row r="207" ht="15.75" customHeight="1" s="2"/>
+    <row r="208" ht="15.75" customHeight="1" s="2"/>
+    <row r="209" ht="15.75" customHeight="1" s="2"/>
+    <row r="210" ht="15.75" customHeight="1" s="2"/>
+    <row r="211" ht="15.75" customHeight="1" s="2"/>
+    <row r="212" ht="15.75" customHeight="1" s="2"/>
+    <row r="213" ht="15.75" customHeight="1" s="2"/>
+    <row r="214" ht="15.75" customHeight="1" s="2"/>
+    <row r="215" ht="15.75" customHeight="1" s="2"/>
+    <row r="216" ht="15.75" customHeight="1" s="2"/>
+    <row r="217" ht="15.75" customHeight="1" s="2"/>
+    <row r="218" ht="15.75" customHeight="1" s="2"/>
+    <row r="219" ht="15.75" customHeight="1" s="2"/>
+    <row r="220" ht="15.75" customHeight="1" s="2"/>
+    <row r="221" ht="15.75" customHeight="1" s="2"/>
+    <row r="222" ht="15.75" customHeight="1" s="2"/>
+    <row r="223" ht="15.75" customHeight="1" s="2"/>
+    <row r="224" ht="15.75" customHeight="1" s="2"/>
+    <row r="225" ht="15.75" customHeight="1" s="2"/>
+    <row r="226" ht="15.75" customHeight="1" s="2"/>
+    <row r="227" ht="15.75" customHeight="1" s="2"/>
+    <row r="228" ht="15.75" customHeight="1" s="2"/>
+    <row r="229" ht="15.75" customHeight="1" s="2"/>
+    <row r="230" ht="15.75" customHeight="1" s="2"/>
+    <row r="231" ht="15.75" customHeight="1" s="2"/>
+    <row r="232" ht="15.75" customHeight="1" s="2"/>
+    <row r="233" ht="15.75" customHeight="1" s="2"/>
+    <row r="234" ht="15.75" customHeight="1" s="2"/>
+    <row r="235" ht="15.75" customHeight="1" s="2"/>
+    <row r="236" ht="15.75" customHeight="1" s="2"/>
+    <row r="237" ht="15.75" customHeight="1" s="2"/>
+    <row r="238" ht="15.75" customHeight="1" s="2"/>
+    <row r="239" ht="15.75" customHeight="1" s="2"/>
+    <row r="240" ht="15.75" customHeight="1" s="2"/>
+    <row r="241" ht="15.75" customHeight="1" s="2"/>
+    <row r="242" ht="15.75" customHeight="1" s="2"/>
+    <row r="243" ht="15.75" customHeight="1" s="2"/>
+    <row r="244" ht="15.75" customHeight="1" s="2"/>
+    <row r="245" ht="15.75" customHeight="1" s="2"/>
+    <row r="246" ht="15.75" customHeight="1" s="2"/>
+    <row r="247" ht="15.75" customHeight="1" s="2"/>
+    <row r="248" ht="15.75" customHeight="1" s="2"/>
+    <row r="249" ht="15.75" customHeight="1" s="2"/>
+    <row r="250" ht="15.75" customHeight="1" s="2"/>
+    <row r="251" ht="15.75" customHeight="1" s="2"/>
+    <row r="252" ht="15.75" customHeight="1" s="2"/>
+    <row r="253" ht="15.75" customHeight="1" s="2"/>
+    <row r="254" ht="15.75" customHeight="1" s="2"/>
+    <row r="255" ht="15.75" customHeight="1" s="2"/>
+    <row r="256" ht="15.75" customHeight="1" s="2"/>
+    <row r="257" ht="15.75" customHeight="1" s="2"/>
+    <row r="258" ht="15.75" customHeight="1" s="2"/>
+    <row r="259" ht="15.75" customHeight="1" s="2"/>
+    <row r="260" ht="15.75" customHeight="1" s="2"/>
+    <row r="261" ht="15.75" customHeight="1" s="2"/>
+    <row r="262" ht="15.75" customHeight="1" s="2"/>
+    <row r="263" ht="15.75" customHeight="1" s="2"/>
+    <row r="264" ht="15.75" customHeight="1" s="2"/>
+    <row r="265" ht="15.75" customHeight="1" s="2"/>
+    <row r="266" ht="15.75" customHeight="1" s="2"/>
+    <row r="267" ht="15.75" customHeight="1" s="2"/>
+    <row r="268" ht="15.75" customHeight="1" s="2"/>
+    <row r="269" ht="15.75" customHeight="1" s="2"/>
+    <row r="270" ht="15.75" customHeight="1" s="2"/>
+    <row r="271" ht="15.75" customHeight="1" s="2"/>
+    <row r="272" ht="15.75" customHeight="1" s="2"/>
+    <row r="273" ht="15.75" customHeight="1" s="2"/>
+    <row r="274" ht="15.75" customHeight="1" s="2"/>
+    <row r="275" ht="15.75" customHeight="1" s="2"/>
+    <row r="276" ht="15.75" customHeight="1" s="2"/>
+    <row r="277" ht="15.75" customHeight="1" s="2"/>
+    <row r="278" ht="15.75" customHeight="1" s="2"/>
+    <row r="279" ht="15.75" customHeight="1" s="2"/>
+    <row r="280" ht="15.75" customHeight="1" s="2"/>
+    <row r="281" ht="15.75" customHeight="1" s="2"/>
+    <row r="282" ht="15.75" customHeight="1" s="2"/>
+    <row r="283" ht="15.75" customHeight="1" s="2"/>
+    <row r="284" ht="15.75" customHeight="1" s="2"/>
+    <row r="285" ht="15.75" customHeight="1" s="2"/>
+    <row r="286" ht="15.75" customHeight="1" s="2"/>
+    <row r="287" ht="15.75" customHeight="1" s="2"/>
+    <row r="288" ht="15.75" customHeight="1" s="2"/>
+    <row r="289" ht="15.75" customHeight="1" s="2"/>
+    <row r="290" ht="15.75" customHeight="1" s="2"/>
+    <row r="291" ht="15.75" customHeight="1" s="2"/>
+    <row r="292" ht="15.75" customHeight="1" s="2"/>
+    <row r="293" ht="15.75" customHeight="1" s="2"/>
+    <row r="294" ht="15.75" customHeight="1" s="2"/>
+    <row r="295" ht="15.75" customHeight="1" s="2"/>
+    <row r="296" ht="15.75" customHeight="1" s="2"/>
+    <row r="297" ht="15.75" customHeight="1" s="2"/>
+    <row r="298" ht="15.75" customHeight="1" s="2"/>
+    <row r="299" ht="15.75" customHeight="1" s="2"/>
+    <row r="300" ht="15.75" customHeight="1" s="2"/>
+    <row r="301" ht="15.75" customHeight="1" s="2"/>
+    <row r="302" ht="15.75" customHeight="1" s="2"/>
+    <row r="303" ht="15.75" customHeight="1" s="2"/>
+    <row r="304" ht="15.75" customHeight="1" s="2"/>
+    <row r="305" ht="15.75" customHeight="1" s="2"/>
+    <row r="306" ht="15.75" customHeight="1" s="2"/>
+    <row r="307" ht="15.75" customHeight="1" s="2"/>
+    <row r="308" ht="15.75" customHeight="1" s="2"/>
+    <row r="309" ht="15.75" customHeight="1" s="2"/>
+    <row r="310" ht="15.75" customHeight="1" s="2"/>
+    <row r="311" ht="15.75" customHeight="1" s="2"/>
+    <row r="312" ht="15.75" customHeight="1" s="2"/>
+    <row r="313" ht="15.75" customHeight="1" s="2"/>
+    <row r="314" ht="15.75" customHeight="1" s="2"/>
+    <row r="315" ht="15.75" customHeight="1" s="2"/>
+    <row r="316" ht="15.75" customHeight="1" s="2"/>
+    <row r="317" ht="15.75" customHeight="1" s="2"/>
+    <row r="318" ht="15.75" customHeight="1" s="2"/>
+    <row r="319" ht="15.75" customHeight="1" s="2"/>
+    <row r="320" ht="15.75" customHeight="1" s="2"/>
+    <row r="321" ht="15.75" customHeight="1" s="2"/>
+    <row r="322" ht="15.75" customHeight="1" s="2"/>
+    <row r="323" ht="15.75" customHeight="1" s="2"/>
+    <row r="324" ht="15.75" customHeight="1" s="2"/>
+    <row r="325" ht="15.75" customHeight="1" s="2"/>
+    <row r="326" ht="15.75" customHeight="1" s="2"/>
+    <row r="327" ht="15.75" customHeight="1" s="2"/>
+    <row r="328" ht="15.75" customHeight="1" s="2"/>
+    <row r="329" ht="15.75" customHeight="1" s="2"/>
+    <row r="330" ht="15.75" customHeight="1" s="2"/>
+    <row r="331" ht="15.75" customHeight="1" s="2"/>
+    <row r="332" ht="15.75" customHeight="1" s="2"/>
+    <row r="333" ht="15.75" customHeight="1" s="2"/>
+    <row r="334" ht="15.75" customHeight="1" s="2"/>
+    <row r="335" ht="15.75" customHeight="1" s="2"/>
+    <row r="336" ht="15.75" customHeight="1" s="2"/>
+    <row r="337" ht="15.75" customHeight="1" s="2"/>
+    <row r="338" ht="15.75" customHeight="1" s="2"/>
+    <row r="339" ht="15.75" customHeight="1" s="2"/>
+    <row r="340" ht="15.75" customHeight="1" s="2"/>
+    <row r="341" ht="15.75" customHeight="1" s="2"/>
+    <row r="342" ht="15.75" customHeight="1" s="2"/>
+    <row r="343" ht="15.75" customHeight="1" s="2"/>
+    <row r="344" ht="15.75" customHeight="1" s="2"/>
+    <row r="345" ht="15.75" customHeight="1" s="2"/>
+    <row r="346" ht="15.75" customHeight="1" s="2"/>
+    <row r="347" ht="15.75" customHeight="1" s="2"/>
+    <row r="348" ht="15.75" customHeight="1" s="2"/>
+    <row r="349" ht="15.75" customHeight="1" s="2"/>
+    <row r="350" ht="15.75" customHeight="1" s="2"/>
+    <row r="351" ht="15.75" customHeight="1" s="2"/>
+    <row r="352" ht="15.75" customHeight="1" s="2"/>
+    <row r="353" ht="15.75" customHeight="1" s="2"/>
+    <row r="354" ht="15.75" customHeight="1" s="2"/>
+    <row r="355" ht="15.75" customHeight="1" s="2"/>
+    <row r="356" ht="15.75" customHeight="1" s="2"/>
+    <row r="357" ht="15.75" customHeight="1" s="2"/>
+    <row r="358" ht="15.75" customHeight="1" s="2"/>
+    <row r="359" ht="15.75" customHeight="1" s="2"/>
+    <row r="360" ht="15.75" customHeight="1" s="2"/>
+    <row r="361" ht="15.75" customHeight="1" s="2"/>
+    <row r="362" ht="15.75" customHeight="1" s="2"/>
+    <row r="363" ht="15.75" customHeight="1" s="2"/>
+    <row r="364" ht="15.75" customHeight="1" s="2"/>
+    <row r="365" ht="15.75" customHeight="1" s="2"/>
+    <row r="366" ht="15.75" customHeight="1" s="2"/>
+    <row r="367" ht="15.75" customHeight="1" s="2"/>
+    <row r="368" ht="15.75" customHeight="1" s="2"/>
+    <row r="369" ht="15.75" customHeight="1" s="2"/>
+    <row r="370" ht="15.75" customHeight="1" s="2"/>
+    <row r="371" ht="15.75" customHeight="1" s="2"/>
+    <row r="372" ht="15.75" customHeight="1" s="2"/>
+    <row r="373" ht="15.75" customHeight="1" s="2"/>
+    <row r="374" ht="15.75" customHeight="1" s="2"/>
+    <row r="375" ht="15.75" customHeight="1" s="2"/>
+    <row r="376" ht="15.75" customHeight="1" s="2"/>
+    <row r="377" ht="15.75" customHeight="1" s="2"/>
+    <row r="378" ht="15.75" customHeight="1" s="2"/>
+    <row r="379" ht="15.75" customHeight="1" s="2"/>
+    <row r="380" ht="15.75" customHeight="1" s="2"/>
+    <row r="381" ht="15.75" customHeight="1" s="2"/>
+    <row r="382" ht="15.75" customHeight="1" s="2"/>
+    <row r="383" ht="15.75" customHeight="1" s="2"/>
+    <row r="384" ht="15.75" customHeight="1" s="2"/>
+    <row r="385" ht="15.75" customHeight="1" s="2"/>
+    <row r="386" ht="15.75" customHeight="1" s="2"/>
+    <row r="387" ht="15.75" customHeight="1" s="2"/>
+    <row r="388" ht="15.75" customHeight="1" s="2"/>
+    <row r="389" ht="15.75" customHeight="1" s="2"/>
+    <row r="390" ht="15.75" customHeight="1" s="2"/>
+    <row r="391" ht="15.75" customHeight="1" s="2"/>
+    <row r="392" ht="15.75" customHeight="1" s="2"/>
+    <row r="393" ht="15.75" customHeight="1" s="2"/>
+    <row r="394" ht="15.75" customHeight="1" s="2"/>
+    <row r="395" ht="15.75" customHeight="1" s="2"/>
+    <row r="396" ht="15.75" customHeight="1" s="2"/>
+    <row r="397" ht="15.75" customHeight="1" s="2"/>
+    <row r="398" ht="15.75" customHeight="1" s="2"/>
+    <row r="399" ht="15.75" customHeight="1" s="2"/>
+    <row r="400" ht="15.75" customHeight="1" s="2"/>
+    <row r="401" ht="15.75" customHeight="1" s="2"/>
+    <row r="402" ht="15.75" customHeight="1" s="2"/>
+    <row r="403" ht="15.75" customHeight="1" s="2"/>
+    <row r="404" ht="15.75" customHeight="1" s="2"/>
+    <row r="405" ht="15.75" customHeight="1" s="2"/>
+    <row r="406" ht="15.75" customHeight="1" s="2"/>
+    <row r="407" ht="15.75" customHeight="1" s="2"/>
+    <row r="408" ht="15.75" customHeight="1" s="2"/>
+    <row r="409" ht="15.75" customHeight="1" s="2"/>
+    <row r="410" ht="15.75" customHeight="1" s="2"/>
+    <row r="411" ht="15.75" customHeight="1" s="2"/>
+    <row r="412" ht="15.75" customHeight="1" s="2"/>
+    <row r="413" ht="15.75" customHeight="1" s="2"/>
+    <row r="414" ht="15.75" customHeight="1" s="2"/>
+    <row r="415" ht="15.75" customHeight="1" s="2"/>
+    <row r="416" ht="15.75" customHeight="1" s="2"/>
+    <row r="417" ht="15.75" customHeight="1" s="2"/>
+    <row r="418" ht="15.75" customHeight="1" s="2"/>
+    <row r="419" ht="15.75" customHeight="1" s="2"/>
+    <row r="420" ht="15.75" customHeight="1" s="2"/>
+    <row r="421" ht="15.75" customHeight="1" s="2"/>
+    <row r="422" ht="15.75" customHeight="1" s="2"/>
+    <row r="423" ht="15.75" customHeight="1" s="2"/>
+    <row r="424" ht="15.75" customHeight="1" s="2"/>
+    <row r="425" ht="15.75" customHeight="1" s="2"/>
+    <row r="426" ht="15.75" customHeight="1" s="2"/>
+    <row r="427" ht="15.75" customHeight="1" s="2"/>
+    <row r="428" ht="15.75" customHeight="1" s="2"/>
+    <row r="429" ht="15.75" customHeight="1" s="2"/>
+    <row r="430" ht="15.75" customHeight="1" s="2"/>
+    <row r="431" ht="15.75" customHeight="1" s="2"/>
+    <row r="432" ht="15.75" customHeight="1" s="2"/>
+    <row r="433" ht="15.75" customHeight="1" s="2"/>
+    <row r="434" ht="15.75" customHeight="1" s="2"/>
+    <row r="435" ht="15.75" customHeight="1" s="2"/>
+    <row r="436" ht="15.75" customHeight="1" s="2"/>
+    <row r="437" ht="15.75" customHeight="1" s="2"/>
+    <row r="438" ht="15.75" customHeight="1" s="2"/>
+    <row r="439" ht="15.75" customHeight="1" s="2"/>
+    <row r="440" ht="15.75" customHeight="1" s="2"/>
+    <row r="441" ht="15.75" customHeight="1" s="2"/>
+    <row r="442" ht="15.75" customHeight="1" s="2"/>
+    <row r="443" ht="15.75" customHeight="1" s="2"/>
+    <row r="444" ht="15.75" customHeight="1" s="2"/>
+    <row r="445" ht="15.75" customHeight="1" s="2"/>
+    <row r="446" ht="15.75" customHeight="1" s="2"/>
+    <row r="447" ht="15.75" customHeight="1" s="2"/>
+    <row r="448" ht="15.75" customHeight="1" s="2"/>
+    <row r="449" ht="15.75" customHeight="1" s="2"/>
+    <row r="450" ht="15.75" customHeight="1" s="2"/>
+    <row r="451" ht="15.75" customHeight="1" s="2"/>
+    <row r="452" ht="15.75" customHeight="1" s="2"/>
+    <row r="453" ht="15.75" customHeight="1" s="2"/>
+    <row r="454" ht="15.75" customHeight="1" s="2"/>
+    <row r="455" ht="15.75" customHeight="1" s="2"/>
+    <row r="456" ht="15.75" customHeight="1" s="2"/>
+    <row r="457" ht="15.75" customHeight="1" s="2"/>
+    <row r="458" ht="15.75" customHeight="1" s="2"/>
+    <row r="459" ht="15.75" customHeight="1" s="2"/>
+    <row r="460" ht="15.75" customHeight="1" s="2"/>
+    <row r="461" ht="15.75" customHeight="1" s="2"/>
+    <row r="462" ht="15.75" customHeight="1" s="2"/>
+    <row r="463" ht="15.75" customHeight="1" s="2"/>
+    <row r="464" ht="15.75" customHeight="1" s="2"/>
+    <row r="465" ht="15.75" customHeight="1" s="2"/>
+    <row r="466" ht="15.75" customHeight="1" s="2"/>
+    <row r="467" ht="15.75" customHeight="1" s="2"/>
+    <row r="468" ht="15.75" customHeight="1" s="2"/>
+    <row r="469" ht="15.75" customHeight="1" s="2"/>
+    <row r="470" ht="15.75" customHeight="1" s="2"/>
+    <row r="471" ht="15.75" customHeight="1" s="2"/>
+    <row r="472" ht="15.75" customHeight="1" s="2"/>
+    <row r="473" ht="15.75" customHeight="1" s="2"/>
+    <row r="474" ht="15.75" customHeight="1" s="2"/>
+    <row r="475" ht="15.75" customHeight="1" s="2"/>
+    <row r="476" ht="15.75" customHeight="1" s="2"/>
+    <row r="477" ht="15.75" customHeight="1" s="2"/>
+    <row r="478" ht="15.75" customHeight="1" s="2"/>
+    <row r="479" ht="15.75" customHeight="1" s="2"/>
+    <row r="480" ht="15.75" customHeight="1" s="2"/>
+    <row r="481" ht="15.75" customHeight="1" s="2"/>
+    <row r="482" ht="15.75" customHeight="1" s="2"/>
+    <row r="483" ht="15.75" customHeight="1" s="2"/>
+    <row r="484" ht="15.75" customHeight="1" s="2"/>
+    <row r="485" ht="15.75" customHeight="1" s="2"/>
+    <row r="486" ht="15.75" customHeight="1" s="2"/>
+    <row r="487" ht="15.75" customHeight="1" s="2"/>
+    <row r="488" ht="15.75" customHeight="1" s="2"/>
+    <row r="489" ht="15.75" customHeight="1" s="2"/>
+    <row r="490" ht="15.75" customHeight="1" s="2"/>
+    <row r="491" ht="15.75" customHeight="1" s="2"/>
+    <row r="492" ht="15.75" customHeight="1" s="2"/>
+    <row r="493" ht="15.75" customHeight="1" s="2"/>
+    <row r="494" ht="15.75" customHeight="1" s="2"/>
+    <row r="495" ht="15.75" customHeight="1" s="2"/>
+    <row r="496" ht="15.75" customHeight="1" s="2"/>
+    <row r="497" ht="15.75" customHeight="1" s="2"/>
+    <row r="498" ht="15.75" customHeight="1" s="2"/>
+    <row r="499" ht="15.75" customHeight="1" s="2"/>
+    <row r="500" ht="15.75" customHeight="1" s="2"/>
+    <row r="501" ht="15.75" customHeight="1" s="2"/>
+    <row r="502" ht="15.75" customHeight="1" s="2"/>
+    <row r="503" ht="15.75" customHeight="1" s="2"/>
+    <row r="504" ht="15.75" customHeight="1" s="2"/>
+    <row r="505" ht="15.75" customHeight="1" s="2"/>
+    <row r="506" ht="15.75" customHeight="1" s="2"/>
+    <row r="507" ht="15.75" customHeight="1" s="2"/>
+    <row r="508" ht="15.75" customHeight="1" s="2"/>
+    <row r="509" ht="15.75" customHeight="1" s="2"/>
+    <row r="510" ht="15.75" customHeight="1" s="2"/>
+    <row r="511" ht="15.75" customHeight="1" s="2"/>
+    <row r="512" ht="15.75" customHeight="1" s="2"/>
+    <row r="513" ht="15.75" customHeight="1" s="2"/>
+    <row r="514" ht="15.75" customHeight="1" s="2"/>
+    <row r="515" ht="15.75" customHeight="1" s="2"/>
+    <row r="516" ht="15.75" customHeight="1" s="2"/>
+    <row r="517" ht="15.75" customHeight="1" s="2"/>
+    <row r="518" ht="15.75" customHeight="1" s="2"/>
+    <row r="519" ht="15.75" customHeight="1" s="2"/>
+    <row r="520" ht="15.75" customHeight="1" s="2"/>
+    <row r="521" ht="15.75" customHeight="1" s="2"/>
+    <row r="522" ht="15.75" customHeight="1" s="2"/>
+    <row r="523" ht="15.75" customHeight="1" s="2"/>
+    <row r="524" ht="15.75" customHeight="1" s="2"/>
+    <row r="525" ht="15.75" customHeight="1" s="2"/>
+    <row r="526" ht="15.75" customHeight="1" s="2"/>
+    <row r="527" ht="15.75" customHeight="1" s="2"/>
+    <row r="528" ht="15.75" customHeight="1" s="2"/>
+    <row r="529" ht="15.75" customHeight="1" s="2"/>
+    <row r="530" ht="15.75" customHeight="1" s="2"/>
+    <row r="531" ht="15.75" customHeight="1" s="2"/>
+    <row r="532" ht="15.75" customHeight="1" s="2"/>
+    <row r="533" ht="15.75" customHeight="1" s="2"/>
+    <row r="534" ht="15.75" customHeight="1" s="2"/>
+    <row r="535" ht="15.75" customHeight="1" s="2"/>
+    <row r="536" ht="15.75" customHeight="1" s="2"/>
+    <row r="537" ht="15.75" customHeight="1" s="2"/>
+    <row r="538" ht="15.75" customHeight="1" s="2"/>
+    <row r="539" ht="15.75" customHeight="1" s="2"/>
+    <row r="540" ht="15.75" customHeight="1" s="2"/>
+    <row r="541" ht="15.75" customHeight="1" s="2"/>
+    <row r="542" ht="15.75" customHeight="1" s="2"/>
+    <row r="543" ht="15.75" customHeight="1" s="2"/>
+    <row r="544" ht="15.75" customHeight="1" s="2"/>
+    <row r="545" ht="15.75" customHeight="1" s="2"/>
+    <row r="546" ht="15.75" customHeight="1" s="2"/>
+    <row r="547" ht="15.75" customHeight="1" s="2"/>
+    <row r="548" ht="15.75" customHeight="1" s="2"/>
+    <row r="549" ht="15.75" customHeight="1" s="2"/>
+    <row r="550" ht="15.75" customHeight="1" s="2"/>
+    <row r="551" ht="15.75" customHeight="1" s="2"/>
+    <row r="552" ht="15.75" customHeight="1" s="2"/>
+    <row r="553" ht="15.75" customHeight="1" s="2"/>
+    <row r="554" ht="15.75" customHeight="1" s="2"/>
+    <row r="555" ht="15.75" customHeight="1" s="2"/>
+    <row r="556" ht="15.75" customHeight="1" s="2"/>
+    <row r="557" ht="15.75" customHeight="1" s="2"/>
+    <row r="558" ht="15.75" customHeight="1" s="2"/>
+    <row r="559" ht="15.75" customHeight="1" s="2"/>
+    <row r="560" ht="15.75" customHeight="1" s="2"/>
+    <row r="561" ht="15.75" customHeight="1" s="2"/>
+    <row r="562" ht="15.75" customHeight="1" s="2"/>
+    <row r="563" ht="15.75" customHeight="1" s="2"/>
+    <row r="564" ht="15.75" customHeight="1" s="2"/>
+    <row r="565" ht="15.75" customHeight="1" s="2"/>
+    <row r="566" ht="15.75" customHeight="1" s="2"/>
+    <row r="567" ht="15.75" customHeight="1" s="2"/>
+    <row r="568" ht="15.75" customHeight="1" s="2"/>
+    <row r="569" ht="15.75" customHeight="1" s="2"/>
+    <row r="570" ht="15.75" customHeight="1" s="2"/>
+    <row r="571" ht="15.75" customHeight="1" s="2"/>
+    <row r="572" ht="15.75" customHeight="1" s="2"/>
+    <row r="573" ht="15.75" customHeight="1" s="2"/>
+    <row r="574" ht="15.75" customHeight="1" s="2"/>
+    <row r="575" ht="15.75" customHeight="1" s="2"/>
+    <row r="576" ht="15.75" customHeight="1" s="2"/>
+    <row r="577" ht="15.75" customHeight="1" s="2"/>
+    <row r="578" ht="15.75" customHeight="1" s="2"/>
+    <row r="579" ht="15.75" customHeight="1" s="2"/>
+    <row r="580" ht="15.75" customHeight="1" s="2"/>
+    <row r="581" ht="15.75" customHeight="1" s="2"/>
+    <row r="582" ht="15.75" customHeight="1" s="2"/>
+    <row r="583" ht="15.75" customHeight="1" s="2"/>
+    <row r="584" ht="15.75" customHeight="1" s="2"/>
+    <row r="585" ht="15.75" customHeight="1" s="2"/>
+    <row r="586" ht="15.75" customHeight="1" s="2"/>
+    <row r="587" ht="15.75" customHeight="1" s="2"/>
+    <row r="588" ht="15.75" customHeight="1" s="2"/>
+    <row r="589" ht="15.75" customHeight="1" s="2"/>
+    <row r="590" ht="15.75" customHeight="1" s="2"/>
+    <row r="591" ht="15.75" customHeight="1" s="2"/>
+    <row r="592" ht="15.75" customHeight="1" s="2"/>
+    <row r="593" ht="15.75" customHeight="1" s="2"/>
+    <row r="594" ht="15.75" customHeight="1" s="2"/>
+    <row r="595" ht="15.75" customHeight="1" s="2"/>
+    <row r="596" ht="15.75" customHeight="1" s="2"/>
+    <row r="597" ht="15.75" customHeight="1" s="2"/>
+    <row r="598" ht="15.75" customHeight="1" s="2"/>
+    <row r="599" ht="15.75" customHeight="1" s="2"/>
+    <row r="600" ht="15.75" customHeight="1" s="2"/>
+    <row r="601" ht="15.75" customHeight="1" s="2"/>
+    <row r="602" ht="15.75" customHeight="1" s="2"/>
+    <row r="603" ht="15.75" customHeight="1" s="2"/>
+    <row r="604" ht="15.75" customHeight="1" s="2"/>
+    <row r="605" ht="15.75" customHeight="1" s="2"/>
+    <row r="606" ht="15.75" customHeight="1" s="2"/>
+    <row r="607" ht="15.75" customHeight="1" s="2"/>
+    <row r="608" ht="15.75" customHeight="1" s="2"/>
+    <row r="609" ht="15.75" customHeight="1" s="2"/>
+    <row r="610" ht="15.75" customHeight="1" s="2"/>
+    <row r="611" ht="15.75" customHeight="1" s="2"/>
+    <row r="612" ht="15.75" customHeight="1" s="2"/>
+    <row r="613" ht="15.75" customHeight="1" s="2"/>
+    <row r="614" ht="15.75" customHeight="1" s="2"/>
+    <row r="615" ht="15.75" customHeight="1" s="2"/>
+    <row r="616" ht="15.75" customHeight="1" s="2"/>
+    <row r="617" ht="15.75" customHeight="1" s="2"/>
+    <row r="618" ht="15.75" customHeight="1" s="2"/>
+    <row r="619" ht="15.75" customHeight="1" s="2"/>
+    <row r="620" ht="15.75" customHeight="1" s="2"/>
+    <row r="621" ht="15.75" customHeight="1" s="2"/>
+    <row r="622" ht="15.75" customHeight="1" s="2"/>
+    <row r="623" ht="15.75" customHeight="1" s="2"/>
+    <row r="624" ht="15.75" customHeight="1" s="2"/>
+    <row r="625" ht="15.75" customHeight="1" s="2"/>
+    <row r="626" ht="15.75" customHeight="1" s="2"/>
+    <row r="627" ht="15.75" customHeight="1" s="2"/>
+    <row r="628" ht="15.75" customHeight="1" s="2"/>
+    <row r="629" ht="15.75" customHeight="1" s="2"/>
+    <row r="630" ht="15.75" customHeight="1" s="2"/>
+    <row r="631" ht="15.75" customHeight="1" s="2"/>
+    <row r="632" ht="15.75" customHeight="1" s="2"/>
+    <row r="633" ht="15.75" customHeight="1" s="2"/>
+    <row r="634" ht="15.75" customHeight="1" s="2"/>
+    <row r="635" ht="15.75" customHeight="1" s="2"/>
+    <row r="636" ht="15.75" customHeight="1" s="2"/>
+    <row r="637" ht="15.75" customHeight="1" s="2"/>
+    <row r="638" ht="15.75" customHeight="1" s="2"/>
+    <row r="639" ht="15.75" customHeight="1" s="2"/>
+    <row r="640" ht="15.75" customHeight="1" s="2"/>
+    <row r="641" ht="15.75" customHeight="1" s="2"/>
+    <row r="642" ht="15.75" customHeight="1" s="2"/>
+    <row r="643" ht="15.75" customHeight="1" s="2"/>
+    <row r="644" ht="15.75" customHeight="1" s="2"/>
+    <row r="645" ht="15.75" customHeight="1" s="2"/>
+    <row r="646" ht="15.75" customHeight="1" s="2"/>
+    <row r="647" ht="15.75" customHeight="1" s="2"/>
+    <row r="648" ht="15.75" customHeight="1" s="2"/>
+    <row r="649" ht="15.75" customHeight="1" s="2"/>
+    <row r="650" ht="15.75" customHeight="1" s="2"/>
+    <row r="651" ht="15.75" customHeight="1" s="2"/>
+    <row r="652" ht="15.75" customHeight="1" s="2"/>
+    <row r="653" ht="15.75" customHeight="1" s="2"/>
+    <row r="654" ht="15.75" customHeight="1" s="2"/>
+    <row r="655" ht="15.75" customHeight="1" s="2"/>
+    <row r="656" ht="15.75" customHeight="1" s="2"/>
+    <row r="657" ht="15.75" customHeight="1" s="2"/>
+    <row r="658" ht="15.75" customHeight="1" s="2"/>
+    <row r="659" ht="15.75" customHeight="1" s="2"/>
+    <row r="660" ht="15.75" customHeight="1" s="2"/>
+    <row r="661" ht="15.75" customHeight="1" s="2"/>
+    <row r="662" ht="15.75" customHeight="1" s="2"/>
+    <row r="663" ht="15.75" customHeight="1" s="2"/>
+    <row r="664" ht="15.75" customHeight="1" s="2"/>
+    <row r="665" ht="15.75" customHeight="1" s="2"/>
+    <row r="666" ht="15.75" customHeight="1" s="2"/>
+    <row r="667" ht="15.75" customHeight="1" s="2"/>
+    <row r="668" ht="15.75" customHeight="1" s="2"/>
+    <row r="669" ht="15.75" customHeight="1" s="2"/>
+    <row r="670" ht="15.75" customHeight="1" s="2"/>
+    <row r="671" ht="15.75" customHeight="1" s="2"/>
+    <row r="672" ht="15.75" customHeight="1" s="2"/>
+    <row r="673" ht="15.75" customHeight="1" s="2"/>
+    <row r="674" ht="15.75" customHeight="1" s="2"/>
+    <row r="675" ht="15.75" customHeight="1" s="2"/>
+    <row r="676" ht="15.75" customHeight="1" s="2"/>
+    <row r="677" ht="15.75" customHeight="1" s="2"/>
+    <row r="678" ht="15.75" customHeight="1" s="2"/>
+    <row r="679" ht="15.75" customHeight="1" s="2"/>
+    <row r="680" ht="15.75" customHeight="1" s="2"/>
+    <row r="681" ht="15.75" customHeight="1" s="2"/>
+    <row r="682" ht="15.75" customHeight="1" s="2"/>
+    <row r="683" ht="15.75" customHeight="1" s="2"/>
+    <row r="684" ht="15.75" customHeight="1" s="2"/>
+    <row r="685" ht="15.75" customHeight="1" s="2"/>
+    <row r="686" ht="15.75" customHeight="1" s="2"/>
+    <row r="687" ht="15.75" customHeight="1" s="2"/>
+    <row r="688" ht="15.75" customHeight="1" s="2"/>
+    <row r="689" ht="15.75" customHeight="1" s="2"/>
+    <row r="690" ht="15.75" customHeight="1" s="2"/>
+    <row r="691" ht="15.75" customHeight="1" s="2"/>
+    <row r="692" ht="15.75" customHeight="1" s="2"/>
+    <row r="693" ht="15.75" customHeight="1" s="2"/>
+    <row r="694" ht="15.75" customHeight="1" s="2"/>
+    <row r="695" ht="15.75" customHeight="1" s="2"/>
+    <row r="696" ht="15.75" customHeight="1" s="2"/>
+    <row r="697" ht="15.75" customHeight="1" s="2"/>
+    <row r="698" ht="15.75" customHeight="1" s="2"/>
+    <row r="699" ht="15.75" customHeight="1" s="2"/>
+    <row r="700" ht="15.75" customHeight="1" s="2"/>
+    <row r="701" ht="15.75" customHeight="1" s="2"/>
+    <row r="702" ht="15.75" customHeight="1" s="2"/>
+    <row r="703" ht="15.75" customHeight="1" s="2"/>
+    <row r="704" ht="15.75" customHeight="1" s="2"/>
+    <row r="705" ht="15.75" customHeight="1" s="2"/>
+    <row r="706" ht="15.75" customHeight="1" s="2"/>
+    <row r="707" ht="15.75" customHeight="1" s="2"/>
+    <row r="708" ht="15.75" customHeight="1" s="2"/>
+    <row r="709" ht="15.75" customHeight="1" s="2"/>
+    <row r="710" ht="15.75" customHeight="1" s="2"/>
+    <row r="711" ht="15.75" customHeight="1" s="2"/>
+    <row r="712" ht="15.75" customHeight="1" s="2"/>
+    <row r="713" ht="15.75" customHeight="1" s="2"/>
+    <row r="714" ht="15.75" customHeight="1" s="2"/>
+    <row r="715" ht="15.75" customHeight="1" s="2"/>
+    <row r="716" ht="15.75" customHeight="1" s="2"/>
+    <row r="717" ht="15.75" customHeight="1" s="2"/>
+    <row r="718" ht="15.75" customHeight="1" s="2"/>
+    <row r="719" ht="15.75" customHeight="1" s="2"/>
+    <row r="720" ht="15.75" customHeight="1" s="2"/>
+    <row r="721" ht="15.75" customHeight="1" s="2"/>
+    <row r="722" ht="15.75" customHeight="1" s="2"/>
+    <row r="723" ht="15.75" customHeight="1" s="2"/>
+    <row r="724" ht="15.75" customHeight="1" s="2"/>
+    <row r="725" ht="15.75" customHeight="1" s="2"/>
+    <row r="726" ht="15.75" customHeight="1" s="2"/>
+    <row r="727" ht="15.75" customHeight="1" s="2"/>
+    <row r="728" ht="15.75" customHeight="1" s="2"/>
+    <row r="729" ht="15.75" customHeight="1" s="2"/>
+    <row r="730" ht="15.75" customHeight="1" s="2"/>
+    <row r="731" ht="15.75" customHeight="1" s="2"/>
+    <row r="732" ht="15.75" customHeight="1" s="2"/>
+    <row r="733" ht="15.75" customHeight="1" s="2"/>
+    <row r="734" ht="15.75" customHeight="1" s="2"/>
+    <row r="735" ht="15.75" customHeight="1" s="2"/>
+    <row r="736" ht="15.75" customHeight="1" s="2"/>
+    <row r="737" ht="15.75" customHeight="1" s="2"/>
+    <row r="738" ht="15.75" customHeight="1" s="2"/>
+    <row r="739" ht="15.75" customHeight="1" s="2"/>
+    <row r="740" ht="15.75" customHeight="1" s="2"/>
+    <row r="741" ht="15.75" customHeight="1" s="2"/>
+    <row r="742" ht="15.75" customHeight="1" s="2"/>
+    <row r="743" ht="15.75" customHeight="1" s="2"/>
+    <row r="744" ht="15.75" customHeight="1" s="2"/>
+    <row r="745" ht="15.75" customHeight="1" s="2"/>
+    <row r="746" ht="15.75" customHeight="1" s="2"/>
+    <row r="747" ht="15.75" customHeight="1" s="2"/>
+    <row r="748" ht="15.75" customHeight="1" s="2"/>
+    <row r="749" ht="15.75" customHeight="1" s="2"/>
+    <row r="750" ht="15.75" customHeight="1" s="2"/>
+    <row r="751" ht="15.75" customHeight="1" s="2"/>
+    <row r="752" ht="15.75" customHeight="1" s="2"/>
+    <row r="753" ht="15.75" customHeight="1" s="2"/>
+    <row r="754" ht="15.75" customHeight="1" s="2"/>
+    <row r="755" ht="15.75" customHeight="1" s="2"/>
+    <row r="756" ht="15.75" customHeight="1" s="2"/>
+    <row r="757" ht="15.75" customHeight="1" s="2"/>
+    <row r="758" ht="15.75" customHeight="1" s="2"/>
+    <row r="759" ht="15.75" customHeight="1" s="2"/>
+    <row r="760" ht="15.75" customHeight="1" s="2"/>
+    <row r="761" ht="15.75" customHeight="1" s="2"/>
+    <row r="762" ht="15.75" customHeight="1" s="2"/>
+    <row r="763" ht="15.75" customHeight="1" s="2"/>
+    <row r="764" ht="15.75" customHeight="1" s="2"/>
+    <row r="765" ht="15.75" customHeight="1" s="2"/>
+    <row r="766" ht="15.75" customHeight="1" s="2"/>
+    <row r="767" ht="15.75" customHeight="1" s="2"/>
+    <row r="768" ht="15.75" customHeight="1" s="2"/>
+    <row r="769" ht="15.75" customHeight="1" s="2"/>
+    <row r="770" ht="15.75" customHeight="1" s="2"/>
+    <row r="771" ht="15.75" customHeight="1" s="2"/>
+    <row r="772" ht="15.75" customHeight="1" s="2"/>
+    <row r="773" ht="15.75" customHeight="1" s="2"/>
+    <row r="774" ht="15.75" customHeight="1" s="2"/>
+    <row r="775" ht="15.75" customHeight="1" s="2"/>
+    <row r="776" ht="15.75" customHeight="1" s="2"/>
+    <row r="777" ht="15.75" customHeight="1" s="2"/>
+    <row r="778" ht="15.75" customHeight="1" s="2"/>
+    <row r="779" ht="15.75" customHeight="1" s="2"/>
+    <row r="780" ht="15.75" customHeight="1" s="2"/>
+    <row r="781" ht="15.75" customHeight="1" s="2"/>
+    <row r="782" ht="15.75" customHeight="1" s="2"/>
+    <row r="783" ht="15.75" customHeight="1" s="2"/>
+    <row r="784" ht="15.75" customHeight="1" s="2"/>
+    <row r="785" ht="15.75" customHeight="1" s="2"/>
+    <row r="786" ht="15.75" customHeight="1" s="2"/>
+    <row r="787" ht="15.75" customHeight="1" s="2"/>
+    <row r="788" ht="15.75" customHeight="1" s="2"/>
+    <row r="789" ht="15.75" customHeight="1" s="2"/>
+    <row r="790" ht="15.75" customHeight="1" s="2"/>
+    <row r="791" ht="15.75" customHeight="1" s="2"/>
+    <row r="792" ht="15.75" customHeight="1" s="2"/>
+    <row r="793" ht="15.75" customHeight="1" s="2"/>
+    <row r="794" ht="15.75" customHeight="1" s="2"/>
+    <row r="795" ht="15.75" customHeight="1" s="2"/>
+    <row r="796" ht="15.75" customHeight="1" s="2"/>
+    <row r="797" ht="15.75" customHeight="1" s="2"/>
+    <row r="798" ht="15.75" customHeight="1" s="2"/>
+    <row r="799" ht="15.75" customHeight="1" s="2"/>
+    <row r="800" ht="15.75" customHeight="1" s="2"/>
+    <row r="801" ht="15.75" customHeight="1" s="2"/>
+    <row r="802" ht="15.75" customHeight="1" s="2"/>
+    <row r="803" ht="15.75" customHeight="1" s="2"/>
+    <row r="804" ht="15.75" customHeight="1" s="2"/>
+    <row r="805" ht="15.75" customHeight="1" s="2"/>
+    <row r="806" ht="15.75" customHeight="1" s="2"/>
+    <row r="807" ht="15.75" customHeight="1" s="2"/>
+    <row r="808" ht="15.75" customHeight="1" s="2"/>
+    <row r="809" ht="15.75" customHeight="1" s="2"/>
+    <row r="810" ht="15.75" customHeight="1" s="2"/>
+    <row r="811" ht="15.75" customHeight="1" s="2"/>
+    <row r="812" ht="15.75" customHeight="1" s="2"/>
+    <row r="813" ht="15.75" customHeight="1" s="2"/>
+    <row r="814" ht="15.75" customHeight="1" s="2"/>
+    <row r="815" ht="15.75" customHeight="1" s="2"/>
+    <row r="816" ht="15.75" customHeight="1" s="2"/>
+    <row r="817" ht="15.75" customHeight="1" s="2"/>
+    <row r="818" ht="15.75" customHeight="1" s="2"/>
+    <row r="819" ht="15.75" customHeight="1" s="2"/>
+    <row r="820" ht="15.75" customHeight="1" s="2"/>
+    <row r="821" ht="15.75" customHeight="1" s="2"/>
+    <row r="822" ht="15.75" customHeight="1" s="2"/>
+    <row r="823" ht="15.75" customHeight="1" s="2"/>
+    <row r="824" ht="15.75" customHeight="1" s="2"/>
+    <row r="825" ht="15.75" customHeight="1" s="2"/>
+    <row r="826" ht="15.75" customHeight="1" s="2"/>
+    <row r="827" ht="15.75" customHeight="1" s="2"/>
+    <row r="828" ht="15.75" customHeight="1" s="2"/>
+    <row r="829" ht="15.75" customHeight="1" s="2"/>
+    <row r="830" ht="15.75" customHeight="1" s="2"/>
+    <row r="831" ht="15.75" customHeight="1" s="2"/>
+    <row r="832" ht="15.75" customHeight="1" s="2"/>
+    <row r="833" ht="15.75" customHeight="1" s="2"/>
+    <row r="834" ht="15.75" customHeight="1" s="2"/>
+    <row r="835" ht="15.75" customHeight="1" s="2"/>
+    <row r="836" ht="15.75" customHeight="1" s="2"/>
+    <row r="837" ht="15.75" customHeight="1" s="2"/>
+    <row r="838" ht="15.75" customHeight="1" s="2"/>
+    <row r="839" ht="15.75" customHeight="1" s="2"/>
+    <row r="840" ht="15.75" customHeight="1" s="2"/>
+    <row r="841" ht="15.75" customHeight="1" s="2"/>
+    <row r="842" ht="15.75" customHeight="1" s="2"/>
+    <row r="843" ht="15.75" customHeight="1" s="2"/>
+    <row r="844" ht="15.75" customHeight="1" s="2"/>
+    <row r="845" ht="15.75" customHeight="1" s="2"/>
+    <row r="846" ht="15.75" customHeight="1" s="2"/>
+    <row r="847" ht="15.75" customHeight="1" s="2"/>
+    <row r="848" ht="15.75" customHeight="1" s="2"/>
+    <row r="849" ht="15.75" customHeight="1" s="2"/>
+    <row r="850" ht="15.75" customHeight="1" s="2"/>
+    <row r="851" ht="15.75" customHeight="1" s="2"/>
+    <row r="852" ht="15.75" customHeight="1" s="2"/>
+    <row r="853" ht="15.75" customHeight="1" s="2"/>
+    <row r="854" ht="15.75" customHeight="1" s="2"/>
+    <row r="855" ht="15.75" customHeight="1" s="2"/>
+    <row r="856" ht="15.75" customHeight="1" s="2"/>
+    <row r="857" ht="15.75" customHeight="1" s="2"/>
+    <row r="858" ht="15.75" customHeight="1" s="2"/>
+    <row r="859" ht="15.75" customHeight="1" s="2"/>
+    <row r="860" ht="15.75" customHeight="1" s="2"/>
+    <row r="861" ht="15.75" customHeight="1" s="2"/>
+    <row r="862" ht="15.75" customHeight="1" s="2"/>
+    <row r="863" ht="15.75" customHeight="1" s="2"/>
+    <row r="864" ht="15.75" customHeight="1" s="2"/>
+    <row r="865" ht="15.75" customHeight="1" s="2"/>
+    <row r="866" ht="15.75" customHeight="1" s="2"/>
+    <row r="867" ht="15.75" customHeight="1" s="2"/>
+    <row r="868" ht="15.75" customHeight="1" s="2"/>
+    <row r="869" ht="15.75" customHeight="1" s="2"/>
+    <row r="870" ht="15.75" customHeight="1" s="2"/>
+    <row r="871" ht="15.75" customHeight="1" s="2"/>
+    <row r="872" ht="15.75" customHeight="1" s="2"/>
+    <row r="873" ht="15.75" customHeight="1" s="2"/>
+    <row r="874" ht="15.75" customHeight="1" s="2"/>
+    <row r="875" ht="15.75" customHeight="1" s="2"/>
+    <row r="876" ht="15.75" customHeight="1" s="2"/>
+    <row r="877" ht="15.75" customHeight="1" s="2"/>
+    <row r="878" ht="15.75" customHeight="1" s="2"/>
+    <row r="879" ht="15.75" customHeight="1" s="2"/>
+    <row r="880" ht="15.75" customHeight="1" s="2"/>
+    <row r="881" ht="15.75" customHeight="1" s="2"/>
+    <row r="882" ht="15.75" customHeight="1" s="2"/>
+    <row r="883" ht="15.75" customHeight="1" s="2"/>
+    <row r="884" ht="15.75" customHeight="1" s="2"/>
+    <row r="885" ht="15.75" customHeight="1" s="2"/>
+    <row r="886" ht="15.75" customHeight="1" s="2"/>
+    <row r="887" ht="15.75" customHeight="1" s="2"/>
+    <row r="888" ht="15.75" customHeight="1" s="2"/>
+    <row r="889" ht="15.75" customHeight="1" s="2"/>
+    <row r="890" ht="15.75" customHeight="1" s="2"/>
+    <row r="891" ht="15.75" customHeight="1" s="2"/>
+    <row r="892" ht="15.75" customHeight="1" s="2"/>
+    <row r="893" ht="15.75" customHeight="1" s="2"/>
+    <row r="894" ht="15.75" customHeight="1" s="2"/>
+    <row r="895" ht="15.75" customHeight="1" s="2"/>
+    <row r="896" ht="15.75" customHeight="1" s="2"/>
+    <row r="897" ht="15.75" customHeight="1" s="2"/>
+    <row r="898" ht="15.75" customHeight="1" s="2"/>
+    <row r="899" ht="15.75" customHeight="1" s="2"/>
+    <row r="900" ht="15.75" customHeight="1" s="2"/>
+    <row r="901" ht="15.75" customHeight="1" s="2"/>
+    <row r="902" ht="15.75" customHeight="1" s="2"/>
+    <row r="903" ht="15.75" customHeight="1" s="2"/>
+    <row r="904" ht="15.75" customHeight="1" s="2"/>
+    <row r="905" ht="15.75" customHeight="1" s="2"/>
+    <row r="906" ht="15.75" customHeight="1" s="2"/>
+    <row r="907" ht="15.75" customHeight="1" s="2"/>
+    <row r="908" ht="15.75" customHeight="1" s="2"/>
+    <row r="909" ht="15.75" customHeight="1" s="2"/>
+    <row r="910" ht="15.75" customHeight="1" s="2"/>
+    <row r="911" ht="15.75" customHeight="1" s="2"/>
+    <row r="912" ht="15.75" customHeight="1" s="2"/>
+    <row r="913" ht="15.75" customHeight="1" s="2"/>
+    <row r="914" ht="15.75" customHeight="1" s="2"/>
+    <row r="915" ht="15.75" customHeight="1" s="2"/>
+    <row r="916" ht="15.75" customHeight="1" s="2"/>
+    <row r="917" ht="15.75" customHeight="1" s="2"/>
+    <row r="918" ht="15.75" customHeight="1" s="2"/>
+    <row r="919" ht="15.75" customHeight="1" s="2"/>
+    <row r="920" ht="15.75" customHeight="1" s="2"/>
+    <row r="921" ht="15.75" customHeight="1" s="2"/>
+    <row r="922" ht="15.75" customHeight="1" s="2"/>
+    <row r="923" ht="15.75" customHeight="1" s="2"/>
+    <row r="924" ht="15.75" customHeight="1" s="2"/>
+    <row r="925" ht="15.75" customHeight="1" s="2"/>
+    <row r="926" ht="15.75" customHeight="1" s="2"/>
+    <row r="927" ht="15.75" customHeight="1" s="2"/>
+    <row r="928" ht="15.75" customHeight="1" s="2"/>
+    <row r="929" ht="15.75" customHeight="1" s="2"/>
+    <row r="930" ht="15.75" customHeight="1" s="2"/>
+    <row r="931" ht="15.75" customHeight="1" s="2"/>
+    <row r="932" ht="15.75" customHeight="1" s="2"/>
+    <row r="933" ht="15.75" customHeight="1" s="2"/>
+    <row r="934" ht="15.75" customHeight="1" s="2"/>
+    <row r="935" ht="15.75" customHeight="1" s="2"/>
+    <row r="936" ht="15.75" customHeight="1" s="2"/>
+    <row r="937" ht="15.75" customHeight="1" s="2"/>
+    <row r="938" ht="15.75" customHeight="1" s="2"/>
+    <row r="939" ht="15.75" customHeight="1" s="2"/>
+    <row r="940" ht="15.75" customHeight="1" s="2"/>
+    <row r="941" ht="15.75" customHeight="1" s="2"/>
+    <row r="942" ht="15.75" customHeight="1" s="2"/>
+    <row r="943" ht="15.75" customHeight="1" s="2"/>
+    <row r="944" ht="15.75" customHeight="1" s="2"/>
+    <row r="945" ht="15.75" customHeight="1" s="2"/>
+    <row r="946" ht="15.75" customHeight="1" s="2"/>
+    <row r="947" ht="15.75" customHeight="1" s="2"/>
+    <row r="948" ht="15.75" customHeight="1" s="2"/>
+    <row r="949" ht="15.75" customHeight="1" s="2"/>
+    <row r="950" ht="15.75" customHeight="1" s="2"/>
+    <row r="951" ht="15.75" customHeight="1" s="2"/>
+    <row r="952" ht="15.75" customHeight="1" s="2"/>
+    <row r="953" ht="15.75" customHeight="1" s="2"/>
+    <row r="954" ht="15.75" customHeight="1" s="2"/>
+    <row r="955" ht="15.75" customHeight="1" s="2"/>
+    <row r="956" ht="15.75" customHeight="1" s="2"/>
+    <row r="957" ht="15.75" customHeight="1" s="2"/>
+    <row r="958" ht="15.75" customHeight="1" s="2"/>
+    <row r="959" ht="15.75" customHeight="1" s="2"/>
+    <row r="960" ht="15.75" customHeight="1" s="2"/>
+    <row r="961" ht="15.75" customHeight="1" s="2"/>
+    <row r="962" ht="15.75" customHeight="1" s="2"/>
+    <row r="963" ht="15.75" customHeight="1" s="2"/>
+    <row r="964" ht="15.75" customHeight="1" s="2"/>
+    <row r="965" ht="15.75" customHeight="1" s="2"/>
+    <row r="966" ht="15.75" customHeight="1" s="2"/>
+    <row r="967" ht="15.75" customHeight="1" s="2"/>
+    <row r="968" ht="15.75" customHeight="1" s="2"/>
+    <row r="969" ht="15.75" customHeight="1" s="2"/>
+    <row r="970" ht="15.75" customHeight="1" s="2"/>
+    <row r="971" ht="15.75" customHeight="1" s="2"/>
+    <row r="972" ht="15.75" customHeight="1" s="2"/>
+    <row r="973" ht="15.75" customHeight="1" s="2"/>
+    <row r="974" ht="15.75" customHeight="1" s="2"/>
+    <row r="975" ht="15.75" customHeight="1" s="2"/>
+    <row r="976" ht="15.75" customHeight="1" s="2"/>
+    <row r="977" ht="15.75" customHeight="1" s="2"/>
+    <row r="978" ht="15.75" customHeight="1" s="2"/>
+    <row r="979" ht="15.75" customHeight="1" s="2"/>
+    <row r="980" ht="15.75" customHeight="1" s="2"/>
+    <row r="981" ht="15.75" customHeight="1" s="2"/>
+    <row r="982" ht="15.75" customHeight="1" s="2"/>
+    <row r="983" ht="15.75" customHeight="1" s="2"/>
+    <row r="984" ht="15.75" customHeight="1" s="2"/>
+    <row r="985" ht="15.75" customHeight="1" s="2"/>
+    <row r="986" ht="15.75" customHeight="1" s="2"/>
+    <row r="987" ht="15.75" customHeight="1" s="2"/>
+    <row r="988" ht="15.75" customHeight="1" s="2"/>
+    <row r="989" ht="15.75" customHeight="1" s="2"/>
+    <row r="990" ht="15.75" customHeight="1" s="2"/>
+    <row r="991" ht="15.75" customHeight="1" s="2"/>
+    <row r="992" ht="15.75" customHeight="1" s="2"/>
+    <row r="993" ht="15.75" customHeight="1" s="2"/>
+    <row r="994" ht="15.75" customHeight="1" s="2"/>
+    <row r="995" ht="15.75" customHeight="1" s="2"/>
+    <row r="996" ht="15.75" customHeight="1" s="2"/>
+    <row r="997" ht="15.75" customHeight="1" s="2"/>
+    <row r="998" ht="15.75" customHeight="1" s="2"/>
+    <row r="999" ht="15.75" customHeight="1" s="2"/>
+    <row r="1000" ht="15.75" customHeight="1" s="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databank_englishB-copy.xlsx
+++ b/databank_englishB-copy.xlsx
@@ -350,7 +350,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>men / twelve / committee / and / be / the / . / woman / on / there / nine</t>
+          <t>woman / and / men / . / the / be / nine / there / on / twelve / committee</t>
         </is>
       </c>
       <c r="E1" s="1" t="n">
@@ -368,12 +368,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>We don’t have much money now.</t>
+          <t>We don't have much money now.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>. / don / now / ’ / much / t / we / have / money</t>
+          <t>have / money / now / we / . / much / not / do</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
@@ -396,7 +396,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>have / of / two / paper / can / I / sheets / ?</t>
+          <t>sheets / of / paper / ? / have / I / can / two</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
@@ -419,7 +419,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mountain / . / be / the / on / there / many / sheep</t>
+          <t>. / mountain / the / many / be / on / there / sheep</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
@@ -437,12 +437,12 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>You can’t enter this building with dangerous things such as knife.</t>
+          <t>You can't enter this building with dangerous things such as knife.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>such / building / . / ’ / things / knife / with / can / as / t / enter / you / this / dangerous</t>
+          <t>enter / can / with / as / . / dangerous / things / knife / this / not / you / such / building</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
@@ -465,7 +465,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>several / grasses / . / juice / of / drink / we</t>
+          <t>of / juice / . / grasses / drink / we / several</t>
         </is>
       </c>
       <c r="E6" s="1" t="n">
@@ -488,7 +488,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>? / slices / like / of / you / how / bread / would / many</t>
+          <t>slices / ? / bread / would / how / like / you / many / of</t>
         </is>
       </c>
       <c r="E7" s="1" t="n">
@@ -511,7 +511,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>make / taste / your / corn / will / some / better / . / salad</t>
+          <t>your / will / better / corn / taste / salad / . / some / make</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>some / I / from / get / Information / the / website / useful / .</t>
+          <t>get / the / from / some / I / website / . / useful / information</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
@@ -557,7 +557,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>the / some / fish / in / swim / be / . / tank</t>
+          <t>be / . / swim / fish / tank / some / in / the</t>
         </is>
       </c>
       <c r="E10" s="1" t="n">
@@ -580,7 +580,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>. / in / the / refrigerator / be / bottles / milk / two / of / there</t>
+          <t>. / in / milk / of / the / two / there / refrigerator / be / bottles</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>much / money / ? / how / do / you / need</t>
+          <t>money / how / much / do / ? / need / you</t>
         </is>
       </c>
       <c r="E12" s="1" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>give / advice / of / a / me / he / this / good / . / piece</t>
+          <t>piece / this / good / of / advice / a / . / he / give / me</t>
         </is>
       </c>
       <c r="E13" s="1" t="n">
@@ -649,7 +649,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>author / the / of / he / . / book / this / be</t>
+          <t>he / the / book / this / of / be / author / .</t>
         </is>
       </c>
       <c r="E14" s="1" t="n">
@@ -672,7 +672,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>five / the / we / dog / member / . / be / small / a / years / now / . / buy / And / our / ago / dog / a / of / , / family</t>
+          <t>dog / a / ago / dog / of / our / . / buy / member / we / a / now / small / years / , / five / . / and / be / family / the</t>
         </is>
       </c>
       <c r="E15" s="1" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>in / U.S / the / history / . / study / he / be</t>
+          <t>he / be / in / U.S / . / study / history / the</t>
         </is>
       </c>
       <c r="E16" s="1" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>on / . / the / . / There / snow / ground / watch / step / your / be</t>
+          <t>snow / there / watch / the / . / on / ground / step / be / . / your</t>
         </is>
       </c>
       <c r="E17" s="1" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>a / to / some / I / Steve / want / . / be / Jobs / day</t>
+          <t>want / Steve / . / be / a / day / I / Jobs / some / to</t>
         </is>
       </c>
       <c r="E18" s="1" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>a / play / tennis / week / my / twice / father / .</t>
+          <t>tennis / father / week / play / a / my / twice / .</t>
         </is>
       </c>
       <c r="E19" s="1" t="n">
@@ -787,7 +787,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sell / by / the / be / usually / cream / . / pint / ice</t>
+          <t>sell / cream / pint / be / the / Ice / usually / by / .</t>
         </is>
       </c>
       <c r="E20" s="1" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>be / father / . / teacher / writer / a / and / his</t>
+          <t>be / his / teacher / and / father / . / writer / a</t>
         </is>
       </c>
       <c r="E21" s="1" t="n">
@@ -833,7 +833,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>buy / a / a / pink / me / white / please / rise / . / and</t>
+          <t>white / pink / me / buy / a / rise / a / please / and / .</t>
         </is>
       </c>
       <c r="E22" s="1" t="n">
@@ -856,7 +856,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>year / at / least / we / meet / to / promise / a / once / a / . / make</t>
+          <t>once / meet / year / at / make / least / we / to / . / a / promise / a</t>
         </is>
       </c>
       <c r="E23" s="1" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>it / in / make / he / the / sugar / lot / a / cake / of / have / .</t>
+          <t>he / . / have / the / make / of / in / a / it / sugar / lot / cake</t>
         </is>
       </c>
       <c r="E24" s="1" t="n">
@@ -902,7 +902,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ate / of / the / . / slices / ham / boy / two</t>
+          <t>ham / slices / ate / boy / the / . / two / of</t>
         </is>
       </c>
       <c r="E25" s="1" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>end / all / to / . / good / come / an / things</t>
+          <t>. / good / things / all / an / end / come / to</t>
         </is>
       </c>
       <c r="E26" s="1" t="n">
@@ -948,7 +948,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>. / Kitakami / River / the / town / through / flow / the</t>
+          <t>flow / Kitakami / town / River / . / the / through / the</t>
         </is>
       </c>
       <c r="E27" s="1" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>she / small / a / be / . / baggage / of / piece / carry</t>
+          <t>carry / small / a / she / be / piece / of / baggage / .</t>
         </is>
       </c>
       <c r="E28" s="1" t="n">
@@ -994,7 +994,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>girl / too / be / . / the / jacket / big / wear / a</t>
+          <t>big / be / a / girl / too / jacket / the / wear / .</t>
         </is>
       </c>
       <c r="E29" s="1" t="n">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>be / the / the / half / tomato / . / this / size / I / tomatoes / grow / of</t>
+          <t>be / grow / of / size / . / the / tomato / tomatoes / I / this / half / the</t>
         </is>
       </c>
       <c r="E30" s="1" t="n">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>attract / a / actor / dancer / quite / . / and / large / audience / the</t>
+          <t>and / dancer / attract / a / audience / . / quite / actor / large / the</t>
         </is>
       </c>
       <c r="E31" s="1" t="n">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>a / be / in / . / people / few / restaurant / the / there</t>
+          <t>restaurant / the / . / a / few / be / in / people / there</t>
         </is>
       </c>
       <c r="E32" s="1" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>game / become / . / crowd / the / excite / when / the / begin</t>
+          <t>begin / crowd / become / the / excite / when / . / game / the</t>
         </is>
       </c>
       <c r="E33" s="1" t="n">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>I can’t stop reading this book. It’s so interesting.</t>
+          <t>I can't stop reading this book. It's so interesting.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>It / . / interesting / this / . / can / ’ / s / so / t / book / stop / ’ / I / reading</t>
+          <t>so / I / . / it / interesting / be / not / . / book / stop / can / this / reading</t>
         </is>
       </c>
       <c r="E34" s="1" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>sisters / ? / have / do / or / you / any / brothers</t>
+          <t>have / brothers / sisters / or / do / you / ? / any</t>
         </is>
       </c>
       <c r="E35" s="1" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>expensive / an / , / he / so / little / buy / . / have / he / money / bicycle / now</t>
+          <t>so / , / he / little / . / buy / he / expensive / bicycle / now / have / money / an</t>
         </is>
       </c>
       <c r="E36" s="1" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>miraculously / . / recover / the / die / whale</t>
+          <t>die / miraculously / . / the / recover / whale</t>
         </is>
       </c>
       <c r="E37" s="1" t="n">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>I’m looking for a dress similar to yours.</t>
+          <t>I'm looking for a dress similar to yours.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>yours / a / ’ / to / dress / similar / m / . / for / I / look</t>
+          <t>to / similar / yours / I / look / . / a / dress / be / for</t>
         </is>
       </c>
       <c r="E38" s="1" t="n">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>a / girl / . / be / happy / she</t>
+          <t>. / she / a / girl / happy / be</t>
         </is>
       </c>
       <c r="E39" s="1" t="n">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>people / to / some / speech / bored / his / . / fall / during / a / sleep / begin</t>
+          <t>to / fall / a / people / some / during / bored / sleep / . / his / speech / begin</t>
         </is>
       </c>
       <c r="E40" s="1" t="n">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>not / better / so / . / cake / you / eat / much / have</t>
+          <t>so / not / better / much / have / . / cake / eat / you</t>
         </is>
       </c>
       <c r="E41" s="1" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>climber / be / . / alive / be / really / lucky / found / the / it</t>
+          <t>it / be / found / really / lucky / alive / the / . / climber / be</t>
         </is>
       </c>
       <c r="E42" s="1" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>hours / medicine / the / take / effect / in / . / few / a / will</t>
+          <t>hours / the / effect / in / . / medicine / a / take / few / will</t>
         </is>
       </c>
       <c r="E43" s="1" t="n">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>he / does / have / children / any / ?</t>
+          <t>he / children / any / ? / have / does</t>
         </is>
       </c>
       <c r="E44" s="1" t="n">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>“No, I usually get up quite late.”</t>
+          <t>No, I usually get up quite late.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>usually / No / late / I / ” / , / get / “ / . / up / quite</t>
+          <t>, / I / get / quite / . / usually / no / up / late</t>
         </is>
       </c>
       <c r="E45" s="1" t="n">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>“How often do you go skiing in every winter?”</t>
+          <t>How often do you go skiing in every winter?</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>you / often / winter / ? / in / How / “ / ” / ski / go / every / do</t>
+          <t>ski / do / every / often / go / ? / how / winter / in / you</t>
         </is>
       </c>
       <c r="E46" s="1" t="n">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>“Neither could I. We have to work hard tonight.”</t>
+          <t>Neither could I. We have to work hard tonight.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>have / . / We / hard / I / could / to / . / ” / work / Neither / tonight / “</t>
+          <t>neither / . / . / we / work / could / have / I / tonight / to / hard</t>
         </is>
       </c>
       <c r="E47" s="1" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>“So is my sister. The flu is going around.”</t>
+          <t>So is my sister. The flu is going around.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>So / . / sister / flu / be / The / go / my / ” / be / around / . / “</t>
+          <t>go / be / . / the / . / my / around / flu / so / sister / be</t>
         </is>
       </c>
       <c r="E48" s="1" t="n">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>“No, she never cooks.”</t>
+          <t>No, she never cooks.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>, / cook / “ / No / ” / she / never / .</t>
+          <t>, / never / . / cook / no / she</t>
         </is>
       </c>
       <c r="E49" s="1" t="n">
@@ -1472,12 +1472,12 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>“Don’t rush me. Eating slowly is healthier than eating quickly.”</t>
+          <t>Don't rush me. Eating slowly is healthier than eating quickly.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>” / healthier / me / slowly / than / quickly / . / be / eat / t / “ / Don / rush / ’ / Eating / .</t>
+          <t>eat / rush / . / healthier / do / slowly / quickly / . / not / be / than / eating / me</t>
         </is>
       </c>
       <c r="E50" s="1" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>woman / . / live / life / happy / the / a</t>
+          <t>a / woman / life / live / the / . / happy</t>
         </is>
       </c>
       <c r="E51" s="1" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>in / man / that / the / office / . / work / hard</t>
+          <t>hard / office / . / in / the / work / that / man</t>
         </is>
       </c>
       <c r="E52" s="1" t="n">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>very / the / uncle / well / my / guitar / . / play</t>
+          <t>very / play / guitar / my / well / the / . / uncle</t>
         </is>
       </c>
       <c r="E53" s="1" t="n">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>saw / he / his / . / way / be / on / it / that / a / bear / surprise / home</t>
+          <t>saw / be / . / home / he / surprise / way / that / it / on / his / bear / a</t>
         </is>
       </c>
       <c r="E54" s="1" t="n">
@@ -1587,12 +1587,12 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>My friend didn’t have the courage to talk to the famous actor, and I didn’t, either.</t>
+          <t>My friend didn't have the courage to talk to the famous actor, and I didn't, either.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>and / to / have / didn / talk / t / ’ / friend / either / t / didn / famous / to / , / I / courage / actor / , / the / . / the / ’ / my</t>
+          <t>either / courage / talk / do / not / my / to / do / and / friend / the / , / actor / to / the / famous / I / , / not / have / .</t>
         </is>
       </c>
       <c r="E55" s="1" t="n">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>see / enter / to / his / theater / the / movie / professor / the / be / . / often / by / students</t>
+          <t>professor / students / . / enter / to / see / often / his / the / theater / be / by / the / movie</t>
         </is>
       </c>
       <c r="E56" s="1" t="n">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>far / city / the / the / live / away / big / man / . / alone / from</t>
+          <t>big / man / alone / far / away / . / the / live / city / the / from</t>
         </is>
       </c>
       <c r="E57" s="1" t="n">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>I don’t eat much meat but I eat a lot of vegetable.</t>
+          <t>I don't eat much meat but I eat a lot of vegetable.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>t / don / I / I / of / . / meat / a / eat / but / eat / ’ / vegetable / much / lot</t>
+          <t>I / eat / meat / lot / much / but / do / not / I / of / vegetable / eat / . / a</t>
         </is>
       </c>
       <c r="E58" s="1" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>luckily / available / tickets / concert / still / the / . / be / ,</t>
+          <t>luckily / concert / . / still / tickets / available / be / the / ,</t>
         </is>
       </c>
       <c r="E59" s="1" t="n">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>. / sorry / never / to / be / write / I / I / you / really</t>
+          <t>write / I / never / I / you / to / really / . / be / sorry</t>
         </is>
       </c>
       <c r="E60" s="1" t="n">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>hospital / visit / in / sister / . / sometimes / his / only / the / him</t>
+          <t>him / sometimes / sister / visit / only / hospital / his / the / in / .</t>
         </is>
       </c>
       <c r="E61" s="1" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>apparently / with / . / be / the / something / car / very / , / wrong</t>
+          <t>apparently / car / very / . / the / something / , / wrong / with / be</t>
         </is>
       </c>
       <c r="E62" s="1" t="n">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>miss / the / walk / . / home / and / have / , / he / last / train / unfortunately / to</t>
+          <t>, / home / unfortunately / to / and / have / walk / train / miss / . / last / the / he</t>
         </is>
       </c>
       <c r="E63" s="1" t="n">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>I don’t have much knowledge of the subject.</t>
+          <t>I don't have much knowledge of the subject.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>much / I / of / the / ’ / subject / don / t / have / . / knowledge</t>
+          <t>have / do / I / not / . / much / knowledge / the / subject / of</t>
         </is>
       </c>
       <c r="E64" s="1" t="n">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>or / green / , / orange / gloves / be / your / the / , / ones / ones / which / the / ?</t>
+          <t>green / orange / gloves / ones / be / ? / , / ones / or / your / the / which / , / the</t>
         </is>
       </c>
       <c r="E65" s="1" t="n">
@@ -1840,12 +1840,12 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>I want a new bicycle, but my father won’t buy me one.</t>
+          <t>I want a new bicycle, but my father won't buy me one.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>’ / . / a / bicycle / but / new / me / one / my / want / t / buy / win / I / father / ,</t>
+          <t>one / father / not / me / buy / I / my / new / want / bicycle / . / will / a / , / but</t>
         </is>
       </c>
       <c r="E66" s="1" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>all / and / to / down / the / other / sit / . / talk / to / each / begin / students</t>
+          <t>all / . / down / students / to / to / other / and / each / begin / sit / talk / the</t>
         </is>
       </c>
       <c r="E67" s="1" t="n">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>I didn’t know where to go or what to do.</t>
+          <t>I didn't know where to go or what to do.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>’ / or / . / didn / go / where / what / t / to / know / to / I / do</t>
+          <t>to / go / or / where / to / do / I / know / . / what / not / do</t>
         </is>
       </c>
       <c r="E68" s="1" t="n">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>across / friend / and / have / , / together / an / they / run / tea / . / some / she / old</t>
+          <t>they / and / old / some / friend / . / run / have / across / she / , / together / tea / an</t>
         </is>
       </c>
       <c r="E69" s="1" t="n">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>and / . / speak / slowly / the / they / to / clearly / ask / man</t>
+          <t>man / slowly / . / ask / to / the / speak / they / clearly / and</t>
         </is>
       </c>
       <c r="E70" s="1" t="n">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>cat / scratch / it / , / stop / the / will / or / you / . / bother</t>
+          <t>cat / or / you / bother / . / stop / scratch / the / it / will / ,</t>
         </is>
       </c>
       <c r="E71" s="1" t="n">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>soon / she / did / be / say / that / home / ? / come / she</t>
+          <t>did / that / come / home / be / she / soon / she / say / ?</t>
         </is>
       </c>
       <c r="E72" s="1" t="n">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>make / the / to / whether / go / we / be / hold / . / tomorrow / or / be / sure / must / not / meeting</t>
+          <t>to / must / we / meeting / tomorrow / go / not / or / whether / . / be / make / sure / the / be / hold</t>
         </is>
       </c>
       <c r="E73" s="1" t="n">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>whether / ? / know / game / do / win / you / he / the</t>
+          <t>win / know / he / ? / do / game / you / the / whether</t>
         </is>
       </c>
       <c r="E74" s="1" t="n">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>I don’t doubt that Mary will be happy to hear the news.</t>
+          <t>I don't doubt that Mary will be happy to hear the news.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>I / doubt / to / t / that / happy / will / ’ / don / the / hear / news / Mary / be / .</t>
+          <t>will / doubt / do / . / news / happy / the / I / be / Mary / not / hear / that / to</t>
         </is>
       </c>
       <c r="E75" s="1" t="n">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>agree / big / be / not / a / Mr.Tanaka / problem / or / whether / .</t>
+          <t>agree / Mr.Tanaka / not / big / or / be / a / problem / whether / .</t>
         </is>
       </c>
       <c r="E76" s="1" t="n">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>sick / . / worried / look / her / be / she / friend / because / very</t>
+          <t>friend / look / very / she / worried / her / because / sick / . / be</t>
         </is>
       </c>
       <c r="E77" s="1" t="n">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>私はお店に買い物をしてる間に財布を無くしました。</t>
+          <t>私はお店に買い物をしている間に財布を無くしました。</t>
         </is>
       </c>
       <c r="C78" s="1" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>I / in / shop / I / . / store / wallet / the / my / while / be / lose</t>
+          <t>shop / while / store / . / my / I / in / the / wallet / lose / I / be</t>
         </is>
       </c>
       <c r="E78" s="1" t="n">
@@ -2139,12 +2139,12 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>Didn’t you wash your hands before you ate lunch?</t>
+          <t>Didn't you wash your hands before you ate lunch?</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>you / ’ / before / lunch / you / eat / hands / wash / ? / didn / t / your</t>
+          <t>lunch / your / before / not / ? / you / wash / did / hands / eat / you</t>
         </is>
       </c>
       <c r="E79" s="1" t="n">
@@ -2162,12 +2162,12 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>You can’t use this facility unless you live in this city.</t>
+          <t>You can't use this facility unless you live in this city.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>facility / use / . / unless / t / live / can / this / ’ / you / you / city / in / this</t>
+          <t>can / live / this / city / unless / not / facility / you / this / . / you / in / use</t>
         </is>
       </c>
       <c r="E80" s="1" t="n">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>Let’s go swimming if it isn’t rainy tomorrow.</t>
+          <t>Let's go swimming if it isn't rainy tomorrow.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>s / rainy / ’ / tomorrow / it / go / isn / let / if / . / t / ’ / swim</t>
+          <t>. / if / go / rainy / be / it / tomorrow / n't / as / swim / let</t>
         </is>
       </c>
       <c r="E81" s="1" t="n">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>for / time / arrive / dinner / so / that / . / hurry / in / we / could / home / we</t>
+          <t>that / for / home / hurry / we / arrive / in / . / we / dinner / could / so / time</t>
         </is>
       </c>
       <c r="E82" s="1" t="n">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>many / but / animals / also / endanger / be / not / only / plants / .</t>
+          <t>plants / also / endanger / animals / . / many / not / only / be / but</t>
         </is>
       </c>
       <c r="E83" s="1" t="n">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>The doll house was so delicate that we couldn’t touch it.</t>
+          <t>The doll house was so delicate that we couldn't touch it.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>doll / be / the / it / ’ / we / couldn / so / that / t / house / touch / delicate / .</t>
+          <t>touch / that / it / we / delicate / the / house / be / could / . / n't / doll / so</t>
         </is>
       </c>
       <c r="E84" s="1" t="n">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>tonight / not / father / be / but / dinner / mother / make / my / . / my</t>
+          <t>tonight / but / . / father / make / my / be / mother / my / dinner / not</t>
         </is>
       </c>
       <c r="E85" s="1" t="n">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>Don’t make a sound, or you will wake up that dog.</t>
+          <t>Don't make a sound, or you will wake up that dog.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>dog / . / you / , / that / or / a / up / ’ / don / make / wake / will / sound / t</t>
+          <t>wake / dog / . / , / that / you / up / will / do / a / sound / or / make / not</t>
         </is>
       </c>
       <c r="E86" s="1" t="n">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>, / sound / a / will / up / you / if / you / dog / that / make / wake / .</t>
+          <t>up / will / a / dog / . / sound / you / make / you / that / , / wake / if</t>
         </is>
       </c>
       <c r="E87" s="1" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>. / behalf / the / to / but / Ken / want / on / a / also / only / Mike / make / not / speech / of / class</t>
+          <t>Ken / want / only / . / of / not / Mike / on / but / the / behalf / to / make / also / speech / class / a</t>
         </is>
       </c>
       <c r="E88" s="1" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>of / make / as / a / . / Mike / on / as / Ken / behalf / class / want / to / speech / well / the</t>
+          <t>behalf / want / as / Ken / make / the / class / mike / of / on / . / to / speech / as / a / well</t>
         </is>
       </c>
       <c r="E89" s="1" t="n">
@@ -2390,12 +2390,12 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>I won’t tell it to you if you don’t promise to keep it a secret.</t>
+          <t>I won't tell it to you if you don't promise to keep it a secret.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>to / t / tell / win / secret / you / t / if / promise / it / don / ’ / I / it / ’ / you / . / a / to / keep</t>
+          <t>not / will / do / tell / keep / if / not / a / you / promise / you / . / it / to / secret / to / it / I</t>
         </is>
       </c>
       <c r="E90" s="1" t="n">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>high / to / me / . / bulbs / ceiling / the / light / the / too / change / for / be</t>
+          <t>bulbs / the / too / me / be / the / to / light / for / high / change / ceiling / .</t>
         </is>
       </c>
       <c r="E91" s="1" t="n">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>The ceiling was so high that I couldn’t change the light bulbs.</t>
+          <t>The ceiling was so high that I couldn't change the light bulbs.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>the / the / couldn / high / ceiling / that / . / change / ’ / t / be / so / light / bulbs / I</t>
+          <t>be / that / high / the / the / could / ceiling / n't / . / change / bulbs / so / light / I</t>
         </is>
       </c>
       <c r="E92" s="1" t="n">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>Get on this train, or you won’t get there by noon.</t>
+          <t>Get on this train, or you won't get there by noon.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>’ / there / win / , / train / you / on / or / get / by / t / this / noon / get / .</t>
+          <t>not / noon / . / get / this / or / get / , / you / will / there / on / train / by</t>
         </is>
       </c>
       <c r="E93" s="1" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>by / on / , / get / . / train / and / will / you / there / this / noon / get</t>
+          <t>you / will / on / there / get / this / by / get / noon / , / . / train / and</t>
         </is>
       </c>
       <c r="E94" s="1" t="n">
@@ -2505,12 +2505,12 @@
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
-          <t>You should watch tonight’s game even if you aren’t interested in soccer.</t>
+          <t>You should watch tonight's game even if you aren't interested in soccer.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>in / tonight / if / aren / you / ’ / game / t / watch / should / even / interested / . / s / you / ’ / soccer</t>
+          <t>. / interested / game / tonight / not / even / you / if / you / be / should / soccer / watch / in / 's</t>
         </is>
       </c>
       <c r="E95" s="1" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>This curry is so hot that I can’t eat all of it.</t>
+          <t>This curry is so hot that I can't eat all of it.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>t / it / I / all / so / this / ’ / eat / . / that / of / can / hot / curry / be</t>
+          <t>curry / I / all / can / not / this / of / . / it / that / be / eat / hot / so</t>
         </is>
       </c>
       <c r="E96" s="1" t="n">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>. / they / to / as / be / be / everybody / accept / want</t>
+          <t>be / everybody / accept / as / they / be / want / to / .</t>
         </is>
       </c>
       <c r="E97" s="1" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>. / Sapporo / for / leave / on / August / 10th / my / brother</t>
+          <t>leave / brother / . / for / Sapporo / August / on / my / 10th</t>
         </is>
       </c>
       <c r="E98" s="1" t="n">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>clouds / . / over / plane / seem / fly / the / be / the / to</t>
+          <t>the / seem / over / . / to / clouds / fly / the / be / plane</t>
         </is>
       </c>
       <c r="E99" s="1" t="n">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>the / a / among / secret / . / five / of / that / us / be</t>
+          <t>secret / . / of / the / be / a / us / five / that / among</t>
         </is>
       </c>
       <c r="E100" s="1" t="n">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>after / ? / to / you / do / have / do / the / concert / anything</t>
+          <t>concert / ? / do / anything / you / do / to / after / have / the</t>
         </is>
       </c>
       <c r="E101" s="1" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
-          <t>Let’s meet at the station.</t>
+          <t>Let's meet at the station.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>let / ’ / the / . / at / station / s / meet</t>
+          <t>station / as / meet / let / . / at / the</t>
         </is>
       </c>
       <c r="E102" s="1" t="n">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>swim / hard / be / to / . / against / stream / it / the</t>
+          <t>stream / against / swim / be / hard / . / it / to / the</t>
         </is>
       </c>
       <c r="E103" s="1" t="n">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>between / girl / . / her / be / the / parents / sit / little</t>
+          <t>sit / between / parents / . / little / her / the / be / girl</t>
         </is>
       </c>
       <c r="E104" s="1" t="n">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>school / . / o / get / day / except / I / Sunday / every</t>
+          <t>o / get / day / Sunday / . / except / every / school / I</t>
         </is>
       </c>
       <c r="E105" s="1" t="n">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>It’s a nice day Let’s walk through the park.</t>
+          <t>It's a nice day. Let's walk through the park.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>’ / a / walk / nice / . / Let / through / s / park / ’ / it / day / the / s</t>
+          <t>the / it / day / . / park / through / . / a / be / walk / let / nice / as</t>
         </is>
       </c>
       <c r="E106" s="1" t="n">
@@ -2781,12 +2781,12 @@
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>I couldn’t see the stage well because there was a tall man sitting in front of me.</t>
+          <t>I couldn't see the stage well because there was a tall man sitting in front of me.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>be / t / . / in / front / tall / there / because / see / stage / I / the / well / a / sit / couldn / ’ / man / me / of</t>
+          <t>be / man / see / sit / . / n't / a / me / could / well / there / stage / of / in / tall / because / front / I / the</t>
         </is>
       </c>
       <c r="E107" s="1" t="n">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>. / you / this / must / finish / the / month / by / this / work / of / end</t>
+          <t>must / work / this / end / this / month / by / . / you / of / the / finish</t>
         </is>
       </c>
       <c r="E108" s="1" t="n">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>will / more / India / about / to / you / trip / tell / me / ? / your</t>
+          <t>tell / will / about / to / trip / India / me / ? / more / you / your</t>
         </is>
       </c>
       <c r="E109" s="1" t="n">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>by / students / school / . / come / to / many / train</t>
+          <t>come / . / train / to / school / by / many / students</t>
         </is>
       </c>
       <c r="E110" s="1" t="n">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>mother / . / makeup / not / her / without / a / mirror / on / put / can / my</t>
+          <t>on / can / put / makeup / without / mother / not / my / . / mirror / a / her</t>
         </is>
       </c>
       <c r="E111" s="1" t="n">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>the / . / in / 1915 / world / year / end / War / II</t>
+          <t>War / in / year / World / the / . / II / end / 1915</t>
         </is>
       </c>
       <c r="E112" s="1" t="n">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>people / to / volunteer / . / in / countries / poor / do / want / I / for / work / develop</t>
+          <t>in / poor / want / countries / develop / people / I / to / . / do / volunteer / work / for</t>
         </is>
       </c>
       <c r="E113" s="1" t="n">
@@ -2942,12 +2942,12 @@
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t>My mother’s watch is made in Switzerland.</t>
+          <t>My mother's watch was made in Switzerland.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>watch / in / s / be / Switzerland / mother / ’ / . / my / make</t>
+          <t>Switzerland / in / make / mother / watch / my / be / 's / .</t>
         </is>
       </c>
       <c r="E114" s="1" t="n">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>that / be / what / ? / make / bag / of</t>
+          <t>bag / be / that / make / of / ? / what</t>
         </is>
       </c>
       <c r="E115" s="1" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>. / make / things / many / be / petroleum / into</t>
+          <t>things / into / . / petroleum / be / make / many</t>
         </is>
       </c>
       <c r="E116" s="1" t="n">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
-          <t>I can’t believe that paper is made from plants.</t>
+          <t>I can't believe that paper is made from plants.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>from / make / I / . / can / be / t / believe / ’ / plants / that / paper</t>
+          <t>plants / make / paper / that / can / . / from / I / be / believe / not</t>
         </is>
       </c>
       <c r="E117" s="1" t="n">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>Let’s race to the top of the mountain.</t>
+          <t>Let's race to the top of the mountain.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>to / race / the / mountain / s / . / of / top / ’ / let / the</t>
+          <t>as / to / . / top / let / mountain / the / the / of / race</t>
         </is>
       </c>
       <c r="E118" s="1" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>? / be / cut / to / I / what / go / the / cheese</t>
+          <t>what / I / cheese / the / go / cut / be / to / ?</t>
         </is>
       </c>
       <c r="E119" s="1" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>. / be / black / women / all / dress / in / of</t>
+          <t>of / women / all / in / dress / be / black / .</t>
         </is>
       </c>
       <c r="E120" s="1" t="n">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="C121" s="1" t="inlineStr">
         <is>
-          <t>We cannot enter the park until nine o’clock.</t>
+          <t>We cannot enter the park until nine o'clock.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>until / park / clock / we / can / . / enter / the / nine / not / ’ / o</t>
+          <t>. / o'clock / park / not / we / enter / until / can / the / nine</t>
         </is>
       </c>
       <c r="E121" s="1" t="n">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>mountains / the / birds / the / fly / over / be / .</t>
+          <t>over / the / mountains / . / the / birds / fly / be</t>
         </is>
       </c>
       <c r="E122" s="1" t="n">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="C123" s="1" t="inlineStr">
         <is>
-          <t>It is raining hard. I don’t want to go out of the building.</t>
+          <t>It is raining hard. I don't want to go out of the building.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>hard / t / . / ’ / it / be / rain / building / want / I / of / go / . / don / out / to / the</t>
+          <t>of / rain / not / it / be / want / building / to / I / do / hard / go / out / . / the / .</t>
         </is>
       </c>
       <c r="E123" s="1" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>be / their / from / the / look / they / newcomers / at / . / behind / door</t>
+          <t>from / look / door / their / at / behind / . / the / newcomers / they / be</t>
         </is>
       </c>
       <c r="E124" s="1" t="n">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>river / children / and / run / jump / into / the / start / . / the</t>
+          <t>children / jump / the / . / run / start / and / river / the / into</t>
         </is>
       </c>
       <c r="E125" s="1" t="n">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="C126" s="1" t="inlineStr">
         <is>
-          <t>Let’s hope nothing like this will happen again.</t>
+          <t>Let's hope nothing like this will happen again.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>s / will / . / ’ / hope / let / this / again / nothing / like / happen</t>
+          <t>happen / as / let / nothing / again / will / hope / this / . / like</t>
         </is>
       </c>
       <c r="E126" s="1" t="n">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>? / you / do / do / what</t>
+          <t>? / what / do / do / you</t>
         </is>
       </c>
       <c r="E127" s="1" t="n">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>you / or / mineral / water / , / would / like / ? / which / tea</t>
+          <t>or / which / water / tea / mineral / would / ? / , / like / you</t>
         </is>
       </c>
       <c r="E128" s="1" t="n">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>you / work / ? / go / do / how / to</t>
+          <t>how / work / do / to / ? / go / you</t>
         </is>
       </c>
       <c r="E129" s="1" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>your / when / birthday / ? / be</t>
+          <t>? / when / your / birthday / be</t>
         </is>
       </c>
       <c r="E130" s="1" t="n">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>next / time / the / what / ? / do / come / bus</t>
+          <t>the / ? / time / next / bus / what / do / come</t>
         </is>
       </c>
       <c r="E131" s="1" t="n">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>York / he / stay / long / in / ? / how / do / New</t>
+          <t>? / New / he / in / do / York / long / stay / how</t>
         </is>
       </c>
       <c r="E132" s="1" t="n">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>the / way / do / man / which / ? / go</t>
+          <t>do / the / way / man / which / ? / go</t>
         </is>
       </c>
       <c r="E133" s="1" t="n">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>we / ? / where / now / be</t>
+          <t>? / where / we / now / be</t>
         </is>
       </c>
       <c r="E134" s="1" t="n">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="C135" s="1" t="inlineStr">
         <is>
-          <t>Didn’t you meet Jane at the station?</t>
+          <t>Didn't you meet Jane at the station?</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>the / didn / t / ? / at / Jane / station / meet / ’ / you</t>
+          <t>station / the / not / Jane / did / ? / you / at / meet</t>
         </is>
       </c>
       <c r="E135" s="1" t="n">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="C136" s="1" t="inlineStr">
         <is>
-          <t>He wasn’t born in Japan, was he?</t>
+          <t>He wasn't born in Japan, was he?</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>wasn / in / ? / bear / t / Japan / , / ’ / he / be / he</t>
+          <t>be / he / in / bear / not / Japan / he / , / be / ?</t>
         </is>
       </c>
       <c r="E136" s="1" t="n">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="C137" s="1" t="inlineStr">
         <is>
-          <t>I don’t have much time. How about you?</t>
+          <t>I don't have much time. How about you?</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>I / about / . / you / How / t / have / time / ’ / much / don / ?</t>
+          <t>much / I / time / . / have / you / how / do / ? / about / not</t>
         </is>
       </c>
       <c r="E137" s="1" t="n">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>? / what / like / teacher / new / the / math / be</t>
+          <t>teacher / like / new / math / what / be / ? / the</t>
         </is>
       </c>
       <c r="E138" s="1" t="n">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="C139" s="1" t="inlineStr">
         <is>
-          <t>Why don’t you ask her about it on the phone?</t>
+          <t>Why don't you ask her about it on the phone?</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>why / t / don / you / the / about / on / ask / it / her / ? / phone / ’</t>
+          <t>you / her / ask / the / not / ? / do / on / it / about / why / phone</t>
         </is>
       </c>
       <c r="E139" s="1" t="n">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="C140" s="1" t="inlineStr">
         <is>
-          <t>Maki and Dina are good friend aren’t they?</t>
+          <t>Maki and Dina are good friend aren't they?</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>aren / and / t / ’ / Dina / good / maki / they / be / friend / ?</t>
+          <t>good / Dina / ? / they / Maki / not / friend / be / and / be</t>
         </is>
       </c>
       <c r="E140" s="1" t="n">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>book / ? / how / the / find / he / do</t>
+          <t>how / book / ? / do / the / find / he</t>
         </is>
       </c>
       <c r="E141" s="1" t="n">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>why / like / this / they / song / ? / do</t>
+          <t>? / song / like / do / they / why / this</t>
         </is>
       </c>
       <c r="E142" s="1" t="n">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>know / I / to / ? / where / make / these / be / baskets / want</t>
+          <t>where / know / be / ? / I / to / these / want / baskets / make</t>
         </is>
       </c>
       <c r="E143" s="1" t="n">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>much / ? / me / tell / how / Yokohama / to / please / the / be / ticket</t>
+          <t>? / how / tell / me / be / ticket / much / Yokohama / please / the / to</t>
         </is>
       </c>
       <c r="E144" s="1" t="n">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>? / what / Dark / color / uniform / . / be / their / green</t>
+          <t>be / dark / what / their / ? / green / uniform / . / color</t>
         </is>
       </c>
       <c r="E145" s="1" t="n">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>museum / the / on / . / ? / to / take / from / foot / About / do / how / minutes / here / it / long / 10</t>
+          <t>long / to / from / about / minutes / take / ? / the / here / . / on / 10 / museum / it / how / foot / do</t>
         </is>
       </c>
       <c r="E146" s="1" t="n">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>problem / be / Nobody / able / to / solve / the / who / ? / .</t>
+          <t>solve / who / be / nobody / ? / . / the / to / problem / able</t>
         </is>
       </c>
       <c r="E147" s="1" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>about / go / Why / Saturday / ? / next / not / the / to / ? / how / movies</t>
+          <t>next / how / to / ? / why / movies / about / the / ? / go / not / Saturday</t>
         </is>
       </c>
       <c r="E148" s="1" t="n">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>town / move / friend / best / be / another / be / you / My / so / ? / sad / . / why / to</t>
+          <t>why / to / ? / you / town / my / friend / move / sad / another / be / so / be / . / best</t>
         </is>
       </c>
       <c r="E149" s="1" t="n">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>new / what / ? / their / house / like / be</t>
+          <t>like / ? / house / be / what / new / their</t>
         </is>
       </c>
       <c r="E150" s="1" t="n">
@@ -3793,12 +3793,12 @@
       </c>
       <c r="C151" s="1" t="inlineStr">
         <is>
-          <t>Why isn’t Jack playing on this team?</t>
+          <t>Why isn't Jack playing on this team?</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>this / ’ / playing / Jack / on / why / t / isn / ? / team</t>
+          <t>why / ? / be / this / team / Jack / n't / play / on</t>
         </is>
       </c>
       <c r="E151" s="1" t="n">
@@ -3816,12 +3816,12 @@
       </c>
       <c r="C152" s="1" t="inlineStr">
         <is>
-          <t>The meeting does start until 10 o’clock, doesn’t it?</t>
+          <t>The meeting does start until 10 o'clock, doesn't it?</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>10 / start / until / doesn / ’ / , / t / clock / it / meeting / ? / the / ’ / do / o</t>
+          <t>do / 10 / , / it / do / meeting / not / o'clock / until / the / start / ?</t>
         </is>
       </c>
       <c r="E152" s="1" t="n">
@@ -3839,12 +3839,12 @@
       </c>
       <c r="C153" s="1" t="inlineStr">
         <is>
-          <t>Why don’t we invite Bob and Naomi to the barbecue?</t>
+          <t>Why don't we invite Bob and Naomi to the barbecue?</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>don / Bob / the / and / to / t / ? / we / why / Naomi / invite / ’ / barbecue</t>
+          <t>Bob / not / why / barbecue / to / the / and / ? / Naomi / do / invite / we</t>
         </is>
       </c>
       <c r="E153" s="1" t="n">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>for / the / me / hold / will / door / ? / , / you</t>
+          <t>, / you / will / the / for / door / hold / me / ?</t>
         </is>
       </c>
       <c r="E154" s="1" t="n">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>think / come / from / where / do / you / he / ?</t>
+          <t>from / think / ? / he / come / do / where / you</t>
         </is>
       </c>
       <c r="E155" s="1" t="n">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>the / think / game / would / I / to / he / come / .</t>
+          <t>come / . / game / would / I / think / to / he / the</t>
         </is>
       </c>
       <c r="E156" s="1" t="n">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>know / ? / the / mine / bicycle / you / be / did / that</t>
+          <t>? / know / mine / the / that / bicycle / did / be / you</t>
         </is>
       </c>
       <c r="E157" s="1" t="n">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>we / down / found / that / . / the / out / tree / have / fall</t>
+          <t>out / . / tree / found / down / have / fall / we / the / that</t>
         </is>
       </c>
       <c r="E158" s="1" t="n">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>that / company / he / john / Japanese / for / work / a / say / .</t>
+          <t>work / for / he / say / John / company / a / . / japanese / that</t>
         </is>
       </c>
       <c r="E159" s="1" t="n">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>speak / . / say / very / Chinese / well / you / that / you</t>
+          <t>you / speak / chinese / you / . / that / well / very / say</t>
         </is>
       </c>
       <c r="E160" s="1" t="n">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>. / say / would / school / her / her / drive / cindy / brother / that / to</t>
+          <t>would / drive / say / that / school / Cindy / her / . / her / brother / to</t>
         </is>
       </c>
       <c r="E161" s="1" t="n">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>that / really / he / to / always / . / students / be / lucky / teacher / say / good / have / our</t>
+          <t>. / good / be / teacher / that / have / really / to / students / he / lucky / our / always / say</t>
         </is>
       </c>
       <c r="E162" s="1" t="n">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>he / tell / that / mathematics / us / . / teach / us / mr.yasuda / would</t>
+          <t>us / would / that / Mr.Yasuda / he / teach / . / mathematics / tell / us</t>
         </is>
       </c>
       <c r="E163" s="1" t="n">
@@ -4092,12 +4092,12 @@
       </c>
       <c r="C164" s="1" t="inlineStr">
         <is>
-          <t>The boy said to the soccer player, “ I have always wanted to talk to him.”</t>
+          <t>The boy said to the soccer player, " I have always wanted to talk to you."</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>to / to / always / ” / player / “ / the / have / say / boy / to / I / , / . / soccer / him / talk / want / the</t>
+          <t>to / say / boy / to / to / the / have / soccer / , / the / you / I / . / want / player / talk / `` / always / ''</t>
         </is>
       </c>
       <c r="E164" s="1" t="n">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>the / paper / dog / . / the / girl / her / her / bring / news / tell / to</t>
+          <t>the / dog / her / bring / paper / her / tell / news / the / . / girl / to</t>
         </is>
       </c>
       <c r="E165" s="1" t="n">
@@ -4138,12 +4138,12 @@
       </c>
       <c r="C166" s="1" t="inlineStr">
         <is>
-          <t>The tourist said to the conductor, “Please tell me the way to the hotel.”</t>
+          <t>The tourist said to the conductor, "Please tell me the way to the hotel."</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>tourist / conductor / “ / to / to / , / me / Please / hotel / tell / the / say / the / ” / the / way / . / the</t>
+          <t>me / hotel / '' / way / to / tell / the / please / the / conductor / . / tourist / , / `` / the / the / say / to</t>
         </is>
       </c>
       <c r="E166" s="1" t="n">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="C167" s="1" t="inlineStr">
         <is>
-          <t>The old man always says to us “How are you?”</t>
+          <t>The old man always says to us "How are you?"</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>How / you / ” / say / us / ? / man / old / always / to / the / “ / be</t>
+          <t>to / always / us / old / how / man / be / `` / you / ? / the / '' / say</t>
         </is>
       </c>
       <c r="E167" s="1" t="n">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>my / be / have / me / I / where / ask / mother / ?</t>
+          <t>be / have / I / ask / mother / my / ? / where / me</t>
         </is>
       </c>
       <c r="E168" s="1" t="n">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>that / the / man / next / say / day / would / delivery / back / the / he / come / .</t>
+          <t>the / man / say / would / come / delivery / . / back / next / he / the / day / that</t>
         </is>
       </c>
       <c r="E169" s="1" t="n">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>teacher / the / that / before / . / a / day / tell / he / the / him / good / have / do / job</t>
+          <t>him / do / day / teacher / the / tell / good / before / . / a / job / the / have / that / he</t>
         </is>
       </c>
       <c r="E170" s="1" t="n">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>me / meet / next / ask / her / the / . / the / to / there / woman / morning</t>
+          <t>meet / me / to / her / next / woman / the / . / the / morning / there / ask</t>
         </is>
       </c>
       <c r="E171" s="1" t="n">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="C172" s="1" t="inlineStr">
         <is>
-          <t>The villager asked him why he hadn’t came to work the previous week?</t>
+          <t>The villager asked him why he hadn't came to work the previous week?</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>him / villager / he / the / come / previous / why / ? / ask / ’ / t / work / hadn / week / to / the</t>
+          <t>come / work / the / have / week / him / the / previous / villager / why / ask / ? / n't / to / he</t>
         </is>
       </c>
       <c r="E172" s="1" t="n">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="C173" s="1" t="inlineStr">
         <is>
-          <t>The students said to the woman “We are going to stay at this hotel tonight.</t>
+          <t>The students said to the woman "We are going to stay at this hotel tonight.</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>the / this / to / We / at / students / to / tonight / . / be / stay / go / the / “ / say / woman / hotel</t>
+          <t>we / . / go / `` / say / this / stay / the / to / tonight / woman / students / the / at / hotel / be / to</t>
         </is>
       </c>
       <c r="E173" s="1" t="n">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="C174" s="1" t="inlineStr">
         <is>
-          <t>I didn’t know you were a friend of the famous writer.</t>
+          <t>I didn't know you were a friend of the famous writer.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>writer / famous / t / friend / be / . / I / the / ’ / you / a / of / didn / know</t>
+          <t>the / be / I / . / do / famous / writer / you / know / a / friend / not / of</t>
         </is>
       </c>
       <c r="E174" s="1" t="n">
@@ -4345,12 +4345,12 @@
       </c>
       <c r="C175" s="1" t="inlineStr">
         <is>
-          <t>I didn’t know you were a friend of the famous writer.</t>
+          <t>I didn't know you were a friend of the famous writer.</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>t / ’ / a / writer / be / didn / the / famous / you / know / I / friend / . / of</t>
+          <t>be / of / do / a / not / you / . / famous / friend / the / writer / know / I</t>
         </is>
       </c>
       <c r="E175" s="1" t="n">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ask / the / if / early / teacher / . / home / could / student / go / the / he</t>
+          <t>the / if / . / go / he / ask / could / early / teacher / student / home / the</t>
         </is>
       </c>
       <c r="E176" s="1" t="n">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>he / the / man / arrive / ask / old / when / his / . / grandson</t>
+          <t>ask / his / when / old / the / man / he / . / grandson / arrive</t>
         </is>
       </c>
       <c r="E177" s="1" t="n">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>tell / stay / there / police / men / the / officer / . / to / the / young</t>
+          <t>the / to / officer / men / stay / tell / there / young / police / the / .</t>
         </is>
       </c>
       <c r="E178" s="1" t="n">
